--- a/주간업무계획표_개발.xlsx
+++ b/주간업무계획표_개발.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>주간업무계획</t>
   </si>
@@ -30,13 +30,7 @@
     <t>부서명</t>
   </si>
   <si>
-    <t>SM 팀</t>
-  </si>
-  <si>
     <t>작성자</t>
-  </si>
-  <si>
-    <t>차호진</t>
   </si>
   <si>
     <t>■ 금주 업무 진행 계획</t>
@@ -46,9 +40,6 @@
   </si>
   <si>
     <t>프로젝트</t>
-  </si>
-  <si>
-    <t>금주 예정업무</t>
   </si>
   <si>
     <t>완료
@@ -78,10 +69,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>전주 업무결과</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>안지호</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -94,7 +81,35 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>2017년 3월 3주차</t>
+    <t>2017년 12월 2주차</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB 팀</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>금주 업무결과</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>차주 예정업무</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존사이트 유지보수</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발파트</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -380,11 +395,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -442,41 +503,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,9 +522,76 @@
     <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -800,17 +901,17 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF9900FF"/>
   </sheetPr>
-  <dimension ref="A1:H949"/>
+  <dimension ref="A1:H955"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E18" sqref="E18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="55" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="6" width="40.28515625" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" customWidth="1"/>
@@ -820,52 +921,52 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>22</v>
+      <c r="G1" s="25" t="s">
+        <v>18</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
+      <c r="G3" s="23" t="s">
+        <v>25</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -875,9 +976,9 @@
     <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -887,213 +988,227 @@
     <row r="6" spans="1:8" ht="23.25" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>18</v>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="99.95" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="99.95" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="99.95" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="17">
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="18">
+      <c r="C19" s="40"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="18">
         <v>2</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17">
+      <c r="C20" s="36"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" ht="6" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75">
+      <c r="C21" s="40"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="6" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" ht="12.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1103,7 +1218,7 @@
     <row r="24" spans="1:8" ht="12.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1113,7 +1228,7 @@
     <row r="25" spans="1:8" ht="12.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1123,7 +1238,7 @@
     <row r="26" spans="1:8" ht="12.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1133,7 +1248,7 @@
     <row r="27" spans="1:8" ht="12.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1143,7 +1258,7 @@
     <row r="28" spans="1:8" ht="12.75">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1153,7 +1268,7 @@
     <row r="29" spans="1:8" ht="12.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1163,7 +1278,7 @@
     <row r="30" spans="1:8" ht="12.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1173,7 +1288,7 @@
     <row r="31" spans="1:8" ht="12.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1183,7 +1298,7 @@
     <row r="32" spans="1:8" ht="12.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1193,7 +1308,7 @@
     <row r="33" spans="1:8" ht="12.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1203,7 +1318,7 @@
     <row r="34" spans="1:8" ht="12.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1213,7 +1328,7 @@
     <row r="35" spans="1:8" ht="12.75">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1223,7 +1338,7 @@
     <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1233,7 +1348,7 @@
     <row r="37" spans="1:8" ht="12.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1243,7 +1358,7 @@
     <row r="38" spans="1:8" ht="12.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1253,7 +1368,7 @@
     <row r="39" spans="1:8" ht="12.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1263,7 +1378,7 @@
     <row r="40" spans="1:8" ht="12.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1273,7 +1388,7 @@
     <row r="41" spans="1:8" ht="12.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1283,57 +1398,57 @@
     <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="14.1">
+    <row r="43" spans="1:8" ht="12.75">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="14.1">
+    <row r="44" spans="1:8" ht="12.75">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="14.1">
+    <row r="45" spans="1:8" ht="12.75">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="14.1">
+    <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="14.1">
+    <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1343,37 +1458,37 @@
     <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="14.1">
+    <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="14.1">
+    <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="14.1">
+    <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1383,37 +1498,37 @@
     <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="14.1">
+    <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="14.1">
+    <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="14.1">
+    <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -1423,7 +1538,7 @@
     <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1433,7 +1548,7 @@
     <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -1443,7 +1558,7 @@
     <row r="58" spans="1:8" ht="12.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1453,7 +1568,7 @@
     <row r="59" spans="1:8" ht="12.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1463,7 +1578,7 @@
     <row r="60" spans="1:8" ht="12.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1473,7 +1588,7 @@
     <row r="61" spans="1:8" ht="12.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1483,7 +1598,7 @@
     <row r="62" spans="1:8" ht="12.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1493,7 +1608,7 @@
     <row r="63" spans="1:8" ht="12.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1503,7 +1618,7 @@
     <row r="64" spans="1:8" ht="12.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -1513,7 +1628,7 @@
     <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1523,7 +1638,7 @@
     <row r="66" spans="1:8" ht="12.75">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -1533,7 +1648,7 @@
     <row r="67" spans="1:8" ht="12.75">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -1543,7 +1658,7 @@
     <row r="68" spans="1:8" ht="12.75">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -1553,7 +1668,7 @@
     <row r="69" spans="1:8" ht="12.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -1563,7 +1678,7 @@
     <row r="70" spans="1:8" ht="12.75">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -1573,7 +1688,7 @@
     <row r="71" spans="1:8" ht="12.75">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -1583,7 +1698,7 @@
     <row r="72" spans="1:8" ht="12.75">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -1593,7 +1708,7 @@
     <row r="73" spans="1:8" ht="12.75">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -1603,7 +1718,7 @@
     <row r="74" spans="1:8" ht="12.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -1613,7 +1728,7 @@
     <row r="75" spans="1:8" ht="12.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -1623,7 +1738,7 @@
     <row r="76" spans="1:8" ht="12.75">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -1633,7 +1748,7 @@
     <row r="77" spans="1:8" ht="12.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -1643,7 +1758,7 @@
     <row r="78" spans="1:8" ht="12.75">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -1653,7 +1768,7 @@
     <row r="79" spans="1:8" ht="12.75">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -1663,7 +1778,7 @@
     <row r="80" spans="1:8" ht="12.75">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -1673,7 +1788,7 @@
     <row r="81" spans="1:8" ht="12.75">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="C81" s="54"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -1683,7 +1798,7 @@
     <row r="82" spans="1:8" ht="12.75">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -1693,7 +1808,7 @@
     <row r="83" spans="1:8" ht="12.75">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -1703,7 +1818,7 @@
     <row r="84" spans="1:8" ht="12.75">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -1713,7 +1828,7 @@
     <row r="85" spans="1:8" ht="12.75">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -1723,7 +1838,7 @@
     <row r="86" spans="1:8" ht="12.75">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -1733,7 +1848,7 @@
     <row r="87" spans="1:8" ht="12.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -1743,7 +1858,7 @@
     <row r="88" spans="1:8" ht="12.75">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -1753,7 +1868,7 @@
     <row r="89" spans="1:8" ht="12.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -1763,7 +1878,7 @@
     <row r="90" spans="1:8" ht="12.75">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="C90" s="54"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -1773,7 +1888,7 @@
     <row r="91" spans="1:8" ht="12.75">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -1783,7 +1898,7 @@
     <row r="92" spans="1:8" ht="12.75">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="C92" s="54"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -1793,7 +1908,7 @@
     <row r="93" spans="1:8" ht="12.75">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -1803,7 +1918,7 @@
     <row r="94" spans="1:8" ht="12.75">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -1813,7 +1928,7 @@
     <row r="95" spans="1:8" ht="12.75">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -1823,7 +1938,7 @@
     <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="C96" s="54"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -1833,7 +1948,7 @@
     <row r="97" spans="1:8" ht="12.75">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="C97" s="54"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -1843,7 +1958,7 @@
     <row r="98" spans="1:8" ht="12.75">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="C98" s="54"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -1853,7 +1968,7 @@
     <row r="99" spans="1:8" ht="12.75">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -1863,7 +1978,7 @@
     <row r="100" spans="1:8" ht="12.75">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="C100" s="54"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -1873,7 +1988,7 @@
     <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="C101" s="54"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -1883,7 +1998,7 @@
     <row r="102" spans="1:8" ht="12.75">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="C102" s="54"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -1893,7 +2008,7 @@
     <row r="103" spans="1:8" ht="12.75">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="C103" s="54"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -1903,7 +2018,7 @@
     <row r="104" spans="1:8" ht="12.75">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="C104" s="54"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -1913,7 +2028,7 @@
     <row r="105" spans="1:8" ht="12.75">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="C105" s="54"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -1923,7 +2038,7 @@
     <row r="106" spans="1:8" ht="12.75">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="C106" s="54"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -1933,7 +2048,7 @@
     <row r="107" spans="1:8" ht="12.75">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -1943,7 +2058,7 @@
     <row r="108" spans="1:8" ht="12.75">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -1953,7 +2068,7 @@
     <row r="109" spans="1:8" ht="12.75">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="C109" s="54"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -1963,7 +2078,7 @@
     <row r="110" spans="1:8" ht="12.75">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="C110" s="54"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -1973,7 +2088,7 @@
     <row r="111" spans="1:8" ht="12.75">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="C111" s="54"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -1983,7 +2098,7 @@
     <row r="112" spans="1:8" ht="12.75">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
+      <c r="C112" s="54"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -1993,7 +2108,7 @@
     <row r="113" spans="1:8" ht="12.75">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="C113" s="54"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -2003,7 +2118,7 @@
     <row r="114" spans="1:8" ht="12.75">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="C114" s="54"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -2013,7 +2128,7 @@
     <row r="115" spans="1:8" ht="12.75">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+      <c r="C115" s="54"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -2023,7 +2138,7 @@
     <row r="116" spans="1:8" ht="12.75">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="C116" s="54"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -2033,7 +2148,7 @@
     <row r="117" spans="1:8" ht="12.75">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="C117" s="54"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -2043,7 +2158,7 @@
     <row r="118" spans="1:8" ht="12.75">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -2053,7 +2168,7 @@
     <row r="119" spans="1:8" ht="12.75">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="C119" s="54"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -2063,7 +2178,7 @@
     <row r="120" spans="1:8" ht="12.75">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="C120" s="54"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -2073,7 +2188,7 @@
     <row r="121" spans="1:8" ht="12.75">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+      <c r="C121" s="54"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -2083,7 +2198,7 @@
     <row r="122" spans="1:8" ht="12.75">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="C122" s="54"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -2093,7 +2208,7 @@
     <row r="123" spans="1:8" ht="12.75">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+      <c r="C123" s="54"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -2103,7 +2218,7 @@
     <row r="124" spans="1:8" ht="12.75">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="C124" s="54"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -2113,7 +2228,7 @@
     <row r="125" spans="1:8" ht="12.75">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -2123,7 +2238,7 @@
     <row r="126" spans="1:8" ht="12.75">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="C126" s="54"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -2133,7 +2248,7 @@
     <row r="127" spans="1:8" ht="12.75">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="C127" s="54"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -2143,7 +2258,7 @@
     <row r="128" spans="1:8" ht="12.75">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="C128" s="54"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -2153,7 +2268,7 @@
     <row r="129" spans="1:8" ht="12.75">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="C129" s="54"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -2163,7 +2278,7 @@
     <row r="130" spans="1:8" ht="12.75">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+      <c r="C130" s="54"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -2173,7 +2288,7 @@
     <row r="131" spans="1:8" ht="12.75">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+      <c r="C131" s="54"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -2183,7 +2298,7 @@
     <row r="132" spans="1:8" ht="12.75">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+      <c r="C132" s="54"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -2193,7 +2308,7 @@
     <row r="133" spans="1:8" ht="12.75">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="C133" s="54"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -2203,7 +2318,7 @@
     <row r="134" spans="1:8" ht="12.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
+      <c r="C134" s="54"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -2213,7 +2328,7 @@
     <row r="135" spans="1:8" ht="12.75">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="C135" s="54"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -2223,7 +2338,7 @@
     <row r="136" spans="1:8" ht="12.75">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="C136" s="54"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -2233,7 +2348,7 @@
     <row r="137" spans="1:8" ht="12.75">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="C137" s="54"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -2243,7 +2358,7 @@
     <row r="138" spans="1:8" ht="12.75">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="C138" s="54"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -2253,7 +2368,7 @@
     <row r="139" spans="1:8" ht="12.75">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+      <c r="C139" s="54"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -2263,7 +2378,7 @@
     <row r="140" spans="1:8" ht="12.75">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+      <c r="C140" s="54"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -2273,7 +2388,7 @@
     <row r="141" spans="1:8" ht="12.75">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="C141" s="54"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -2283,7 +2398,7 @@
     <row r="142" spans="1:8" ht="12.75">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="C142" s="54"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -2293,7 +2408,7 @@
     <row r="143" spans="1:8" ht="12.75">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="C143" s="54"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -2303,7 +2418,7 @@
     <row r="144" spans="1:8" ht="12.75">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+      <c r="C144" s="54"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -2313,7 +2428,7 @@
     <row r="145" spans="1:8" ht="12.75">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="C145" s="54"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -2323,7 +2438,7 @@
     <row r="146" spans="1:8" ht="12.75">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
+      <c r="C146" s="54"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -2333,7 +2448,7 @@
     <row r="147" spans="1:8" ht="12.75">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="C147" s="54"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -2343,7 +2458,7 @@
     <row r="148" spans="1:8" ht="12.75">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
+      <c r="C148" s="54"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -2353,7 +2468,7 @@
     <row r="149" spans="1:8" ht="12.75">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="C149" s="54"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -2363,7 +2478,7 @@
     <row r="150" spans="1:8" ht="12.75">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
+      <c r="C150" s="54"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -2373,7 +2488,7 @@
     <row r="151" spans="1:8" ht="12.75">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="C151" s="54"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -2383,7 +2498,7 @@
     <row r="152" spans="1:8" ht="12.75">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+      <c r="C152" s="54"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -2393,7 +2508,7 @@
     <row r="153" spans="1:8" ht="12.75">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
+      <c r="C153" s="54"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -2403,7 +2518,7 @@
     <row r="154" spans="1:8" ht="12.75">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="C154" s="54"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -2413,7 +2528,7 @@
     <row r="155" spans="1:8" ht="12.75">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="C155" s="54"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -2423,7 +2538,7 @@
     <row r="156" spans="1:8" ht="12.75">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="C156" s="54"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -2433,7 +2548,7 @@
     <row r="157" spans="1:8" ht="12.75">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="C157" s="54"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -2443,7 +2558,7 @@
     <row r="158" spans="1:8" ht="12.75">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
+      <c r="C158" s="54"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -2453,7 +2568,7 @@
     <row r="159" spans="1:8" ht="12.75">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+      <c r="C159" s="54"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -2463,7 +2578,7 @@
     <row r="160" spans="1:8" ht="12.75">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="C160" s="54"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -2473,7 +2588,7 @@
     <row r="161" spans="1:8" ht="12.75">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="C161" s="54"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -2483,7 +2598,7 @@
     <row r="162" spans="1:8" ht="12.75">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="C162" s="54"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -2493,7 +2608,7 @@
     <row r="163" spans="1:8" ht="12.75">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="C163" s="54"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -2503,7 +2618,7 @@
     <row r="164" spans="1:8" ht="12.75">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="C164" s="54"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -2513,7 +2628,7 @@
     <row r="165" spans="1:8" ht="12.75">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="C165" s="54"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -2523,7 +2638,7 @@
     <row r="166" spans="1:8" ht="12.75">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="C166" s="54"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -2533,7 +2648,7 @@
     <row r="167" spans="1:8" ht="12.75">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="C167" s="54"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -2543,7 +2658,7 @@
     <row r="168" spans="1:8" ht="12.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="C168" s="54"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -2553,7 +2668,7 @@
     <row r="169" spans="1:8" ht="12.75">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
+      <c r="C169" s="54"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -2563,7 +2678,7 @@
     <row r="170" spans="1:8" ht="12.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="C170" s="54"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -2573,7 +2688,7 @@
     <row r="171" spans="1:8" ht="12.75">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="C171" s="54"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -2583,7 +2698,7 @@
     <row r="172" spans="1:8" ht="12.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="C172" s="54"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -2593,7 +2708,7 @@
     <row r="173" spans="1:8" ht="12.75">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
+      <c r="C173" s="54"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -2603,7 +2718,7 @@
     <row r="174" spans="1:8" ht="12.75">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="C174" s="54"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -2613,7 +2728,7 @@
     <row r="175" spans="1:8" ht="12.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="C175" s="54"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -2623,7 +2738,7 @@
     <row r="176" spans="1:8" ht="12.75">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="C176" s="54"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -2633,7 +2748,7 @@
     <row r="177" spans="1:8" ht="12.75">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="C177" s="54"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -2643,7 +2758,7 @@
     <row r="178" spans="1:8" ht="12.75">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="C178" s="54"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -2653,7 +2768,7 @@
     <row r="179" spans="1:8" ht="12.75">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+      <c r="C179" s="54"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -2663,7 +2778,7 @@
     <row r="180" spans="1:8" ht="12.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
+      <c r="C180" s="54"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -2673,7 +2788,7 @@
     <row r="181" spans="1:8" ht="12.75">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="C181" s="54"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -2683,7 +2798,7 @@
     <row r="182" spans="1:8" ht="12.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="C182" s="54"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -2693,7 +2808,7 @@
     <row r="183" spans="1:8" ht="12.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="C183" s="54"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -2703,7 +2818,7 @@
     <row r="184" spans="1:8" ht="12.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="C184" s="54"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -2713,7 +2828,7 @@
     <row r="185" spans="1:8" ht="12.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="C185" s="54"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -2723,7 +2838,7 @@
     <row r="186" spans="1:8" ht="12.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+      <c r="C186" s="54"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -2733,7 +2848,7 @@
     <row r="187" spans="1:8" ht="12.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
+      <c r="C187" s="54"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -2743,7 +2858,7 @@
     <row r="188" spans="1:8" ht="12.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="C188" s="54"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -2753,7 +2868,7 @@
     <row r="189" spans="1:8" ht="12.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+      <c r="C189" s="54"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -2763,7 +2878,7 @@
     <row r="190" spans="1:8" ht="12.75">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+      <c r="C190" s="54"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -2773,7 +2888,7 @@
     <row r="191" spans="1:8" ht="12.75">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
+      <c r="C191" s="54"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -2783,7 +2898,7 @@
     <row r="192" spans="1:8" ht="12.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
+      <c r="C192" s="54"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -2793,7 +2908,7 @@
     <row r="193" spans="1:8" ht="12.75">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
+      <c r="C193" s="54"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -2803,7 +2918,7 @@
     <row r="194" spans="1:8" ht="12.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
+      <c r="C194" s="54"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -2813,7 +2928,7 @@
     <row r="195" spans="1:8" ht="12.75">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
+      <c r="C195" s="54"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -2823,7 +2938,7 @@
     <row r="196" spans="1:8" ht="12.75">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
+      <c r="C196" s="54"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -2833,7 +2948,7 @@
     <row r="197" spans="1:8" ht="12.75">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
+      <c r="C197" s="54"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -2843,7 +2958,7 @@
     <row r="198" spans="1:8" ht="12.75">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+      <c r="C198" s="54"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -2853,7 +2968,7 @@
     <row r="199" spans="1:8" ht="12.75">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
+      <c r="C199" s="54"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -2863,7 +2978,7 @@
     <row r="200" spans="1:8" ht="12.75">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
+      <c r="C200" s="54"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -2873,7 +2988,7 @@
     <row r="201" spans="1:8" ht="12.75">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
+      <c r="C201" s="54"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -2883,7 +2998,7 @@
     <row r="202" spans="1:8" ht="12.75">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
+      <c r="C202" s="54"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -2893,7 +3008,7 @@
     <row r="203" spans="1:8" ht="12.75">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
+      <c r="C203" s="54"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -2903,7 +3018,7 @@
     <row r="204" spans="1:8" ht="12.75">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
+      <c r="C204" s="54"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -2913,7 +3028,7 @@
     <row r="205" spans="1:8" ht="12.75">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
+      <c r="C205" s="54"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -2923,7 +3038,7 @@
     <row r="206" spans="1:8" ht="12.75">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
+      <c r="C206" s="54"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -2933,7 +3048,7 @@
     <row r="207" spans="1:8" ht="12.75">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
+      <c r="C207" s="54"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -2943,7 +3058,7 @@
     <row r="208" spans="1:8" ht="12.75">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
+      <c r="C208" s="54"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -2953,7 +3068,7 @@
     <row r="209" spans="1:8" ht="12.75">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
+      <c r="C209" s="54"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -2963,7 +3078,7 @@
     <row r="210" spans="1:8" ht="12.75">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
+      <c r="C210" s="54"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
@@ -2973,7 +3088,7 @@
     <row r="211" spans="1:8" ht="12.75">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
+      <c r="C211" s="54"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -2983,7 +3098,7 @@
     <row r="212" spans="1:8" ht="12.75">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
+      <c r="C212" s="54"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -2993,7 +3108,7 @@
     <row r="213" spans="1:8" ht="12.75">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
+      <c r="C213" s="54"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -3003,7 +3118,7 @@
     <row r="214" spans="1:8" ht="12.75">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
+      <c r="C214" s="54"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -3013,7 +3128,7 @@
     <row r="215" spans="1:8" ht="12.75">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
+      <c r="C215" s="54"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -3023,7 +3138,7 @@
     <row r="216" spans="1:8" ht="12.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
+      <c r="C216" s="54"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -3033,7 +3148,7 @@
     <row r="217" spans="1:8" ht="12.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
+      <c r="C217" s="54"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -3043,7 +3158,7 @@
     <row r="218" spans="1:8" ht="12.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
+      <c r="C218" s="54"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -3053,7 +3168,7 @@
     <row r="219" spans="1:8" ht="12.75">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+      <c r="C219" s="54"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -3063,7 +3178,7 @@
     <row r="220" spans="1:8" ht="12.75">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
+      <c r="C220" s="54"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -3073,7 +3188,7 @@
     <row r="221" spans="1:8" ht="12.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
+      <c r="C221" s="54"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
@@ -3083,7 +3198,7 @@
     <row r="222" spans="1:8" ht="12.75">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
+      <c r="C222" s="54"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -3093,7 +3208,7 @@
     <row r="223" spans="1:8" ht="12.75">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
+      <c r="C223" s="54"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -3103,7 +3218,7 @@
     <row r="224" spans="1:8" ht="12.75">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
+      <c r="C224" s="54"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
@@ -3113,7 +3228,7 @@
     <row r="225" spans="1:8" ht="12.75">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
+      <c r="C225" s="54"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
@@ -3123,7 +3238,7 @@
     <row r="226" spans="1:8" ht="12.75">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+      <c r="C226" s="54"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -3133,7 +3248,7 @@
     <row r="227" spans="1:8" ht="12.75">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
+      <c r="C227" s="54"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -3143,7 +3258,7 @@
     <row r="228" spans="1:8" ht="12.75">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
+      <c r="C228" s="54"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
@@ -3153,7 +3268,7 @@
     <row r="229" spans="1:8" ht="12.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
+      <c r="C229" s="54"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -3163,7 +3278,7 @@
     <row r="230" spans="1:8" ht="12.75">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
+      <c r="C230" s="54"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -3173,7 +3288,7 @@
     <row r="231" spans="1:8" ht="12.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
+      <c r="C231" s="54"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -3183,7 +3298,7 @@
     <row r="232" spans="1:8" ht="12.75">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
+      <c r="C232" s="54"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -3193,7 +3308,7 @@
     <row r="233" spans="1:8" ht="12.75">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
+      <c r="C233" s="54"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -3203,7 +3318,7 @@
     <row r="234" spans="1:8" ht="12.75">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
+      <c r="C234" s="54"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
@@ -3213,7 +3328,7 @@
     <row r="235" spans="1:8" ht="12.75">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
+      <c r="C235" s="54"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -3223,7 +3338,7 @@
     <row r="236" spans="1:8" ht="12.75">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
+      <c r="C236" s="54"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -3233,7 +3348,7 @@
     <row r="237" spans="1:8" ht="12.75">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
+      <c r="C237" s="54"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
@@ -3243,7 +3358,7 @@
     <row r="238" spans="1:8" ht="12.75">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
+      <c r="C238" s="54"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -3253,7 +3368,7 @@
     <row r="239" spans="1:8" ht="12.75">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
+      <c r="C239" s="54"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -3263,7 +3378,7 @@
     <row r="240" spans="1:8" ht="12.75">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
+      <c r="C240" s="54"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
@@ -3273,7 +3388,7 @@
     <row r="241" spans="1:8" ht="12.75">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
+      <c r="C241" s="54"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -3283,7 +3398,7 @@
     <row r="242" spans="1:8" ht="12.75">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
+      <c r="C242" s="54"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -3293,7 +3408,7 @@
     <row r="243" spans="1:8" ht="12.75">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
+      <c r="C243" s="54"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -3303,7 +3418,7 @@
     <row r="244" spans="1:8" ht="12.75">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
+      <c r="C244" s="54"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -3313,7 +3428,7 @@
     <row r="245" spans="1:8" ht="12.75">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
+      <c r="C245" s="54"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -3323,7 +3438,7 @@
     <row r="246" spans="1:8" ht="12.75">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
+      <c r="C246" s="54"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -3333,7 +3448,7 @@
     <row r="247" spans="1:8" ht="12.75">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
+      <c r="C247" s="54"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -3343,7 +3458,7 @@
     <row r="248" spans="1:8" ht="12.75">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
+      <c r="C248" s="54"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -3353,7 +3468,7 @@
     <row r="249" spans="1:8" ht="12.75">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
+      <c r="C249" s="54"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -3363,7 +3478,7 @@
     <row r="250" spans="1:8" ht="12.75">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
+      <c r="C250" s="54"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -3373,7 +3488,7 @@
     <row r="251" spans="1:8" ht="12.75">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
+      <c r="C251" s="54"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -3383,7 +3498,7 @@
     <row r="252" spans="1:8" ht="12.75">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
+      <c r="C252" s="54"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -3393,7 +3508,7 @@
     <row r="253" spans="1:8" ht="12.75">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
+      <c r="C253" s="54"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -3403,7 +3518,7 @@
     <row r="254" spans="1:8" ht="12.75">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
+      <c r="C254" s="54"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -3413,7 +3528,7 @@
     <row r="255" spans="1:8" ht="12.75">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
+      <c r="C255" s="54"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -3423,7 +3538,7 @@
     <row r="256" spans="1:8" ht="12.75">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
+      <c r="C256" s="54"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -3433,7 +3548,7 @@
     <row r="257" spans="1:8" ht="12.75">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
+      <c r="C257" s="54"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -3443,7 +3558,7 @@
     <row r="258" spans="1:8" ht="12.75">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
+      <c r="C258" s="54"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
@@ -3453,7 +3568,7 @@
     <row r="259" spans="1:8" ht="12.75">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
+      <c r="C259" s="54"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
@@ -3463,7 +3578,7 @@
     <row r="260" spans="1:8" ht="12.75">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
+      <c r="C260" s="54"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
@@ -3473,7 +3588,7 @@
     <row r="261" spans="1:8" ht="12.75">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
+      <c r="C261" s="54"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -3483,7 +3598,7 @@
     <row r="262" spans="1:8" ht="12.75">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
+      <c r="C262" s="54"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
@@ -3493,7 +3608,7 @@
     <row r="263" spans="1:8" ht="12.75">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
+      <c r="C263" s="54"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
@@ -3503,7 +3618,7 @@
     <row r="264" spans="1:8" ht="12.75">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
+      <c r="C264" s="54"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
@@ -3513,7 +3628,7 @@
     <row r="265" spans="1:8" ht="12.75">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
+      <c r="C265" s="54"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
@@ -3523,7 +3638,7 @@
     <row r="266" spans="1:8" ht="12.75">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
+      <c r="C266" s="54"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -3533,7 +3648,7 @@
     <row r="267" spans="1:8" ht="12.75">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
+      <c r="C267" s="54"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
@@ -3543,7 +3658,7 @@
     <row r="268" spans="1:8" ht="12.75">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
+      <c r="C268" s="54"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -3553,7 +3668,7 @@
     <row r="269" spans="1:8" ht="12.75">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
+      <c r="C269" s="54"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
@@ -3563,7 +3678,7 @@
     <row r="270" spans="1:8" ht="12.75">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
+      <c r="C270" s="54"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
@@ -3573,7 +3688,7 @@
     <row r="271" spans="1:8" ht="12.75">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
+      <c r="C271" s="54"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
@@ -3583,7 +3698,7 @@
     <row r="272" spans="1:8" ht="12.75">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
+      <c r="C272" s="54"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
@@ -3593,7 +3708,7 @@
     <row r="273" spans="1:8" ht="12.75">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
+      <c r="C273" s="54"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
@@ -3603,7 +3718,7 @@
     <row r="274" spans="1:8" ht="12.75">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
+      <c r="C274" s="54"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -3613,7 +3728,7 @@
     <row r="275" spans="1:8" ht="12.75">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
+      <c r="C275" s="54"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
@@ -3623,7 +3738,7 @@
     <row r="276" spans="1:8" ht="12.75">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
+      <c r="C276" s="54"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -3633,7 +3748,7 @@
     <row r="277" spans="1:8" ht="12.75">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
+      <c r="C277" s="54"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
@@ -3643,7 +3758,7 @@
     <row r="278" spans="1:8" ht="12.75">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
+      <c r="C278" s="54"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
@@ -3653,7 +3768,7 @@
     <row r="279" spans="1:8" ht="12.75">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
+      <c r="C279" s="54"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
@@ -3663,7 +3778,7 @@
     <row r="280" spans="1:8" ht="12.75">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
+      <c r="C280" s="54"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
@@ -3673,7 +3788,7 @@
     <row r="281" spans="1:8" ht="12.75">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
+      <c r="C281" s="54"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
@@ -3683,7 +3798,7 @@
     <row r="282" spans="1:8" ht="12.75">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
+      <c r="C282" s="54"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -3693,7 +3808,7 @@
     <row r="283" spans="1:8" ht="12.75">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
+      <c r="C283" s="54"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
@@ -3703,7 +3818,7 @@
     <row r="284" spans="1:8" ht="12.75">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+      <c r="C284" s="54"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
@@ -3713,7 +3828,7 @@
     <row r="285" spans="1:8" ht="12.75">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
+      <c r="C285" s="54"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -3723,7 +3838,7 @@
     <row r="286" spans="1:8" ht="12.75">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
+      <c r="C286" s="54"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -3733,7 +3848,7 @@
     <row r="287" spans="1:8" ht="12.75">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
+      <c r="C287" s="54"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -3743,7 +3858,7 @@
     <row r="288" spans="1:8" ht="12.75">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
+      <c r="C288" s="54"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
@@ -3753,7 +3868,7 @@
     <row r="289" spans="1:8" ht="12.75">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
+      <c r="C289" s="54"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
@@ -3763,7 +3878,7 @@
     <row r="290" spans="1:8" ht="12.75">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
+      <c r="C290" s="54"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
@@ -3773,7 +3888,7 @@
     <row r="291" spans="1:8" ht="12.75">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
+      <c r="C291" s="54"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
@@ -3783,7 +3898,7 @@
     <row r="292" spans="1:8" ht="12.75">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
+      <c r="C292" s="54"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
@@ -3793,7 +3908,7 @@
     <row r="293" spans="1:8" ht="12.75">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
+      <c r="C293" s="54"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
@@ -3803,7 +3918,7 @@
     <row r="294" spans="1:8" ht="12.75">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
+      <c r="C294" s="54"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -3813,7 +3928,7 @@
     <row r="295" spans="1:8" ht="12.75">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
+      <c r="C295" s="54"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
@@ -3823,7 +3938,7 @@
     <row r="296" spans="1:8" ht="12.75">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
+      <c r="C296" s="54"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
@@ -3833,7 +3948,7 @@
     <row r="297" spans="1:8" ht="12.75">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
+      <c r="C297" s="54"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
@@ -3843,7 +3958,7 @@
     <row r="298" spans="1:8" ht="12.75">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
+      <c r="C298" s="54"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
@@ -3853,7 +3968,7 @@
     <row r="299" spans="1:8" ht="12.75">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
+      <c r="C299" s="54"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
@@ -3863,7 +3978,7 @@
     <row r="300" spans="1:8" ht="12.75">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
+      <c r="C300" s="54"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
@@ -3873,7 +3988,7 @@
     <row r="301" spans="1:8" ht="12.75">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
+      <c r="C301" s="54"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
@@ -3883,7 +3998,7 @@
     <row r="302" spans="1:8" ht="12.75">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
+      <c r="C302" s="54"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
@@ -3893,7 +4008,7 @@
     <row r="303" spans="1:8" ht="12.75">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
+      <c r="C303" s="54"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
@@ -3903,7 +4018,7 @@
     <row r="304" spans="1:8" ht="12.75">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
+      <c r="C304" s="54"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -3913,7 +4028,7 @@
     <row r="305" spans="1:8" ht="12.75">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
+      <c r="C305" s="54"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
@@ -3923,7 +4038,7 @@
     <row r="306" spans="1:8" ht="12.75">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
+      <c r="C306" s="54"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -3933,7 +4048,7 @@
     <row r="307" spans="1:8" ht="12.75">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
+      <c r="C307" s="54"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
@@ -3943,7 +4058,7 @@
     <row r="308" spans="1:8" ht="12.75">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
-      <c r="C308" s="1"/>
+      <c r="C308" s="54"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
@@ -3953,7 +4068,7 @@
     <row r="309" spans="1:8" ht="12.75">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
+      <c r="C309" s="54"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
@@ -3963,7 +4078,7 @@
     <row r="310" spans="1:8" ht="12.75">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
+      <c r="C310" s="54"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
@@ -3973,7 +4088,7 @@
     <row r="311" spans="1:8" ht="12.75">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
-      <c r="C311" s="1"/>
+      <c r="C311" s="54"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
@@ -3983,7 +4098,7 @@
     <row r="312" spans="1:8" ht="12.75">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
+      <c r="C312" s="54"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
@@ -3993,7 +4108,7 @@
     <row r="313" spans="1:8" ht="12.75">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
+      <c r="C313" s="54"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
@@ -4003,7 +4118,7 @@
     <row r="314" spans="1:8" ht="12.75">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
-      <c r="C314" s="1"/>
+      <c r="C314" s="54"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
@@ -4013,7 +4128,7 @@
     <row r="315" spans="1:8" ht="12.75">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
+      <c r="C315" s="54"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
@@ -4023,7 +4138,7 @@
     <row r="316" spans="1:8" ht="12.75">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
+      <c r="C316" s="54"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
@@ -4033,7 +4148,7 @@
     <row r="317" spans="1:8" ht="12.75">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
-      <c r="C317" s="1"/>
+      <c r="C317" s="54"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
@@ -4043,7 +4158,7 @@
     <row r="318" spans="1:8" ht="12.75">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
+      <c r="C318" s="54"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
@@ -4053,7 +4168,7 @@
     <row r="319" spans="1:8" ht="12.75">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
+      <c r="C319" s="54"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
@@ -4063,7 +4178,7 @@
     <row r="320" spans="1:8" ht="12.75">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
-      <c r="C320" s="1"/>
+      <c r="C320" s="54"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
@@ -4073,7 +4188,7 @@
     <row r="321" spans="1:8" ht="12.75">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
+      <c r="C321" s="54"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
@@ -4083,7 +4198,7 @@
     <row r="322" spans="1:8" ht="12.75">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
+      <c r="C322" s="54"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
@@ -4093,7 +4208,7 @@
     <row r="323" spans="1:8" ht="12.75">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
-      <c r="C323" s="1"/>
+      <c r="C323" s="54"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
@@ -4103,7 +4218,7 @@
     <row r="324" spans="1:8" ht="12.75">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
+      <c r="C324" s="54"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
@@ -4113,7 +4228,7 @@
     <row r="325" spans="1:8" ht="12.75">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
+      <c r="C325" s="54"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
@@ -4123,7 +4238,7 @@
     <row r="326" spans="1:8" ht="12.75">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
+      <c r="C326" s="54"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -4133,7 +4248,7 @@
     <row r="327" spans="1:8" ht="12.75">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
+      <c r="C327" s="54"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
@@ -4143,7 +4258,7 @@
     <row r="328" spans="1:8" ht="12.75">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
+      <c r="C328" s="54"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
@@ -4153,7 +4268,7 @@
     <row r="329" spans="1:8" ht="12.75">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
+      <c r="C329" s="54"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
@@ -4163,7 +4278,7 @@
     <row r="330" spans="1:8" ht="12.75">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
+      <c r="C330" s="54"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
@@ -4173,7 +4288,7 @@
     <row r="331" spans="1:8" ht="12.75">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
+      <c r="C331" s="54"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
@@ -4183,7 +4298,7 @@
     <row r="332" spans="1:8" ht="12.75">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
+      <c r="C332" s="54"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
@@ -4193,7 +4308,7 @@
     <row r="333" spans="1:8" ht="12.75">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
+      <c r="C333" s="54"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
@@ -4203,7 +4318,7 @@
     <row r="334" spans="1:8" ht="12.75">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
+      <c r="C334" s="54"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
@@ -4213,7 +4328,7 @@
     <row r="335" spans="1:8" ht="12.75">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
+      <c r="C335" s="54"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
@@ -4223,7 +4338,7 @@
     <row r="336" spans="1:8" ht="12.75">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
+      <c r="C336" s="54"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
@@ -4233,7 +4348,7 @@
     <row r="337" spans="1:8" ht="12.75">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
+      <c r="C337" s="54"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
@@ -4243,7 +4358,7 @@
     <row r="338" spans="1:8" ht="12.75">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
+      <c r="C338" s="54"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
@@ -4253,7 +4368,7 @@
     <row r="339" spans="1:8" ht="12.75">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
+      <c r="C339" s="54"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
@@ -4263,7 +4378,7 @@
     <row r="340" spans="1:8" ht="12.75">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
+      <c r="C340" s="54"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
@@ -4273,7 +4388,7 @@
     <row r="341" spans="1:8" ht="12.75">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
+      <c r="C341" s="54"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
@@ -4283,7 +4398,7 @@
     <row r="342" spans="1:8" ht="12.75">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
+      <c r="C342" s="54"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
@@ -4293,7 +4408,7 @@
     <row r="343" spans="1:8" ht="12.75">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
+      <c r="C343" s="54"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
@@ -4303,7 +4418,7 @@
     <row r="344" spans="1:8" ht="12.75">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
+      <c r="C344" s="54"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
@@ -4313,7 +4428,7 @@
     <row r="345" spans="1:8" ht="12.75">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
+      <c r="C345" s="54"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
@@ -4323,7 +4438,7 @@
     <row r="346" spans="1:8" ht="12.75">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
+      <c r="C346" s="54"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
@@ -4333,7 +4448,7 @@
     <row r="347" spans="1:8" ht="12.75">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
+      <c r="C347" s="54"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
@@ -4343,7 +4458,7 @@
     <row r="348" spans="1:8" ht="12.75">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
+      <c r="C348" s="54"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
@@ -4353,7 +4468,7 @@
     <row r="349" spans="1:8" ht="12.75">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
+      <c r="C349" s="54"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -4363,7 +4478,7 @@
     <row r="350" spans="1:8" ht="12.75">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
+      <c r="C350" s="54"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
@@ -4373,7 +4488,7 @@
     <row r="351" spans="1:8" ht="12.75">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
+      <c r="C351" s="54"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
@@ -4383,7 +4498,7 @@
     <row r="352" spans="1:8" ht="12.75">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
+      <c r="C352" s="54"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
@@ -4393,7 +4508,7 @@
     <row r="353" spans="1:8" ht="12.75">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
+      <c r="C353" s="54"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
@@ -4403,7 +4518,7 @@
     <row r="354" spans="1:8" ht="12.75">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
+      <c r="C354" s="54"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
@@ -4413,7 +4528,7 @@
     <row r="355" spans="1:8" ht="12.75">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
+      <c r="C355" s="54"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
@@ -4423,7 +4538,7 @@
     <row r="356" spans="1:8" ht="12.75">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
+      <c r="C356" s="54"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
@@ -4433,7 +4548,7 @@
     <row r="357" spans="1:8" ht="12.75">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
+      <c r="C357" s="54"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
@@ -4443,7 +4558,7 @@
     <row r="358" spans="1:8" ht="12.75">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
+      <c r="C358" s="54"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
@@ -4453,7 +4568,7 @@
     <row r="359" spans="1:8" ht="12.75">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
+      <c r="C359" s="54"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -4463,7 +4578,7 @@
     <row r="360" spans="1:8" ht="12.75">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
+      <c r="C360" s="54"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
@@ -4473,7 +4588,7 @@
     <row r="361" spans="1:8" ht="12.75">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
+      <c r="C361" s="54"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
@@ -4483,7 +4598,7 @@
     <row r="362" spans="1:8" ht="12.75">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
+      <c r="C362" s="54"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
@@ -4493,7 +4608,7 @@
     <row r="363" spans="1:8" ht="12.75">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
-      <c r="C363" s="1"/>
+      <c r="C363" s="54"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
@@ -4503,7 +4618,7 @@
     <row r="364" spans="1:8" ht="12.75">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
+      <c r="C364" s="54"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
@@ -4513,7 +4628,7 @@
     <row r="365" spans="1:8" ht="12.75">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
+      <c r="C365" s="54"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
@@ -4523,7 +4638,7 @@
     <row r="366" spans="1:8" ht="12.75">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
+      <c r="C366" s="54"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
@@ -4533,7 +4648,7 @@
     <row r="367" spans="1:8" ht="12.75">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
+      <c r="C367" s="54"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -4543,7 +4658,7 @@
     <row r="368" spans="1:8" ht="12.75">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
+      <c r="C368" s="54"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
@@ -4553,7 +4668,7 @@
     <row r="369" spans="1:8" ht="12.75">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
-      <c r="C369" s="1"/>
+      <c r="C369" s="54"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
@@ -4563,7 +4678,7 @@
     <row r="370" spans="1:8" ht="12.75">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
-      <c r="C370" s="1"/>
+      <c r="C370" s="54"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
@@ -4573,7 +4688,7 @@
     <row r="371" spans="1:8" ht="12.75">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
-      <c r="C371" s="1"/>
+      <c r="C371" s="54"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
@@ -4583,7 +4698,7 @@
     <row r="372" spans="1:8" ht="12.75">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
-      <c r="C372" s="1"/>
+      <c r="C372" s="54"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
@@ -4593,7 +4708,7 @@
     <row r="373" spans="1:8" ht="12.75">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
-      <c r="C373" s="1"/>
+      <c r="C373" s="54"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
@@ -4603,7 +4718,7 @@
     <row r="374" spans="1:8" ht="12.75">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
-      <c r="C374" s="1"/>
+      <c r="C374" s="54"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
@@ -4613,7 +4728,7 @@
     <row r="375" spans="1:8" ht="12.75">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
-      <c r="C375" s="1"/>
+      <c r="C375" s="54"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
@@ -4623,7 +4738,7 @@
     <row r="376" spans="1:8" ht="12.75">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
-      <c r="C376" s="1"/>
+      <c r="C376" s="54"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
@@ -4633,7 +4748,7 @@
     <row r="377" spans="1:8" ht="12.75">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
-      <c r="C377" s="1"/>
+      <c r="C377" s="54"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -4643,7 +4758,7 @@
     <row r="378" spans="1:8" ht="12.75">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
-      <c r="C378" s="1"/>
+      <c r="C378" s="54"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
@@ -4653,7 +4768,7 @@
     <row r="379" spans="1:8" ht="12.75">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
-      <c r="C379" s="1"/>
+      <c r="C379" s="54"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
@@ -4663,7 +4778,7 @@
     <row r="380" spans="1:8" ht="12.75">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
-      <c r="C380" s="1"/>
+      <c r="C380" s="54"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
@@ -4673,7 +4788,7 @@
     <row r="381" spans="1:8" ht="12.75">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
-      <c r="C381" s="1"/>
+      <c r="C381" s="54"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
@@ -4683,7 +4798,7 @@
     <row r="382" spans="1:8" ht="12.75">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
-      <c r="C382" s="1"/>
+      <c r="C382" s="54"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
@@ -4693,7 +4808,7 @@
     <row r="383" spans="1:8" ht="12.75">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
-      <c r="C383" s="1"/>
+      <c r="C383" s="54"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
@@ -4703,7 +4818,7 @@
     <row r="384" spans="1:8" ht="12.75">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
-      <c r="C384" s="1"/>
+      <c r="C384" s="54"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
@@ -4713,7 +4828,7 @@
     <row r="385" spans="1:8" ht="12.75">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
+      <c r="C385" s="54"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
@@ -4723,7 +4838,7 @@
     <row r="386" spans="1:8" ht="12.75">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
-      <c r="C386" s="1"/>
+      <c r="C386" s="54"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
@@ -4733,7 +4848,7 @@
     <row r="387" spans="1:8" ht="12.75">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
-      <c r="C387" s="1"/>
+      <c r="C387" s="54"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -4743,7 +4858,7 @@
     <row r="388" spans="1:8" ht="12.75">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
-      <c r="C388" s="1"/>
+      <c r="C388" s="54"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
@@ -4753,7 +4868,7 @@
     <row r="389" spans="1:8" ht="12.75">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
+      <c r="C389" s="54"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
@@ -4763,7 +4878,7 @@
     <row r="390" spans="1:8" ht="12.75">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
-      <c r="C390" s="1"/>
+      <c r="C390" s="54"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
@@ -4773,7 +4888,7 @@
     <row r="391" spans="1:8" ht="12.75">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
+      <c r="C391" s="54"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -4783,7 +4898,7 @@
     <row r="392" spans="1:8" ht="12.75">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
+      <c r="C392" s="54"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
@@ -4793,7 +4908,7 @@
     <row r="393" spans="1:8" ht="12.75">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
+      <c r="C393" s="54"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
@@ -4803,7 +4918,7 @@
     <row r="394" spans="1:8" ht="12.75">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
+      <c r="C394" s="54"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
@@ -4813,7 +4928,7 @@
     <row r="395" spans="1:8" ht="12.75">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
+      <c r="C395" s="54"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
@@ -4823,7 +4938,7 @@
     <row r="396" spans="1:8" ht="12.75">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
-      <c r="C396" s="1"/>
+      <c r="C396" s="54"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
@@ -4833,7 +4948,7 @@
     <row r="397" spans="1:8" ht="12.75">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
+      <c r="C397" s="54"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
@@ -4843,7 +4958,7 @@
     <row r="398" spans="1:8" ht="12.75">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
-      <c r="C398" s="1"/>
+      <c r="C398" s="54"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
@@ -4853,7 +4968,7 @@
     <row r="399" spans="1:8" ht="12.75">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
-      <c r="C399" s="1"/>
+      <c r="C399" s="54"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -4863,7 +4978,7 @@
     <row r="400" spans="1:8" ht="12.75">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
-      <c r="C400" s="1"/>
+      <c r="C400" s="54"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
@@ -4873,7 +4988,7 @@
     <row r="401" spans="1:8" ht="12.75">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
-      <c r="C401" s="1"/>
+      <c r="C401" s="54"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
@@ -4883,7 +4998,7 @@
     <row r="402" spans="1:8" ht="12.75">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
-      <c r="C402" s="1"/>
+      <c r="C402" s="54"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
@@ -4893,7 +5008,7 @@
     <row r="403" spans="1:8" ht="12.75">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
+      <c r="C403" s="54"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
@@ -4903,7 +5018,7 @@
     <row r="404" spans="1:8" ht="12.75">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
-      <c r="C404" s="1"/>
+      <c r="C404" s="54"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
@@ -4913,7 +5028,7 @@
     <row r="405" spans="1:8" ht="12.75">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
+      <c r="C405" s="54"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
@@ -4923,7 +5038,7 @@
     <row r="406" spans="1:8" ht="12.75">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
-      <c r="C406" s="1"/>
+      <c r="C406" s="54"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
@@ -4933,7 +5048,7 @@
     <row r="407" spans="1:8" ht="12.75">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
-      <c r="C407" s="1"/>
+      <c r="C407" s="54"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -4943,7 +5058,7 @@
     <row r="408" spans="1:8" ht="12.75">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
-      <c r="C408" s="1"/>
+      <c r="C408" s="54"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
@@ -4953,7 +5068,7 @@
     <row r="409" spans="1:8" ht="12.75">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
+      <c r="C409" s="54"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
@@ -4963,7 +5078,7 @@
     <row r="410" spans="1:8" ht="12.75">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
-      <c r="C410" s="1"/>
+      <c r="C410" s="54"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
@@ -4973,7 +5088,7 @@
     <row r="411" spans="1:8" ht="12.75">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
+      <c r="C411" s="54"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
@@ -4983,7 +5098,7 @@
     <row r="412" spans="1:8" ht="12.75">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
+      <c r="C412" s="54"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
@@ -4993,7 +5108,7 @@
     <row r="413" spans="1:8" ht="12.75">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
-      <c r="C413" s="1"/>
+      <c r="C413" s="54"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
@@ -5003,7 +5118,7 @@
     <row r="414" spans="1:8" ht="12.75">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
+      <c r="C414" s="54"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
@@ -5013,7 +5128,7 @@
     <row r="415" spans="1:8" ht="12.75">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
-      <c r="C415" s="1"/>
+      <c r="C415" s="54"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
@@ -5023,7 +5138,7 @@
     <row r="416" spans="1:8" ht="12.75">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
+      <c r="C416" s="54"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
@@ -5033,7 +5148,7 @@
     <row r="417" spans="1:8" ht="12.75">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
+      <c r="C417" s="54"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
@@ -5043,7 +5158,7 @@
     <row r="418" spans="1:8" ht="12.75">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
-      <c r="C418" s="1"/>
+      <c r="C418" s="54"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
@@ -5053,7 +5168,7 @@
     <row r="419" spans="1:8" ht="12.75">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
-      <c r="C419" s="1"/>
+      <c r="C419" s="54"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
@@ -5063,7 +5178,7 @@
     <row r="420" spans="1:8" ht="12.75">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
-      <c r="C420" s="1"/>
+      <c r="C420" s="54"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
@@ -5073,7 +5188,7 @@
     <row r="421" spans="1:8" ht="12.75">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
-      <c r="C421" s="1"/>
+      <c r="C421" s="54"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
@@ -5083,7 +5198,7 @@
     <row r="422" spans="1:8" ht="12.75">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
-      <c r="C422" s="1"/>
+      <c r="C422" s="54"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
@@ -5093,7 +5208,7 @@
     <row r="423" spans="1:8" ht="12.75">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
-      <c r="C423" s="1"/>
+      <c r="C423" s="54"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
@@ -5103,7 +5218,7 @@
     <row r="424" spans="1:8" ht="12.75">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
-      <c r="C424" s="1"/>
+      <c r="C424" s="54"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
@@ -5113,7 +5228,7 @@
     <row r="425" spans="1:8" ht="12.75">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
-      <c r="C425" s="1"/>
+      <c r="C425" s="54"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
@@ -5123,7 +5238,7 @@
     <row r="426" spans="1:8" ht="12.75">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
-      <c r="C426" s="1"/>
+      <c r="C426" s="54"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
@@ -5133,7 +5248,7 @@
     <row r="427" spans="1:8" ht="12.75">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
-      <c r="C427" s="1"/>
+      <c r="C427" s="54"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
@@ -5143,7 +5258,7 @@
     <row r="428" spans="1:8" ht="12.75">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
-      <c r="C428" s="1"/>
+      <c r="C428" s="54"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
@@ -5153,7 +5268,7 @@
     <row r="429" spans="1:8" ht="12.75">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
-      <c r="C429" s="1"/>
+      <c r="C429" s="54"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
@@ -5163,7 +5278,7 @@
     <row r="430" spans="1:8" ht="12.75">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
-      <c r="C430" s="1"/>
+      <c r="C430" s="54"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
@@ -5173,7 +5288,7 @@
     <row r="431" spans="1:8" ht="12.75">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
-      <c r="C431" s="1"/>
+      <c r="C431" s="54"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
@@ -5183,7 +5298,7 @@
     <row r="432" spans="1:8" ht="12.75">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
-      <c r="C432" s="1"/>
+      <c r="C432" s="54"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
@@ -5193,7 +5308,7 @@
     <row r="433" spans="1:8" ht="12.75">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
-      <c r="C433" s="1"/>
+      <c r="C433" s="54"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
@@ -5203,7 +5318,7 @@
     <row r="434" spans="1:8" ht="12.75">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
-      <c r="C434" s="1"/>
+      <c r="C434" s="54"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
@@ -5213,7 +5328,7 @@
     <row r="435" spans="1:8" ht="12.75">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
-      <c r="C435" s="1"/>
+      <c r="C435" s="54"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
@@ -5223,7 +5338,7 @@
     <row r="436" spans="1:8" ht="12.75">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
-      <c r="C436" s="1"/>
+      <c r="C436" s="54"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
@@ -5233,7 +5348,7 @@
     <row r="437" spans="1:8" ht="12.75">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
-      <c r="C437" s="1"/>
+      <c r="C437" s="54"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
@@ -5243,7 +5358,7 @@
     <row r="438" spans="1:8" ht="12.75">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
-      <c r="C438" s="1"/>
+      <c r="C438" s="54"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
@@ -5253,7 +5368,7 @@
     <row r="439" spans="1:8" ht="12.75">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
-      <c r="C439" s="1"/>
+      <c r="C439" s="54"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
@@ -5263,7 +5378,7 @@
     <row r="440" spans="1:8" ht="12.75">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
-      <c r="C440" s="1"/>
+      <c r="C440" s="54"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
@@ -5273,7 +5388,7 @@
     <row r="441" spans="1:8" ht="12.75">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
-      <c r="C441" s="1"/>
+      <c r="C441" s="54"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
@@ -5283,7 +5398,7 @@
     <row r="442" spans="1:8" ht="12.75">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
-      <c r="C442" s="1"/>
+      <c r="C442" s="54"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
@@ -5293,7 +5408,7 @@
     <row r="443" spans="1:8" ht="12.75">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
-      <c r="C443" s="1"/>
+      <c r="C443" s="54"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
@@ -5303,7 +5418,7 @@
     <row r="444" spans="1:8" ht="12.75">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
-      <c r="C444" s="1"/>
+      <c r="C444" s="54"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
@@ -5313,7 +5428,7 @@
     <row r="445" spans="1:8" ht="12.75">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
-      <c r="C445" s="1"/>
+      <c r="C445" s="54"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
@@ -5323,7 +5438,7 @@
     <row r="446" spans="1:8" ht="12.75">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
-      <c r="C446" s="1"/>
+      <c r="C446" s="54"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
@@ -5333,7 +5448,7 @@
     <row r="447" spans="1:8" ht="12.75">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
-      <c r="C447" s="1"/>
+      <c r="C447" s="54"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
@@ -5343,7 +5458,7 @@
     <row r="448" spans="1:8" ht="12.75">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
-      <c r="C448" s="1"/>
+      <c r="C448" s="54"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
@@ -5353,7 +5468,7 @@
     <row r="449" spans="1:8" ht="12.75">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
-      <c r="C449" s="1"/>
+      <c r="C449" s="54"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
@@ -5363,7 +5478,7 @@
     <row r="450" spans="1:8" ht="12.75">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
-      <c r="C450" s="1"/>
+      <c r="C450" s="54"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
@@ -5373,7 +5488,7 @@
     <row r="451" spans="1:8" ht="12.75">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
-      <c r="C451" s="1"/>
+      <c r="C451" s="54"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
@@ -5383,7 +5498,7 @@
     <row r="452" spans="1:8" ht="12.75">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
-      <c r="C452" s="1"/>
+      <c r="C452" s="54"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
@@ -5393,7 +5508,7 @@
     <row r="453" spans="1:8" ht="12.75">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
-      <c r="C453" s="1"/>
+      <c r="C453" s="54"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
@@ -5403,7 +5518,7 @@
     <row r="454" spans="1:8" ht="12.75">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
-      <c r="C454" s="1"/>
+      <c r="C454" s="54"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
@@ -5413,7 +5528,7 @@
     <row r="455" spans="1:8" ht="12.75">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
-      <c r="C455" s="1"/>
+      <c r="C455" s="54"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
@@ -5423,7 +5538,7 @@
     <row r="456" spans="1:8" ht="12.75">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
-      <c r="C456" s="1"/>
+      <c r="C456" s="54"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
@@ -5433,7 +5548,7 @@
     <row r="457" spans="1:8" ht="12.75">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
-      <c r="C457" s="1"/>
+      <c r="C457" s="54"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
@@ -5443,7 +5558,7 @@
     <row r="458" spans="1:8" ht="12.75">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
-      <c r="C458" s="1"/>
+      <c r="C458" s="54"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
@@ -5453,7 +5568,7 @@
     <row r="459" spans="1:8" ht="12.75">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
-      <c r="C459" s="1"/>
+      <c r="C459" s="54"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
@@ -5463,7 +5578,7 @@
     <row r="460" spans="1:8" ht="12.75">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
-      <c r="C460" s="1"/>
+      <c r="C460" s="54"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
@@ -5473,7 +5588,7 @@
     <row r="461" spans="1:8" ht="12.75">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
-      <c r="C461" s="1"/>
+      <c r="C461" s="54"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
@@ -5483,7 +5598,7 @@
     <row r="462" spans="1:8" ht="12.75">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
-      <c r="C462" s="1"/>
+      <c r="C462" s="54"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
@@ -5493,7 +5608,7 @@
     <row r="463" spans="1:8" ht="12.75">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
-      <c r="C463" s="1"/>
+      <c r="C463" s="54"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
@@ -5503,7 +5618,7 @@
     <row r="464" spans="1:8" ht="12.75">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
-      <c r="C464" s="1"/>
+      <c r="C464" s="54"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
@@ -5513,7 +5628,7 @@
     <row r="465" spans="1:8" ht="12.75">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
-      <c r="C465" s="1"/>
+      <c r="C465" s="54"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
@@ -5523,7 +5638,7 @@
     <row r="466" spans="1:8" ht="12.75">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
-      <c r="C466" s="1"/>
+      <c r="C466" s="54"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
@@ -5533,7 +5648,7 @@
     <row r="467" spans="1:8" ht="12.75">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
-      <c r="C467" s="1"/>
+      <c r="C467" s="54"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
@@ -5543,7 +5658,7 @@
     <row r="468" spans="1:8" ht="12.75">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
-      <c r="C468" s="1"/>
+      <c r="C468" s="54"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
@@ -5553,7 +5668,7 @@
     <row r="469" spans="1:8" ht="12.75">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
-      <c r="C469" s="1"/>
+      <c r="C469" s="54"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
@@ -5563,7 +5678,7 @@
     <row r="470" spans="1:8" ht="12.75">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
-      <c r="C470" s="1"/>
+      <c r="C470" s="54"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
@@ -5573,7 +5688,7 @@
     <row r="471" spans="1:8" ht="12.75">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
-      <c r="C471" s="1"/>
+      <c r="C471" s="54"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
@@ -5583,7 +5698,7 @@
     <row r="472" spans="1:8" ht="12.75">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
-      <c r="C472" s="1"/>
+      <c r="C472" s="54"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
@@ -5593,7 +5708,7 @@
     <row r="473" spans="1:8" ht="12.75">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
-      <c r="C473" s="1"/>
+      <c r="C473" s="54"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
@@ -5603,7 +5718,7 @@
     <row r="474" spans="1:8" ht="12.75">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
-      <c r="C474" s="1"/>
+      <c r="C474" s="54"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
@@ -5613,7 +5728,7 @@
     <row r="475" spans="1:8" ht="12.75">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
-      <c r="C475" s="1"/>
+      <c r="C475" s="54"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
@@ -5623,7 +5738,7 @@
     <row r="476" spans="1:8" ht="12.75">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
-      <c r="C476" s="1"/>
+      <c r="C476" s="54"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
@@ -5633,7 +5748,7 @@
     <row r="477" spans="1:8" ht="12.75">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
-      <c r="C477" s="1"/>
+      <c r="C477" s="54"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
@@ -5643,7 +5758,7 @@
     <row r="478" spans="1:8" ht="12.75">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
-      <c r="C478" s="1"/>
+      <c r="C478" s="54"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
@@ -5653,7 +5768,7 @@
     <row r="479" spans="1:8" ht="12.75">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
-      <c r="C479" s="1"/>
+      <c r="C479" s="54"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
@@ -5663,7 +5778,7 @@
     <row r="480" spans="1:8" ht="12.75">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
-      <c r="C480" s="1"/>
+      <c r="C480" s="54"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
@@ -5673,7 +5788,7 @@
     <row r="481" spans="1:8" ht="12.75">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
-      <c r="C481" s="1"/>
+      <c r="C481" s="54"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
@@ -5683,7 +5798,7 @@
     <row r="482" spans="1:8" ht="12.75">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
-      <c r="C482" s="1"/>
+      <c r="C482" s="54"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
@@ -5693,7 +5808,7 @@
     <row r="483" spans="1:8" ht="12.75">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
-      <c r="C483" s="1"/>
+      <c r="C483" s="54"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
@@ -5703,7 +5818,7 @@
     <row r="484" spans="1:8" ht="12.75">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
-      <c r="C484" s="1"/>
+      <c r="C484" s="54"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
@@ -5713,7 +5828,7 @@
     <row r="485" spans="1:8" ht="12.75">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
-      <c r="C485" s="1"/>
+      <c r="C485" s="54"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
@@ -5723,7 +5838,7 @@
     <row r="486" spans="1:8" ht="12.75">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
-      <c r="C486" s="1"/>
+      <c r="C486" s="54"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
@@ -5733,7 +5848,7 @@
     <row r="487" spans="1:8" ht="12.75">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
-      <c r="C487" s="1"/>
+      <c r="C487" s="54"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
@@ -5743,7 +5858,7 @@
     <row r="488" spans="1:8" ht="12.75">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
-      <c r="C488" s="1"/>
+      <c r="C488" s="54"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
@@ -5753,7 +5868,7 @@
     <row r="489" spans="1:8" ht="12.75">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
-      <c r="C489" s="1"/>
+      <c r="C489" s="54"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
@@ -5763,7 +5878,7 @@
     <row r="490" spans="1:8" ht="12.75">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
-      <c r="C490" s="1"/>
+      <c r="C490" s="54"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
@@ -5773,7 +5888,7 @@
     <row r="491" spans="1:8" ht="12.75">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
-      <c r="C491" s="1"/>
+      <c r="C491" s="54"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
@@ -5783,7 +5898,7 @@
     <row r="492" spans="1:8" ht="12.75">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
-      <c r="C492" s="1"/>
+      <c r="C492" s="54"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
@@ -5793,7 +5908,7 @@
     <row r="493" spans="1:8" ht="12.75">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
-      <c r="C493" s="1"/>
+      <c r="C493" s="54"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
@@ -5803,7 +5918,7 @@
     <row r="494" spans="1:8" ht="12.75">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
-      <c r="C494" s="1"/>
+      <c r="C494" s="54"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
@@ -5813,7 +5928,7 @@
     <row r="495" spans="1:8" ht="12.75">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
-      <c r="C495" s="1"/>
+      <c r="C495" s="54"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
@@ -5823,7 +5938,7 @@
     <row r="496" spans="1:8" ht="12.75">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
-      <c r="C496" s="1"/>
+      <c r="C496" s="54"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
@@ -5833,7 +5948,7 @@
     <row r="497" spans="1:8" ht="12.75">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
-      <c r="C497" s="1"/>
+      <c r="C497" s="54"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
@@ -5843,7 +5958,7 @@
     <row r="498" spans="1:8" ht="12.75">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
-      <c r="C498" s="1"/>
+      <c r="C498" s="54"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
@@ -5853,7 +5968,7 @@
     <row r="499" spans="1:8" ht="12.75">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
-      <c r="C499" s="1"/>
+      <c r="C499" s="54"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
@@ -5863,7 +5978,7 @@
     <row r="500" spans="1:8" ht="12.75">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
-      <c r="C500" s="1"/>
+      <c r="C500" s="54"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
@@ -5873,7 +5988,7 @@
     <row r="501" spans="1:8" ht="12.75">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
-      <c r="C501" s="1"/>
+      <c r="C501" s="54"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
@@ -5883,7 +5998,7 @@
     <row r="502" spans="1:8" ht="12.75">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
-      <c r="C502" s="1"/>
+      <c r="C502" s="54"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
@@ -5893,7 +6008,7 @@
     <row r="503" spans="1:8" ht="12.75">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
-      <c r="C503" s="1"/>
+      <c r="C503" s="54"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
@@ -5903,7 +6018,7 @@
     <row r="504" spans="1:8" ht="12.75">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
-      <c r="C504" s="1"/>
+      <c r="C504" s="54"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
@@ -5913,7 +6028,7 @@
     <row r="505" spans="1:8" ht="12.75">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
-      <c r="C505" s="1"/>
+      <c r="C505" s="54"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
@@ -5923,7 +6038,7 @@
     <row r="506" spans="1:8" ht="12.75">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
-      <c r="C506" s="1"/>
+      <c r="C506" s="54"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
@@ -5933,7 +6048,7 @@
     <row r="507" spans="1:8" ht="12.75">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
-      <c r="C507" s="1"/>
+      <c r="C507" s="54"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
@@ -5943,7 +6058,7 @@
     <row r="508" spans="1:8" ht="12.75">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
-      <c r="C508" s="1"/>
+      <c r="C508" s="54"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
@@ -5953,7 +6068,7 @@
     <row r="509" spans="1:8" ht="12.75">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
-      <c r="C509" s="1"/>
+      <c r="C509" s="54"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
@@ -5963,7 +6078,7 @@
     <row r="510" spans="1:8" ht="12.75">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
-      <c r="C510" s="1"/>
+      <c r="C510" s="54"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
@@ -5973,7 +6088,7 @@
     <row r="511" spans="1:8" ht="12.75">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
-      <c r="C511" s="1"/>
+      <c r="C511" s="54"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
@@ -5983,7 +6098,7 @@
     <row r="512" spans="1:8" ht="12.75">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
-      <c r="C512" s="1"/>
+      <c r="C512" s="54"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
@@ -5993,7 +6108,7 @@
     <row r="513" spans="1:8" ht="12.75">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
-      <c r="C513" s="1"/>
+      <c r="C513" s="54"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
@@ -6003,7 +6118,7 @@
     <row r="514" spans="1:8" ht="12.75">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
-      <c r="C514" s="1"/>
+      <c r="C514" s="54"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
@@ -6013,7 +6128,7 @@
     <row r="515" spans="1:8" ht="12.75">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
-      <c r="C515" s="1"/>
+      <c r="C515" s="54"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
@@ -6023,7 +6138,7 @@
     <row r="516" spans="1:8" ht="12.75">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
-      <c r="C516" s="1"/>
+      <c r="C516" s="54"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
@@ -6033,7 +6148,7 @@
     <row r="517" spans="1:8" ht="12.75">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
-      <c r="C517" s="1"/>
+      <c r="C517" s="54"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
@@ -6043,7 +6158,7 @@
     <row r="518" spans="1:8" ht="12.75">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
-      <c r="C518" s="1"/>
+      <c r="C518" s="54"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
@@ -6053,7 +6168,7 @@
     <row r="519" spans="1:8" ht="12.75">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
-      <c r="C519" s="1"/>
+      <c r="C519" s="54"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
@@ -6063,7 +6178,7 @@
     <row r="520" spans="1:8" ht="12.75">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
-      <c r="C520" s="1"/>
+      <c r="C520" s="54"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
@@ -6073,7 +6188,7 @@
     <row r="521" spans="1:8" ht="12.75">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
-      <c r="C521" s="1"/>
+      <c r="C521" s="54"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
@@ -6083,7 +6198,7 @@
     <row r="522" spans="1:8" ht="12.75">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
-      <c r="C522" s="1"/>
+      <c r="C522" s="54"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
@@ -6093,7 +6208,7 @@
     <row r="523" spans="1:8" ht="12.75">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
-      <c r="C523" s="1"/>
+      <c r="C523" s="54"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
@@ -6103,7 +6218,7 @@
     <row r="524" spans="1:8" ht="12.75">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
-      <c r="C524" s="1"/>
+      <c r="C524" s="54"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
@@ -6113,7 +6228,7 @@
     <row r="525" spans="1:8" ht="12.75">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
-      <c r="C525" s="1"/>
+      <c r="C525" s="54"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
@@ -6123,7 +6238,7 @@
     <row r="526" spans="1:8" ht="12.75">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
-      <c r="C526" s="1"/>
+      <c r="C526" s="54"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
@@ -6133,7 +6248,7 @@
     <row r="527" spans="1:8" ht="12.75">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
-      <c r="C527" s="1"/>
+      <c r="C527" s="54"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
@@ -6143,7 +6258,7 @@
     <row r="528" spans="1:8" ht="12.75">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
-      <c r="C528" s="1"/>
+      <c r="C528" s="54"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
@@ -6153,7 +6268,7 @@
     <row r="529" spans="1:8" ht="12.75">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
-      <c r="C529" s="1"/>
+      <c r="C529" s="54"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
@@ -6163,7 +6278,7 @@
     <row r="530" spans="1:8" ht="12.75">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
-      <c r="C530" s="1"/>
+      <c r="C530" s="54"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
@@ -6173,7 +6288,7 @@
     <row r="531" spans="1:8" ht="12.75">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
-      <c r="C531" s="1"/>
+      <c r="C531" s="54"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
@@ -6183,7 +6298,7 @@
     <row r="532" spans="1:8" ht="12.75">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
-      <c r="C532" s="1"/>
+      <c r="C532" s="54"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
@@ -6193,7 +6308,7 @@
     <row r="533" spans="1:8" ht="12.75">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
-      <c r="C533" s="1"/>
+      <c r="C533" s="54"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
@@ -6203,7 +6318,7 @@
     <row r="534" spans="1:8" ht="12.75">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
-      <c r="C534" s="1"/>
+      <c r="C534" s="54"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
@@ -6213,7 +6328,7 @@
     <row r="535" spans="1:8" ht="12.75">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
-      <c r="C535" s="1"/>
+      <c r="C535" s="54"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
@@ -6223,7 +6338,7 @@
     <row r="536" spans="1:8" ht="12.75">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
-      <c r="C536" s="1"/>
+      <c r="C536" s="54"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
@@ -6233,7 +6348,7 @@
     <row r="537" spans="1:8" ht="12.75">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
-      <c r="C537" s="1"/>
+      <c r="C537" s="54"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
@@ -6243,7 +6358,7 @@
     <row r="538" spans="1:8" ht="12.75">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
-      <c r="C538" s="1"/>
+      <c r="C538" s="54"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
@@ -6253,7 +6368,7 @@
     <row r="539" spans="1:8" ht="12.75">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
-      <c r="C539" s="1"/>
+      <c r="C539" s="54"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
@@ -6263,7 +6378,7 @@
     <row r="540" spans="1:8" ht="12.75">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
-      <c r="C540" s="1"/>
+      <c r="C540" s="54"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
@@ -6273,7 +6388,7 @@
     <row r="541" spans="1:8" ht="12.75">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
-      <c r="C541" s="1"/>
+      <c r="C541" s="54"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
@@ -6283,7 +6398,7 @@
     <row r="542" spans="1:8" ht="12.75">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
-      <c r="C542" s="1"/>
+      <c r="C542" s="54"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
@@ -6293,7 +6408,7 @@
     <row r="543" spans="1:8" ht="12.75">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
-      <c r="C543" s="1"/>
+      <c r="C543" s="54"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
@@ -6303,7 +6418,7 @@
     <row r="544" spans="1:8" ht="12.75">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
-      <c r="C544" s="1"/>
+      <c r="C544" s="54"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
@@ -6313,7 +6428,7 @@
     <row r="545" spans="1:8" ht="12.75">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
-      <c r="C545" s="1"/>
+      <c r="C545" s="54"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
@@ -6323,7 +6438,7 @@
     <row r="546" spans="1:8" ht="12.75">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
-      <c r="C546" s="1"/>
+      <c r="C546" s="54"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
@@ -6333,7 +6448,7 @@
     <row r="547" spans="1:8" ht="12.75">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
-      <c r="C547" s="1"/>
+      <c r="C547" s="54"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
@@ -6343,7 +6458,7 @@
     <row r="548" spans="1:8" ht="12.75">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
-      <c r="C548" s="1"/>
+      <c r="C548" s="54"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
@@ -6353,7 +6468,7 @@
     <row r="549" spans="1:8" ht="12.75">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
-      <c r="C549" s="1"/>
+      <c r="C549" s="54"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
@@ -6363,7 +6478,7 @@
     <row r="550" spans="1:8" ht="12.75">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
-      <c r="C550" s="1"/>
+      <c r="C550" s="54"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
@@ -6373,7 +6488,7 @@
     <row r="551" spans="1:8" ht="12.75">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
-      <c r="C551" s="1"/>
+      <c r="C551" s="54"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
@@ -6383,7 +6498,7 @@
     <row r="552" spans="1:8" ht="12.75">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
-      <c r="C552" s="1"/>
+      <c r="C552" s="54"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
@@ -6393,7 +6508,7 @@
     <row r="553" spans="1:8" ht="12.75">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
-      <c r="C553" s="1"/>
+      <c r="C553" s="54"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
@@ -6403,7 +6518,7 @@
     <row r="554" spans="1:8" ht="12.75">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
-      <c r="C554" s="1"/>
+      <c r="C554" s="54"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
@@ -6413,7 +6528,7 @@
     <row r="555" spans="1:8" ht="12.75">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
-      <c r="C555" s="1"/>
+      <c r="C555" s="54"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
@@ -6423,7 +6538,7 @@
     <row r="556" spans="1:8" ht="12.75">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
-      <c r="C556" s="1"/>
+      <c r="C556" s="54"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
@@ -6433,7 +6548,7 @@
     <row r="557" spans="1:8" ht="12.75">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
-      <c r="C557" s="1"/>
+      <c r="C557" s="54"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
@@ -6443,7 +6558,7 @@
     <row r="558" spans="1:8" ht="12.75">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
-      <c r="C558" s="1"/>
+      <c r="C558" s="54"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
@@ -6453,7 +6568,7 @@
     <row r="559" spans="1:8" ht="12.75">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
-      <c r="C559" s="1"/>
+      <c r="C559" s="54"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
@@ -6463,7 +6578,7 @@
     <row r="560" spans="1:8" ht="12.75">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
-      <c r="C560" s="1"/>
+      <c r="C560" s="54"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
@@ -6473,7 +6588,7 @@
     <row r="561" spans="1:8" ht="12.75">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
-      <c r="C561" s="1"/>
+      <c r="C561" s="54"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
@@ -6483,7 +6598,7 @@
     <row r="562" spans="1:8" ht="12.75">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
-      <c r="C562" s="1"/>
+      <c r="C562" s="54"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
@@ -6493,7 +6608,7 @@
     <row r="563" spans="1:8" ht="12.75">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
-      <c r="C563" s="1"/>
+      <c r="C563" s="54"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
@@ -6503,7 +6618,7 @@
     <row r="564" spans="1:8" ht="12.75">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
-      <c r="C564" s="1"/>
+      <c r="C564" s="54"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
@@ -6513,7 +6628,7 @@
     <row r="565" spans="1:8" ht="12.75">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
-      <c r="C565" s="1"/>
+      <c r="C565" s="54"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
@@ -6523,7 +6638,7 @@
     <row r="566" spans="1:8" ht="12.75">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
-      <c r="C566" s="1"/>
+      <c r="C566" s="54"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
@@ -6533,7 +6648,7 @@
     <row r="567" spans="1:8" ht="12.75">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
-      <c r="C567" s="1"/>
+      <c r="C567" s="54"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
@@ -6543,7 +6658,7 @@
     <row r="568" spans="1:8" ht="12.75">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
-      <c r="C568" s="1"/>
+      <c r="C568" s="54"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
@@ -6553,7 +6668,7 @@
     <row r="569" spans="1:8" ht="12.75">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
-      <c r="C569" s="1"/>
+      <c r="C569" s="54"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
@@ -6563,7 +6678,7 @@
     <row r="570" spans="1:8" ht="12.75">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
-      <c r="C570" s="1"/>
+      <c r="C570" s="54"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
@@ -6573,7 +6688,7 @@
     <row r="571" spans="1:8" ht="12.75">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
-      <c r="C571" s="1"/>
+      <c r="C571" s="54"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
@@ -6583,7 +6698,7 @@
     <row r="572" spans="1:8" ht="12.75">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
-      <c r="C572" s="1"/>
+      <c r="C572" s="54"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
@@ -6593,7 +6708,7 @@
     <row r="573" spans="1:8" ht="12.75">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
-      <c r="C573" s="1"/>
+      <c r="C573" s="54"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
@@ -6603,7 +6718,7 @@
     <row r="574" spans="1:8" ht="12.75">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
-      <c r="C574" s="1"/>
+      <c r="C574" s="54"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
@@ -6613,7 +6728,7 @@
     <row r="575" spans="1:8" ht="12.75">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
-      <c r="C575" s="1"/>
+      <c r="C575" s="54"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
@@ -6623,7 +6738,7 @@
     <row r="576" spans="1:8" ht="12.75">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
-      <c r="C576" s="1"/>
+      <c r="C576" s="54"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
@@ -6633,7 +6748,7 @@
     <row r="577" spans="1:8" ht="12.75">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
-      <c r="C577" s="1"/>
+      <c r="C577" s="54"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
@@ -6643,7 +6758,7 @@
     <row r="578" spans="1:8" ht="12.75">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
-      <c r="C578" s="1"/>
+      <c r="C578" s="54"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
@@ -6653,7 +6768,7 @@
     <row r="579" spans="1:8" ht="12.75">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
-      <c r="C579" s="1"/>
+      <c r="C579" s="54"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
@@ -6663,7 +6778,7 @@
     <row r="580" spans="1:8" ht="12.75">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
-      <c r="C580" s="1"/>
+      <c r="C580" s="54"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
@@ -6673,7 +6788,7 @@
     <row r="581" spans="1:8" ht="12.75">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
-      <c r="C581" s="1"/>
+      <c r="C581" s="54"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
@@ -6683,7 +6798,7 @@
     <row r="582" spans="1:8" ht="12.75">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
-      <c r="C582" s="1"/>
+      <c r="C582" s="54"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
@@ -6693,7 +6808,7 @@
     <row r="583" spans="1:8" ht="12.75">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
-      <c r="C583" s="1"/>
+      <c r="C583" s="54"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
@@ -6703,7 +6818,7 @@
     <row r="584" spans="1:8" ht="12.75">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
-      <c r="C584" s="1"/>
+      <c r="C584" s="54"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
@@ -6713,7 +6828,7 @@
     <row r="585" spans="1:8" ht="12.75">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
-      <c r="C585" s="1"/>
+      <c r="C585" s="54"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
@@ -6723,7 +6838,7 @@
     <row r="586" spans="1:8" ht="12.75">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
-      <c r="C586" s="1"/>
+      <c r="C586" s="54"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
@@ -6733,7 +6848,7 @@
     <row r="587" spans="1:8" ht="12.75">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
-      <c r="C587" s="1"/>
+      <c r="C587" s="54"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
@@ -6743,7 +6858,7 @@
     <row r="588" spans="1:8" ht="12.75">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
-      <c r="C588" s="1"/>
+      <c r="C588" s="54"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
@@ -6753,7 +6868,7 @@
     <row r="589" spans="1:8" ht="12.75">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
-      <c r="C589" s="1"/>
+      <c r="C589" s="54"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
@@ -6763,7 +6878,7 @@
     <row r="590" spans="1:8" ht="12.75">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
-      <c r="C590" s="1"/>
+      <c r="C590" s="54"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
@@ -6773,7 +6888,7 @@
     <row r="591" spans="1:8" ht="12.75">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
-      <c r="C591" s="1"/>
+      <c r="C591" s="54"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
@@ -6783,7 +6898,7 @@
     <row r="592" spans="1:8" ht="12.75">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
-      <c r="C592" s="1"/>
+      <c r="C592" s="54"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
@@ -6793,7 +6908,7 @@
     <row r="593" spans="1:8" ht="12.75">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
-      <c r="C593" s="1"/>
+      <c r="C593" s="54"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
@@ -6803,7 +6918,7 @@
     <row r="594" spans="1:8" ht="12.75">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
-      <c r="C594" s="1"/>
+      <c r="C594" s="54"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
@@ -6813,7 +6928,7 @@
     <row r="595" spans="1:8" ht="12.75">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
-      <c r="C595" s="1"/>
+      <c r="C595" s="54"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
@@ -6823,7 +6938,7 @@
     <row r="596" spans="1:8" ht="12.75">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
-      <c r="C596" s="1"/>
+      <c r="C596" s="54"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
@@ -6833,7 +6948,7 @@
     <row r="597" spans="1:8" ht="12.75">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
-      <c r="C597" s="1"/>
+      <c r="C597" s="54"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
@@ -6843,7 +6958,7 @@
     <row r="598" spans="1:8" ht="12.75">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
-      <c r="C598" s="1"/>
+      <c r="C598" s="54"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
@@ -6853,7 +6968,7 @@
     <row r="599" spans="1:8" ht="12.75">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
-      <c r="C599" s="1"/>
+      <c r="C599" s="54"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
@@ -6863,7 +6978,7 @@
     <row r="600" spans="1:8" ht="12.75">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
-      <c r="C600" s="1"/>
+      <c r="C600" s="54"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
@@ -6873,7 +6988,7 @@
     <row r="601" spans="1:8" ht="12.75">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
-      <c r="C601" s="1"/>
+      <c r="C601" s="54"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
@@ -6883,7 +6998,7 @@
     <row r="602" spans="1:8" ht="12.75">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
-      <c r="C602" s="1"/>
+      <c r="C602" s="54"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
@@ -6893,7 +7008,7 @@
     <row r="603" spans="1:8" ht="12.75">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
-      <c r="C603" s="1"/>
+      <c r="C603" s="54"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
@@ -6903,7 +7018,7 @@
     <row r="604" spans="1:8" ht="12.75">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
-      <c r="C604" s="1"/>
+      <c r="C604" s="54"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
@@ -6913,7 +7028,7 @@
     <row r="605" spans="1:8" ht="12.75">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
-      <c r="C605" s="1"/>
+      <c r="C605" s="54"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
@@ -6923,7 +7038,7 @@
     <row r="606" spans="1:8" ht="12.75">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
-      <c r="C606" s="1"/>
+      <c r="C606" s="54"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
@@ -6933,7 +7048,7 @@
     <row r="607" spans="1:8" ht="12.75">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
-      <c r="C607" s="1"/>
+      <c r="C607" s="54"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
@@ -6943,7 +7058,7 @@
     <row r="608" spans="1:8" ht="12.75">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
-      <c r="C608" s="1"/>
+      <c r="C608" s="54"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
@@ -6953,7 +7068,7 @@
     <row r="609" spans="1:8" ht="12.75">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
-      <c r="C609" s="1"/>
+      <c r="C609" s="54"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
@@ -6963,7 +7078,7 @@
     <row r="610" spans="1:8" ht="12.75">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
-      <c r="C610" s="1"/>
+      <c r="C610" s="54"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
@@ -6973,7 +7088,7 @@
     <row r="611" spans="1:8" ht="12.75">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
-      <c r="C611" s="1"/>
+      <c r="C611" s="54"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
@@ -6983,7 +7098,7 @@
     <row r="612" spans="1:8" ht="12.75">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
-      <c r="C612" s="1"/>
+      <c r="C612" s="54"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
@@ -6993,7 +7108,7 @@
     <row r="613" spans="1:8" ht="12.75">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
-      <c r="C613" s="1"/>
+      <c r="C613" s="54"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
@@ -7003,7 +7118,7 @@
     <row r="614" spans="1:8" ht="12.75">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
-      <c r="C614" s="1"/>
+      <c r="C614" s="54"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
@@ -7013,7 +7128,7 @@
     <row r="615" spans="1:8" ht="12.75">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
-      <c r="C615" s="1"/>
+      <c r="C615" s="54"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
@@ -7023,7 +7138,7 @@
     <row r="616" spans="1:8" ht="12.75">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
-      <c r="C616" s="1"/>
+      <c r="C616" s="54"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
@@ -7033,7 +7148,7 @@
     <row r="617" spans="1:8" ht="12.75">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
-      <c r="C617" s="1"/>
+      <c r="C617" s="54"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
@@ -7043,7 +7158,7 @@
     <row r="618" spans="1:8" ht="12.75">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
-      <c r="C618" s="1"/>
+      <c r="C618" s="54"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
@@ -7053,7 +7168,7 @@
     <row r="619" spans="1:8" ht="12.75">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
-      <c r="C619" s="1"/>
+      <c r="C619" s="54"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
@@ -7063,7 +7178,7 @@
     <row r="620" spans="1:8" ht="12.75">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
-      <c r="C620" s="1"/>
+      <c r="C620" s="54"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
@@ -7073,7 +7188,7 @@
     <row r="621" spans="1:8" ht="12.75">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
-      <c r="C621" s="1"/>
+      <c r="C621" s="54"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
@@ -7083,7 +7198,7 @@
     <row r="622" spans="1:8" ht="12.75">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
-      <c r="C622" s="1"/>
+      <c r="C622" s="54"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
@@ -7093,7 +7208,7 @@
     <row r="623" spans="1:8" ht="12.75">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
-      <c r="C623" s="1"/>
+      <c r="C623" s="54"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
@@ -7103,7 +7218,7 @@
     <row r="624" spans="1:8" ht="12.75">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
-      <c r="C624" s="1"/>
+      <c r="C624" s="54"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
@@ -7113,7 +7228,7 @@
     <row r="625" spans="1:8" ht="12.75">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
-      <c r="C625" s="1"/>
+      <c r="C625" s="54"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
@@ -7123,7 +7238,7 @@
     <row r="626" spans="1:8" ht="12.75">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
-      <c r="C626" s="1"/>
+      <c r="C626" s="54"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
@@ -7133,7 +7248,7 @@
     <row r="627" spans="1:8" ht="12.75">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
-      <c r="C627" s="1"/>
+      <c r="C627" s="54"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
@@ -7143,7 +7258,7 @@
     <row r="628" spans="1:8" ht="12.75">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
-      <c r="C628" s="1"/>
+      <c r="C628" s="54"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
       <c r="F628" s="1"/>
@@ -7153,7 +7268,7 @@
     <row r="629" spans="1:8" ht="12.75">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
-      <c r="C629" s="1"/>
+      <c r="C629" s="54"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
       <c r="F629" s="1"/>
@@ -7163,7 +7278,7 @@
     <row r="630" spans="1:8" ht="12.75">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
-      <c r="C630" s="1"/>
+      <c r="C630" s="54"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
       <c r="F630" s="1"/>
@@ -7173,7 +7288,7 @@
     <row r="631" spans="1:8" ht="12.75">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
-      <c r="C631" s="1"/>
+      <c r="C631" s="54"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
@@ -7183,7 +7298,7 @@
     <row r="632" spans="1:8" ht="12.75">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
-      <c r="C632" s="1"/>
+      <c r="C632" s="54"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
@@ -7193,7 +7308,7 @@
     <row r="633" spans="1:8" ht="12.75">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
-      <c r="C633" s="1"/>
+      <c r="C633" s="54"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
@@ -7203,7 +7318,7 @@
     <row r="634" spans="1:8" ht="12.75">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
-      <c r="C634" s="1"/>
+      <c r="C634" s="54"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
       <c r="F634" s="1"/>
@@ -7213,7 +7328,7 @@
     <row r="635" spans="1:8" ht="12.75">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
-      <c r="C635" s="1"/>
+      <c r="C635" s="54"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
       <c r="F635" s="1"/>
@@ -7223,7 +7338,7 @@
     <row r="636" spans="1:8" ht="12.75">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
-      <c r="C636" s="1"/>
+      <c r="C636" s="54"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
       <c r="F636" s="1"/>
@@ -7233,7 +7348,7 @@
     <row r="637" spans="1:8" ht="12.75">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
-      <c r="C637" s="1"/>
+      <c r="C637" s="54"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
@@ -7243,7 +7358,7 @@
     <row r="638" spans="1:8" ht="12.75">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
-      <c r="C638" s="1"/>
+      <c r="C638" s="54"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
@@ -7253,7 +7368,7 @@
     <row r="639" spans="1:8" ht="12.75">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
-      <c r="C639" s="1"/>
+      <c r="C639" s="54"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
@@ -7263,7 +7378,7 @@
     <row r="640" spans="1:8" ht="12.75">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
-      <c r="C640" s="1"/>
+      <c r="C640" s="54"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
@@ -7273,7 +7388,7 @@
     <row r="641" spans="1:8" ht="12.75">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
-      <c r="C641" s="1"/>
+      <c r="C641" s="54"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
@@ -7283,7 +7398,7 @@
     <row r="642" spans="1:8" ht="12.75">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
-      <c r="C642" s="1"/>
+      <c r="C642" s="54"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
@@ -7293,7 +7408,7 @@
     <row r="643" spans="1:8" ht="12.75">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
-      <c r="C643" s="1"/>
+      <c r="C643" s="54"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
@@ -7303,7 +7418,7 @@
     <row r="644" spans="1:8" ht="12.75">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
-      <c r="C644" s="1"/>
+      <c r="C644" s="54"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
@@ -7313,7 +7428,7 @@
     <row r="645" spans="1:8" ht="12.75">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
-      <c r="C645" s="1"/>
+      <c r="C645" s="54"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
@@ -7323,7 +7438,7 @@
     <row r="646" spans="1:8" ht="12.75">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
-      <c r="C646" s="1"/>
+      <c r="C646" s="54"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
@@ -7333,7 +7448,7 @@
     <row r="647" spans="1:8" ht="12.75">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
-      <c r="C647" s="1"/>
+      <c r="C647" s="54"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
@@ -7343,7 +7458,7 @@
     <row r="648" spans="1:8" ht="12.75">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
-      <c r="C648" s="1"/>
+      <c r="C648" s="54"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
@@ -7353,7 +7468,7 @@
     <row r="649" spans="1:8" ht="12.75">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
-      <c r="C649" s="1"/>
+      <c r="C649" s="54"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
@@ -7363,7 +7478,7 @@
     <row r="650" spans="1:8" ht="12.75">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
-      <c r="C650" s="1"/>
+      <c r="C650" s="54"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
@@ -7373,7 +7488,7 @@
     <row r="651" spans="1:8" ht="12.75">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
-      <c r="C651" s="1"/>
+      <c r="C651" s="54"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
@@ -7383,7 +7498,7 @@
     <row r="652" spans="1:8" ht="12.75">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
-      <c r="C652" s="1"/>
+      <c r="C652" s="54"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
@@ -7393,7 +7508,7 @@
     <row r="653" spans="1:8" ht="12.75">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
-      <c r="C653" s="1"/>
+      <c r="C653" s="54"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
@@ -7403,7 +7518,7 @@
     <row r="654" spans="1:8" ht="12.75">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
-      <c r="C654" s="1"/>
+      <c r="C654" s="54"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
@@ -7413,7 +7528,7 @@
     <row r="655" spans="1:8" ht="12.75">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
-      <c r="C655" s="1"/>
+      <c r="C655" s="54"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
@@ -7423,7 +7538,7 @@
     <row r="656" spans="1:8" ht="12.75">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
-      <c r="C656" s="1"/>
+      <c r="C656" s="54"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
@@ -7433,7 +7548,7 @@
     <row r="657" spans="1:8" ht="12.75">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
-      <c r="C657" s="1"/>
+      <c r="C657" s="54"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
@@ -7443,7 +7558,7 @@
     <row r="658" spans="1:8" ht="12.75">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
-      <c r="C658" s="1"/>
+      <c r="C658" s="54"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
@@ -7453,7 +7568,7 @@
     <row r="659" spans="1:8" ht="12.75">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
-      <c r="C659" s="1"/>
+      <c r="C659" s="54"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
@@ -7463,7 +7578,7 @@
     <row r="660" spans="1:8" ht="12.75">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
-      <c r="C660" s="1"/>
+      <c r="C660" s="54"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
@@ -7473,7 +7588,7 @@
     <row r="661" spans="1:8" ht="12.75">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
-      <c r="C661" s="1"/>
+      <c r="C661" s="54"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
@@ -7483,7 +7598,7 @@
     <row r="662" spans="1:8" ht="12.75">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
-      <c r="C662" s="1"/>
+      <c r="C662" s="54"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
@@ -7493,7 +7608,7 @@
     <row r="663" spans="1:8" ht="12.75">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
-      <c r="C663" s="1"/>
+      <c r="C663" s="54"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
@@ -7503,7 +7618,7 @@
     <row r="664" spans="1:8" ht="12.75">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
-      <c r="C664" s="1"/>
+      <c r="C664" s="54"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
@@ -7513,7 +7628,7 @@
     <row r="665" spans="1:8" ht="12.75">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
-      <c r="C665" s="1"/>
+      <c r="C665" s="54"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
@@ -7523,7 +7638,7 @@
     <row r="666" spans="1:8" ht="12.75">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
-      <c r="C666" s="1"/>
+      <c r="C666" s="54"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
@@ -7533,7 +7648,7 @@
     <row r="667" spans="1:8" ht="12.75">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
-      <c r="C667" s="1"/>
+      <c r="C667" s="54"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
@@ -7543,7 +7658,7 @@
     <row r="668" spans="1:8" ht="12.75">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
-      <c r="C668" s="1"/>
+      <c r="C668" s="54"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
@@ -7553,7 +7668,7 @@
     <row r="669" spans="1:8" ht="12.75">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
-      <c r="C669" s="1"/>
+      <c r="C669" s="54"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
@@ -7563,7 +7678,7 @@
     <row r="670" spans="1:8" ht="12.75">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
-      <c r="C670" s="1"/>
+      <c r="C670" s="54"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
@@ -7573,7 +7688,7 @@
     <row r="671" spans="1:8" ht="12.75">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
-      <c r="C671" s="1"/>
+      <c r="C671" s="54"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
@@ -7583,7 +7698,7 @@
     <row r="672" spans="1:8" ht="12.75">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
-      <c r="C672" s="1"/>
+      <c r="C672" s="54"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
@@ -7593,7 +7708,7 @@
     <row r="673" spans="1:8" ht="12.75">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
-      <c r="C673" s="1"/>
+      <c r="C673" s="54"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
@@ -7603,7 +7718,7 @@
     <row r="674" spans="1:8" ht="12.75">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
-      <c r="C674" s="1"/>
+      <c r="C674" s="54"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
@@ -7613,7 +7728,7 @@
     <row r="675" spans="1:8" ht="12.75">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
-      <c r="C675" s="1"/>
+      <c r="C675" s="54"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
@@ -7623,7 +7738,7 @@
     <row r="676" spans="1:8" ht="12.75">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
-      <c r="C676" s="1"/>
+      <c r="C676" s="54"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
@@ -7633,7 +7748,7 @@
     <row r="677" spans="1:8" ht="12.75">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
-      <c r="C677" s="1"/>
+      <c r="C677" s="54"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
@@ -7643,7 +7758,7 @@
     <row r="678" spans="1:8" ht="12.75">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
-      <c r="C678" s="1"/>
+      <c r="C678" s="54"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
@@ -7653,7 +7768,7 @@
     <row r="679" spans="1:8" ht="12.75">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
-      <c r="C679" s="1"/>
+      <c r="C679" s="54"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
@@ -7663,7 +7778,7 @@
     <row r="680" spans="1:8" ht="12.75">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
-      <c r="C680" s="1"/>
+      <c r="C680" s="54"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
@@ -7673,7 +7788,7 @@
     <row r="681" spans="1:8" ht="12.75">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
-      <c r="C681" s="1"/>
+      <c r="C681" s="54"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
@@ -7683,7 +7798,7 @@
     <row r="682" spans="1:8" ht="12.75">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
-      <c r="C682" s="1"/>
+      <c r="C682" s="54"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
@@ -7693,7 +7808,7 @@
     <row r="683" spans="1:8" ht="12.75">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
-      <c r="C683" s="1"/>
+      <c r="C683" s="54"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
@@ -7703,7 +7818,7 @@
     <row r="684" spans="1:8" ht="12.75">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
-      <c r="C684" s="1"/>
+      <c r="C684" s="54"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
@@ -7713,7 +7828,7 @@
     <row r="685" spans="1:8" ht="12.75">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
-      <c r="C685" s="1"/>
+      <c r="C685" s="54"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
@@ -7723,7 +7838,7 @@
     <row r="686" spans="1:8" ht="12.75">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
-      <c r="C686" s="1"/>
+      <c r="C686" s="54"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
@@ -7733,7 +7848,7 @@
     <row r="687" spans="1:8" ht="12.75">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
-      <c r="C687" s="1"/>
+      <c r="C687" s="54"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
@@ -7743,7 +7858,7 @@
     <row r="688" spans="1:8" ht="12.75">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
-      <c r="C688" s="1"/>
+      <c r="C688" s="54"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
@@ -7753,7 +7868,7 @@
     <row r="689" spans="1:8" ht="12.75">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
-      <c r="C689" s="1"/>
+      <c r="C689" s="54"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
@@ -7763,7 +7878,7 @@
     <row r="690" spans="1:8" ht="12.75">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
-      <c r="C690" s="1"/>
+      <c r="C690" s="54"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
@@ -7773,7 +7888,7 @@
     <row r="691" spans="1:8" ht="12.75">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
-      <c r="C691" s="1"/>
+      <c r="C691" s="54"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
@@ -7783,7 +7898,7 @@
     <row r="692" spans="1:8" ht="12.75">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
-      <c r="C692" s="1"/>
+      <c r="C692" s="54"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
@@ -7793,7 +7908,7 @@
     <row r="693" spans="1:8" ht="12.75">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
-      <c r="C693" s="1"/>
+      <c r="C693" s="54"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
@@ -7803,7 +7918,7 @@
     <row r="694" spans="1:8" ht="12.75">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
-      <c r="C694" s="1"/>
+      <c r="C694" s="54"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
@@ -7813,7 +7928,7 @@
     <row r="695" spans="1:8" ht="12.75">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
-      <c r="C695" s="1"/>
+      <c r="C695" s="54"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
@@ -7823,7 +7938,7 @@
     <row r="696" spans="1:8" ht="12.75">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
-      <c r="C696" s="1"/>
+      <c r="C696" s="54"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
@@ -7833,7 +7948,7 @@
     <row r="697" spans="1:8" ht="12.75">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
-      <c r="C697" s="1"/>
+      <c r="C697" s="54"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
@@ -7843,7 +7958,7 @@
     <row r="698" spans="1:8" ht="12.75">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
-      <c r="C698" s="1"/>
+      <c r="C698" s="54"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
@@ -7853,7 +7968,7 @@
     <row r="699" spans="1:8" ht="12.75">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
-      <c r="C699" s="1"/>
+      <c r="C699" s="54"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
@@ -7863,7 +7978,7 @@
     <row r="700" spans="1:8" ht="12.75">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
-      <c r="C700" s="1"/>
+      <c r="C700" s="54"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
@@ -7873,7 +7988,7 @@
     <row r="701" spans="1:8" ht="12.75">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
-      <c r="C701" s="1"/>
+      <c r="C701" s="54"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
@@ -7883,7 +7998,7 @@
     <row r="702" spans="1:8" ht="12.75">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
-      <c r="C702" s="1"/>
+      <c r="C702" s="54"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
@@ -7893,7 +8008,7 @@
     <row r="703" spans="1:8" ht="12.75">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
-      <c r="C703" s="1"/>
+      <c r="C703" s="54"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
@@ -7903,7 +8018,7 @@
     <row r="704" spans="1:8" ht="12.75">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
-      <c r="C704" s="1"/>
+      <c r="C704" s="54"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
@@ -7913,7 +8028,7 @@
     <row r="705" spans="1:8" ht="12.75">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
-      <c r="C705" s="1"/>
+      <c r="C705" s="54"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
@@ -7923,7 +8038,7 @@
     <row r="706" spans="1:8" ht="12.75">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
-      <c r="C706" s="1"/>
+      <c r="C706" s="54"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
@@ -7933,7 +8048,7 @@
     <row r="707" spans="1:8" ht="12.75">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
-      <c r="C707" s="1"/>
+      <c r="C707" s="54"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
@@ -7943,7 +8058,7 @@
     <row r="708" spans="1:8" ht="12.75">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
-      <c r="C708" s="1"/>
+      <c r="C708" s="54"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
@@ -7953,7 +8068,7 @@
     <row r="709" spans="1:8" ht="12.75">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
-      <c r="C709" s="1"/>
+      <c r="C709" s="54"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
@@ -7963,7 +8078,7 @@
     <row r="710" spans="1:8" ht="12.75">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
-      <c r="C710" s="1"/>
+      <c r="C710" s="54"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
@@ -7973,7 +8088,7 @@
     <row r="711" spans="1:8" ht="12.75">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
-      <c r="C711" s="1"/>
+      <c r="C711" s="54"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
@@ -7983,7 +8098,7 @@
     <row r="712" spans="1:8" ht="12.75">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
-      <c r="C712" s="1"/>
+      <c r="C712" s="54"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
@@ -7993,7 +8108,7 @@
     <row r="713" spans="1:8" ht="12.75">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
-      <c r="C713" s="1"/>
+      <c r="C713" s="54"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
@@ -8003,7 +8118,7 @@
     <row r="714" spans="1:8" ht="12.75">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
-      <c r="C714" s="1"/>
+      <c r="C714" s="54"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
@@ -8013,7 +8128,7 @@
     <row r="715" spans="1:8" ht="12.75">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
-      <c r="C715" s="1"/>
+      <c r="C715" s="54"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
@@ -8023,7 +8138,7 @@
     <row r="716" spans="1:8" ht="12.75">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
-      <c r="C716" s="1"/>
+      <c r="C716" s="54"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
@@ -8033,7 +8148,7 @@
     <row r="717" spans="1:8" ht="12.75">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
-      <c r="C717" s="1"/>
+      <c r="C717" s="54"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
       <c r="F717" s="1"/>
@@ -8043,7 +8158,7 @@
     <row r="718" spans="1:8" ht="12.75">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
-      <c r="C718" s="1"/>
+      <c r="C718" s="54"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
@@ -8053,7 +8168,7 @@
     <row r="719" spans="1:8" ht="12.75">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
-      <c r="C719" s="1"/>
+      <c r="C719" s="54"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
@@ -8063,7 +8178,7 @@
     <row r="720" spans="1:8" ht="12.75">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
-      <c r="C720" s="1"/>
+      <c r="C720" s="54"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
@@ -8073,7 +8188,7 @@
     <row r="721" spans="1:8" ht="12.75">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
-      <c r="C721" s="1"/>
+      <c r="C721" s="54"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
       <c r="F721" s="1"/>
@@ -8083,7 +8198,7 @@
     <row r="722" spans="1:8" ht="12.75">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
-      <c r="C722" s="1"/>
+      <c r="C722" s="54"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
       <c r="F722" s="1"/>
@@ -8093,7 +8208,7 @@
     <row r="723" spans="1:8" ht="12.75">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
-      <c r="C723" s="1"/>
+      <c r="C723" s="54"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
       <c r="F723" s="1"/>
@@ -8103,7 +8218,7 @@
     <row r="724" spans="1:8" ht="12.75">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
-      <c r="C724" s="1"/>
+      <c r="C724" s="54"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
       <c r="F724" s="1"/>
@@ -8113,7 +8228,7 @@
     <row r="725" spans="1:8" ht="12.75">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
-      <c r="C725" s="1"/>
+      <c r="C725" s="54"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
@@ -8123,7 +8238,7 @@
     <row r="726" spans="1:8" ht="12.75">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
-      <c r="C726" s="1"/>
+      <c r="C726" s="54"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
       <c r="F726" s="1"/>
@@ -8133,7 +8248,7 @@
     <row r="727" spans="1:8" ht="12.75">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
-      <c r="C727" s="1"/>
+      <c r="C727" s="54"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
       <c r="F727" s="1"/>
@@ -8143,7 +8258,7 @@
     <row r="728" spans="1:8" ht="12.75">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
-      <c r="C728" s="1"/>
+      <c r="C728" s="54"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
       <c r="F728" s="1"/>
@@ -8153,7 +8268,7 @@
     <row r="729" spans="1:8" ht="12.75">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
-      <c r="C729" s="1"/>
+      <c r="C729" s="54"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
       <c r="F729" s="1"/>
@@ -8163,7 +8278,7 @@
     <row r="730" spans="1:8" ht="12.75">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
-      <c r="C730" s="1"/>
+      <c r="C730" s="54"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
       <c r="F730" s="1"/>
@@ -8173,7 +8288,7 @@
     <row r="731" spans="1:8" ht="12.75">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
-      <c r="C731" s="1"/>
+      <c r="C731" s="54"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
       <c r="F731" s="1"/>
@@ -8183,7 +8298,7 @@
     <row r="732" spans="1:8" ht="12.75">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
-      <c r="C732" s="1"/>
+      <c r="C732" s="54"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
       <c r="F732" s="1"/>
@@ -8193,7 +8308,7 @@
     <row r="733" spans="1:8" ht="12.75">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
-      <c r="C733" s="1"/>
+      <c r="C733" s="54"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
       <c r="F733" s="1"/>
@@ -8203,7 +8318,7 @@
     <row r="734" spans="1:8" ht="12.75">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
-      <c r="C734" s="1"/>
+      <c r="C734" s="54"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
       <c r="F734" s="1"/>
@@ -8213,7 +8328,7 @@
     <row r="735" spans="1:8" ht="12.75">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
-      <c r="C735" s="1"/>
+      <c r="C735" s="54"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
       <c r="F735" s="1"/>
@@ -8223,7 +8338,7 @@
     <row r="736" spans="1:8" ht="12.75">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
-      <c r="C736" s="1"/>
+      <c r="C736" s="54"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
       <c r="F736" s="1"/>
@@ -8233,7 +8348,7 @@
     <row r="737" spans="1:8" ht="12.75">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
-      <c r="C737" s="1"/>
+      <c r="C737" s="54"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
       <c r="F737" s="1"/>
@@ -8243,7 +8358,7 @@
     <row r="738" spans="1:8" ht="12.75">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
-      <c r="C738" s="1"/>
+      <c r="C738" s="54"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
       <c r="F738" s="1"/>
@@ -8253,7 +8368,7 @@
     <row r="739" spans="1:8" ht="12.75">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
-      <c r="C739" s="1"/>
+      <c r="C739" s="54"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
       <c r="F739" s="1"/>
@@ -8263,7 +8378,7 @@
     <row r="740" spans="1:8" ht="12.75">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
-      <c r="C740" s="1"/>
+      <c r="C740" s="54"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
       <c r="F740" s="1"/>
@@ -8273,7 +8388,7 @@
     <row r="741" spans="1:8" ht="12.75">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
-      <c r="C741" s="1"/>
+      <c r="C741" s="54"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
@@ -8283,7 +8398,7 @@
     <row r="742" spans="1:8" ht="12.75">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
-      <c r="C742" s="1"/>
+      <c r="C742" s="54"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
@@ -8293,7 +8408,7 @@
     <row r="743" spans="1:8" ht="12.75">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
-      <c r="C743" s="1"/>
+      <c r="C743" s="54"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
@@ -8303,7 +8418,7 @@
     <row r="744" spans="1:8" ht="12.75">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
-      <c r="C744" s="1"/>
+      <c r="C744" s="54"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
@@ -8313,7 +8428,7 @@
     <row r="745" spans="1:8" ht="12.75">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
-      <c r="C745" s="1"/>
+      <c r="C745" s="54"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
@@ -8323,7 +8438,7 @@
     <row r="746" spans="1:8" ht="12.75">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
-      <c r="C746" s="1"/>
+      <c r="C746" s="54"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
@@ -8333,7 +8448,7 @@
     <row r="747" spans="1:8" ht="12.75">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
-      <c r="C747" s="1"/>
+      <c r="C747" s="54"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
@@ -8343,7 +8458,7 @@
     <row r="748" spans="1:8" ht="12.75">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
-      <c r="C748" s="1"/>
+      <c r="C748" s="54"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
@@ -8353,7 +8468,7 @@
     <row r="749" spans="1:8" ht="12.75">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
-      <c r="C749" s="1"/>
+      <c r="C749" s="54"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
@@ -8363,7 +8478,7 @@
     <row r="750" spans="1:8" ht="12.75">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
-      <c r="C750" s="1"/>
+      <c r="C750" s="54"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
@@ -8373,7 +8488,7 @@
     <row r="751" spans="1:8" ht="12.75">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
-      <c r="C751" s="1"/>
+      <c r="C751" s="54"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
@@ -8383,7 +8498,7 @@
     <row r="752" spans="1:8" ht="12.75">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
-      <c r="C752" s="1"/>
+      <c r="C752" s="54"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
       <c r="F752" s="1"/>
@@ -8393,7 +8508,7 @@
     <row r="753" spans="1:8" ht="12.75">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
-      <c r="C753" s="1"/>
+      <c r="C753" s="54"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
       <c r="F753" s="1"/>
@@ -8403,7 +8518,7 @@
     <row r="754" spans="1:8" ht="12.75">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
-      <c r="C754" s="1"/>
+      <c r="C754" s="54"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
       <c r="F754" s="1"/>
@@ -8413,7 +8528,7 @@
     <row r="755" spans="1:8" ht="12.75">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
-      <c r="C755" s="1"/>
+      <c r="C755" s="54"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
       <c r="F755" s="1"/>
@@ -8423,7 +8538,7 @@
     <row r="756" spans="1:8" ht="12.75">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
-      <c r="C756" s="1"/>
+      <c r="C756" s="54"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
       <c r="F756" s="1"/>
@@ -8433,7 +8548,7 @@
     <row r="757" spans="1:8" ht="12.75">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
-      <c r="C757" s="1"/>
+      <c r="C757" s="54"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
       <c r="F757" s="1"/>
@@ -8443,7 +8558,7 @@
     <row r="758" spans="1:8" ht="12.75">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
-      <c r="C758" s="1"/>
+      <c r="C758" s="54"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
       <c r="F758" s="1"/>
@@ -8453,7 +8568,7 @@
     <row r="759" spans="1:8" ht="12.75">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
-      <c r="C759" s="1"/>
+      <c r="C759" s="54"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
       <c r="F759" s="1"/>
@@ -8463,7 +8578,7 @@
     <row r="760" spans="1:8" ht="12.75">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
-      <c r="C760" s="1"/>
+      <c r="C760" s="54"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
       <c r="F760" s="1"/>
@@ -8473,7 +8588,7 @@
     <row r="761" spans="1:8" ht="12.75">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
-      <c r="C761" s="1"/>
+      <c r="C761" s="54"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
       <c r="F761" s="1"/>
@@ -8483,7 +8598,7 @@
     <row r="762" spans="1:8" ht="12.75">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
-      <c r="C762" s="1"/>
+      <c r="C762" s="54"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
       <c r="F762" s="1"/>
@@ -8493,7 +8608,7 @@
     <row r="763" spans="1:8" ht="12.75">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
-      <c r="C763" s="1"/>
+      <c r="C763" s="54"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
       <c r="F763" s="1"/>
@@ -8503,7 +8618,7 @@
     <row r="764" spans="1:8" ht="12.75">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
-      <c r="C764" s="1"/>
+      <c r="C764" s="54"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
       <c r="F764" s="1"/>
@@ -8513,7 +8628,7 @@
     <row r="765" spans="1:8" ht="12.75">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
-      <c r="C765" s="1"/>
+      <c r="C765" s="54"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
       <c r="F765" s="1"/>
@@ -8523,7 +8638,7 @@
     <row r="766" spans="1:8" ht="12.75">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
-      <c r="C766" s="1"/>
+      <c r="C766" s="54"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
       <c r="F766" s="1"/>
@@ -8533,7 +8648,7 @@
     <row r="767" spans="1:8" ht="12.75">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
-      <c r="C767" s="1"/>
+      <c r="C767" s="54"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
       <c r="F767" s="1"/>
@@ -8543,7 +8658,7 @@
     <row r="768" spans="1:8" ht="12.75">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
-      <c r="C768" s="1"/>
+      <c r="C768" s="54"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
       <c r="F768" s="1"/>
@@ -8553,7 +8668,7 @@
     <row r="769" spans="1:8" ht="12.75">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
-      <c r="C769" s="1"/>
+      <c r="C769" s="54"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
       <c r="F769" s="1"/>
@@ -8563,7 +8678,7 @@
     <row r="770" spans="1:8" ht="12.75">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
-      <c r="C770" s="1"/>
+      <c r="C770" s="54"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
       <c r="F770" s="1"/>
@@ -8573,7 +8688,7 @@
     <row r="771" spans="1:8" ht="12.75">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
-      <c r="C771" s="1"/>
+      <c r="C771" s="54"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
       <c r="F771" s="1"/>
@@ -8583,7 +8698,7 @@
     <row r="772" spans="1:8" ht="12.75">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
-      <c r="C772" s="1"/>
+      <c r="C772" s="54"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
       <c r="F772" s="1"/>
@@ -8593,7 +8708,7 @@
     <row r="773" spans="1:8" ht="12.75">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
-      <c r="C773" s="1"/>
+      <c r="C773" s="54"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
       <c r="F773" s="1"/>
@@ -8603,7 +8718,7 @@
     <row r="774" spans="1:8" ht="12.75">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
-      <c r="C774" s="1"/>
+      <c r="C774" s="54"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
       <c r="F774" s="1"/>
@@ -8613,7 +8728,7 @@
     <row r="775" spans="1:8" ht="12.75">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
-      <c r="C775" s="1"/>
+      <c r="C775" s="54"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
       <c r="F775" s="1"/>
@@ -8623,7 +8738,7 @@
     <row r="776" spans="1:8" ht="12.75">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
-      <c r="C776" s="1"/>
+      <c r="C776" s="54"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
       <c r="F776" s="1"/>
@@ -8633,7 +8748,7 @@
     <row r="777" spans="1:8" ht="12.75">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
-      <c r="C777" s="1"/>
+      <c r="C777" s="54"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
       <c r="F777" s="1"/>
@@ -8643,7 +8758,7 @@
     <row r="778" spans="1:8" ht="12.75">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
-      <c r="C778" s="1"/>
+      <c r="C778" s="54"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
       <c r="F778" s="1"/>
@@ -8653,7 +8768,7 @@
     <row r="779" spans="1:8" ht="12.75">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
-      <c r="C779" s="1"/>
+      <c r="C779" s="54"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
       <c r="F779" s="1"/>
@@ -8663,7 +8778,7 @@
     <row r="780" spans="1:8" ht="12.75">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
-      <c r="C780" s="1"/>
+      <c r="C780" s="54"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
       <c r="F780" s="1"/>
@@ -8673,7 +8788,7 @@
     <row r="781" spans="1:8" ht="12.75">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
-      <c r="C781" s="1"/>
+      <c r="C781" s="54"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
       <c r="F781" s="1"/>
@@ -8683,7 +8798,7 @@
     <row r="782" spans="1:8" ht="12.75">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
-      <c r="C782" s="1"/>
+      <c r="C782" s="54"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
       <c r="F782" s="1"/>
@@ -8693,7 +8808,7 @@
     <row r="783" spans="1:8" ht="12.75">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
-      <c r="C783" s="1"/>
+      <c r="C783" s="54"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
       <c r="F783" s="1"/>
@@ -8703,7 +8818,7 @@
     <row r="784" spans="1:8" ht="12.75">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
-      <c r="C784" s="1"/>
+      <c r="C784" s="54"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
       <c r="F784" s="1"/>
@@ -8713,7 +8828,7 @@
     <row r="785" spans="1:8" ht="12.75">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
-      <c r="C785" s="1"/>
+      <c r="C785" s="54"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
       <c r="F785" s="1"/>
@@ -8723,7 +8838,7 @@
     <row r="786" spans="1:8" ht="12.75">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
-      <c r="C786" s="1"/>
+      <c r="C786" s="54"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
       <c r="F786" s="1"/>
@@ -8733,7 +8848,7 @@
     <row r="787" spans="1:8" ht="12.75">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
-      <c r="C787" s="1"/>
+      <c r="C787" s="54"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
       <c r="F787" s="1"/>
@@ -8743,7 +8858,7 @@
     <row r="788" spans="1:8" ht="12.75">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
-      <c r="C788" s="1"/>
+      <c r="C788" s="54"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
       <c r="F788" s="1"/>
@@ -8753,7 +8868,7 @@
     <row r="789" spans="1:8" ht="12.75">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
-      <c r="C789" s="1"/>
+      <c r="C789" s="54"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
       <c r="F789" s="1"/>
@@ -8763,7 +8878,7 @@
     <row r="790" spans="1:8" ht="12.75">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
-      <c r="C790" s="1"/>
+      <c r="C790" s="54"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
       <c r="F790" s="1"/>
@@ -8773,7 +8888,7 @@
     <row r="791" spans="1:8" ht="12.75">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
-      <c r="C791" s="1"/>
+      <c r="C791" s="54"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
       <c r="F791" s="1"/>
@@ -8783,7 +8898,7 @@
     <row r="792" spans="1:8" ht="12.75">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
-      <c r="C792" s="1"/>
+      <c r="C792" s="54"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
       <c r="F792" s="1"/>
@@ -8793,7 +8908,7 @@
     <row r="793" spans="1:8" ht="12.75">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
-      <c r="C793" s="1"/>
+      <c r="C793" s="54"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
       <c r="F793" s="1"/>
@@ -8803,7 +8918,7 @@
     <row r="794" spans="1:8" ht="12.75">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
-      <c r="C794" s="1"/>
+      <c r="C794" s="54"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
       <c r="F794" s="1"/>
@@ -8813,7 +8928,7 @@
     <row r="795" spans="1:8" ht="12.75">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
-      <c r="C795" s="1"/>
+      <c r="C795" s="54"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
       <c r="F795" s="1"/>
@@ -8823,7 +8938,7 @@
     <row r="796" spans="1:8" ht="12.75">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
-      <c r="C796" s="1"/>
+      <c r="C796" s="54"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
       <c r="F796" s="1"/>
@@ -8833,7 +8948,7 @@
     <row r="797" spans="1:8" ht="12.75">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
-      <c r="C797" s="1"/>
+      <c r="C797" s="54"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
       <c r="F797" s="1"/>
@@ -8843,7 +8958,7 @@
     <row r="798" spans="1:8" ht="12.75">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
-      <c r="C798" s="1"/>
+      <c r="C798" s="54"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
       <c r="F798" s="1"/>
@@ -8853,7 +8968,7 @@
     <row r="799" spans="1:8" ht="12.75">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
-      <c r="C799" s="1"/>
+      <c r="C799" s="54"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
       <c r="F799" s="1"/>
@@ -8863,7 +8978,7 @@
     <row r="800" spans="1:8" ht="12.75">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
-      <c r="C800" s="1"/>
+      <c r="C800" s="54"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
       <c r="F800" s="1"/>
@@ -8873,7 +8988,7 @@
     <row r="801" spans="1:8" ht="12.75">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
-      <c r="C801" s="1"/>
+      <c r="C801" s="54"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
       <c r="F801" s="1"/>
@@ -8883,7 +8998,7 @@
     <row r="802" spans="1:8" ht="12.75">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
-      <c r="C802" s="1"/>
+      <c r="C802" s="54"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
       <c r="F802" s="1"/>
@@ -8893,7 +9008,7 @@
     <row r="803" spans="1:8" ht="12.75">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
-      <c r="C803" s="1"/>
+      <c r="C803" s="54"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
       <c r="F803" s="1"/>
@@ -8903,7 +9018,7 @@
     <row r="804" spans="1:8" ht="12.75">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
-      <c r="C804" s="1"/>
+      <c r="C804" s="54"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
       <c r="F804" s="1"/>
@@ -8913,7 +9028,7 @@
     <row r="805" spans="1:8" ht="12.75">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
-      <c r="C805" s="1"/>
+      <c r="C805" s="54"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
       <c r="F805" s="1"/>
@@ -8923,7 +9038,7 @@
     <row r="806" spans="1:8" ht="12.75">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
-      <c r="C806" s="1"/>
+      <c r="C806" s="54"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
       <c r="F806" s="1"/>
@@ -8933,7 +9048,7 @@
     <row r="807" spans="1:8" ht="12.75">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
-      <c r="C807" s="1"/>
+      <c r="C807" s="54"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
       <c r="F807" s="1"/>
@@ -8943,7 +9058,7 @@
     <row r="808" spans="1:8" ht="12.75">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
-      <c r="C808" s="1"/>
+      <c r="C808" s="54"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
       <c r="F808" s="1"/>
@@ -8953,7 +9068,7 @@
     <row r="809" spans="1:8" ht="12.75">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
-      <c r="C809" s="1"/>
+      <c r="C809" s="54"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
       <c r="F809" s="1"/>
@@ -8963,7 +9078,7 @@
     <row r="810" spans="1:8" ht="12.75">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
-      <c r="C810" s="1"/>
+      <c r="C810" s="54"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
       <c r="F810" s="1"/>
@@ -8973,7 +9088,7 @@
     <row r="811" spans="1:8" ht="12.75">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
-      <c r="C811" s="1"/>
+      <c r="C811" s="54"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
       <c r="F811" s="1"/>
@@ -8983,7 +9098,7 @@
     <row r="812" spans="1:8" ht="12.75">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
-      <c r="C812" s="1"/>
+      <c r="C812" s="54"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
       <c r="F812" s="1"/>
@@ -8993,7 +9108,7 @@
     <row r="813" spans="1:8" ht="12.75">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
-      <c r="C813" s="1"/>
+      <c r="C813" s="54"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
       <c r="F813" s="1"/>
@@ -9003,7 +9118,7 @@
     <row r="814" spans="1:8" ht="12.75">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
-      <c r="C814" s="1"/>
+      <c r="C814" s="54"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
       <c r="F814" s="1"/>
@@ -9013,7 +9128,7 @@
     <row r="815" spans="1:8" ht="12.75">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
-      <c r="C815" s="1"/>
+      <c r="C815" s="54"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
       <c r="F815" s="1"/>
@@ -9023,7 +9138,7 @@
     <row r="816" spans="1:8" ht="12.75">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
-      <c r="C816" s="1"/>
+      <c r="C816" s="54"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
       <c r="F816" s="1"/>
@@ -9033,7 +9148,7 @@
     <row r="817" spans="1:8" ht="12.75">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
-      <c r="C817" s="1"/>
+      <c r="C817" s="54"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
       <c r="F817" s="1"/>
@@ -9043,7 +9158,7 @@
     <row r="818" spans="1:8" ht="12.75">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
-      <c r="C818" s="1"/>
+      <c r="C818" s="54"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
       <c r="F818" s="1"/>
@@ -9053,7 +9168,7 @@
     <row r="819" spans="1:8" ht="12.75">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
-      <c r="C819" s="1"/>
+      <c r="C819" s="54"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
       <c r="F819" s="1"/>
@@ -9063,7 +9178,7 @@
     <row r="820" spans="1:8" ht="12.75">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
-      <c r="C820" s="1"/>
+      <c r="C820" s="54"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
       <c r="F820" s="1"/>
@@ -9073,7 +9188,7 @@
     <row r="821" spans="1:8" ht="12.75">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
-      <c r="C821" s="1"/>
+      <c r="C821" s="54"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
       <c r="F821" s="1"/>
@@ -9083,7 +9198,7 @@
     <row r="822" spans="1:8" ht="12.75">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
-      <c r="C822" s="1"/>
+      <c r="C822" s="54"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
       <c r="F822" s="1"/>
@@ -9093,7 +9208,7 @@
     <row r="823" spans="1:8" ht="12.75">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
-      <c r="C823" s="1"/>
+      <c r="C823" s="54"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
@@ -9103,7 +9218,7 @@
     <row r="824" spans="1:8" ht="12.75">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
-      <c r="C824" s="1"/>
+      <c r="C824" s="54"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
@@ -9113,7 +9228,7 @@
     <row r="825" spans="1:8" ht="12.75">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
-      <c r="C825" s="1"/>
+      <c r="C825" s="54"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
@@ -9123,7 +9238,7 @@
     <row r="826" spans="1:8" ht="12.75">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
-      <c r="C826" s="1"/>
+      <c r="C826" s="54"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
@@ -9133,7 +9248,7 @@
     <row r="827" spans="1:8" ht="12.75">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
-      <c r="C827" s="1"/>
+      <c r="C827" s="54"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
@@ -9143,7 +9258,7 @@
     <row r="828" spans="1:8" ht="12.75">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
-      <c r="C828" s="1"/>
+      <c r="C828" s="54"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
@@ -9153,7 +9268,7 @@
     <row r="829" spans="1:8" ht="12.75">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
-      <c r="C829" s="1"/>
+      <c r="C829" s="54"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
@@ -9163,7 +9278,7 @@
     <row r="830" spans="1:8" ht="12.75">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
-      <c r="C830" s="1"/>
+      <c r="C830" s="54"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
@@ -9173,7 +9288,7 @@
     <row r="831" spans="1:8" ht="12.75">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
-      <c r="C831" s="1"/>
+      <c r="C831" s="54"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
@@ -9183,7 +9298,7 @@
     <row r="832" spans="1:8" ht="12.75">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
-      <c r="C832" s="1"/>
+      <c r="C832" s="54"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
@@ -9193,7 +9308,7 @@
     <row r="833" spans="1:8" ht="12.75">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
-      <c r="C833" s="1"/>
+      <c r="C833" s="54"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
@@ -9203,7 +9318,7 @@
     <row r="834" spans="1:8" ht="12.75">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
-      <c r="C834" s="1"/>
+      <c r="C834" s="54"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
       <c r="F834" s="1"/>
@@ -9213,7 +9328,7 @@
     <row r="835" spans="1:8" ht="12.75">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
-      <c r="C835" s="1"/>
+      <c r="C835" s="54"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
@@ -9223,7 +9338,7 @@
     <row r="836" spans="1:8" ht="12.75">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
-      <c r="C836" s="1"/>
+      <c r="C836" s="54"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
@@ -9233,7 +9348,7 @@
     <row r="837" spans="1:8" ht="12.75">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
-      <c r="C837" s="1"/>
+      <c r="C837" s="54"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
@@ -9243,7 +9358,7 @@
     <row r="838" spans="1:8" ht="12.75">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
-      <c r="C838" s="1"/>
+      <c r="C838" s="54"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
@@ -9253,7 +9368,7 @@
     <row r="839" spans="1:8" ht="12.75">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
-      <c r="C839" s="1"/>
+      <c r="C839" s="54"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
@@ -9263,7 +9378,7 @@
     <row r="840" spans="1:8" ht="12.75">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
-      <c r="C840" s="1"/>
+      <c r="C840" s="54"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
@@ -9273,7 +9388,7 @@
     <row r="841" spans="1:8" ht="12.75">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
-      <c r="C841" s="1"/>
+      <c r="C841" s="54"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
@@ -9283,7 +9398,7 @@
     <row r="842" spans="1:8" ht="12.75">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
-      <c r="C842" s="1"/>
+      <c r="C842" s="54"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
@@ -9293,7 +9408,7 @@
     <row r="843" spans="1:8" ht="12.75">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
-      <c r="C843" s="1"/>
+      <c r="C843" s="54"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
@@ -9303,7 +9418,7 @@
     <row r="844" spans="1:8" ht="12.75">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
-      <c r="C844" s="1"/>
+      <c r="C844" s="54"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
@@ -9313,7 +9428,7 @@
     <row r="845" spans="1:8" ht="12.75">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
-      <c r="C845" s="1"/>
+      <c r="C845" s="54"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
@@ -9323,7 +9438,7 @@
     <row r="846" spans="1:8" ht="12.75">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
-      <c r="C846" s="1"/>
+      <c r="C846" s="54"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
@@ -9333,7 +9448,7 @@
     <row r="847" spans="1:8" ht="12.75">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
-      <c r="C847" s="1"/>
+      <c r="C847" s="54"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
@@ -9343,7 +9458,7 @@
     <row r="848" spans="1:8" ht="12.75">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
-      <c r="C848" s="1"/>
+      <c r="C848" s="54"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
@@ -9353,7 +9468,7 @@
     <row r="849" spans="1:8" ht="12.75">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
-      <c r="C849" s="1"/>
+      <c r="C849" s="54"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
@@ -9363,7 +9478,7 @@
     <row r="850" spans="1:8" ht="12.75">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
-      <c r="C850" s="1"/>
+      <c r="C850" s="54"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
       <c r="F850" s="1"/>
@@ -9373,7 +9488,7 @@
     <row r="851" spans="1:8" ht="12.75">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
-      <c r="C851" s="1"/>
+      <c r="C851" s="54"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
@@ -9383,7 +9498,7 @@
     <row r="852" spans="1:8" ht="12.75">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
-      <c r="C852" s="1"/>
+      <c r="C852" s="54"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
@@ -9393,7 +9508,7 @@
     <row r="853" spans="1:8" ht="12.75">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
-      <c r="C853" s="1"/>
+      <c r="C853" s="54"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
@@ -9403,7 +9518,7 @@
     <row r="854" spans="1:8" ht="12.75">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
-      <c r="C854" s="1"/>
+      <c r="C854" s="54"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
@@ -9413,7 +9528,7 @@
     <row r="855" spans="1:8" ht="12.75">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
-      <c r="C855" s="1"/>
+      <c r="C855" s="54"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
@@ -9423,7 +9538,7 @@
     <row r="856" spans="1:8" ht="12.75">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
-      <c r="C856" s="1"/>
+      <c r="C856" s="54"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
@@ -9433,7 +9548,7 @@
     <row r="857" spans="1:8" ht="12.75">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
-      <c r="C857" s="1"/>
+      <c r="C857" s="54"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
@@ -9443,7 +9558,7 @@
     <row r="858" spans="1:8" ht="12.75">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
-      <c r="C858" s="1"/>
+      <c r="C858" s="54"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
@@ -9453,7 +9568,7 @@
     <row r="859" spans="1:8" ht="12.75">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
-      <c r="C859" s="1"/>
+      <c r="C859" s="54"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
@@ -9463,7 +9578,7 @@
     <row r="860" spans="1:8" ht="12.75">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
-      <c r="C860" s="1"/>
+      <c r="C860" s="54"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
@@ -9473,7 +9588,7 @@
     <row r="861" spans="1:8" ht="12.75">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
-      <c r="C861" s="1"/>
+      <c r="C861" s="54"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
@@ -9483,7 +9598,7 @@
     <row r="862" spans="1:8" ht="12.75">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
-      <c r="C862" s="1"/>
+      <c r="C862" s="54"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
@@ -9493,7 +9608,7 @@
     <row r="863" spans="1:8" ht="12.75">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
-      <c r="C863" s="1"/>
+      <c r="C863" s="54"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
@@ -9503,7 +9618,7 @@
     <row r="864" spans="1:8" ht="12.75">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
-      <c r="C864" s="1"/>
+      <c r="C864" s="54"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
@@ -9513,7 +9628,7 @@
     <row r="865" spans="1:8" ht="12.75">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
-      <c r="C865" s="1"/>
+      <c r="C865" s="54"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
@@ -9523,7 +9638,7 @@
     <row r="866" spans="1:8" ht="12.75">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
-      <c r="C866" s="1"/>
+      <c r="C866" s="54"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
       <c r="F866" s="1"/>
@@ -9533,7 +9648,7 @@
     <row r="867" spans="1:8" ht="12.75">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
-      <c r="C867" s="1"/>
+      <c r="C867" s="54"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
@@ -9543,7 +9658,7 @@
     <row r="868" spans="1:8" ht="12.75">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
-      <c r="C868" s="1"/>
+      <c r="C868" s="54"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
       <c r="F868" s="1"/>
@@ -9553,7 +9668,7 @@
     <row r="869" spans="1:8" ht="12.75">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
-      <c r="C869" s="1"/>
+      <c r="C869" s="54"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
@@ -9563,7 +9678,7 @@
     <row r="870" spans="1:8" ht="12.75">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
-      <c r="C870" s="1"/>
+      <c r="C870" s="54"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
@@ -9573,7 +9688,7 @@
     <row r="871" spans="1:8" ht="12.75">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
-      <c r="C871" s="1"/>
+      <c r="C871" s="54"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
@@ -9583,7 +9698,7 @@
     <row r="872" spans="1:8" ht="12.75">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
-      <c r="C872" s="1"/>
+      <c r="C872" s="54"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
       <c r="F872" s="1"/>
@@ -9593,7 +9708,7 @@
     <row r="873" spans="1:8" ht="12.75">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
-      <c r="C873" s="1"/>
+      <c r="C873" s="54"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
@@ -9603,7 +9718,7 @@
     <row r="874" spans="1:8" ht="12.75">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
-      <c r="C874" s="1"/>
+      <c r="C874" s="54"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
@@ -9613,7 +9728,7 @@
     <row r="875" spans="1:8" ht="12.75">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
-      <c r="C875" s="1"/>
+      <c r="C875" s="54"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
@@ -9623,7 +9738,7 @@
     <row r="876" spans="1:8" ht="12.75">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
-      <c r="C876" s="1"/>
+      <c r="C876" s="54"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
@@ -9633,7 +9748,7 @@
     <row r="877" spans="1:8" ht="12.75">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
-      <c r="C877" s="1"/>
+      <c r="C877" s="54"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
@@ -9643,7 +9758,7 @@
     <row r="878" spans="1:8" ht="12.75">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
-      <c r="C878" s="1"/>
+      <c r="C878" s="54"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
@@ -9653,7 +9768,7 @@
     <row r="879" spans="1:8" ht="12.75">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
-      <c r="C879" s="1"/>
+      <c r="C879" s="54"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
@@ -9663,7 +9778,7 @@
     <row r="880" spans="1:8" ht="12.75">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
-      <c r="C880" s="1"/>
+      <c r="C880" s="54"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
@@ -9673,7 +9788,7 @@
     <row r="881" spans="1:8" ht="12.75">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
-      <c r="C881" s="1"/>
+      <c r="C881" s="54"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
@@ -9683,7 +9798,7 @@
     <row r="882" spans="1:8" ht="12.75">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
-      <c r="C882" s="1"/>
+      <c r="C882" s="54"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
       <c r="F882" s="1"/>
@@ -9693,7 +9808,7 @@
     <row r="883" spans="1:8" ht="12.75">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
-      <c r="C883" s="1"/>
+      <c r="C883" s="54"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
@@ -9703,7 +9818,7 @@
     <row r="884" spans="1:8" ht="12.75">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
-      <c r="C884" s="1"/>
+      <c r="C884" s="54"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
@@ -9713,7 +9828,7 @@
     <row r="885" spans="1:8" ht="12.75">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
-      <c r="C885" s="1"/>
+      <c r="C885" s="54"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
@@ -9723,7 +9838,7 @@
     <row r="886" spans="1:8" ht="12.75">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
-      <c r="C886" s="1"/>
+      <c r="C886" s="54"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
@@ -9733,7 +9848,7 @@
     <row r="887" spans="1:8" ht="12.75">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
-      <c r="C887" s="1"/>
+      <c r="C887" s="54"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
@@ -9743,7 +9858,7 @@
     <row r="888" spans="1:8" ht="12.75">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
-      <c r="C888" s="1"/>
+      <c r="C888" s="54"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
@@ -9753,7 +9868,7 @@
     <row r="889" spans="1:8" ht="12.75">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
-      <c r="C889" s="1"/>
+      <c r="C889" s="54"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
@@ -9763,7 +9878,7 @@
     <row r="890" spans="1:8" ht="12.75">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
-      <c r="C890" s="1"/>
+      <c r="C890" s="54"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
@@ -9773,7 +9888,7 @@
     <row r="891" spans="1:8" ht="12.75">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
-      <c r="C891" s="1"/>
+      <c r="C891" s="54"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
@@ -9783,7 +9898,7 @@
     <row r="892" spans="1:8" ht="12.75">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
-      <c r="C892" s="1"/>
+      <c r="C892" s="54"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
@@ -9793,7 +9908,7 @@
     <row r="893" spans="1:8" ht="12.75">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
-      <c r="C893" s="1"/>
+      <c r="C893" s="54"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
@@ -9803,7 +9918,7 @@
     <row r="894" spans="1:8" ht="12.75">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
-      <c r="C894" s="1"/>
+      <c r="C894" s="54"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
       <c r="F894" s="1"/>
@@ -9813,7 +9928,7 @@
     <row r="895" spans="1:8" ht="12.75">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
-      <c r="C895" s="1"/>
+      <c r="C895" s="54"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
@@ -9823,7 +9938,7 @@
     <row r="896" spans="1:8" ht="12.75">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
-      <c r="C896" s="1"/>
+      <c r="C896" s="54"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
@@ -9833,7 +9948,7 @@
     <row r="897" spans="1:8" ht="12.75">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
-      <c r="C897" s="1"/>
+      <c r="C897" s="54"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
@@ -9843,7 +9958,7 @@
     <row r="898" spans="1:8" ht="12.75">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
-      <c r="C898" s="1"/>
+      <c r="C898" s="54"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
       <c r="F898" s="1"/>
@@ -9853,7 +9968,7 @@
     <row r="899" spans="1:8" ht="12.75">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
-      <c r="C899" s="1"/>
+      <c r="C899" s="54"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
@@ -9863,7 +9978,7 @@
     <row r="900" spans="1:8" ht="12.75">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
-      <c r="C900" s="1"/>
+      <c r="C900" s="54"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
@@ -9873,7 +9988,7 @@
     <row r="901" spans="1:8" ht="12.75">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
-      <c r="C901" s="1"/>
+      <c r="C901" s="54"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
@@ -9883,7 +9998,7 @@
     <row r="902" spans="1:8" ht="12.75">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
-      <c r="C902" s="1"/>
+      <c r="C902" s="54"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
@@ -9893,7 +10008,7 @@
     <row r="903" spans="1:8" ht="12.75">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
-      <c r="C903" s="1"/>
+      <c r="C903" s="54"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
@@ -9903,7 +10018,7 @@
     <row r="904" spans="1:8" ht="12.75">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
-      <c r="C904" s="1"/>
+      <c r="C904" s="54"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
@@ -9913,7 +10028,7 @@
     <row r="905" spans="1:8" ht="12.75">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
-      <c r="C905" s="1"/>
+      <c r="C905" s="54"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
@@ -9923,7 +10038,7 @@
     <row r="906" spans="1:8" ht="12.75">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
-      <c r="C906" s="1"/>
+      <c r="C906" s="54"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
@@ -9933,7 +10048,7 @@
     <row r="907" spans="1:8" ht="12.75">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
-      <c r="C907" s="1"/>
+      <c r="C907" s="54"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
@@ -9943,7 +10058,7 @@
     <row r="908" spans="1:8" ht="12.75">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
-      <c r="C908" s="1"/>
+      <c r="C908" s="54"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
@@ -9953,7 +10068,7 @@
     <row r="909" spans="1:8" ht="12.75">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
-      <c r="C909" s="1"/>
+      <c r="C909" s="54"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
@@ -9963,7 +10078,7 @@
     <row r="910" spans="1:8" ht="12.75">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
-      <c r="C910" s="1"/>
+      <c r="C910" s="54"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
@@ -9973,7 +10088,7 @@
     <row r="911" spans="1:8" ht="12.75">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
-      <c r="C911" s="1"/>
+      <c r="C911" s="54"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
@@ -9983,7 +10098,7 @@
     <row r="912" spans="1:8" ht="12.75">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
-      <c r="C912" s="1"/>
+      <c r="C912" s="54"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
@@ -9993,7 +10108,7 @@
     <row r="913" spans="1:8" ht="12.75">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
-      <c r="C913" s="1"/>
+      <c r="C913" s="54"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
       <c r="F913" s="1"/>
@@ -10003,7 +10118,7 @@
     <row r="914" spans="1:8" ht="12.75">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
-      <c r="C914" s="1"/>
+      <c r="C914" s="54"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
       <c r="F914" s="1"/>
@@ -10013,7 +10128,7 @@
     <row r="915" spans="1:8" ht="12.75">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
-      <c r="C915" s="1"/>
+      <c r="C915" s="54"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
@@ -10023,7 +10138,7 @@
     <row r="916" spans="1:8" ht="12.75">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
-      <c r="C916" s="1"/>
+      <c r="C916" s="54"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
@@ -10033,7 +10148,7 @@
     <row r="917" spans="1:8" ht="12.75">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
-      <c r="C917" s="1"/>
+      <c r="C917" s="54"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
@@ -10043,7 +10158,7 @@
     <row r="918" spans="1:8" ht="12.75">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
-      <c r="C918" s="1"/>
+      <c r="C918" s="54"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
@@ -10053,7 +10168,7 @@
     <row r="919" spans="1:8" ht="12.75">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
-      <c r="C919" s="1"/>
+      <c r="C919" s="54"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
@@ -10063,7 +10178,7 @@
     <row r="920" spans="1:8" ht="12.75">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
-      <c r="C920" s="1"/>
+      <c r="C920" s="54"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
@@ -10073,7 +10188,7 @@
     <row r="921" spans="1:8" ht="12.75">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
-      <c r="C921" s="1"/>
+      <c r="C921" s="54"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
@@ -10083,7 +10198,7 @@
     <row r="922" spans="1:8" ht="12.75">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
-      <c r="C922" s="1"/>
+      <c r="C922" s="54"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
@@ -10093,7 +10208,7 @@
     <row r="923" spans="1:8" ht="12.75">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
-      <c r="C923" s="1"/>
+      <c r="C923" s="54"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
@@ -10103,7 +10218,7 @@
     <row r="924" spans="1:8" ht="12.75">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
-      <c r="C924" s="1"/>
+      <c r="C924" s="54"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
@@ -10113,7 +10228,7 @@
     <row r="925" spans="1:8" ht="12.75">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
-      <c r="C925" s="1"/>
+      <c r="C925" s="54"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
@@ -10123,7 +10238,7 @@
     <row r="926" spans="1:8" ht="12.75">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
-      <c r="C926" s="1"/>
+      <c r="C926" s="54"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
@@ -10133,7 +10248,7 @@
     <row r="927" spans="1:8" ht="12.75">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
-      <c r="C927" s="1"/>
+      <c r="C927" s="54"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
@@ -10143,7 +10258,7 @@
     <row r="928" spans="1:8" ht="12.75">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
-      <c r="C928" s="1"/>
+      <c r="C928" s="54"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
@@ -10153,7 +10268,7 @@
     <row r="929" spans="1:8" ht="12.75">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
-      <c r="C929" s="1"/>
+      <c r="C929" s="54"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
@@ -10163,7 +10278,7 @@
     <row r="930" spans="1:8" ht="12.75">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
-      <c r="C930" s="1"/>
+      <c r="C930" s="54"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
       <c r="F930" s="1"/>
@@ -10173,7 +10288,7 @@
     <row r="931" spans="1:8" ht="12.75">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
-      <c r="C931" s="1"/>
+      <c r="C931" s="54"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
@@ -10183,7 +10298,7 @@
     <row r="932" spans="1:8" ht="12.75">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
-      <c r="C932" s="1"/>
+      <c r="C932" s="54"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
@@ -10193,7 +10308,7 @@
     <row r="933" spans="1:8" ht="12.75">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
-      <c r="C933" s="1"/>
+      <c r="C933" s="54"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
@@ -10203,7 +10318,7 @@
     <row r="934" spans="1:8" ht="12.75">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
-      <c r="C934" s="1"/>
+      <c r="C934" s="54"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
@@ -10213,7 +10328,7 @@
     <row r="935" spans="1:8" ht="12.75">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
-      <c r="C935" s="1"/>
+      <c r="C935" s="54"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
@@ -10223,7 +10338,7 @@
     <row r="936" spans="1:8" ht="12.75">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
-      <c r="C936" s="1"/>
+      <c r="C936" s="54"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
@@ -10233,7 +10348,7 @@
     <row r="937" spans="1:8" ht="12.75">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
-      <c r="C937" s="1"/>
+      <c r="C937" s="54"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
@@ -10243,7 +10358,7 @@
     <row r="938" spans="1:8" ht="12.75">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
-      <c r="C938" s="1"/>
+      <c r="C938" s="54"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
@@ -10253,7 +10368,7 @@
     <row r="939" spans="1:8" ht="12.75">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
-      <c r="C939" s="1"/>
+      <c r="C939" s="54"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
@@ -10263,7 +10378,7 @@
     <row r="940" spans="1:8" ht="12.75">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
-      <c r="C940" s="1"/>
+      <c r="C940" s="54"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
@@ -10273,7 +10388,7 @@
     <row r="941" spans="1:8" ht="12.75">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
-      <c r="C941" s="1"/>
+      <c r="C941" s="54"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
@@ -10283,7 +10398,7 @@
     <row r="942" spans="1:8" ht="12.75">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
-      <c r="C942" s="1"/>
+      <c r="C942" s="54"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
@@ -10293,7 +10408,7 @@
     <row r="943" spans="1:8" ht="12.75">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
-      <c r="C943" s="1"/>
+      <c r="C943" s="54"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
@@ -10303,7 +10418,7 @@
     <row r="944" spans="1:8" ht="12.75">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
-      <c r="C944" s="1"/>
+      <c r="C944" s="54"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
@@ -10313,7 +10428,7 @@
     <row r="945" spans="1:8" ht="12.75">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
-      <c r="C945" s="1"/>
+      <c r="C945" s="54"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
@@ -10323,7 +10438,7 @@
     <row r="946" spans="1:8" ht="12.75">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
-      <c r="C946" s="1"/>
+      <c r="C946" s="54"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>
@@ -10333,7 +10448,7 @@
     <row r="947" spans="1:8" ht="12.75">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
-      <c r="C947" s="1"/>
+      <c r="C947" s="54"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
       <c r="F947" s="1"/>
@@ -10343,7 +10458,7 @@
     <row r="948" spans="1:8" ht="12.75">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
-      <c r="C948" s="1"/>
+      <c r="C948" s="54"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
       <c r="F948" s="1"/>
@@ -10353,34 +10468,97 @@
     <row r="949" spans="1:8" ht="12.75">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
-      <c r="C949" s="1"/>
+      <c r="C949" s="54"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
       <c r="F949" s="1"/>
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
+    <row r="950" spans="1:8" ht="12.75">
+      <c r="A950" s="1"/>
+      <c r="B950" s="1"/>
+      <c r="C950" s="54"/>
+      <c r="D950" s="1"/>
+      <c r="E950" s="1"/>
+      <c r="F950" s="1"/>
+      <c r="G950" s="1"/>
+      <c r="H950" s="1"/>
+    </row>
+    <row r="951" spans="1:8" ht="12.75">
+      <c r="A951" s="1"/>
+      <c r="B951" s="1"/>
+      <c r="C951" s="54"/>
+      <c r="D951" s="1"/>
+      <c r="E951" s="1"/>
+      <c r="F951" s="1"/>
+      <c r="G951" s="1"/>
+      <c r="H951" s="1"/>
+    </row>
+    <row r="952" spans="1:8" ht="12.75">
+      <c r="A952" s="1"/>
+      <c r="B952" s="1"/>
+      <c r="C952" s="54"/>
+      <c r="D952" s="1"/>
+      <c r="E952" s="1"/>
+      <c r="F952" s="1"/>
+      <c r="G952" s="1"/>
+      <c r="H952" s="1"/>
+    </row>
+    <row r="953" spans="1:8" ht="12.75">
+      <c r="A953" s="1"/>
+      <c r="B953" s="1"/>
+      <c r="C953" s="54"/>
+      <c r="D953" s="1"/>
+      <c r="E953" s="1"/>
+      <c r="F953" s="1"/>
+      <c r="G953" s="1"/>
+      <c r="H953" s="1"/>
+    </row>
+    <row r="954" spans="1:8" ht="12.75">
+      <c r="A954" s="1"/>
+      <c r="B954" s="1"/>
+      <c r="C954" s="54"/>
+      <c r="D954" s="1"/>
+      <c r="E954" s="1"/>
+      <c r="F954" s="1"/>
+      <c r="G954" s="1"/>
+      <c r="H954" s="1"/>
+    </row>
+    <row r="955" spans="1:8" ht="12.75">
+      <c r="A955" s="1"/>
+      <c r="B955" s="1"/>
+      <c r="C955" s="54"/>
+      <c r="D955" s="1"/>
+      <c r="E955" s="1"/>
+      <c r="F955" s="1"/>
+      <c r="G955" s="1"/>
+      <c r="H955" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/주간업무계획표_개발.xlsx
+++ b/주간업무계획표_개발.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihoan/Documents/git/flowedu-documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-3135" windowWidth="51195" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="개발파트" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>주간업무계획</t>
   </si>
@@ -138,6 +130,20 @@
 3) 데이터베이스 구성 준비 완료</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>1) 학생관리 프론트 소스 분석
+2) 기존 소스 수정</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 학생관리 프론트 소스 분석완료
+2) 기존 소스 수정완료</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 학생관리 백엔드 프론트 연동작업 </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -147,7 +153,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd&quot;(&quot;ddd&quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -545,6 +551,58 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,64 +622,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -916,7 +922,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -930,66 +936,66 @@
   <dimension ref="A1:H955"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" customWidth="1"/>
-    <col min="5" max="6" width="40.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="52"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="23"/>
@@ -999,7 +1005,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -1011,7 +1017,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="23.25" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1035,9 +1041,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="66" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1057,9 +1063,9 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
@@ -1069,9 +1075,9 @@
       <c r="G8" s="22"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="9"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1079,23 +1085,29 @@
       <c r="G9" s="22"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="57" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="D10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="G10" s="22"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
@@ -1105,9 +1117,9 @@
       <c r="G11" s="22"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="9"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -1115,9 +1127,9 @@
       <c r="G12" s="22"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="52" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1129,9 +1141,9 @@
       <c r="G13" s="22"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="31"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
@@ -1141,9 +1153,9 @@
       <c r="G14" s="22"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="9"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -1151,7 +1163,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="12.75">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1161,7 +1173,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
@@ -1173,71 +1185,71 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="23.25" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36" t="s">
+      <c r="D18" s="56"/>
+      <c r="E18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="39"/>
+      <c r="G18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="18">
         <v>2</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" ht="50.1" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" ht="6" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="24"/>
@@ -1247,7 +1259,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="12.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="24"/>
@@ -1257,7 +1269,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="12.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="24"/>
@@ -1267,7 +1279,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="12.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="24"/>
@@ -1277,7 +1289,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="12.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="24"/>
@@ -1287,7 +1299,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="12.75">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="24"/>
@@ -1297,7 +1309,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="12.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="24"/>
@@ -1307,7 +1319,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="12.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="24"/>
@@ -1317,7 +1329,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="12.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="24"/>
@@ -1327,7 +1339,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="12.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="24"/>
@@ -1337,7 +1349,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="12.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="24"/>
@@ -1347,7 +1359,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="12.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="24"/>
@@ -1357,7 +1369,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="12.75">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="24"/>
@@ -1367,7 +1379,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="24"/>
@@ -1377,7 +1389,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="12.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="24"/>
@@ -1387,7 +1399,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="12.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="24"/>
@@ -1397,7 +1409,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="12.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="24"/>
@@ -1407,7 +1419,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="12.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="24"/>
@@ -1417,7 +1429,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="12.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="24"/>
@@ -1427,7 +1439,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="24"/>
@@ -1437,7 +1449,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="12.75">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="24"/>
@@ -1447,7 +1459,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="12.75">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="24"/>
@@ -1457,7 +1469,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="12.75">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="24"/>
@@ -1467,7 +1479,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="24"/>
@@ -1477,7 +1489,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="24"/>
@@ -1487,7 +1499,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="24"/>
@@ -1497,7 +1509,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="24"/>
@@ -1507,7 +1519,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="24"/>
@@ -1517,7 +1529,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="24"/>
@@ -1527,7 +1539,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="24"/>
@@ -1537,7 +1549,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="24"/>
@@ -1547,7 +1559,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="24"/>
@@ -1557,7 +1569,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="24"/>
@@ -1567,7 +1579,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="24"/>
@@ -1577,7 +1589,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="24"/>
@@ -1587,7 +1599,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="12.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="24"/>
@@ -1597,7 +1609,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="12.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="24"/>
@@ -1607,7 +1619,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="12.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="24"/>
@@ -1617,7 +1629,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="12.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="24"/>
@@ -1627,7 +1639,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="12.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="24"/>
@@ -1637,7 +1649,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="12.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="24"/>
@@ -1647,7 +1659,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="12.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="24"/>
@@ -1657,7 +1669,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="24"/>
@@ -1667,7 +1679,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="12.75">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="24"/>
@@ -1677,7 +1689,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="12.75">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="24"/>
@@ -1687,7 +1699,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="12.75">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="24"/>
@@ -1697,7 +1709,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="12.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="24"/>
@@ -1707,7 +1719,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="12.75">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="24"/>
@@ -1717,7 +1729,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="12.75">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="24"/>
@@ -1727,7 +1739,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="12.75">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="24"/>
@@ -1737,7 +1749,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="12.75">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="24"/>
@@ -1747,7 +1759,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="12.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="24"/>
@@ -1757,7 +1769,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="12.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="24"/>
@@ -1767,7 +1779,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="12.75">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="24"/>
@@ -1777,7 +1789,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="12.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="24"/>
@@ -1787,7 +1799,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="12.75">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="24"/>
@@ -1797,7 +1809,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="12.75">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="24"/>
@@ -1807,7 +1819,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="12.75">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="24"/>
@@ -1817,7 +1829,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="12.75">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="24"/>
@@ -1827,7 +1839,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="12.75">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="24"/>
@@ -1837,7 +1849,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="12.75">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="24"/>
@@ -1847,7 +1859,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="12.75">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="24"/>
@@ -1857,7 +1869,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="12.75">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="24"/>
@@ -1867,7 +1879,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="12.75">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="24"/>
@@ -1877,7 +1889,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="12.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="24"/>
@@ -1887,7 +1899,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="12.75">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="24"/>
@@ -1897,7 +1909,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="12.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="24"/>
@@ -1907,7 +1919,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="12.75">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="24"/>
@@ -1917,7 +1929,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="12.75">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="24"/>
@@ -1927,7 +1939,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="12.75">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="24"/>
@@ -1937,7 +1949,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="12.75">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="24"/>
@@ -1947,7 +1959,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="12.75">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="24"/>
@@ -1957,7 +1969,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="12.75">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="24"/>
@@ -1967,7 +1979,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="24"/>
@@ -1977,7 +1989,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="12.75">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="24"/>
@@ -1987,7 +1999,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="12.75">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="24"/>
@@ -1997,7 +2009,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="12.75">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="24"/>
@@ -2007,7 +2019,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="12.75">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="24"/>
@@ -2017,7 +2029,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="24"/>
@@ -2027,7 +2039,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="12.75">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="24"/>
@@ -2037,7 +2049,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="12.75">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="24"/>
@@ -2047,7 +2059,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="12.75">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="24"/>
@@ -2057,7 +2069,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="12.75">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="24"/>
@@ -2067,7 +2079,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="12.75">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="24"/>
@@ -2077,7 +2089,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="12.75">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="24"/>
@@ -2087,7 +2099,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="12.75">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="24"/>
@@ -2097,7 +2109,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="12.75">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="24"/>
@@ -2107,7 +2119,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="12.75">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="24"/>
@@ -2117,7 +2129,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="12.75">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="24"/>
@@ -2127,7 +2139,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="12.75">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="24"/>
@@ -2137,7 +2149,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="12.75">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="24"/>
@@ -2147,7 +2159,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="12.75">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="24"/>
@@ -2157,7 +2169,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="12.75">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="24"/>
@@ -2167,7 +2179,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="12.75">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="24"/>
@@ -2177,7 +2189,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="12.75">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="24"/>
@@ -2187,7 +2199,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="12.75">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="24"/>
@@ -2197,7 +2209,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="12.75">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="24"/>
@@ -2207,7 +2219,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="12.75">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="24"/>
@@ -2217,7 +2229,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="12.75">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="24"/>
@@ -2227,7 +2239,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="12.75">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="24"/>
@@ -2237,7 +2249,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="12.75">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="24"/>
@@ -2247,7 +2259,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="12.75">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="24"/>
@@ -2257,7 +2269,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="12.75">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="24"/>
@@ -2267,7 +2279,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="12.75">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="24"/>
@@ -2277,7 +2289,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="12.75">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="24"/>
@@ -2287,7 +2299,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="12.75">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="24"/>
@@ -2297,7 +2309,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="12.75">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="24"/>
@@ -2307,7 +2319,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="12.75">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="24"/>
@@ -2317,7 +2329,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="12.75">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="24"/>
@@ -2327,7 +2339,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="12.75">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="24"/>
@@ -2337,7 +2349,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="12.75">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="24"/>
@@ -2347,7 +2359,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="12.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="24"/>
@@ -2357,7 +2369,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="12.75">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="24"/>
@@ -2367,7 +2379,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="12.75">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="24"/>
@@ -2377,7 +2389,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="12.75">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="24"/>
@@ -2387,7 +2399,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="12.75">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="24"/>
@@ -2397,7 +2409,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="12.75">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="24"/>
@@ -2407,7 +2419,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="12.75">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="24"/>
@@ -2417,7 +2429,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="12.75">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="24"/>
@@ -2427,7 +2439,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="12.75">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="24"/>
@@ -2437,7 +2449,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="12.75">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="24"/>
@@ -2447,7 +2459,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="12.75">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="24"/>
@@ -2457,7 +2469,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="12.75">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="24"/>
@@ -2467,7 +2479,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="12.75">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="24"/>
@@ -2477,7 +2489,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="12.75">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="24"/>
@@ -2487,7 +2499,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="12.75">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="24"/>
@@ -2497,7 +2509,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="12.75">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="24"/>
@@ -2507,7 +2519,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="12.75">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="24"/>
@@ -2517,7 +2529,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="12.75">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="24"/>
@@ -2527,7 +2539,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="12.75">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="24"/>
@@ -2537,7 +2549,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="12.75">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="24"/>
@@ -2547,7 +2559,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="12.75">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="24"/>
@@ -2557,7 +2569,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="12.75">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="24"/>
@@ -2567,7 +2579,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="12.75">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="24"/>
@@ -2577,7 +2589,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="12.75">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="24"/>
@@ -2587,7 +2599,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="12.75">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="24"/>
@@ -2597,7 +2609,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="12.75">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="24"/>
@@ -2607,7 +2619,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="12.75">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="24"/>
@@ -2617,7 +2629,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="12.75">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="24"/>
@@ -2627,7 +2639,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="12.75">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="24"/>
@@ -2637,7 +2649,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="12.75">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="24"/>
@@ -2647,7 +2659,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="12.75">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="24"/>
@@ -2657,7 +2669,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="12.75">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="24"/>
@@ -2667,7 +2679,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="12.75">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="24"/>
@@ -2677,7 +2689,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="12.75">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="24"/>
@@ -2687,7 +2699,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="12.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="24"/>
@@ -2697,7 +2709,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="12.75">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="24"/>
@@ -2707,7 +2719,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="12.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="24"/>
@@ -2717,7 +2729,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="12.75">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="24"/>
@@ -2727,7 +2739,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="12.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="24"/>
@@ -2737,7 +2749,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="12.75">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="24"/>
@@ -2747,7 +2759,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="12.75">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="24"/>
@@ -2757,7 +2769,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="12.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="24"/>
@@ -2767,7 +2779,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="12.75">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="24"/>
@@ -2777,7 +2789,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="12.75">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="24"/>
@@ -2787,7 +2799,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="12.75">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="24"/>
@@ -2797,7 +2809,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="12.75">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="24"/>
@@ -2807,7 +2819,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="12.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="24"/>
@@ -2817,7 +2829,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="12.75">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="24"/>
@@ -2827,7 +2839,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="12.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="24"/>
@@ -2837,7 +2849,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="12.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="24"/>
@@ -2847,7 +2859,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="12.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="24"/>
@@ -2857,7 +2869,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="12.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="24"/>
@@ -2867,7 +2879,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="12.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="24"/>
@@ -2877,7 +2889,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="12.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="24"/>
@@ -2887,7 +2899,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="12.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="24"/>
@@ -2897,7 +2909,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="12.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="24"/>
@@ -2907,7 +2919,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="12.75">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="24"/>
@@ -2917,7 +2929,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="12.75">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="24"/>
@@ -2927,7 +2939,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="12.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="24"/>
@@ -2937,7 +2949,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="12.75">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="24"/>
@@ -2947,7 +2959,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="12.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="24"/>
@@ -2957,7 +2969,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="12.75">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="24"/>
@@ -2967,7 +2979,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="12.75">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="24"/>
@@ -2977,7 +2989,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="12.75">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="24"/>
@@ -2987,7 +2999,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="12.75">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="24"/>
@@ -2997,7 +3009,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="12.75">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="24"/>
@@ -3007,7 +3019,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="12.75">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="24"/>
@@ -3017,7 +3029,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="12.75">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="24"/>
@@ -3027,7 +3039,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="12.75">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="24"/>
@@ -3037,7 +3049,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="12.75">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="24"/>
@@ -3047,7 +3059,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="12.75">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="24"/>
@@ -3057,7 +3069,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="12.75">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="24"/>
@@ -3067,7 +3079,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="12.75">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="24"/>
@@ -3077,7 +3089,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="12.75">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="24"/>
@@ -3087,7 +3099,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="12.75">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="24"/>
@@ -3097,7 +3109,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="12.75">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="24"/>
@@ -3107,7 +3119,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="12.75">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="24"/>
@@ -3117,7 +3129,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="12.75">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="24"/>
@@ -3127,7 +3139,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="12.75">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="24"/>
@@ -3137,7 +3149,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="12.75">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="24"/>
@@ -3147,7 +3159,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="12.75">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="24"/>
@@ -3157,7 +3169,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="12.75">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="24"/>
@@ -3167,7 +3179,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="12.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="24"/>
@@ -3177,7 +3189,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="12.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="24"/>
@@ -3187,7 +3199,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="12.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="24"/>
@@ -3197,7 +3209,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="12.75">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="24"/>
@@ -3207,7 +3219,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="12.75">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="24"/>
@@ -3217,7 +3229,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="12.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="24"/>
@@ -3227,7 +3239,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="12.75">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="24"/>
@@ -3237,7 +3249,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="12.75">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="24"/>
@@ -3247,7 +3259,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="12.75">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="24"/>
@@ -3257,7 +3269,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="12.75">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="24"/>
@@ -3267,7 +3279,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="12.75">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="24"/>
@@ -3277,7 +3289,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="12.75">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="24"/>
@@ -3287,7 +3299,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="12.75">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="24"/>
@@ -3297,7 +3309,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="12.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="24"/>
@@ -3307,7 +3319,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="12.75">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="24"/>
@@ -3317,7 +3329,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="12.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="24"/>
@@ -3327,7 +3339,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="12.75">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="24"/>
@@ -3337,7 +3349,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="12.75">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="24"/>
@@ -3347,7 +3359,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="12.75">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="24"/>
@@ -3357,7 +3369,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="12.75">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="24"/>
@@ -3367,7 +3379,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="12.75">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="24"/>
@@ -3377,7 +3389,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="12.75">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="24"/>
@@ -3387,7 +3399,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="12.75">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="24"/>
@@ -3397,7 +3409,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="12.75">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="24"/>
@@ -3407,7 +3419,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="12.75">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="24"/>
@@ -3417,7 +3429,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="12.75">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="24"/>
@@ -3427,7 +3439,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="12.75">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="24"/>
@@ -3437,7 +3449,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="12.75">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="24"/>
@@ -3447,7 +3459,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="12.75">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="24"/>
@@ -3457,7 +3469,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="12.75">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="24"/>
@@ -3467,7 +3479,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="12.75">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="24"/>
@@ -3477,7 +3489,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="12.75">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="24"/>
@@ -3487,7 +3499,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="12.75">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="24"/>
@@ -3497,7 +3509,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="12.75">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="24"/>
@@ -3507,7 +3519,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="12.75">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="24"/>
@@ -3517,7 +3529,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="12.75">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="24"/>
@@ -3527,7 +3539,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="12.75">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="24"/>
@@ -3537,7 +3549,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="12.75">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="24"/>
@@ -3547,7 +3559,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="12.75">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="24"/>
@@ -3557,7 +3569,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="12.75">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="24"/>
@@ -3567,7 +3579,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="12.75">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="24"/>
@@ -3577,7 +3589,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="12.75">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="24"/>
@@ -3587,7 +3599,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="12.75">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="24"/>
@@ -3597,7 +3609,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="12.75">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="24"/>
@@ -3607,7 +3619,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="12.75">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="24"/>
@@ -3617,7 +3629,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="12.75">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="24"/>
@@ -3627,7 +3639,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="12.75">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="24"/>
@@ -3637,7 +3649,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="12.75">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="24"/>
@@ -3647,7 +3659,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="12.75">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="24"/>
@@ -3657,7 +3669,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="12.75">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="24"/>
@@ -3667,7 +3679,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="12.75">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="24"/>
@@ -3677,7 +3689,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="12.75">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="24"/>
@@ -3687,7 +3699,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="12.75">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="24"/>
@@ -3697,7 +3709,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="12.75">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="24"/>
@@ -3707,7 +3719,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="12.75">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="24"/>
@@ -3717,7 +3729,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="12.75">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="24"/>
@@ -3727,7 +3739,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="12.75">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="24"/>
@@ -3737,7 +3749,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="12.75">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="24"/>
@@ -3747,7 +3759,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="12.75">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="24"/>
@@ -3757,7 +3769,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="12.75">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="24"/>
@@ -3767,7 +3779,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="12.75">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="24"/>
@@ -3777,7 +3789,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="12.75">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="24"/>
@@ -3787,7 +3799,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="12.75">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="24"/>
@@ -3797,7 +3809,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="12.75">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="24"/>
@@ -3807,7 +3819,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="12.75">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="24"/>
@@ -3817,7 +3829,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="12.75">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="24"/>
@@ -3827,7 +3839,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="12.75">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="24"/>
@@ -3837,7 +3849,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="12.75">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="24"/>
@@ -3847,7 +3859,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="12.75">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="24"/>
@@ -3857,7 +3869,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="12.75">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="24"/>
@@ -3867,7 +3879,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="12.75">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="24"/>
@@ -3877,7 +3889,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="12.75">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="24"/>
@@ -3887,7 +3899,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="12.75">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="24"/>
@@ -3897,7 +3909,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="12.75">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="24"/>
@@ -3907,7 +3919,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="12.75">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="24"/>
@@ -3917,7 +3929,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="12.75">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="24"/>
@@ -3927,7 +3939,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="12.75">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="24"/>
@@ -3937,7 +3949,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="12.75">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="24"/>
@@ -3947,7 +3959,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="12.75">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="24"/>
@@ -3957,7 +3969,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="12.75">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="24"/>
@@ -3967,7 +3979,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="12.75">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="24"/>
@@ -3977,7 +3989,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="12.75">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="24"/>
@@ -3987,7 +3999,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="12.75">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="24"/>
@@ -3997,7 +4009,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="12.75">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="24"/>
@@ -4007,7 +4019,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="12.75">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="24"/>
@@ -4017,7 +4029,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="12.75">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="24"/>
@@ -4027,7 +4039,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="12.75">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="24"/>
@@ -4037,7 +4049,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="12.75">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="24"/>
@@ -4047,7 +4059,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="12.75">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="24"/>
@@ -4057,7 +4069,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="12.75">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="24"/>
@@ -4067,7 +4079,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="12.75">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="24"/>
@@ -4077,7 +4089,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="12.75">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="24"/>
@@ -4087,7 +4099,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="12.75">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="24"/>
@@ -4097,7 +4109,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="12.75">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="24"/>
@@ -4107,7 +4119,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="12.75">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="24"/>
@@ -4117,7 +4129,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="12.75">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="24"/>
@@ -4127,7 +4139,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="12.75">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="24"/>
@@ -4137,7 +4149,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="12.75">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="24"/>
@@ -4147,7 +4159,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="12.75">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="24"/>
@@ -4157,7 +4169,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="12.75">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="24"/>
@@ -4167,7 +4179,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="12.75">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="24"/>
@@ -4177,7 +4189,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="12.75">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="24"/>
@@ -4187,7 +4199,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="12.75">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="24"/>
@@ -4197,7 +4209,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="12.75">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="24"/>
@@ -4207,7 +4219,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="12.75">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="24"/>
@@ -4217,7 +4229,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="12.75">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="24"/>
@@ -4227,7 +4239,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="12.75">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="24"/>
@@ -4237,7 +4249,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="12.75">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="24"/>
@@ -4247,7 +4259,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="12.75">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="24"/>
@@ -4257,7 +4269,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="12.75">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="24"/>
@@ -4267,7 +4279,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="12.75">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="24"/>
@@ -4277,7 +4289,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="12.75">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="24"/>
@@ -4287,7 +4299,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="12.75">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="24"/>
@@ -4297,7 +4309,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="12.75">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="24"/>
@@ -4307,7 +4319,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="12.75">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="24"/>
@@ -4317,7 +4329,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="12.75">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="24"/>
@@ -4327,7 +4339,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="12.75">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="24"/>
@@ -4337,7 +4349,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="12.75">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="24"/>
@@ -4347,7 +4359,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="12.75">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="24"/>
@@ -4357,7 +4369,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="12.75">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="24"/>
@@ -4367,7 +4379,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="12.75">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="24"/>
@@ -4377,7 +4389,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="12.75">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="24"/>
@@ -4387,7 +4399,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="12.75">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="24"/>
@@ -4397,7 +4409,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="12.75">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="24"/>
@@ -4407,7 +4419,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="12.75">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="24"/>
@@ -4417,7 +4429,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="12.75">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="24"/>
@@ -4427,7 +4439,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" ht="12.75">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="24"/>
@@ -4437,7 +4449,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" ht="12.75">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="24"/>
@@ -4447,7 +4459,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" ht="12.75">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="24"/>
@@ -4457,7 +4469,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" ht="12.75">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="24"/>
@@ -4467,7 +4479,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="12.75">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="24"/>
@@ -4477,7 +4489,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" ht="12.75">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="24"/>
@@ -4487,7 +4499,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="12.75">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="24"/>
@@ -4497,7 +4509,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" ht="12.75">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="24"/>
@@ -4507,7 +4519,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="12.75">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="24"/>
@@ -4517,7 +4529,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" ht="12.75">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="24"/>
@@ -4527,7 +4539,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" ht="12.75">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="24"/>
@@ -4537,7 +4549,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" ht="12.75">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="24"/>
@@ -4547,7 +4559,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" ht="12.75">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="24"/>
@@ -4557,7 +4569,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="12.75">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="24"/>
@@ -4567,7 +4579,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" ht="12.75">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="24"/>
@@ -4577,7 +4589,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" ht="12.75">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="24"/>
@@ -4587,7 +4599,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="12.75">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="24"/>
@@ -4597,7 +4609,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" ht="12.75">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="24"/>
@@ -4607,7 +4619,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="12.75">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="24"/>
@@ -4617,7 +4629,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" ht="12.75">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="24"/>
@@ -4627,7 +4639,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" ht="12.75">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="24"/>
@@ -4637,7 +4649,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="12.75">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="24"/>
@@ -4647,7 +4659,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" ht="12.75">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="24"/>
@@ -4657,7 +4669,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="12.75">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="24"/>
@@ -4667,7 +4679,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" ht="12.75">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="24"/>
@@ -4677,7 +4689,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="12.75">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="24"/>
@@ -4687,7 +4699,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="12.75">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="24"/>
@@ -4697,7 +4709,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="12.75">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="24"/>
@@ -4707,7 +4719,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="12.75">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="24"/>
@@ -4717,7 +4729,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" ht="12.75">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="24"/>
@@ -4727,7 +4739,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="12.75">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="24"/>
@@ -4737,7 +4749,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="12.75">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="24"/>
@@ -4747,7 +4759,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" ht="12.75">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="24"/>
@@ -4757,7 +4769,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" ht="12.75">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="24"/>
@@ -4767,7 +4779,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" ht="12.75">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="24"/>
@@ -4777,7 +4789,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" ht="12.75">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="24"/>
@@ -4787,7 +4799,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" ht="12.75">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="24"/>
@@ -4797,7 +4809,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" ht="12.75">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="24"/>
@@ -4807,7 +4819,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" ht="12.75">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="24"/>
@@ -4817,7 +4829,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" ht="12.75">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="24"/>
@@ -4827,7 +4839,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" ht="12.75">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="24"/>
@@ -4837,7 +4849,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" ht="12.75">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="24"/>
@@ -4847,7 +4859,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" ht="12.75">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="24"/>
@@ -4857,7 +4869,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" ht="12.75">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="24"/>
@@ -4867,7 +4879,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" ht="12.75">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="24"/>
@@ -4877,7 +4889,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" ht="12.75">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="24"/>
@@ -4887,7 +4899,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" ht="12.75">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="24"/>
@@ -4897,7 +4909,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="12.75">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="24"/>
@@ -4907,7 +4919,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" ht="12.75">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="24"/>
@@ -4917,7 +4929,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" ht="12.75">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="24"/>
@@ -4927,7 +4939,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" ht="12.75">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="24"/>
@@ -4937,7 +4949,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" ht="12.75">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="24"/>
@@ -4947,7 +4959,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" ht="12.75">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="24"/>
@@ -4957,7 +4969,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" ht="12.75">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="24"/>
@@ -4967,7 +4979,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" ht="12.75">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="24"/>
@@ -4977,7 +4989,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" ht="12.75">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="24"/>
@@ -4987,7 +4999,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" ht="12.75">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="24"/>
@@ -4997,7 +5009,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" ht="12.75">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="24"/>
@@ -5007,7 +5019,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="12.75">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="24"/>
@@ -5017,7 +5029,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="12.75">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="24"/>
@@ -5027,7 +5039,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" ht="12.75">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="24"/>
@@ -5037,7 +5049,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" ht="12.75">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="24"/>
@@ -5047,7 +5059,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" ht="12.75">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="24"/>
@@ -5057,7 +5069,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" ht="12.75">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="24"/>
@@ -5067,7 +5079,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="12.75">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="24"/>
@@ -5077,7 +5089,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" ht="12.75">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="24"/>
@@ -5087,7 +5099,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" ht="12.75">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="24"/>
@@ -5097,7 +5109,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" ht="12.75">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="24"/>
@@ -5107,7 +5119,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" ht="12.75">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="24"/>
@@ -5117,7 +5129,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" ht="12.75">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="24"/>
@@ -5127,7 +5139,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" ht="12.75">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="24"/>
@@ -5137,7 +5149,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" ht="12.75">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="24"/>
@@ -5147,7 +5159,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" ht="12.75">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="24"/>
@@ -5157,7 +5169,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" ht="12.75">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="24"/>
@@ -5167,7 +5179,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" ht="12.75">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="24"/>
@@ -5177,7 +5189,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" ht="12.75">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="24"/>
@@ -5187,7 +5199,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" ht="12.75">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="24"/>
@@ -5197,7 +5209,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" ht="12.75">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="24"/>
@@ -5207,7 +5219,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" ht="12.75">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="24"/>
@@ -5217,7 +5229,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" ht="12.75">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="24"/>
@@ -5227,7 +5239,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" ht="12.75">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="24"/>
@@ -5237,7 +5249,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" ht="12.75">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="24"/>
@@ -5247,7 +5259,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" ht="12.75">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="24"/>
@@ -5257,7 +5269,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" ht="12.75">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="24"/>
@@ -5267,7 +5279,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" ht="12.75">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="24"/>
@@ -5277,7 +5289,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" ht="12.75">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="24"/>
@@ -5287,7 +5299,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" ht="12.75">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="24"/>
@@ -5297,7 +5309,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" ht="12.75">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="24"/>
@@ -5307,7 +5319,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" ht="12.75">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="24"/>
@@ -5317,7 +5329,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" ht="12.75">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="24"/>
@@ -5327,7 +5339,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" ht="12.75">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="24"/>
@@ -5337,7 +5349,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" ht="12.75">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="24"/>
@@ -5347,7 +5359,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" ht="12.75">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="24"/>
@@ -5357,7 +5369,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" ht="12.75">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="24"/>
@@ -5367,7 +5379,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" ht="12.75">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="24"/>
@@ -5377,7 +5389,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" ht="12.75">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="24"/>
@@ -5387,7 +5399,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" ht="12.75">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="24"/>
@@ -5397,7 +5409,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" ht="12.75">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="24"/>
@@ -5407,7 +5419,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" ht="12.75">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="24"/>
@@ -5417,7 +5429,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" ht="12.75">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="24"/>
@@ -5427,7 +5439,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" ht="12.75">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="24"/>
@@ -5437,7 +5449,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" ht="12.75">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="24"/>
@@ -5447,7 +5459,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" ht="12.75">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="24"/>
@@ -5457,7 +5469,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" ht="12.75">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="24"/>
@@ -5467,7 +5479,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" ht="12.75">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="24"/>
@@ -5477,7 +5489,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" ht="12.75">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="24"/>
@@ -5487,7 +5499,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" ht="12.75">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="24"/>
@@ -5497,7 +5509,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" ht="12.75">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="24"/>
@@ -5507,7 +5519,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" ht="12.75">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="24"/>
@@ -5517,7 +5529,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" ht="12.75">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="24"/>
@@ -5527,7 +5539,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" ht="12.75">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="24"/>
@@ -5537,7 +5549,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" ht="12.75">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="24"/>
@@ -5547,7 +5559,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" ht="12.75">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="24"/>
@@ -5557,7 +5569,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" ht="12.75">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="24"/>
@@ -5567,7 +5579,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" ht="12.75">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="24"/>
@@ -5577,7 +5589,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" ht="12.75">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="24"/>
@@ -5587,7 +5599,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" ht="12.75">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="24"/>
@@ -5597,7 +5609,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" ht="12.75">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="24"/>
@@ -5607,7 +5619,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" ht="12.75">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="24"/>
@@ -5617,7 +5629,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" ht="12.75">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="24"/>
@@ -5627,7 +5639,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" ht="12.75">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="24"/>
@@ -5637,7 +5649,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" ht="12.75">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="24"/>
@@ -5647,7 +5659,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" ht="12.75">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="24"/>
@@ -5657,7 +5669,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" ht="12.75">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="24"/>
@@ -5667,7 +5679,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" ht="12.75">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="24"/>
@@ -5677,7 +5689,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" ht="12.75">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="24"/>
@@ -5687,7 +5699,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" ht="12.75">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="24"/>
@@ -5697,7 +5709,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" ht="12.75">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="24"/>
@@ -5707,7 +5719,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" ht="12.75">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="24"/>
@@ -5717,7 +5729,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" ht="12.75">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="24"/>
@@ -5727,7 +5739,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" ht="12.75">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="24"/>
@@ -5737,7 +5749,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" ht="12.75">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="24"/>
@@ -5747,7 +5759,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" ht="12.75">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="24"/>
@@ -5757,7 +5769,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" ht="12.75">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="24"/>
@@ -5767,7 +5779,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" ht="12.75">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="24"/>
@@ -5777,7 +5789,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" ht="12.75">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="24"/>
@@ -5787,7 +5799,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" ht="12.75">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="24"/>
@@ -5797,7 +5809,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" ht="12.75">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="24"/>
@@ -5807,7 +5819,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" ht="12.75">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="24"/>
@@ -5817,7 +5829,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" ht="12.75">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="24"/>
@@ -5827,7 +5839,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" ht="12.75">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="24"/>
@@ -5837,7 +5849,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" ht="12.75">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="24"/>
@@ -5847,7 +5859,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" ht="12.75">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="24"/>
@@ -5857,7 +5869,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" ht="12.75">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="24"/>
@@ -5867,7 +5879,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" ht="12.75">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="24"/>
@@ -5877,7 +5889,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" ht="12.75">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="24"/>
@@ -5887,7 +5899,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" ht="12.75">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="24"/>
@@ -5897,7 +5909,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" ht="12.75">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="24"/>
@@ -5907,7 +5919,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" ht="12.75">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="24"/>
@@ -5917,7 +5929,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" ht="12.75">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="24"/>
@@ -5927,7 +5939,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" ht="12.75">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="24"/>
@@ -5937,7 +5949,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" ht="12.75">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="24"/>
@@ -5947,7 +5959,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" ht="12.75">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="24"/>
@@ -5957,7 +5969,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" ht="12.75">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="24"/>
@@ -5967,7 +5979,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" ht="12.75">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="24"/>
@@ -5977,7 +5989,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" ht="12.75">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="24"/>
@@ -5987,7 +5999,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" ht="12.75">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="24"/>
@@ -5997,7 +6009,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" ht="12.75">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="24"/>
@@ -6007,7 +6019,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" ht="12.75">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="24"/>
@@ -6017,7 +6029,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" ht="12.75">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="24"/>
@@ -6027,7 +6039,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" ht="12.75">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="24"/>
@@ -6037,7 +6049,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" ht="12.75">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="24"/>
@@ -6047,7 +6059,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" ht="12.75">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="24"/>
@@ -6057,7 +6069,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" ht="12.75">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="24"/>
@@ -6067,7 +6079,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" ht="12.75">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="24"/>
@@ -6077,7 +6089,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" ht="12.75">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="24"/>
@@ -6087,7 +6099,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" ht="12.75">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="24"/>
@@ -6097,7 +6109,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" ht="12.75">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="24"/>
@@ -6107,7 +6119,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" ht="12.75">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="24"/>
@@ -6117,7 +6129,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" ht="12.75">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="24"/>
@@ -6127,7 +6139,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" ht="12.75">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="24"/>
@@ -6137,7 +6149,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" ht="12.75">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="24"/>
@@ -6147,7 +6159,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" ht="12.75">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="24"/>
@@ -6157,7 +6169,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" ht="12.75">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="24"/>
@@ -6167,7 +6179,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" ht="12.75">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="24"/>
@@ -6177,7 +6189,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" ht="12.75">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="24"/>
@@ -6187,7 +6199,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" ht="12.75">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="24"/>
@@ -6197,7 +6209,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" ht="12.75">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="24"/>
@@ -6207,7 +6219,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" ht="12.75">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="24"/>
@@ -6217,7 +6229,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" ht="12.75">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="24"/>
@@ -6227,7 +6239,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" ht="12.75">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="24"/>
@@ -6237,7 +6249,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" ht="12.75">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="24"/>
@@ -6247,7 +6259,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" ht="12.75">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="24"/>
@@ -6257,7 +6269,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" ht="12.75">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="24"/>
@@ -6267,7 +6279,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" ht="12.75">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="24"/>
@@ -6277,7 +6289,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" ht="12.75">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="24"/>
@@ -6287,7 +6299,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" ht="12.75">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="24"/>
@@ -6297,7 +6309,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" ht="12.75">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="24"/>
@@ -6307,7 +6319,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" ht="12.75">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="24"/>
@@ -6317,7 +6329,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" ht="12.75">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="24"/>
@@ -6327,7 +6339,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" ht="12.75">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="24"/>
@@ -6337,7 +6349,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" ht="12.75">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="24"/>
@@ -6347,7 +6359,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" ht="12.75">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="24"/>
@@ -6357,7 +6369,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" ht="12.75">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="24"/>
@@ -6367,7 +6379,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" ht="12.75">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="24"/>
@@ -6377,7 +6389,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" ht="12.75">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="24"/>
@@ -6387,7 +6399,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" ht="12.75">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="24"/>
@@ -6397,7 +6409,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" ht="12.75">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="24"/>
@@ -6407,7 +6419,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" ht="12.75">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="24"/>
@@ -6417,7 +6429,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" ht="12.75">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="24"/>
@@ -6427,7 +6439,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" ht="12.75">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="24"/>
@@ -6437,7 +6449,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" ht="12.75">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="24"/>
@@ -6447,7 +6459,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" ht="12.75">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="24"/>
@@ -6457,7 +6469,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" ht="12.75">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="24"/>
@@ -6467,7 +6479,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" ht="12.75">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="24"/>
@@ -6477,7 +6489,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" ht="12.75">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="24"/>
@@ -6487,7 +6499,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" ht="12.75">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="24"/>
@@ -6497,7 +6509,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" ht="12.75">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="24"/>
@@ -6507,7 +6519,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" ht="12.75">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="24"/>
@@ -6517,7 +6529,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" ht="12.75">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="24"/>
@@ -6527,7 +6539,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" ht="12.75">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="24"/>
@@ -6537,7 +6549,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" ht="12.75">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="24"/>
@@ -6547,7 +6559,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" ht="12.75">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="24"/>
@@ -6557,7 +6569,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" ht="12.75">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="24"/>
@@ -6567,7 +6579,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" ht="12.75">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="24"/>
@@ -6577,7 +6589,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" ht="12.75">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="24"/>
@@ -6587,7 +6599,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" ht="12.75">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="24"/>
@@ -6597,7 +6609,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" ht="12.75">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="24"/>
@@ -6607,7 +6619,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" ht="12.75">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="24"/>
@@ -6617,7 +6629,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" ht="12.75">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="24"/>
@@ -6627,7 +6639,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" ht="12.75">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="24"/>
@@ -6637,7 +6649,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" ht="12.75">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="24"/>
@@ -6647,7 +6659,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" ht="12.75">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="24"/>
@@ -6657,7 +6669,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" ht="12.75">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="24"/>
@@ -6667,7 +6679,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" ht="12.75">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="24"/>
@@ -6677,7 +6689,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" ht="12.75">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="24"/>
@@ -6687,7 +6699,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" ht="12.75">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="24"/>
@@ -6697,7 +6709,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" ht="12.75">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="24"/>
@@ -6707,7 +6719,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" ht="12.75">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="24"/>
@@ -6717,7 +6729,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" ht="12.75">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="24"/>
@@ -6727,7 +6739,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" ht="12.75">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="24"/>
@@ -6737,7 +6749,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" ht="12.75">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="24"/>
@@ -6747,7 +6759,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" ht="12.75">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="24"/>
@@ -6757,7 +6769,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" ht="12.75">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="24"/>
@@ -6767,7 +6779,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" ht="12.75">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="24"/>
@@ -6777,7 +6789,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" ht="12.75">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="24"/>
@@ -6787,7 +6799,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" ht="12.75">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="24"/>
@@ -6797,7 +6809,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" ht="12.75">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="24"/>
@@ -6807,7 +6819,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" ht="12.75">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="24"/>
@@ -6817,7 +6829,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" ht="12.75">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="24"/>
@@ -6827,7 +6839,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" ht="12.75">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="24"/>
@@ -6837,7 +6849,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" ht="12.75">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="24"/>
@@ -6847,7 +6859,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" ht="12.75">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="24"/>
@@ -6857,7 +6869,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" ht="12.75">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="24"/>
@@ -6867,7 +6879,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" ht="12.75">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="24"/>
@@ -6877,7 +6889,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" ht="12.75">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="24"/>
@@ -6887,7 +6899,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" ht="12.75">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="24"/>
@@ -6897,7 +6909,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:8" ht="12.75">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="24"/>
@@ -6907,7 +6919,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8" ht="12.75">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="24"/>
@@ -6917,7 +6929,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" ht="12.75">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="24"/>
@@ -6927,7 +6939,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" ht="12.75">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="24"/>
@@ -6937,7 +6949,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" ht="12.75">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="24"/>
@@ -6947,7 +6959,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" ht="12.75">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="24"/>
@@ -6957,7 +6969,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" ht="12.75">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="24"/>
@@ -6967,7 +6979,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" ht="12.75">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="24"/>
@@ -6977,7 +6989,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" ht="12.75">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="24"/>
@@ -6987,7 +6999,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" ht="12.75">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="24"/>
@@ -6997,7 +7009,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" ht="12.75">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="24"/>
@@ -7007,7 +7019,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" ht="12.75">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="24"/>
@@ -7017,7 +7029,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" ht="12.75">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="24"/>
@@ -7027,7 +7039,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" ht="12.75">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="24"/>
@@ -7037,7 +7049,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" ht="12.75">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="24"/>
@@ -7047,7 +7059,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" ht="12.75">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="24"/>
@@ -7057,7 +7069,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" ht="12.75">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="24"/>
@@ -7067,7 +7079,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" ht="12.75">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="24"/>
@@ -7077,7 +7089,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" ht="12.75">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="24"/>
@@ -7087,7 +7099,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:8" ht="12.75">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="24"/>
@@ -7097,7 +7109,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" ht="12.75">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="24"/>
@@ -7107,7 +7119,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" ht="12.75">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="24"/>
@@ -7117,7 +7129,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" ht="12.75">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="24"/>
@@ -7127,7 +7139,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" ht="12.75">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="24"/>
@@ -7137,7 +7149,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" ht="12.75">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="24"/>
@@ -7147,7 +7159,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" ht="12.75">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="24"/>
@@ -7157,7 +7169,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" ht="12.75">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="24"/>
@@ -7167,7 +7179,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" ht="12.75">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="24"/>
@@ -7177,7 +7189,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" ht="12.75">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="24"/>
@@ -7187,7 +7199,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" ht="12.75">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="24"/>
@@ -7197,7 +7209,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" ht="12.75">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="24"/>
@@ -7207,7 +7219,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" ht="12.75">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="24"/>
@@ -7217,7 +7229,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" ht="12.75">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="24"/>
@@ -7227,7 +7239,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" ht="12.75">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="24"/>
@@ -7237,7 +7249,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" ht="12.75">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="24"/>
@@ -7247,7 +7259,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" ht="12.75">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="24"/>
@@ -7257,7 +7269,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:8" ht="12.75">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="24"/>
@@ -7267,7 +7279,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" ht="12.75">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="24"/>
@@ -7277,7 +7289,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" ht="12.75">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="24"/>
@@ -7287,7 +7299,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" ht="12.75">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="24"/>
@@ -7297,7 +7309,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" ht="12.75">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="24"/>
@@ -7307,7 +7319,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" ht="12.75">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="24"/>
@@ -7317,7 +7329,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" ht="12.75">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="24"/>
@@ -7327,7 +7339,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" ht="12.75">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="24"/>
@@ -7337,7 +7349,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" ht="12.75">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="24"/>
@@ -7347,7 +7359,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" ht="12.75">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="24"/>
@@ -7357,7 +7369,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" ht="12.75">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="24"/>
@@ -7367,7 +7379,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" ht="12.75">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="24"/>
@@ -7377,7 +7389,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" ht="12.75">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="24"/>
@@ -7387,7 +7399,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" ht="12.75">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="24"/>
@@ -7397,7 +7409,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:8" ht="12.75">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="24"/>
@@ -7407,7 +7419,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" ht="12.75">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="24"/>
@@ -7417,7 +7429,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" ht="12.75">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="24"/>
@@ -7427,7 +7439,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:8" ht="12.75">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="24"/>
@@ -7437,7 +7449,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8" ht="12.75">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="24"/>
@@ -7447,7 +7459,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8" ht="12.75">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="24"/>
@@ -7457,7 +7469,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" ht="12.75">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="24"/>
@@ -7467,7 +7479,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8" ht="12.75">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="24"/>
@@ -7477,7 +7489,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8" ht="12.75">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="24"/>
@@ -7487,7 +7499,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:8" ht="12.75">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="24"/>
@@ -7497,7 +7509,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8" ht="12.75">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="24"/>
@@ -7507,7 +7519,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:8" ht="12.75">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="24"/>
@@ -7517,7 +7529,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:8" ht="12.75">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="24"/>
@@ -7527,7 +7539,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" ht="12.75">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="24"/>
@@ -7537,7 +7549,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" ht="12.75">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="24"/>
@@ -7547,7 +7559,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" ht="12.75">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="24"/>
@@ -7557,7 +7569,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" ht="12.75">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="24"/>
@@ -7567,7 +7579,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" ht="12.75">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="24"/>
@@ -7577,7 +7589,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" ht="12.75">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="24"/>
@@ -7587,7 +7599,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" ht="12.75">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="24"/>
@@ -7597,7 +7609,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" ht="12.75">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="24"/>
@@ -7607,7 +7619,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" ht="12.75">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="24"/>
@@ -7617,7 +7629,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" ht="12.75">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="24"/>
@@ -7627,7 +7639,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8" ht="12.75">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="24"/>
@@ -7637,7 +7649,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" ht="12.75">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="24"/>
@@ -7647,7 +7659,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8" ht="12.75">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="24"/>
@@ -7657,7 +7669,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8" ht="12.75">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="24"/>
@@ -7667,7 +7679,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" ht="12.75">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="24"/>
@@ -7677,7 +7689,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" ht="12.75">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="24"/>
@@ -7687,7 +7699,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" ht="12.75">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="24"/>
@@ -7697,7 +7709,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" ht="12.75">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="24"/>
@@ -7707,7 +7719,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8" ht="12.75">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="24"/>
@@ -7717,7 +7729,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" ht="12.75">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="24"/>
@@ -7727,7 +7739,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" ht="12.75">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="24"/>
@@ -7737,7 +7749,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" ht="12.75">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="24"/>
@@ -7747,7 +7759,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" ht="12.75">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="24"/>
@@ -7757,7 +7769,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" ht="12.75">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="24"/>
@@ -7767,7 +7779,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" ht="12.75">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="24"/>
@@ -7777,7 +7789,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" ht="12.75">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="24"/>
@@ -7787,7 +7799,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" ht="12.75">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="24"/>
@@ -7797,7 +7809,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" ht="12.75">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="24"/>
@@ -7807,7 +7819,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" ht="12.75">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="24"/>
@@ -7817,7 +7829,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" ht="12.75">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="24"/>
@@ -7827,7 +7839,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" ht="12.75">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="24"/>
@@ -7837,7 +7849,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" ht="12.75">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="24"/>
@@ -7847,7 +7859,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" ht="12.75">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="24"/>
@@ -7857,7 +7869,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" ht="12.75">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="24"/>
@@ -7867,7 +7879,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" ht="12.75">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="24"/>
@@ -7877,7 +7889,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" ht="12.75">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="24"/>
@@ -7887,7 +7899,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" ht="12.75">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="24"/>
@@ -7897,7 +7909,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:8" ht="12.75">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="24"/>
@@ -7907,7 +7919,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8" ht="12.75">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="24"/>
@@ -7917,7 +7929,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8" ht="12.75">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="24"/>
@@ -7927,7 +7939,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" ht="12.75">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="24"/>
@@ -7937,7 +7949,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8" ht="12.75">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="24"/>
@@ -7947,7 +7959,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" ht="12.75">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="24"/>
@@ -7957,7 +7969,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:8" ht="12.75">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="24"/>
@@ -7967,7 +7979,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8" ht="12.75">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="24"/>
@@ -7977,7 +7989,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" ht="12.75">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="24"/>
@@ -7987,7 +7999,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8" ht="12.75">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="24"/>
@@ -7997,7 +8009,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" ht="12.75">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="24"/>
@@ -8007,7 +8019,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8" ht="12.75">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="24"/>
@@ -8017,7 +8029,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8" ht="12.75">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="24"/>
@@ -8027,7 +8039,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:8" ht="12.75">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="24"/>
@@ -8037,7 +8049,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:8" ht="12.75">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="24"/>
@@ -8047,7 +8059,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:8" ht="12.75">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="24"/>
@@ -8057,7 +8069,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" ht="12.75">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="24"/>
@@ -8067,7 +8079,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" ht="12.75">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="24"/>
@@ -8077,7 +8089,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8" ht="12.75">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="24"/>
@@ -8087,7 +8099,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:8" ht="12.75">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="24"/>
@@ -8097,7 +8109,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" ht="12.75">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="24"/>
@@ -8107,7 +8119,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" ht="12.75">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="24"/>
@@ -8117,7 +8129,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:8" ht="12.75">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="24"/>
@@ -8127,7 +8139,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8" ht="12.75">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="24"/>
@@ -8137,7 +8149,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8" ht="12.75">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="24"/>
@@ -8147,7 +8159,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" ht="12.75">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="24"/>
@@ -8157,7 +8169,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8" ht="12.75">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="24"/>
@@ -8167,7 +8179,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" ht="12.75">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="24"/>
@@ -8177,7 +8189,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8" ht="12.75">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="24"/>
@@ -8187,7 +8199,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8" ht="12.75">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="24"/>
@@ -8197,7 +8209,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8" ht="12.75">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="24"/>
@@ -8207,7 +8219,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8" ht="12.75">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="24"/>
@@ -8217,7 +8229,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:8" ht="12.75">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="24"/>
@@ -8227,7 +8239,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:8" ht="12.75">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="24"/>
@@ -8237,7 +8249,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:8" ht="12.75">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="24"/>
@@ -8247,7 +8259,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:8" ht="12.75">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="24"/>
@@ -8257,7 +8269,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:8" ht="12.75">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="24"/>
@@ -8267,7 +8279,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:8" ht="12.75">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="24"/>
@@ -8277,7 +8289,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:8" ht="12.75">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="24"/>
@@ -8287,7 +8299,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:8" ht="12.75">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="24"/>
@@ -8297,7 +8309,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:8" ht="12.75">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="24"/>
@@ -8307,7 +8319,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:8" ht="12.75">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="24"/>
@@ -8317,7 +8329,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8" ht="12.75">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="24"/>
@@ -8327,7 +8339,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:8" ht="12.75">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="24"/>
@@ -8337,7 +8349,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:8" ht="12.75">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="24"/>
@@ -8347,7 +8359,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:8" ht="12.75">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="24"/>
@@ -8357,7 +8369,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:8" ht="12.75">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="24"/>
@@ -8367,7 +8379,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:8" ht="12.75">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="24"/>
@@ -8377,7 +8389,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" ht="12.75">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="24"/>
@@ -8387,7 +8399,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" ht="12.75">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="24"/>
@@ -8397,7 +8409,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" ht="12.75">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="24"/>
@@ -8407,7 +8419,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" ht="12.75">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="24"/>
@@ -8417,7 +8429,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" ht="12.75">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="24"/>
@@ -8427,7 +8439,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" ht="12.75">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="24"/>
@@ -8437,7 +8449,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" ht="12.75">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="24"/>
@@ -8447,7 +8459,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" ht="12.75">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="24"/>
@@ -8457,7 +8469,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" ht="12.75">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="24"/>
@@ -8467,7 +8479,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" ht="12.75">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="24"/>
@@ -8477,7 +8489,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" ht="12.75">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="24"/>
@@ -8487,7 +8499,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8" ht="12.75">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="24"/>
@@ -8497,7 +8509,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8" ht="12.75">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="24"/>
@@ -8507,7 +8519,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8" ht="12.75">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="24"/>
@@ -8517,7 +8529,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8" ht="12.75">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="24"/>
@@ -8527,7 +8539,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8" ht="12.75">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="24"/>
@@ -8537,7 +8549,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:8" ht="12.75">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="24"/>
@@ -8547,7 +8559,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:8" ht="12.75">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="24"/>
@@ -8557,7 +8569,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:8" ht="12.75">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="24"/>
@@ -8567,7 +8579,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:8" ht="12.75">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="24"/>
@@ -8577,7 +8589,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:8" ht="12.75">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="24"/>
@@ -8587,7 +8599,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:8" ht="12.75">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="24"/>
@@ -8597,7 +8609,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:8" ht="12.75">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="24"/>
@@ -8607,7 +8619,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:8" ht="12.75">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="24"/>
@@ -8617,7 +8629,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:8" ht="12.75">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="24"/>
@@ -8627,7 +8639,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:8" ht="12.75">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="24"/>
@@ -8637,7 +8649,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:8" ht="12.75">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="24"/>
@@ -8647,7 +8659,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:8" ht="12.75">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="24"/>
@@ -8657,7 +8669,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:8" ht="12.75">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="24"/>
@@ -8667,7 +8679,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:8" ht="12.75">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="24"/>
@@ -8677,7 +8689,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:8" ht="12.75">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="24"/>
@@ -8687,7 +8699,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:8" ht="12.75">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="24"/>
@@ -8697,7 +8709,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:8" ht="12.75">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="24"/>
@@ -8707,7 +8719,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:8" ht="12.75">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="24"/>
@@ -8717,7 +8729,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:8" ht="12.75">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="24"/>
@@ -8727,7 +8739,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:8" ht="12.75">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="24"/>
@@ -8737,7 +8749,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:8" ht="12.75">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="24"/>
@@ -8747,7 +8759,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:8" ht="12.75">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="24"/>
@@ -8757,7 +8769,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:8" ht="12.75">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="24"/>
@@ -8767,7 +8779,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:8" ht="12.75">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="24"/>
@@ -8777,7 +8789,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:8" ht="12.75">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="24"/>
@@ -8787,7 +8799,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:8" ht="12.75">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="24"/>
@@ -8797,7 +8809,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:8" ht="12.75">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="24"/>
@@ -8807,7 +8819,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:8" ht="12.75">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="24"/>
@@ -8817,7 +8829,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:8" ht="12.75">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="24"/>
@@ -8827,7 +8839,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:8" ht="12.75">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="24"/>
@@ -8837,7 +8849,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:8" ht="12.75">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="24"/>
@@ -8847,7 +8859,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:8" ht="12.75">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="24"/>
@@ -8857,7 +8869,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:8" ht="12.75">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="24"/>
@@ -8867,7 +8879,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:8" ht="12.75">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="24"/>
@@ -8877,7 +8889,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:8" ht="12.75">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="24"/>
@@ -8887,7 +8899,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:8" ht="12.75">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="24"/>
@@ -8897,7 +8909,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:8" ht="12.75">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="24"/>
@@ -8907,7 +8919,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:8" ht="12.75">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="24"/>
@@ -8917,7 +8929,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:8" ht="12.75">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="24"/>
@@ -8927,7 +8939,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:8" ht="12.75">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="24"/>
@@ -8937,7 +8949,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:8" ht="12.75">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="24"/>
@@ -8947,7 +8959,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:8" ht="12.75">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="24"/>
@@ -8957,7 +8969,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:8" ht="12.75">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="24"/>
@@ -8967,7 +8979,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:8" ht="12.75">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="24"/>
@@ -8977,7 +8989,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:8" ht="12.75">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="24"/>
@@ -8987,7 +8999,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:8" ht="12.75">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="24"/>
@@ -8997,7 +9009,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:8" ht="12.75">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="24"/>
@@ -9007,7 +9019,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:8" ht="12.75">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="24"/>
@@ -9017,7 +9029,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:8" ht="12.75">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="24"/>
@@ -9027,7 +9039,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:8" ht="12.75">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="24"/>
@@ -9037,7 +9049,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:8" ht="12.75">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="24"/>
@@ -9047,7 +9059,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:8" ht="12.75">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="24"/>
@@ -9057,7 +9069,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:8" ht="12.75">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="24"/>
@@ -9067,7 +9079,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:8" ht="12.75">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="24"/>
@@ -9077,7 +9089,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:8" ht="12.75">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="24"/>
@@ -9087,7 +9099,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:8" ht="12.75">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="24"/>
@@ -9097,7 +9109,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:8" ht="12.75">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="24"/>
@@ -9107,7 +9119,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:8" ht="12.75">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="24"/>
@@ -9117,7 +9129,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:8" ht="12.75">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="24"/>
@@ -9127,7 +9139,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:8" ht="12.75">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="24"/>
@@ -9137,7 +9149,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:8" ht="12.75">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="24"/>
@@ -9147,7 +9159,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:8" ht="12.75">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="24"/>
@@ -9157,7 +9169,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:8" ht="12.75">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="24"/>
@@ -9167,7 +9179,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:8" ht="12.75">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="24"/>
@@ -9177,7 +9189,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:8" ht="12.75">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="24"/>
@@ -9187,7 +9199,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:8" ht="12.75">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="24"/>
@@ -9197,7 +9209,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:8" ht="12.75">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="24"/>
@@ -9207,7 +9219,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:8" ht="12.75">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="24"/>
@@ -9217,7 +9229,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:8" ht="12.75">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="24"/>
@@ -9227,7 +9239,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:8" ht="12.75">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="24"/>
@@ -9237,7 +9249,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:8" ht="12.75">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="24"/>
@@ -9247,7 +9259,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:8" ht="12.75">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="24"/>
@@ -9257,7 +9269,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:8" ht="12.75">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="24"/>
@@ -9267,7 +9279,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:8" ht="12.75">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="24"/>
@@ -9277,7 +9289,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:8" ht="12.75">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="24"/>
@@ -9287,7 +9299,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:8" ht="12.75">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="24"/>
@@ -9297,7 +9309,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:8" ht="12.75">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="24"/>
@@ -9307,7 +9319,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:8" ht="12.75">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="24"/>
@@ -9317,7 +9329,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:8" ht="12.75">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="24"/>
@@ -9327,7 +9339,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:8" ht="12.75">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="24"/>
@@ -9337,7 +9349,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:8" ht="12.75">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="24"/>
@@ -9347,7 +9359,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:8" ht="12.75">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="24"/>
@@ -9357,7 +9369,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:8" ht="12.75">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="24"/>
@@ -9367,7 +9379,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:8" ht="12.75">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="24"/>
@@ -9377,7 +9389,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:8" ht="12.75">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="24"/>
@@ -9387,7 +9399,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:8" ht="12.75">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="24"/>
@@ -9397,7 +9409,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:8" ht="12.75">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="24"/>
@@ -9407,7 +9419,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:8" ht="12.75">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="24"/>
@@ -9417,7 +9429,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:8" ht="12.75">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="24"/>
@@ -9427,7 +9439,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:8" ht="12.75">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="24"/>
@@ -9437,7 +9449,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:8" ht="12.75">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="24"/>
@@ -9447,7 +9459,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:8" ht="12.75">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="24"/>
@@ -9457,7 +9469,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:8" ht="12.75">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="24"/>
@@ -9467,7 +9479,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:8" ht="12.75">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="24"/>
@@ -9477,7 +9489,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:8" ht="12.75">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="24"/>
@@ -9487,7 +9499,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:8" ht="12.75">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="24"/>
@@ -9497,7 +9509,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:8" ht="12.75">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="24"/>
@@ -9507,7 +9519,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:8" ht="12.75">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="24"/>
@@ -9517,7 +9529,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:8" ht="12.75">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="24"/>
@@ -9527,7 +9539,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:8" ht="12.75">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="24"/>
@@ -9537,7 +9549,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:8" ht="12.75">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="24"/>
@@ -9547,7 +9559,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:8" ht="12.75">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="24"/>
@@ -9557,7 +9569,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:8" ht="12.75">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="24"/>
@@ -9567,7 +9579,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:8" ht="12.75">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="24"/>
@@ -9577,7 +9589,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:8" ht="12.75">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="24"/>
@@ -9587,7 +9599,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:8" ht="12.75">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="24"/>
@@ -9597,7 +9609,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:8" ht="12.75">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="24"/>
@@ -9607,7 +9619,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:8" ht="12.75">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="24"/>
@@ -9617,7 +9629,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:8" ht="12.75">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="24"/>
@@ -9627,7 +9639,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:8" ht="12.75">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="24"/>
@@ -9637,7 +9649,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:8" ht="12.75">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="24"/>
@@ -9647,7 +9659,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:8" ht="12.75">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="24"/>
@@ -9657,7 +9669,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:8" ht="12.75">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="24"/>
@@ -9667,7 +9679,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:8" ht="12.75">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="24"/>
@@ -9677,7 +9689,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:8" ht="12.75">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="24"/>
@@ -9687,7 +9699,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:8" ht="12.75">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="24"/>
@@ -9697,7 +9709,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:8" ht="12.75">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="24"/>
@@ -9707,7 +9719,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:8" ht="12.75">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="24"/>
@@ -9717,7 +9729,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:8" ht="12.75">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="24"/>
@@ -9727,7 +9739,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:8" ht="12.75">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="24"/>
@@ -9737,7 +9749,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:8" ht="12.75">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="24"/>
@@ -9747,7 +9759,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:8" ht="12.75">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="24"/>
@@ -9757,7 +9769,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:8" ht="12.75">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="24"/>
@@ -9767,7 +9779,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:8" ht="12.75">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="24"/>
@@ -9777,7 +9789,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:8" ht="12.75">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="24"/>
@@ -9787,7 +9799,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:8" ht="12.75">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="24"/>
@@ -9797,7 +9809,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:8" ht="12.75">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="24"/>
@@ -9807,7 +9819,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:8" ht="12.75">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="24"/>
@@ -9817,7 +9829,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:8" ht="12.75">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="24"/>
@@ -9827,7 +9839,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:8" ht="12.75">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="24"/>
@@ -9837,7 +9849,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:8" ht="12.75">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="24"/>
@@ -9847,7 +9859,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:8" ht="12.75">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="24"/>
@@ -9857,7 +9869,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:8" ht="12.75">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="24"/>
@@ -9867,7 +9879,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:8" ht="12.75">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="24"/>
@@ -9877,7 +9889,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:8" ht="12.75">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="24"/>
@@ -9887,7 +9899,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:8" ht="12.75">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="24"/>
@@ -9897,7 +9909,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:8" ht="12.75">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="24"/>
@@ -9907,7 +9919,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:8" ht="12.75">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="24"/>
@@ -9917,7 +9929,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:8" ht="12.75">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="24"/>
@@ -9927,7 +9939,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:8" ht="12.75">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="24"/>
@@ -9937,7 +9949,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:8" ht="12.75">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="24"/>
@@ -9947,7 +9959,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:8" ht="12.75">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="24"/>
@@ -9957,7 +9969,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:8" ht="12.75">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="24"/>
@@ -9967,7 +9979,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:8" ht="12.75">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="24"/>
@@ -9977,7 +9989,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:8" ht="12.75">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="24"/>
@@ -9987,7 +9999,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:8" ht="12.75">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="24"/>
@@ -9997,7 +10009,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:8" ht="12.75">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="24"/>
@@ -10007,7 +10019,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:8" ht="12.75">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="24"/>
@@ -10017,7 +10029,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:8" ht="12.75">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="24"/>
@@ -10027,7 +10039,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:8" ht="12.75">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="24"/>
@@ -10037,7 +10049,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:8" ht="12.75">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="24"/>
@@ -10047,7 +10059,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:8" ht="12.75">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="24"/>
@@ -10057,7 +10069,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:8" ht="12.75">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="24"/>
@@ -10067,7 +10079,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:8" ht="12.75">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="24"/>
@@ -10077,7 +10089,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:8" ht="12.75">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="24"/>
@@ -10087,7 +10099,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:8" ht="12.75">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="24"/>
@@ -10097,7 +10109,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:8" ht="12.75">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="24"/>
@@ -10107,7 +10119,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:8" ht="12.75">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="24"/>
@@ -10117,7 +10129,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:8" ht="12.75">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="24"/>
@@ -10127,7 +10139,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:8" ht="12.75">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="24"/>
@@ -10137,7 +10149,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:8" ht="12.75">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="24"/>
@@ -10147,7 +10159,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:8" ht="12.75">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="24"/>
@@ -10157,7 +10169,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:8" ht="12.75">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="24"/>
@@ -10167,7 +10179,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:8" ht="12.75">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="24"/>
@@ -10177,7 +10189,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:8" ht="12.75">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="24"/>
@@ -10187,7 +10199,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:8" ht="12.75">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="24"/>
@@ -10197,7 +10209,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:8" ht="12.75">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="24"/>
@@ -10207,7 +10219,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:8" ht="12.75">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="24"/>
@@ -10217,7 +10229,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:8" ht="12.75">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="24"/>
@@ -10227,7 +10239,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:8" ht="12.75">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="24"/>
@@ -10237,7 +10249,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:8" ht="12.75">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="24"/>
@@ -10247,7 +10259,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:8" ht="12.75">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="24"/>
@@ -10257,7 +10269,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:8" ht="12.75">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="24"/>
@@ -10267,7 +10279,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:8" ht="12.75">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="24"/>
@@ -10277,7 +10289,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:8" ht="12.75">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="24"/>
@@ -10287,7 +10299,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:8" ht="12.75">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="24"/>
@@ -10297,7 +10309,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:8" ht="12.75">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="24"/>
@@ -10307,7 +10319,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:8" ht="12.75">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="24"/>
@@ -10317,7 +10329,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:8" ht="12.75">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="24"/>
@@ -10327,7 +10339,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:8" ht="12.75">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="24"/>
@@ -10337,7 +10349,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:8" ht="12.75">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="24"/>
@@ -10347,7 +10359,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:8" ht="12.75">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="24"/>
@@ -10357,7 +10369,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:8" ht="12.75">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="24"/>
@@ -10367,7 +10379,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:8" ht="12.75">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="24"/>
@@ -10377,7 +10389,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:8" ht="12.75">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="24"/>
@@ -10387,7 +10399,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:8" ht="12.75">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="24"/>
@@ -10397,7 +10409,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:8" ht="12.75">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="24"/>
@@ -10407,7 +10419,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:8" ht="12.75">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="24"/>
@@ -10417,7 +10429,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:8" ht="12.75">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="24"/>
@@ -10427,7 +10439,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:8" ht="12.75">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="24"/>
@@ -10437,7 +10449,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:8" ht="12.75">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="24"/>
@@ -10447,7 +10459,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:8" ht="12.75">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="24"/>
@@ -10457,7 +10469,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:8" ht="12.75">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="24"/>
@@ -10467,7 +10479,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:8" ht="12.75">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="24"/>
@@ -10477,7 +10489,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:8" ht="12.75">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="24"/>
@@ -10487,7 +10499,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:8" ht="12.75">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="24"/>
@@ -10497,7 +10509,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:8" ht="12.75">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="24"/>
@@ -10507,7 +10519,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:8" ht="12.75">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="24"/>
@@ -10517,7 +10529,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:8" ht="12.75">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="24"/>
@@ -10527,7 +10539,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:8" ht="12.75">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="24"/>
@@ -10537,7 +10549,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:8" ht="12.75">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="24"/>
@@ -10547,7 +10559,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:8" ht="12.75">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="24"/>
@@ -10557,7 +10569,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:8" ht="12.75">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="24"/>
@@ -10569,13 +10581,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G21:H21"/>
@@ -10585,12 +10596,13 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/주간업무계획표_개발.xlsx
+++ b/주간업무계획표_개발.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\flowedu-documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-3135" windowWidth="51195" windowHeight="16440" tabRatio="500"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>주간업무계획</t>
   </si>
@@ -144,11 +149,25 @@
     <t xml:space="preserve">1) 학생관리 백엔드 프론트 연동작업 </t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>1) 학생관리 UI 분석
+2) 기존 UI 분석</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 학생관리 UI 분석완료
+2) 기존 UI 분석완료</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 학생관리 UI 개발</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd&quot;(&quot;ddd&quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -551,39 +570,46 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -603,28 +629,21 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -662,6 +681,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -922,7 +944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -930,13 +952,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF9900FF"/>
   </sheetPr>
   <dimension ref="A1:H955"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -953,47 +975,47 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="28"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
@@ -1043,7 +1065,7 @@
     </row>
     <row r="7" spans="1:8" ht="66" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1065,7 +1087,7 @@
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1099,7 @@
     </row>
     <row r="9" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="9"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1087,7 +1109,7 @@
     </row>
     <row r="10" spans="1:8" ht="57" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1107,7 +1129,7 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1141,7 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="51"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="9"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -1127,23 +1149,29 @@
       <c r="G12" s="22"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="22"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="53"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
@@ -1155,7 +1183,7 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="53"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="9"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -1190,64 +1218,64 @@
       <c r="B18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="34" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="34" t="s">
+      <c r="F18" s="40"/>
+      <c r="G18" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="35"/>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="1:8" ht="50.1" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="28"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" ht="50.1" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="18">
         <v>2</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="28"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="50.1" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="28"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="6" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:8" ht="12.75">
       <c r="A23" s="1"/>
@@ -10581,12 +10609,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G21:H21"/>
@@ -10596,13 +10625,12 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/주간업무계획표_개발.xlsx
+++ b/주간업무계획표_개발.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\flowedu-documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihoan/Documents/git/flowedu-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3135" windowWidth="51195" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="개발파트" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -86,10 +89,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>2017년 12월 2주차</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>SB 팀</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -118,29 +117,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) 학생관리 기획문서 분석
-2) 학생관리 업무 분담(백앤드, 프론트)
-3) 새로운 기획에 맞도록 데이터베이스 구성</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 학생관리 데이터베이스 구성
-2) 학생관리 자바 백앤드 개발
-3) 학생관리 프론트 데이터 연동작업</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 기획문서 분석 완료
-2) 업무 분담 완료
-3) 데이터베이스 구성 준비 완료</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 학생관리 프론트 소스 분석
-2) 기존 소스 수정</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 학생관리 프론트 소스 분석완료
 2) 기존 소스 수정완료</t>
     <phoneticPr fontId="14" type="noConversion"/>
@@ -163,16 +139,47 @@
     <t>2) 학생관리 UI 개발</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>1) 학생관리 기획문서 분석
+2) 학생관리 업무 분담(백앤드, 프론트)
+3) 새로운 기획에 맞도록 데이터베이스 구성
+4) WBS 관련 일정 회의</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 기획문서 분석 완료
+2) 업무 분담 완료
+3) 데이터베이스 구성 준비 완료
+4) WBS 관련 일정 회의</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 학생관리 데이터베이스 구성
+2) 학생관리 자바 백앤드 개발
+3) 학생관리 프론트 데이터 연동작업
+4) WBS 관련 일정 회의</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017년 1월 2주차</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 학생관리 프론트 소스 분석
+2) 기존 소스 수정
+3) 수아 온라인 테스트 오류 수정</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd&quot;(&quot;ddd&quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -570,6 +577,58 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,64 +648,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -952,72 +959,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF9900FF"/>
   </sheetPr>
   <dimension ref="A1:H955"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="5" max="6" width="40.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
+    <col min="5" max="6" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="51" t="s">
-        <v>18</v>
+      <c r="G1" s="29" t="s">
+        <v>33</v>
       </c>
-      <c r="H1" s="52"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>19</v>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
       </c>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1">
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="50" t="s">
-        <v>24</v>
+      <c r="G3" s="27" t="s">
+        <v>23</v>
       </c>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="23"/>
@@ -1027,7 +1034,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -1039,7 +1046,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1">
+    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1051,10 +1058,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>7</v>
@@ -1063,33 +1070,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="66" customHeight="1">
+    <row r="7" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -1097,9 +1104,9 @@
       <c r="G8" s="22"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="9"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1107,31 +1114,31 @@
       <c r="G9" s="22"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="57" customHeight="1">
+    <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -1139,9 +1146,9 @@
       <c r="G11" s="22"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="9"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -1149,31 +1156,31 @@
       <c r="G12" s="22"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="52" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
-      <c r="B14" s="31"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -1181,9 +1188,9 @@
       <c r="G14" s="22"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="9"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -1191,7 +1198,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75">
+    <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1201,7 +1208,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75">
+    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
@@ -1213,71 +1220,71 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1">
+    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36" t="s">
+      <c r="D18" s="56"/>
+      <c r="E18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="39"/>
+      <c r="G18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1">
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1">
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="18">
         <v>2</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="1:8" ht="50.1" customHeight="1">
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8" ht="6" customHeight="1">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75">
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="24"/>
@@ -1287,7 +1294,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75">
+    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="24"/>
@@ -1297,7 +1304,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="12.75">
+    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="24"/>
@@ -1307,7 +1314,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="12.75">
+    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="24"/>
@@ -1317,7 +1324,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75">
+    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="24"/>
@@ -1327,7 +1334,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="12.75">
+    <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="24"/>
@@ -1337,7 +1344,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="12.75">
+    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="24"/>
@@ -1347,7 +1354,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="12.75">
+    <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="24"/>
@@ -1357,7 +1364,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="12.75">
+    <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="24"/>
@@ -1367,7 +1374,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75">
+    <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="24"/>
@@ -1377,7 +1384,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75">
+    <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="24"/>
@@ -1387,7 +1394,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75">
+    <row r="34" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="24"/>
@@ -1397,7 +1404,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75">
+    <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="24"/>
@@ -1407,7 +1414,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75">
+    <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="24"/>
@@ -1417,7 +1424,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="12.75">
+    <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="24"/>
@@ -1427,7 +1434,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75">
+    <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="24"/>
@@ -1437,7 +1444,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75">
+    <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="24"/>
@@ -1447,7 +1454,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="12.75">
+    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="24"/>
@@ -1457,7 +1464,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="12.75">
+    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="24"/>
@@ -1467,7 +1474,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="12.75">
+    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="24"/>
@@ -1477,7 +1484,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="12.75">
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="24"/>
@@ -1487,7 +1494,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75">
+    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="24"/>
@@ -1497,7 +1504,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="12.75">
+    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="24"/>
@@ -1507,7 +1514,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="12.75">
+    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="24"/>
@@ -1517,7 +1524,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="12.75">
+    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="24"/>
@@ -1527,7 +1534,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="12.75">
+    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="24"/>
@@ -1537,7 +1544,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="12.75">
+    <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="24"/>
@@ -1547,7 +1554,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="12.75">
+    <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="24"/>
@@ -1557,7 +1564,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="12.75">
+    <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="24"/>
@@ -1567,7 +1574,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="12.75">
+    <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="24"/>
@@ -1577,7 +1584,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="12.75">
+    <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="24"/>
@@ -1587,7 +1594,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="12.75">
+    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="24"/>
@@ -1597,7 +1604,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="12.75">
+    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="24"/>
@@ -1607,7 +1614,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="12.75">
+    <row r="56" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="24"/>
@@ -1617,7 +1624,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="12.75">
+    <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="24"/>
@@ -1627,7 +1634,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="12.75">
+    <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="24"/>
@@ -1637,7 +1644,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="12.75">
+    <row r="59" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="24"/>
@@ -1647,7 +1654,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="12.75">
+    <row r="60" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="24"/>
@@ -1657,7 +1664,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="12.75">
+    <row r="61" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="24"/>
@@ -1667,7 +1674,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="12.75">
+    <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="24"/>
@@ -1677,7 +1684,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="12.75">
+    <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="24"/>
@@ -1687,7 +1694,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="12.75">
+    <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="24"/>
@@ -1697,7 +1704,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="12.75">
+    <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="24"/>
@@ -1707,7 +1714,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="12.75">
+    <row r="66" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="24"/>
@@ -1717,7 +1724,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="12.75">
+    <row r="67" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="24"/>
@@ -1727,7 +1734,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="12.75">
+    <row r="68" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="24"/>
@@ -1737,7 +1744,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="12.75">
+    <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="24"/>
@@ -1747,7 +1754,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="12.75">
+    <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="24"/>
@@ -1757,7 +1764,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="12.75">
+    <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="24"/>
@@ -1767,7 +1774,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="12.75">
+    <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="24"/>
@@ -1777,7 +1784,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="12.75">
+    <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="24"/>
@@ -1787,7 +1794,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="12.75">
+    <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="24"/>
@@ -1797,7 +1804,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="12.75">
+    <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="24"/>
@@ -1807,7 +1814,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="12.75">
+    <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="24"/>
@@ -1817,7 +1824,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="12.75">
+    <row r="77" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="24"/>
@@ -1827,7 +1834,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="12.75">
+    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="24"/>
@@ -1837,7 +1844,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="12.75">
+    <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="24"/>
@@ -1847,7 +1854,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="12.75">
+    <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="24"/>
@@ -1857,7 +1864,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="12.75">
+    <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="24"/>
@@ -1867,7 +1874,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="12.75">
+    <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="24"/>
@@ -1877,7 +1884,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="12.75">
+    <row r="83" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="24"/>
@@ -1887,7 +1894,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="12.75">
+    <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="24"/>
@@ -1897,7 +1904,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="12.75">
+    <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="24"/>
@@ -1907,7 +1914,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="12.75">
+    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="24"/>
@@ -1917,7 +1924,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="12.75">
+    <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="24"/>
@@ -1927,7 +1934,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="12.75">
+    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="24"/>
@@ -1937,7 +1944,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="12.75">
+    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="24"/>
@@ -1947,7 +1954,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="12.75">
+    <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="24"/>
@@ -1957,7 +1964,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="12.75">
+    <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="24"/>
@@ -1967,7 +1974,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="12.75">
+    <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="24"/>
@@ -1977,7 +1984,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="12.75">
+    <row r="93" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="24"/>
@@ -1987,7 +1994,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="12.75">
+    <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="24"/>
@@ -1997,7 +2004,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="12.75">
+    <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="24"/>
@@ -2007,7 +2014,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="12.75">
+    <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="24"/>
@@ -2017,7 +2024,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="12.75">
+    <row r="97" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="24"/>
@@ -2027,7 +2034,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="12.75">
+    <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="24"/>
@@ -2037,7 +2044,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="12.75">
+    <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="24"/>
@@ -2047,7 +2054,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="12.75">
+    <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="24"/>
@@ -2057,7 +2064,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="12.75">
+    <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="24"/>
@@ -2067,7 +2074,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" ht="12.75">
+    <row r="102" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="24"/>
@@ -2077,7 +2084,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="12.75">
+    <row r="103" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="24"/>
@@ -2087,7 +2094,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="12.75">
+    <row r="104" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="24"/>
@@ -2097,7 +2104,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="12.75">
+    <row r="105" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="24"/>
@@ -2107,7 +2114,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="12.75">
+    <row r="106" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="24"/>
@@ -2117,7 +2124,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="12.75">
+    <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="24"/>
@@ -2127,7 +2134,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" ht="12.75">
+    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="24"/>
@@ -2137,7 +2144,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="12.75">
+    <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="24"/>
@@ -2147,7 +2154,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" ht="12.75">
+    <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="24"/>
@@ -2157,7 +2164,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="12.75">
+    <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="24"/>
@@ -2167,7 +2174,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="12.75">
+    <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="24"/>
@@ -2177,7 +2184,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" ht="12.75">
+    <row r="113" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="24"/>
@@ -2187,7 +2194,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" ht="12.75">
+    <row r="114" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="24"/>
@@ -2197,7 +2204,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" ht="12.75">
+    <row r="115" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="24"/>
@@ -2207,7 +2214,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="12.75">
+    <row r="116" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="24"/>
@@ -2217,7 +2224,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="12.75">
+    <row r="117" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="24"/>
@@ -2227,7 +2234,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="12.75">
+    <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="24"/>
@@ -2237,7 +2244,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" ht="12.75">
+    <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="24"/>
@@ -2247,7 +2254,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" ht="12.75">
+    <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="24"/>
@@ -2257,7 +2264,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" ht="12.75">
+    <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="24"/>
@@ -2267,7 +2274,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" ht="12.75">
+    <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="24"/>
@@ -2277,7 +2284,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" ht="12.75">
+    <row r="123" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="24"/>
@@ -2287,7 +2294,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" ht="12.75">
+    <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="24"/>
@@ -2297,7 +2304,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" ht="12.75">
+    <row r="125" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="24"/>
@@ -2307,7 +2314,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" ht="12.75">
+    <row r="126" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="24"/>
@@ -2317,7 +2324,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" ht="12.75">
+    <row r="127" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="24"/>
@@ -2327,7 +2334,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" ht="12.75">
+    <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="24"/>
@@ -2337,7 +2344,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" ht="12.75">
+    <row r="129" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="24"/>
@@ -2347,7 +2354,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" ht="12.75">
+    <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="24"/>
@@ -2357,7 +2364,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" ht="12.75">
+    <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="24"/>
@@ -2367,7 +2374,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" ht="12.75">
+    <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="24"/>
@@ -2377,7 +2384,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" ht="12.75">
+    <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="24"/>
@@ -2387,7 +2394,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" ht="12.75">
+    <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="24"/>
@@ -2397,7 +2404,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="12.75">
+    <row r="135" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="24"/>
@@ -2407,7 +2414,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" ht="12.75">
+    <row r="136" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="24"/>
@@ -2417,7 +2424,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" ht="12.75">
+    <row r="137" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="24"/>
@@ -2427,7 +2434,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" ht="12.75">
+    <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="24"/>
@@ -2437,7 +2444,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" ht="12.75">
+    <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="24"/>
@@ -2447,7 +2454,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" ht="12.75">
+    <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="24"/>
@@ -2457,7 +2464,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" ht="12.75">
+    <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="24"/>
@@ -2467,7 +2474,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" ht="12.75">
+    <row r="142" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="24"/>
@@ -2477,7 +2484,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" ht="12.75">
+    <row r="143" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="24"/>
@@ -2487,7 +2494,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" ht="12.75">
+    <row r="144" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="24"/>
@@ -2497,7 +2504,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" ht="12.75">
+    <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="24"/>
@@ -2507,7 +2514,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" ht="12.75">
+    <row r="146" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="24"/>
@@ -2517,7 +2524,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" ht="12.75">
+    <row r="147" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="24"/>
@@ -2527,7 +2534,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" ht="12.75">
+    <row r="148" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="24"/>
@@ -2537,7 +2544,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" ht="12.75">
+    <row r="149" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="24"/>
@@ -2547,7 +2554,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" ht="12.75">
+    <row r="150" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="24"/>
@@ -2557,7 +2564,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="12.75">
+    <row r="151" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="24"/>
@@ -2567,7 +2574,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" ht="12.75">
+    <row r="152" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="24"/>
@@ -2577,7 +2584,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" ht="12.75">
+    <row r="153" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="24"/>
@@ -2587,7 +2594,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" ht="12.75">
+    <row r="154" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="24"/>
@@ -2597,7 +2604,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" ht="12.75">
+    <row r="155" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="24"/>
@@ -2607,7 +2614,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" ht="12.75">
+    <row r="156" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="24"/>
@@ -2617,7 +2624,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" ht="12.75">
+    <row r="157" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="24"/>
@@ -2627,7 +2634,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" ht="12.75">
+    <row r="158" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="24"/>
@@ -2637,7 +2644,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="12.75">
+    <row r="159" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="24"/>
@@ -2647,7 +2654,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" ht="12.75">
+    <row r="160" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="24"/>
@@ -2657,7 +2664,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" ht="12.75">
+    <row r="161" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="24"/>
@@ -2667,7 +2674,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" ht="12.75">
+    <row r="162" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="24"/>
@@ -2677,7 +2684,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" ht="12.75">
+    <row r="163" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="24"/>
@@ -2687,7 +2694,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" ht="12.75">
+    <row r="164" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="24"/>
@@ -2697,7 +2704,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="12.75">
+    <row r="165" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="24"/>
@@ -2707,7 +2714,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" ht="12.75">
+    <row r="166" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="24"/>
@@ -2717,7 +2724,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="12.75">
+    <row r="167" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="24"/>
@@ -2727,7 +2734,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" ht="12.75">
+    <row r="168" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="24"/>
@@ -2737,7 +2744,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" ht="12.75">
+    <row r="169" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="24"/>
@@ -2747,7 +2754,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" ht="12.75">
+    <row r="170" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="24"/>
@@ -2757,7 +2764,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" ht="12.75">
+    <row r="171" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="24"/>
@@ -2767,7 +2774,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" ht="12.75">
+    <row r="172" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="24"/>
@@ -2777,7 +2784,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" ht="12.75">
+    <row r="173" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="24"/>
@@ -2787,7 +2794,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" ht="12.75">
+    <row r="174" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="24"/>
@@ -2797,7 +2804,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" ht="12.75">
+    <row r="175" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="24"/>
@@ -2807,7 +2814,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" ht="12.75">
+    <row r="176" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="24"/>
@@ -2817,7 +2824,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" ht="12.75">
+    <row r="177" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="24"/>
@@ -2827,7 +2834,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" ht="12.75">
+    <row r="178" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="24"/>
@@ -2837,7 +2844,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" ht="12.75">
+    <row r="179" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="24"/>
@@ -2847,7 +2854,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="12.75">
+    <row r="180" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="24"/>
@@ -2857,7 +2864,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" ht="12.75">
+    <row r="181" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="24"/>
@@ -2867,7 +2874,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" ht="12.75">
+    <row r="182" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="24"/>
@@ -2877,7 +2884,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="12.75">
+    <row r="183" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="24"/>
@@ -2887,7 +2894,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" ht="12.75">
+    <row r="184" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="24"/>
@@ -2897,7 +2904,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" ht="12.75">
+    <row r="185" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="24"/>
@@ -2907,7 +2914,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" ht="12.75">
+    <row r="186" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="24"/>
@@ -2917,7 +2924,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" ht="12.75">
+    <row r="187" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="24"/>
@@ -2927,7 +2934,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" ht="12.75">
+    <row r="188" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="24"/>
@@ -2937,7 +2944,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" ht="12.75">
+    <row r="189" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="24"/>
@@ -2947,7 +2954,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" ht="12.75">
+    <row r="190" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="24"/>
@@ -2957,7 +2964,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="12.75">
+    <row r="191" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="24"/>
@@ -2967,7 +2974,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="12.75">
+    <row r="192" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="24"/>
@@ -2977,7 +2984,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" ht="12.75">
+    <row r="193" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="24"/>
@@ -2987,7 +2994,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" ht="12.75">
+    <row r="194" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="24"/>
@@ -2997,7 +3004,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" ht="12.75">
+    <row r="195" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="24"/>
@@ -3007,7 +3014,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" ht="12.75">
+    <row r="196" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="24"/>
@@ -3017,7 +3024,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" ht="12.75">
+    <row r="197" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="24"/>
@@ -3027,7 +3034,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" ht="12.75">
+    <row r="198" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="24"/>
@@ -3037,7 +3044,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" ht="12.75">
+    <row r="199" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="24"/>
@@ -3047,7 +3054,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" ht="12.75">
+    <row r="200" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="24"/>
@@ -3057,7 +3064,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" ht="12.75">
+    <row r="201" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="24"/>
@@ -3067,7 +3074,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" ht="12.75">
+    <row r="202" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="24"/>
@@ -3077,7 +3084,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" ht="12.75">
+    <row r="203" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="24"/>
@@ -3087,7 +3094,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" ht="12.75">
+    <row r="204" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="24"/>
@@ -3097,7 +3104,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" ht="12.75">
+    <row r="205" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="24"/>
@@ -3107,7 +3114,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" ht="12.75">
+    <row r="206" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="24"/>
@@ -3117,7 +3124,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" ht="12.75">
+    <row r="207" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="24"/>
@@ -3127,7 +3134,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" ht="12.75">
+    <row r="208" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="24"/>
@@ -3137,7 +3144,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" ht="12.75">
+    <row r="209" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="24"/>
@@ -3147,7 +3154,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" ht="12.75">
+    <row r="210" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="24"/>
@@ -3157,7 +3164,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" ht="12.75">
+    <row r="211" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="24"/>
@@ -3167,7 +3174,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" ht="12.75">
+    <row r="212" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="24"/>
@@ -3177,7 +3184,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" ht="12.75">
+    <row r="213" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="24"/>
@@ -3187,7 +3194,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" ht="12.75">
+    <row r="214" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="24"/>
@@ -3197,7 +3204,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" ht="12.75">
+    <row r="215" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="24"/>
@@ -3207,7 +3214,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" ht="12.75">
+    <row r="216" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="24"/>
@@ -3217,7 +3224,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" ht="12.75">
+    <row r="217" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="24"/>
@@ -3227,7 +3234,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" ht="12.75">
+    <row r="218" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="24"/>
@@ -3237,7 +3244,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" ht="12.75">
+    <row r="219" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="24"/>
@@ -3247,7 +3254,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" ht="12.75">
+    <row r="220" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="24"/>
@@ -3257,7 +3264,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" ht="12.75">
+    <row r="221" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="24"/>
@@ -3267,7 +3274,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" ht="12.75">
+    <row r="222" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="24"/>
@@ -3277,7 +3284,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" ht="12.75">
+    <row r="223" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="24"/>
@@ -3287,7 +3294,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" ht="12.75">
+    <row r="224" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="24"/>
@@ -3297,7 +3304,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" ht="12.75">
+    <row r="225" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="24"/>
@@ -3307,7 +3314,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" ht="12.75">
+    <row r="226" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="24"/>
@@ -3317,7 +3324,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" ht="12.75">
+    <row r="227" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="24"/>
@@ -3327,7 +3334,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" ht="12.75">
+    <row r="228" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="24"/>
@@ -3337,7 +3344,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" ht="12.75">
+    <row r="229" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="24"/>
@@ -3347,7 +3354,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" ht="12.75">
+    <row r="230" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="24"/>
@@ -3357,7 +3364,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" ht="12.75">
+    <row r="231" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="24"/>
@@ -3367,7 +3374,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" ht="12.75">
+    <row r="232" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="24"/>
@@ -3377,7 +3384,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" ht="12.75">
+    <row r="233" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="24"/>
@@ -3387,7 +3394,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" ht="12.75">
+    <row r="234" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="24"/>
@@ -3397,7 +3404,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" ht="12.75">
+    <row r="235" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="24"/>
@@ -3407,7 +3414,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" ht="12.75">
+    <row r="236" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="24"/>
@@ -3417,7 +3424,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" ht="12.75">
+    <row r="237" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="24"/>
@@ -3427,7 +3434,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" ht="12.75">
+    <row r="238" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="24"/>
@@ -3437,7 +3444,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" ht="12.75">
+    <row r="239" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="24"/>
@@ -3447,7 +3454,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" ht="12.75">
+    <row r="240" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="24"/>
@@ -3457,7 +3464,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" ht="12.75">
+    <row r="241" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="24"/>
@@ -3467,7 +3474,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" ht="12.75">
+    <row r="242" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="24"/>
@@ -3477,7 +3484,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" ht="12.75">
+    <row r="243" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="24"/>
@@ -3487,7 +3494,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" ht="12.75">
+    <row r="244" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="24"/>
@@ -3497,7 +3504,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" ht="12.75">
+    <row r="245" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="24"/>
@@ -3507,7 +3514,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" ht="12.75">
+    <row r="246" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="24"/>
@@ -3517,7 +3524,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" ht="12.75">
+    <row r="247" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="24"/>
@@ -3527,7 +3534,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" ht="12.75">
+    <row r="248" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="24"/>
@@ -3537,7 +3544,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" ht="12.75">
+    <row r="249" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="24"/>
@@ -3547,7 +3554,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" ht="12.75">
+    <row r="250" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="24"/>
@@ -3557,7 +3564,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" ht="12.75">
+    <row r="251" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="24"/>
@@ -3567,7 +3574,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" ht="12.75">
+    <row r="252" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="24"/>
@@ -3577,7 +3584,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" ht="12.75">
+    <row r="253" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="24"/>
@@ -3587,7 +3594,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" ht="12.75">
+    <row r="254" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="24"/>
@@ -3597,7 +3604,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" ht="12.75">
+    <row r="255" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="24"/>
@@ -3607,7 +3614,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" ht="12.75">
+    <row r="256" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="24"/>
@@ -3617,7 +3624,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" ht="12.75">
+    <row r="257" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="24"/>
@@ -3627,7 +3634,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" ht="12.75">
+    <row r="258" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="24"/>
@@ -3637,7 +3644,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" ht="12.75">
+    <row r="259" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="24"/>
@@ -3647,7 +3654,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" ht="12.75">
+    <row r="260" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="24"/>
@@ -3657,7 +3664,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" ht="12.75">
+    <row r="261" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="24"/>
@@ -3667,7 +3674,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" ht="12.75">
+    <row r="262" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="24"/>
@@ -3677,7 +3684,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" ht="12.75">
+    <row r="263" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="24"/>
@@ -3687,7 +3694,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="12.75">
+    <row r="264" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="24"/>
@@ -3697,7 +3704,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="12.75">
+    <row r="265" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="24"/>
@@ -3707,7 +3714,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="12.75">
+    <row r="266" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="24"/>
@@ -3717,7 +3724,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="12.75">
+    <row r="267" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="24"/>
@@ -3727,7 +3734,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="12.75">
+    <row r="268" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="24"/>
@@ -3737,7 +3744,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="12.75">
+    <row r="269" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="24"/>
@@ -3747,7 +3754,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="12.75">
+    <row r="270" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="24"/>
@@ -3757,7 +3764,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" ht="12.75">
+    <row r="271" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="24"/>
@@ -3767,7 +3774,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" ht="12.75">
+    <row r="272" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="24"/>
@@ -3777,7 +3784,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" ht="12.75">
+    <row r="273" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="24"/>
@@ -3787,7 +3794,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" ht="12.75">
+    <row r="274" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="24"/>
@@ -3797,7 +3804,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" ht="12.75">
+    <row r="275" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="24"/>
@@ -3807,7 +3814,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" ht="12.75">
+    <row r="276" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="24"/>
@@ -3817,7 +3824,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" ht="12.75">
+    <row r="277" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="24"/>
@@ -3827,7 +3834,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" ht="12.75">
+    <row r="278" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="24"/>
@@ -3837,7 +3844,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" ht="12.75">
+    <row r="279" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="24"/>
@@ -3847,7 +3854,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" ht="12.75">
+    <row r="280" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="24"/>
@@ -3857,7 +3864,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" ht="12.75">
+    <row r="281" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="24"/>
@@ -3867,7 +3874,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" ht="12.75">
+    <row r="282" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="24"/>
@@ -3877,7 +3884,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" ht="12.75">
+    <row r="283" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="24"/>
@@ -3887,7 +3894,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" ht="12.75">
+    <row r="284" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="24"/>
@@ -3897,7 +3904,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" ht="12.75">
+    <row r="285" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="24"/>
@@ -3907,7 +3914,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" ht="12.75">
+    <row r="286" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="24"/>
@@ -3917,7 +3924,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" ht="12.75">
+    <row r="287" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="24"/>
@@ -3927,7 +3934,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" ht="12.75">
+    <row r="288" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="24"/>
@@ -3937,7 +3944,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" ht="12.75">
+    <row r="289" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="24"/>
@@ -3947,7 +3954,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" ht="12.75">
+    <row r="290" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="24"/>
@@ -3957,7 +3964,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" ht="12.75">
+    <row r="291" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="24"/>
@@ -3967,7 +3974,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" ht="12.75">
+    <row r="292" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="24"/>
@@ -3977,7 +3984,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" ht="12.75">
+    <row r="293" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="24"/>
@@ -3987,7 +3994,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" ht="12.75">
+    <row r="294" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="24"/>
@@ -3997,7 +4004,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" ht="12.75">
+    <row r="295" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="24"/>
@@ -4007,7 +4014,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" ht="12.75">
+    <row r="296" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="24"/>
@@ -4017,7 +4024,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" ht="12.75">
+    <row r="297" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="24"/>
@@ -4027,7 +4034,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" ht="12.75">
+    <row r="298" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="24"/>
@@ -4037,7 +4044,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" ht="12.75">
+    <row r="299" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="24"/>
@@ -4047,7 +4054,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" ht="12.75">
+    <row r="300" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="24"/>
@@ -4057,7 +4064,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" ht="12.75">
+    <row r="301" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="24"/>
@@ -4067,7 +4074,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" ht="12.75">
+    <row r="302" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="24"/>
@@ -4077,7 +4084,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" ht="12.75">
+    <row r="303" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="24"/>
@@ -4087,7 +4094,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" ht="12.75">
+    <row r="304" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="24"/>
@@ -4097,7 +4104,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" ht="12.75">
+    <row r="305" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="24"/>
@@ -4107,7 +4114,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" ht="12.75">
+    <row r="306" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="24"/>
@@ -4117,7 +4124,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" ht="12.75">
+    <row r="307" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="24"/>
@@ -4127,7 +4134,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" ht="12.75">
+    <row r="308" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="24"/>
@@ -4137,7 +4144,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" ht="12.75">
+    <row r="309" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="24"/>
@@ -4147,7 +4154,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" ht="12.75">
+    <row r="310" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="24"/>
@@ -4157,7 +4164,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" ht="12.75">
+    <row r="311" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="24"/>
@@ -4167,7 +4174,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" ht="12.75">
+    <row r="312" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="24"/>
@@ -4177,7 +4184,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" ht="12.75">
+    <row r="313" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="24"/>
@@ -4187,7 +4194,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" ht="12.75">
+    <row r="314" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="24"/>
@@ -4197,7 +4204,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" ht="12.75">
+    <row r="315" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="24"/>
@@ -4207,7 +4214,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" ht="12.75">
+    <row r="316" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="24"/>
@@ -4217,7 +4224,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" ht="12.75">
+    <row r="317" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="24"/>
@@ -4227,7 +4234,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" ht="12.75">
+    <row r="318" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="24"/>
@@ -4237,7 +4244,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" ht="12.75">
+    <row r="319" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="24"/>
@@ -4247,7 +4254,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" ht="12.75">
+    <row r="320" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="24"/>
@@ -4257,7 +4264,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" ht="12.75">
+    <row r="321" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="24"/>
@@ -4267,7 +4274,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" ht="12.75">
+    <row r="322" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="24"/>
@@ -4277,7 +4284,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" ht="12.75">
+    <row r="323" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="24"/>
@@ -4287,7 +4294,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" ht="12.75">
+    <row r="324" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="24"/>
@@ -4297,7 +4304,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" ht="12.75">
+    <row r="325" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="24"/>
@@ -4307,7 +4314,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" ht="12.75">
+    <row r="326" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="24"/>
@@ -4317,7 +4324,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" ht="12.75">
+    <row r="327" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="24"/>
@@ -4327,7 +4334,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" ht="12.75">
+    <row r="328" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="24"/>
@@ -4337,7 +4344,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" ht="12.75">
+    <row r="329" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="24"/>
@@ -4347,7 +4354,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" ht="12.75">
+    <row r="330" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="24"/>
@@ -4357,7 +4364,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" ht="12.75">
+    <row r="331" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="24"/>
@@ -4367,7 +4374,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" ht="12.75">
+    <row r="332" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="24"/>
@@ -4377,7 +4384,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" ht="12.75">
+    <row r="333" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="24"/>
@@ -4387,7 +4394,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" ht="12.75">
+    <row r="334" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="24"/>
@@ -4397,7 +4404,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" ht="12.75">
+    <row r="335" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="24"/>
@@ -4407,7 +4414,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" ht="12.75">
+    <row r="336" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="24"/>
@@ -4417,7 +4424,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" ht="12.75">
+    <row r="337" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="24"/>
@@ -4427,7 +4434,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" ht="12.75">
+    <row r="338" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="24"/>
@@ -4437,7 +4444,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" ht="12.75">
+    <row r="339" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="24"/>
@@ -4447,7 +4454,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" ht="12.75">
+    <row r="340" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="24"/>
@@ -4457,7 +4464,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" ht="12.75">
+    <row r="341" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="24"/>
@@ -4467,7 +4474,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" ht="12.75">
+    <row r="342" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="24"/>
@@ -4477,7 +4484,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" ht="12.75">
+    <row r="343" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="24"/>
@@ -4487,7 +4494,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" ht="12.75">
+    <row r="344" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="24"/>
@@ -4497,7 +4504,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" ht="12.75">
+    <row r="345" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="24"/>
@@ -4507,7 +4514,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" ht="12.75">
+    <row r="346" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="24"/>
@@ -4517,7 +4524,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" ht="12.75">
+    <row r="347" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="24"/>
@@ -4527,7 +4534,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" ht="12.75">
+    <row r="348" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="24"/>
@@ -4537,7 +4544,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" ht="12.75">
+    <row r="349" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="24"/>
@@ -4547,7 +4554,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" ht="12.75">
+    <row r="350" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="24"/>
@@ -4557,7 +4564,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" ht="12.75">
+    <row r="351" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="24"/>
@@ -4567,7 +4574,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" ht="12.75">
+    <row r="352" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="24"/>
@@ -4577,7 +4584,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" ht="12.75">
+    <row r="353" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="24"/>
@@ -4587,7 +4594,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" ht="12.75">
+    <row r="354" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="24"/>
@@ -4597,7 +4604,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" ht="12.75">
+    <row r="355" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="24"/>
@@ -4607,7 +4614,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" ht="12.75">
+    <row r="356" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="24"/>
@@ -4617,7 +4624,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" ht="12.75">
+    <row r="357" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="24"/>
@@ -4627,7 +4634,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" ht="12.75">
+    <row r="358" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="24"/>
@@ -4637,7 +4644,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" ht="12.75">
+    <row r="359" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="24"/>
@@ -4647,7 +4654,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" ht="12.75">
+    <row r="360" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="24"/>
@@ -4657,7 +4664,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" ht="12.75">
+    <row r="361" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="24"/>
@@ -4667,7 +4674,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" ht="12.75">
+    <row r="362" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="24"/>
@@ -4677,7 +4684,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" ht="12.75">
+    <row r="363" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="24"/>
@@ -4687,7 +4694,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" ht="12.75">
+    <row r="364" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="24"/>
@@ -4697,7 +4704,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" ht="12.75">
+    <row r="365" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="24"/>
@@ -4707,7 +4714,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" ht="12.75">
+    <row r="366" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="24"/>
@@ -4717,7 +4724,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" ht="12.75">
+    <row r="367" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="24"/>
@@ -4727,7 +4734,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" ht="12.75">
+    <row r="368" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="24"/>
@@ -4737,7 +4744,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" ht="12.75">
+    <row r="369" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="24"/>
@@ -4747,7 +4754,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" ht="12.75">
+    <row r="370" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="24"/>
@@ -4757,7 +4764,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" ht="12.75">
+    <row r="371" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="24"/>
@@ -4767,7 +4774,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" ht="12.75">
+    <row r="372" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="24"/>
@@ -4777,7 +4784,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" ht="12.75">
+    <row r="373" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="24"/>
@@ -4787,7 +4794,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" ht="12.75">
+    <row r="374" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="24"/>
@@ -4797,7 +4804,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" ht="12.75">
+    <row r="375" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="24"/>
@@ -4807,7 +4814,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" ht="12.75">
+    <row r="376" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="24"/>
@@ -4817,7 +4824,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" ht="12.75">
+    <row r="377" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="24"/>
@@ -4827,7 +4834,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" ht="12.75">
+    <row r="378" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="24"/>
@@ -4837,7 +4844,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" ht="12.75">
+    <row r="379" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="24"/>
@@ -4847,7 +4854,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" ht="12.75">
+    <row r="380" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="24"/>
@@ -4857,7 +4864,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" ht="12.75">
+    <row r="381" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="24"/>
@@ -4867,7 +4874,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" ht="12.75">
+    <row r="382" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="24"/>
@@ -4877,7 +4884,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" ht="12.75">
+    <row r="383" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="24"/>
@@ -4887,7 +4894,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" ht="12.75">
+    <row r="384" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="24"/>
@@ -4897,7 +4904,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" ht="12.75">
+    <row r="385" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="24"/>
@@ -4907,7 +4914,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" ht="12.75">
+    <row r="386" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="24"/>
@@ -4917,7 +4924,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" ht="12.75">
+    <row r="387" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="24"/>
@@ -4927,7 +4934,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" ht="12.75">
+    <row r="388" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="24"/>
@@ -4937,7 +4944,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" ht="12.75">
+    <row r="389" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="24"/>
@@ -4947,7 +4954,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" ht="12.75">
+    <row r="390" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="24"/>
@@ -4957,7 +4964,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" ht="12.75">
+    <row r="391" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="24"/>
@@ -4967,7 +4974,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" ht="12.75">
+    <row r="392" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="24"/>
@@ -4977,7 +4984,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" ht="12.75">
+    <row r="393" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="24"/>
@@ -4987,7 +4994,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" ht="12.75">
+    <row r="394" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="24"/>
@@ -4997,7 +5004,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" ht="12.75">
+    <row r="395" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="24"/>
@@ -5007,7 +5014,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" ht="12.75">
+    <row r="396" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="24"/>
@@ -5017,7 +5024,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" ht="12.75">
+    <row r="397" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="24"/>
@@ -5027,7 +5034,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" ht="12.75">
+    <row r="398" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="24"/>
@@ -5037,7 +5044,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" ht="12.75">
+    <row r="399" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="24"/>
@@ -5047,7 +5054,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" ht="12.75">
+    <row r="400" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="24"/>
@@ -5057,7 +5064,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" ht="12.75">
+    <row r="401" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="24"/>
@@ -5067,7 +5074,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" ht="12.75">
+    <row r="402" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="24"/>
@@ -5077,7 +5084,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" ht="12.75">
+    <row r="403" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="24"/>
@@ -5087,7 +5094,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" ht="12.75">
+    <row r="404" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="24"/>
@@ -5097,7 +5104,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" ht="12.75">
+    <row r="405" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="24"/>
@@ -5107,7 +5114,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" ht="12.75">
+    <row r="406" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="24"/>
@@ -5117,7 +5124,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" ht="12.75">
+    <row r="407" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="24"/>
@@ -5127,7 +5134,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" ht="12.75">
+    <row r="408" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="24"/>
@@ -5137,7 +5144,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" ht="12.75">
+    <row r="409" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="24"/>
@@ -5147,7 +5154,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" ht="12.75">
+    <row r="410" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="24"/>
@@ -5157,7 +5164,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" ht="12.75">
+    <row r="411" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="24"/>
@@ -5167,7 +5174,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" ht="12.75">
+    <row r="412" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="24"/>
@@ -5177,7 +5184,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" ht="12.75">
+    <row r="413" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="24"/>
@@ -5187,7 +5194,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" ht="12.75">
+    <row r="414" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="24"/>
@@ -5197,7 +5204,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" ht="12.75">
+    <row r="415" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="24"/>
@@ -5207,7 +5214,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" ht="12.75">
+    <row r="416" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="24"/>
@@ -5217,7 +5224,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" ht="12.75">
+    <row r="417" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="24"/>
@@ -5227,7 +5234,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" ht="12.75">
+    <row r="418" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="24"/>
@@ -5237,7 +5244,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" ht="12.75">
+    <row r="419" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="24"/>
@@ -5247,7 +5254,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" ht="12.75">
+    <row r="420" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="24"/>
@@ -5257,7 +5264,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" ht="12.75">
+    <row r="421" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="24"/>
@@ -5267,7 +5274,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" ht="12.75">
+    <row r="422" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="24"/>
@@ -5277,7 +5284,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" ht="12.75">
+    <row r="423" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="24"/>
@@ -5287,7 +5294,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" ht="12.75">
+    <row r="424" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="24"/>
@@ -5297,7 +5304,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" ht="12.75">
+    <row r="425" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="24"/>
@@ -5307,7 +5314,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" ht="12.75">
+    <row r="426" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="24"/>
@@ -5317,7 +5324,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" ht="12.75">
+    <row r="427" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="24"/>
@@ -5327,7 +5334,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" ht="12.75">
+    <row r="428" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="24"/>
@@ -5337,7 +5344,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" ht="12.75">
+    <row r="429" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="24"/>
@@ -5347,7 +5354,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" ht="12.75">
+    <row r="430" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="24"/>
@@ -5357,7 +5364,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" ht="12.75">
+    <row r="431" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="24"/>
@@ -5367,7 +5374,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" ht="12.75">
+    <row r="432" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="24"/>
@@ -5377,7 +5384,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" ht="12.75">
+    <row r="433" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="24"/>
@@ -5387,7 +5394,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" ht="12.75">
+    <row r="434" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="24"/>
@@ -5397,7 +5404,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" ht="12.75">
+    <row r="435" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="24"/>
@@ -5407,7 +5414,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" ht="12.75">
+    <row r="436" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="24"/>
@@ -5417,7 +5424,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" ht="12.75">
+    <row r="437" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="24"/>
@@ -5427,7 +5434,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" ht="12.75">
+    <row r="438" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="24"/>
@@ -5437,7 +5444,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" ht="12.75">
+    <row r="439" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="24"/>
@@ -5447,7 +5454,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" ht="12.75">
+    <row r="440" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="24"/>
@@ -5457,7 +5464,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" ht="12.75">
+    <row r="441" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="24"/>
@@ -5467,7 +5474,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" ht="12.75">
+    <row r="442" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="24"/>
@@ -5477,7 +5484,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" ht="12.75">
+    <row r="443" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="24"/>
@@ -5487,7 +5494,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" ht="12.75">
+    <row r="444" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="24"/>
@@ -5497,7 +5504,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" ht="12.75">
+    <row r="445" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="24"/>
@@ -5507,7 +5514,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" ht="12.75">
+    <row r="446" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="24"/>
@@ -5517,7 +5524,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" ht="12.75">
+    <row r="447" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="24"/>
@@ -5527,7 +5534,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" ht="12.75">
+    <row r="448" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="24"/>
@@ -5537,7 +5544,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" ht="12.75">
+    <row r="449" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="24"/>
@@ -5547,7 +5554,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" ht="12.75">
+    <row r="450" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="24"/>
@@ -5557,7 +5564,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" ht="12.75">
+    <row r="451" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="24"/>
@@ -5567,7 +5574,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" ht="12.75">
+    <row r="452" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="24"/>
@@ -5577,7 +5584,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" ht="12.75">
+    <row r="453" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="24"/>
@@ -5587,7 +5594,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" ht="12.75">
+    <row r="454" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="24"/>
@@ -5597,7 +5604,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" ht="12.75">
+    <row r="455" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="24"/>
@@ -5607,7 +5614,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" ht="12.75">
+    <row r="456" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="24"/>
@@ -5617,7 +5624,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" ht="12.75">
+    <row r="457" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="24"/>
@@ -5627,7 +5634,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" ht="12.75">
+    <row r="458" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="24"/>
@@ -5637,7 +5644,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" ht="12.75">
+    <row r="459" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="24"/>
@@ -5647,7 +5654,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" ht="12.75">
+    <row r="460" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="24"/>
@@ -5657,7 +5664,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" ht="12.75">
+    <row r="461" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="24"/>
@@ -5667,7 +5674,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" ht="12.75">
+    <row r="462" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="24"/>
@@ -5677,7 +5684,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" ht="12.75">
+    <row r="463" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="24"/>
@@ -5687,7 +5694,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" ht="12.75">
+    <row r="464" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="24"/>
@@ -5697,7 +5704,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" ht="12.75">
+    <row r="465" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="24"/>
@@ -5707,7 +5714,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" ht="12.75">
+    <row r="466" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="24"/>
@@ -5717,7 +5724,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" ht="12.75">
+    <row r="467" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="24"/>
@@ -5727,7 +5734,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" ht="12.75">
+    <row r="468" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="24"/>
@@ -5737,7 +5744,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" ht="12.75">
+    <row r="469" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="24"/>
@@ -5747,7 +5754,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" ht="12.75">
+    <row r="470" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="24"/>
@@ -5757,7 +5764,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" ht="12.75">
+    <row r="471" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="24"/>
@@ -5767,7 +5774,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" ht="12.75">
+    <row r="472" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="24"/>
@@ -5777,7 +5784,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" ht="12.75">
+    <row r="473" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="24"/>
@@ -5787,7 +5794,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" ht="12.75">
+    <row r="474" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="24"/>
@@ -5797,7 +5804,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" ht="12.75">
+    <row r="475" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="24"/>
@@ -5807,7 +5814,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" ht="12.75">
+    <row r="476" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="24"/>
@@ -5817,7 +5824,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" ht="12.75">
+    <row r="477" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="24"/>
@@ -5827,7 +5834,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" ht="12.75">
+    <row r="478" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="24"/>
@@ -5837,7 +5844,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" ht="12.75">
+    <row r="479" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="24"/>
@@ -5847,7 +5854,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" ht="12.75">
+    <row r="480" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="24"/>
@@ -5857,7 +5864,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" ht="12.75">
+    <row r="481" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="24"/>
@@ -5867,7 +5874,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" ht="12.75">
+    <row r="482" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="24"/>
@@ -5877,7 +5884,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" ht="12.75">
+    <row r="483" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="24"/>
@@ -5887,7 +5894,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" ht="12.75">
+    <row r="484" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="24"/>
@@ -5897,7 +5904,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" ht="12.75">
+    <row r="485" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="24"/>
@@ -5907,7 +5914,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" ht="12.75">
+    <row r="486" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="24"/>
@@ -5917,7 +5924,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" ht="12.75">
+    <row r="487" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="24"/>
@@ -5927,7 +5934,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" ht="12.75">
+    <row r="488" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="24"/>
@@ -5937,7 +5944,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" ht="12.75">
+    <row r="489" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="24"/>
@@ -5947,7 +5954,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" ht="12.75">
+    <row r="490" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="24"/>
@@ -5957,7 +5964,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" ht="12.75">
+    <row r="491" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="24"/>
@@ -5967,7 +5974,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" ht="12.75">
+    <row r="492" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="24"/>
@@ -5977,7 +5984,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" ht="12.75">
+    <row r="493" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="24"/>
@@ -5987,7 +5994,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" ht="12.75">
+    <row r="494" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="24"/>
@@ -5997,7 +6004,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" ht="12.75">
+    <row r="495" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="24"/>
@@ -6007,7 +6014,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" ht="12.75">
+    <row r="496" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="24"/>
@@ -6017,7 +6024,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" ht="12.75">
+    <row r="497" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="24"/>
@@ -6027,7 +6034,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" ht="12.75">
+    <row r="498" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="24"/>
@@ -6037,7 +6044,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" ht="12.75">
+    <row r="499" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="24"/>
@@ -6047,7 +6054,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" ht="12.75">
+    <row r="500" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="24"/>
@@ -6057,7 +6064,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="1:8" ht="12.75">
+    <row r="501" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="24"/>
@@ -6067,7 +6074,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="1:8" ht="12.75">
+    <row r="502" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="24"/>
@@ -6077,7 +6084,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="1:8" ht="12.75">
+    <row r="503" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="24"/>
@@ -6087,7 +6094,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="1:8" ht="12.75">
+    <row r="504" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="24"/>
@@ -6097,7 +6104,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="1:8" ht="12.75">
+    <row r="505" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="24"/>
@@ -6107,7 +6114,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="1:8" ht="12.75">
+    <row r="506" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="24"/>
@@ -6117,7 +6124,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="1:8" ht="12.75">
+    <row r="507" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="24"/>
@@ -6127,7 +6134,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="1:8" ht="12.75">
+    <row r="508" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="24"/>
@@ -6137,7 +6144,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="1:8" ht="12.75">
+    <row r="509" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="24"/>
@@ -6147,7 +6154,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="1:8" ht="12.75">
+    <row r="510" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="24"/>
@@ -6157,7 +6164,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="1:8" ht="12.75">
+    <row r="511" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="24"/>
@@ -6167,7 +6174,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="1:8" ht="12.75">
+    <row r="512" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="24"/>
@@ -6177,7 +6184,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="1:8" ht="12.75">
+    <row r="513" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="24"/>
@@ -6187,7 +6194,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="1:8" ht="12.75">
+    <row r="514" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="24"/>
@@ -6197,7 +6204,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="1:8" ht="12.75">
+    <row r="515" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="24"/>
@@ -6207,7 +6214,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="1:8" ht="12.75">
+    <row r="516" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="24"/>
@@ -6217,7 +6224,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="1:8" ht="12.75">
+    <row r="517" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="24"/>
@@ -6227,7 +6234,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="1:8" ht="12.75">
+    <row r="518" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="24"/>
@@ -6237,7 +6244,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="1:8" ht="12.75">
+    <row r="519" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="24"/>
@@ -6247,7 +6254,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="1:8" ht="12.75">
+    <row r="520" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="24"/>
@@ -6257,7 +6264,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="1:8" ht="12.75">
+    <row r="521" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="24"/>
@@ -6267,7 +6274,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="1:8" ht="12.75">
+    <row r="522" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="24"/>
@@ -6277,7 +6284,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="1:8" ht="12.75">
+    <row r="523" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="24"/>
@@ -6287,7 +6294,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="1:8" ht="12.75">
+    <row r="524" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="24"/>
@@ -6297,7 +6304,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="1:8" ht="12.75">
+    <row r="525" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="24"/>
@@ -6307,7 +6314,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="1:8" ht="12.75">
+    <row r="526" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="24"/>
@@ -6317,7 +6324,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="1:8" ht="12.75">
+    <row r="527" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="24"/>
@@ -6327,7 +6334,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="1:8" ht="12.75">
+    <row r="528" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="24"/>
@@ -6337,7 +6344,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="1:8" ht="12.75">
+    <row r="529" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="24"/>
@@ -6347,7 +6354,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="1:8" ht="12.75">
+    <row r="530" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="24"/>
@@ -6357,7 +6364,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="1:8" ht="12.75">
+    <row r="531" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="24"/>
@@ -6367,7 +6374,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="1:8" ht="12.75">
+    <row r="532" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="24"/>
@@ -6377,7 +6384,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="1:8" ht="12.75">
+    <row r="533" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="24"/>
@@ -6387,7 +6394,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="1:8" ht="12.75">
+    <row r="534" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="24"/>
@@ -6397,7 +6404,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="1:8" ht="12.75">
+    <row r="535" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="24"/>
@@ -6407,7 +6414,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="1:8" ht="12.75">
+    <row r="536" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="24"/>
@@ -6417,7 +6424,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="1:8" ht="12.75">
+    <row r="537" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="24"/>
@@ -6427,7 +6434,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="1:8" ht="12.75">
+    <row r="538" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="24"/>
@@ -6437,7 +6444,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="1:8" ht="12.75">
+    <row r="539" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="24"/>
@@ -6447,7 +6454,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="1:8" ht="12.75">
+    <row r="540" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="24"/>
@@ -6457,7 +6464,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="1:8" ht="12.75">
+    <row r="541" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="24"/>
@@ -6467,7 +6474,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="1:8" ht="12.75">
+    <row r="542" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="24"/>
@@ -6477,7 +6484,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="1:8" ht="12.75">
+    <row r="543" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="24"/>
@@ -6487,7 +6494,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="1:8" ht="12.75">
+    <row r="544" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="24"/>
@@ -6497,7 +6504,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="1:8" ht="12.75">
+    <row r="545" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="24"/>
@@ -6507,7 +6514,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="1:8" ht="12.75">
+    <row r="546" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="24"/>
@@ -6517,7 +6524,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="1:8" ht="12.75">
+    <row r="547" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="24"/>
@@ -6527,7 +6534,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="1:8" ht="12.75">
+    <row r="548" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="24"/>
@@ -6537,7 +6544,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="1:8" ht="12.75">
+    <row r="549" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="24"/>
@@ -6547,7 +6554,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="1:8" ht="12.75">
+    <row r="550" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="24"/>
@@ -6557,7 +6564,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="1:8" ht="12.75">
+    <row r="551" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="24"/>
@@ -6567,7 +6574,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="1:8" ht="12.75">
+    <row r="552" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="24"/>
@@ -6577,7 +6584,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="1:8" ht="12.75">
+    <row r="553" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="24"/>
@@ -6587,7 +6594,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="1:8" ht="12.75">
+    <row r="554" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="24"/>
@@ -6597,7 +6604,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="1:8" ht="12.75">
+    <row r="555" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="24"/>
@@ -6607,7 +6614,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="1:8" ht="12.75">
+    <row r="556" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="24"/>
@@ -6617,7 +6624,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="1:8" ht="12.75">
+    <row r="557" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="24"/>
@@ -6627,7 +6634,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="1:8" ht="12.75">
+    <row r="558" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="24"/>
@@ -6637,7 +6644,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="1:8" ht="12.75">
+    <row r="559" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="24"/>
@@ -6647,7 +6654,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="1:8" ht="12.75">
+    <row r="560" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="24"/>
@@ -6657,7 +6664,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="1:8" ht="12.75">
+    <row r="561" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="24"/>
@@ -6667,7 +6674,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="1:8" ht="12.75">
+    <row r="562" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="24"/>
@@ -6677,7 +6684,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="1:8" ht="12.75">
+    <row r="563" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="24"/>
@@ -6687,7 +6694,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="1:8" ht="12.75">
+    <row r="564" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="24"/>
@@ -6697,7 +6704,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="1:8" ht="12.75">
+    <row r="565" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="24"/>
@@ -6707,7 +6714,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="1:8" ht="12.75">
+    <row r="566" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="24"/>
@@ -6717,7 +6724,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="1:8" ht="12.75">
+    <row r="567" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="24"/>
@@ -6727,7 +6734,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="1:8" ht="12.75">
+    <row r="568" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="24"/>
@@ -6737,7 +6744,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="1:8" ht="12.75">
+    <row r="569" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="24"/>
@@ -6747,7 +6754,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="1:8" ht="12.75">
+    <row r="570" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="24"/>
@@ -6757,7 +6764,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="1:8" ht="12.75">
+    <row r="571" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="24"/>
@@ -6767,7 +6774,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="1:8" ht="12.75">
+    <row r="572" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="24"/>
@@ -6777,7 +6784,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" ht="12.75">
+    <row r="573" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="24"/>
@@ -6787,7 +6794,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" ht="12.75">
+    <row r="574" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="24"/>
@@ -6797,7 +6804,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" ht="12.75">
+    <row r="575" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="24"/>
@@ -6807,7 +6814,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="1:8" ht="12.75">
+    <row r="576" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="24"/>
@@ -6817,7 +6824,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="1:8" ht="12.75">
+    <row r="577" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="24"/>
@@ -6827,7 +6834,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="1:8" ht="12.75">
+    <row r="578" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="24"/>
@@ -6837,7 +6844,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="1:8" ht="12.75">
+    <row r="579" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="24"/>
@@ -6847,7 +6854,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="1:8" ht="12.75">
+    <row r="580" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="24"/>
@@ -6857,7 +6864,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="1:8" ht="12.75">
+    <row r="581" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="24"/>
@@ -6867,7 +6874,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="1:8" ht="12.75">
+    <row r="582" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="24"/>
@@ -6877,7 +6884,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" ht="12.75">
+    <row r="583" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="24"/>
@@ -6887,7 +6894,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="1:8" ht="12.75">
+    <row r="584" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="24"/>
@@ -6897,7 +6904,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="1:8" ht="12.75">
+    <row r="585" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="24"/>
@@ -6907,7 +6914,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="1:8" ht="12.75">
+    <row r="586" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="24"/>
@@ -6917,7 +6924,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="1:8" ht="12.75">
+    <row r="587" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="24"/>
@@ -6927,7 +6934,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="1:8" ht="12.75">
+    <row r="588" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="24"/>
@@ -6937,7 +6944,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="1:8" ht="12.75">
+    <row r="589" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="24"/>
@@ -6947,7 +6954,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="1:8" ht="12.75">
+    <row r="590" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="24"/>
@@ -6957,7 +6964,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="1:8" ht="12.75">
+    <row r="591" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="24"/>
@@ -6967,7 +6974,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="1:8" ht="12.75">
+    <row r="592" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="24"/>
@@ -6977,7 +6984,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="1:8" ht="12.75">
+    <row r="593" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="24"/>
@@ -6987,7 +6994,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="1:8" ht="12.75">
+    <row r="594" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="24"/>
@@ -6997,7 +7004,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="1:8" ht="12.75">
+    <row r="595" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="24"/>
@@ -7007,7 +7014,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="1:8" ht="12.75">
+    <row r="596" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="24"/>
@@ -7017,7 +7024,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="1:8" ht="12.75">
+    <row r="597" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="24"/>
@@ -7027,7 +7034,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="1:8" ht="12.75">
+    <row r="598" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="24"/>
@@ -7037,7 +7044,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="1:8" ht="12.75">
+    <row r="599" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="24"/>
@@ -7047,7 +7054,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="1:8" ht="12.75">
+    <row r="600" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="24"/>
@@ -7057,7 +7064,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="1:8" ht="12.75">
+    <row r="601" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="24"/>
@@ -7067,7 +7074,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="1:8" ht="12.75">
+    <row r="602" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="24"/>
@@ -7077,7 +7084,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="1:8" ht="12.75">
+    <row r="603" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="24"/>
@@ -7087,7 +7094,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="1:8" ht="12.75">
+    <row r="604" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="24"/>
@@ -7097,7 +7104,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="1:8" ht="12.75">
+    <row r="605" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="24"/>
@@ -7107,7 +7114,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="1:8" ht="12.75">
+    <row r="606" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="24"/>
@@ -7117,7 +7124,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="1:8" ht="12.75">
+    <row r="607" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="24"/>
@@ -7127,7 +7134,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="1:8" ht="12.75">
+    <row r="608" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="24"/>
@@ -7137,7 +7144,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="1:8" ht="12.75">
+    <row r="609" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="24"/>
@@ -7147,7 +7154,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="1:8" ht="12.75">
+    <row r="610" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="24"/>
@@ -7157,7 +7164,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="1:8" ht="12.75">
+    <row r="611" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="24"/>
@@ -7167,7 +7174,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="1:8" ht="12.75">
+    <row r="612" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="24"/>
@@ -7177,7 +7184,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="1:8" ht="12.75">
+    <row r="613" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="24"/>
@@ -7187,7 +7194,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="1:8" ht="12.75">
+    <row r="614" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="24"/>
@@ -7197,7 +7204,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="1:8" ht="12.75">
+    <row r="615" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="24"/>
@@ -7207,7 +7214,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="1:8" ht="12.75">
+    <row r="616" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="24"/>
@@ -7217,7 +7224,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" ht="12.75">
+    <row r="617" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="24"/>
@@ -7227,7 +7234,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" ht="12.75">
+    <row r="618" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="24"/>
@@ -7237,7 +7244,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" ht="12.75">
+    <row r="619" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="24"/>
@@ -7247,7 +7254,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" ht="12.75">
+    <row r="620" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="24"/>
@@ -7257,7 +7264,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" ht="12.75">
+    <row r="621" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="24"/>
@@ -7267,7 +7274,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" ht="12.75">
+    <row r="622" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="24"/>
@@ -7277,7 +7284,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" ht="12.75">
+    <row r="623" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="24"/>
@@ -7287,7 +7294,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" ht="12.75">
+    <row r="624" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="24"/>
@@ -7297,7 +7304,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="1:8" ht="12.75">
+    <row r="625" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="24"/>
@@ -7307,7 +7314,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="1:8" ht="12.75">
+    <row r="626" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="24"/>
@@ -7317,7 +7324,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="1:8" ht="12.75">
+    <row r="627" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="24"/>
@@ -7327,7 +7334,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="1:8" ht="12.75">
+    <row r="628" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="24"/>
@@ -7337,7 +7344,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="1:8" ht="12.75">
+    <row r="629" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="24"/>
@@ -7347,7 +7354,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="1:8" ht="12.75">
+    <row r="630" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="24"/>
@@ -7357,7 +7364,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="1:8" ht="12.75">
+    <row r="631" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="24"/>
@@ -7367,7 +7374,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="1:8" ht="12.75">
+    <row r="632" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="24"/>
@@ -7377,7 +7384,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="1:8" ht="12.75">
+    <row r="633" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="24"/>
@@ -7387,7 +7394,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="1:8" ht="12.75">
+    <row r="634" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="24"/>
@@ -7397,7 +7404,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="1:8" ht="12.75">
+    <row r="635" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="24"/>
@@ -7407,7 +7414,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="1:8" ht="12.75">
+    <row r="636" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="24"/>
@@ -7417,7 +7424,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="1:8" ht="12.75">
+    <row r="637" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="24"/>
@@ -7427,7 +7434,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="1:8" ht="12.75">
+    <row r="638" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="24"/>
@@ -7437,7 +7444,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="1:8" ht="12.75">
+    <row r="639" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="24"/>
@@ -7447,7 +7454,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="1:8" ht="12.75">
+    <row r="640" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="24"/>
@@ -7457,7 +7464,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="1:8" ht="12.75">
+    <row r="641" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="24"/>
@@ -7467,7 +7474,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="1:8" ht="12.75">
+    <row r="642" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="24"/>
@@ -7477,7 +7484,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="1:8" ht="12.75">
+    <row r="643" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="24"/>
@@ -7487,7 +7494,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="1:8" ht="12.75">
+    <row r="644" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="24"/>
@@ -7497,7 +7504,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="1:8" ht="12.75">
+    <row r="645" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="24"/>
@@ -7507,7 +7514,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="1:8" ht="12.75">
+    <row r="646" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="24"/>
@@ -7517,7 +7524,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="1:8" ht="12.75">
+    <row r="647" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="24"/>
@@ -7527,7 +7534,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="1:8" ht="12.75">
+    <row r="648" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="24"/>
@@ -7537,7 +7544,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="1:8" ht="12.75">
+    <row r="649" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="24"/>
@@ -7547,7 +7554,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="1:8" ht="12.75">
+    <row r="650" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="24"/>
@@ -7557,7 +7564,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="1:8" ht="12.75">
+    <row r="651" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="24"/>
@@ -7567,7 +7574,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="1:8" ht="12.75">
+    <row r="652" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="24"/>
@@ -7577,7 +7584,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="1:8" ht="12.75">
+    <row r="653" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="24"/>
@@ -7587,7 +7594,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="1:8" ht="12.75">
+    <row r="654" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="24"/>
@@ -7597,7 +7604,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" ht="12.75">
+    <row r="655" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="24"/>
@@ -7607,7 +7614,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" ht="12.75">
+    <row r="656" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="24"/>
@@ -7617,7 +7624,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="1:8" ht="12.75">
+    <row r="657" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="24"/>
@@ -7627,7 +7634,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="1:8" ht="12.75">
+    <row r="658" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="24"/>
@@ -7637,7 +7644,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="1:8" ht="12.75">
+    <row r="659" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="24"/>
@@ -7647,7 +7654,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="1:8" ht="12.75">
+    <row r="660" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="24"/>
@@ -7657,7 +7664,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" ht="12.75">
+    <row r="661" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="24"/>
@@ -7667,7 +7674,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="1:8" ht="12.75">
+    <row r="662" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="24"/>
@@ -7677,7 +7684,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="1:8" ht="12.75">
+    <row r="663" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="24"/>
@@ -7687,7 +7694,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" ht="12.75">
+    <row r="664" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="24"/>
@@ -7697,7 +7704,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="1:8" ht="12.75">
+    <row r="665" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="24"/>
@@ -7707,7 +7714,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" ht="12.75">
+    <row r="666" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="24"/>
@@ -7717,7 +7724,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" ht="12.75">
+    <row r="667" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="24"/>
@@ -7727,7 +7734,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" ht="12.75">
+    <row r="668" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="24"/>
@@ -7737,7 +7744,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" ht="12.75">
+    <row r="669" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="24"/>
@@ -7747,7 +7754,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" ht="12.75">
+    <row r="670" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="24"/>
@@ -7757,7 +7764,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" ht="12.75">
+    <row r="671" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="24"/>
@@ -7767,7 +7774,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="1:8" ht="12.75">
+    <row r="672" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="24"/>
@@ -7777,7 +7784,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" ht="12.75">
+    <row r="673" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="24"/>
@@ -7787,7 +7794,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" ht="12.75">
+    <row r="674" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="24"/>
@@ -7797,7 +7804,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="1:8" ht="12.75">
+    <row r="675" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="24"/>
@@ -7807,7 +7814,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="1:8" ht="12.75">
+    <row r="676" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="24"/>
@@ -7817,7 +7824,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="1:8" ht="12.75">
+    <row r="677" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="24"/>
@@ -7827,7 +7834,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" ht="12.75">
+    <row r="678" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="24"/>
@@ -7837,7 +7844,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="1:8" ht="12.75">
+    <row r="679" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="24"/>
@@ -7847,7 +7854,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" ht="12.75">
+    <row r="680" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="24"/>
@@ -7857,7 +7864,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" ht="12.75">
+    <row r="681" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="24"/>
@@ -7867,7 +7874,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="1:8" ht="12.75">
+    <row r="682" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="24"/>
@@ -7877,7 +7884,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" ht="12.75">
+    <row r="683" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="24"/>
@@ -7887,7 +7894,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="1:8" ht="12.75">
+    <row r="684" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="24"/>
@@ -7897,7 +7904,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="1:8" ht="12.75">
+    <row r="685" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="24"/>
@@ -7907,7 +7914,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="1:8" ht="12.75">
+    <row r="686" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="24"/>
@@ -7917,7 +7924,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="1:8" ht="12.75">
+    <row r="687" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="24"/>
@@ -7927,7 +7934,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="1:8" ht="12.75">
+    <row r="688" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="24"/>
@@ -7937,7 +7944,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" ht="12.75">
+    <row r="689" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="24"/>
@@ -7947,7 +7954,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="1:8" ht="12.75">
+    <row r="690" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="24"/>
@@ -7957,7 +7964,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" ht="12.75">
+    <row r="691" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="24"/>
@@ -7967,7 +7974,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="1:8" ht="12.75">
+    <row r="692" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="24"/>
@@ -7977,7 +7984,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" ht="12.75">
+    <row r="693" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="24"/>
@@ -7987,7 +7994,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="1:8" ht="12.75">
+    <row r="694" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="24"/>
@@ -7997,7 +8004,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" ht="12.75">
+    <row r="695" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="24"/>
@@ -8007,7 +8014,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" ht="12.75">
+    <row r="696" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="24"/>
@@ -8017,7 +8024,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" ht="12.75">
+    <row r="697" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="24"/>
@@ -8027,7 +8034,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" ht="12.75">
+    <row r="698" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="24"/>
@@ -8037,7 +8044,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" ht="12.75">
+    <row r="699" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="24"/>
@@ -8047,7 +8054,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" ht="12.75">
+    <row r="700" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="24"/>
@@ -8057,7 +8064,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" ht="12.75">
+    <row r="701" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="24"/>
@@ -8067,7 +8074,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="1:8" ht="12.75">
+    <row r="702" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="24"/>
@@ -8077,7 +8084,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" ht="12.75">
+    <row r="703" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="24"/>
@@ -8087,7 +8094,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" ht="12.75">
+    <row r="704" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="24"/>
@@ -8097,7 +8104,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" ht="12.75">
+    <row r="705" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="24"/>
@@ -8107,7 +8114,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" ht="12.75">
+    <row r="706" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="24"/>
@@ -8117,7 +8124,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" ht="12.75">
+    <row r="707" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="24"/>
@@ -8127,7 +8134,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" ht="12.75">
+    <row r="708" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="24"/>
@@ -8137,7 +8144,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="1:8" ht="12.75">
+    <row r="709" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="24"/>
@@ -8147,7 +8154,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" ht="12.75">
+    <row r="710" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="24"/>
@@ -8157,7 +8164,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="1:8" ht="12.75">
+    <row r="711" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="24"/>
@@ -8167,7 +8174,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" ht="12.75">
+    <row r="712" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="24"/>
@@ -8177,7 +8184,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="1:8" ht="12.75">
+    <row r="713" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="24"/>
@@ -8187,7 +8194,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="1:8" ht="12.75">
+    <row r="714" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="24"/>
@@ -8197,7 +8204,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="1:8" ht="12.75">
+    <row r="715" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="24"/>
@@ -8207,7 +8214,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="1:8" ht="12.75">
+    <row r="716" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="24"/>
@@ -8217,7 +8224,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="1:8" ht="12.75">
+    <row r="717" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="24"/>
@@ -8227,7 +8234,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="1:8" ht="12.75">
+    <row r="718" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="24"/>
@@ -8237,7 +8244,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" ht="12.75">
+    <row r="719" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="24"/>
@@ -8247,7 +8254,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" ht="12.75">
+    <row r="720" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="24"/>
@@ -8257,7 +8264,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" ht="12.75">
+    <row r="721" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="24"/>
@@ -8267,7 +8274,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="1:8" ht="12.75">
+    <row r="722" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="24"/>
@@ -8277,7 +8284,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" ht="12.75">
+    <row r="723" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="24"/>
@@ -8287,7 +8294,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" ht="12.75">
+    <row r="724" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="24"/>
@@ -8297,7 +8304,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" ht="12.75">
+    <row r="725" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="24"/>
@@ -8307,7 +8314,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" ht="12.75">
+    <row r="726" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="24"/>
@@ -8317,7 +8324,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="1:8" ht="12.75">
+    <row r="727" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="24"/>
@@ -8327,7 +8334,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="1:8" ht="12.75">
+    <row r="728" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="24"/>
@@ -8337,7 +8344,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" ht="12.75">
+    <row r="729" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="24"/>
@@ -8347,7 +8354,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="1:8" ht="12.75">
+    <row r="730" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="24"/>
@@ -8357,7 +8364,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" ht="12.75">
+    <row r="731" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="24"/>
@@ -8367,7 +8374,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="1:8" ht="12.75">
+    <row r="732" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="24"/>
@@ -8377,7 +8384,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" ht="12.75">
+    <row r="733" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="24"/>
@@ -8387,7 +8394,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" ht="12.75">
+    <row r="734" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="24"/>
@@ -8397,7 +8404,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" ht="12.75">
+    <row r="735" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="24"/>
@@ -8407,7 +8414,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" ht="12.75">
+    <row r="736" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="24"/>
@@ -8417,7 +8424,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="1:8" ht="12.75">
+    <row r="737" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="24"/>
@@ -8427,7 +8434,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" ht="12.75">
+    <row r="738" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="24"/>
@@ -8437,7 +8444,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="1:8" ht="12.75">
+    <row r="739" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="24"/>
@@ -8447,7 +8454,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" ht="12.75">
+    <row r="740" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="24"/>
@@ -8457,7 +8464,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="1:8" ht="12.75">
+    <row r="741" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="24"/>
@@ -8467,7 +8474,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" ht="12.75">
+    <row r="742" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="24"/>
@@ -8477,7 +8484,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="1:8" ht="12.75">
+    <row r="743" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="24"/>
@@ -8487,7 +8494,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" ht="12.75">
+    <row r="744" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="24"/>
@@ -8497,7 +8504,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" ht="12.75">
+    <row r="745" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="24"/>
@@ -8507,7 +8514,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" ht="12.75">
+    <row r="746" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="24"/>
@@ -8517,7 +8524,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" ht="12.75">
+    <row r="747" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="24"/>
@@ -8527,7 +8534,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" ht="12.75">
+    <row r="748" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="24"/>
@@ -8537,7 +8544,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" ht="12.75">
+    <row r="749" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="24"/>
@@ -8547,7 +8554,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" ht="12.75">
+    <row r="750" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="24"/>
@@ -8557,7 +8564,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" ht="12.75">
+    <row r="751" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="24"/>
@@ -8567,7 +8574,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="1:8" ht="12.75">
+    <row r="752" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="24"/>
@@ -8577,7 +8584,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" ht="12.75">
+    <row r="753" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="24"/>
@@ -8587,7 +8594,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="1:8" ht="12.75">
+    <row r="754" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="24"/>
@@ -8597,7 +8604,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" ht="12.75">
+    <row r="755" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="24"/>
@@ -8607,7 +8614,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="1:8" ht="12.75">
+    <row r="756" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="24"/>
@@ -8617,7 +8624,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="1:8" ht="12.75">
+    <row r="757" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="24"/>
@@ -8627,7 +8634,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="1:8" ht="12.75">
+    <row r="758" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="24"/>
@@ -8637,7 +8644,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="1:8" ht="12.75">
+    <row r="759" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="24"/>
@@ -8647,7 +8654,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="1:8" ht="12.75">
+    <row r="760" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="24"/>
@@ -8657,7 +8664,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="1:8" ht="12.75">
+    <row r="761" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="24"/>
@@ -8667,7 +8674,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="1:8" ht="12.75">
+    <row r="762" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="24"/>
@@ -8677,7 +8684,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="1:8" ht="12.75">
+    <row r="763" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="24"/>
@@ -8687,7 +8694,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="1:8" ht="12.75">
+    <row r="764" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="24"/>
@@ -8697,7 +8704,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="1:8" ht="12.75">
+    <row r="765" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="24"/>
@@ -8707,7 +8714,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="1:8" ht="12.75">
+    <row r="766" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="24"/>
@@ -8717,7 +8724,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="1:8" ht="12.75">
+    <row r="767" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="24"/>
@@ -8727,7 +8734,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="1:8" ht="12.75">
+    <row r="768" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="24"/>
@@ -8737,7 +8744,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="1:8" ht="12.75">
+    <row r="769" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="24"/>
@@ -8747,7 +8754,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="1:8" ht="12.75">
+    <row r="770" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="24"/>
@@ -8757,7 +8764,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="1:8" ht="12.75">
+    <row r="771" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="24"/>
@@ -8767,7 +8774,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="1:8" ht="12.75">
+    <row r="772" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="24"/>
@@ -8777,7 +8784,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="1:8" ht="12.75">
+    <row r="773" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="24"/>
@@ -8787,7 +8794,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="1:8" ht="12.75">
+    <row r="774" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="24"/>
@@ -8797,7 +8804,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="1:8" ht="12.75">
+    <row r="775" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="24"/>
@@ -8807,7 +8814,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="1:8" ht="12.75">
+    <row r="776" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="24"/>
@@ -8817,7 +8824,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="1:8" ht="12.75">
+    <row r="777" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="24"/>
@@ -8827,7 +8834,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="1:8" ht="12.75">
+    <row r="778" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="24"/>
@@ -8837,7 +8844,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="1:8" ht="12.75">
+    <row r="779" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="24"/>
@@ -8847,7 +8854,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="1:8" ht="12.75">
+    <row r="780" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="24"/>
@@ -8857,7 +8864,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="1:8" ht="12.75">
+    <row r="781" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="24"/>
@@ -8867,7 +8874,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="1:8" ht="12.75">
+    <row r="782" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="24"/>
@@ -8877,7 +8884,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="1:8" ht="12.75">
+    <row r="783" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="24"/>
@@ -8887,7 +8894,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="1:8" ht="12.75">
+    <row r="784" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="24"/>
@@ -8897,7 +8904,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="1:8" ht="12.75">
+    <row r="785" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="24"/>
@@ -8907,7 +8914,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="1:8" ht="12.75">
+    <row r="786" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="24"/>
@@ -8917,7 +8924,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="1:8" ht="12.75">
+    <row r="787" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="24"/>
@@ -8927,7 +8934,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="1:8" ht="12.75">
+    <row r="788" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="24"/>
@@ -8937,7 +8944,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="1:8" ht="12.75">
+    <row r="789" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="24"/>
@@ -8947,7 +8954,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="1:8" ht="12.75">
+    <row r="790" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="24"/>
@@ -8957,7 +8964,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="1:8" ht="12.75">
+    <row r="791" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="24"/>
@@ -8967,7 +8974,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="1:8" ht="12.75">
+    <row r="792" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="24"/>
@@ -8977,7 +8984,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="1:8" ht="12.75">
+    <row r="793" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="24"/>
@@ -8987,7 +8994,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="1:8" ht="12.75">
+    <row r="794" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="24"/>
@@ -8997,7 +9004,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="1:8" ht="12.75">
+    <row r="795" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="24"/>
@@ -9007,7 +9014,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="1:8" ht="12.75">
+    <row r="796" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="24"/>
@@ -9017,7 +9024,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="1:8" ht="12.75">
+    <row r="797" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="24"/>
@@ -9027,7 +9034,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="1:8" ht="12.75">
+    <row r="798" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="24"/>
@@ -9037,7 +9044,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="1:8" ht="12.75">
+    <row r="799" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="24"/>
@@ -9047,7 +9054,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="1:8" ht="12.75">
+    <row r="800" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="24"/>
@@ -9057,7 +9064,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="1:8" ht="12.75">
+    <row r="801" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="24"/>
@@ -9067,7 +9074,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="1:8" ht="12.75">
+    <row r="802" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="24"/>
@@ -9077,7 +9084,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="1:8" ht="12.75">
+    <row r="803" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="24"/>
@@ -9087,7 +9094,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="1:8" ht="12.75">
+    <row r="804" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="24"/>
@@ -9097,7 +9104,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="1:8" ht="12.75">
+    <row r="805" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="24"/>
@@ -9107,7 +9114,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="1:8" ht="12.75">
+    <row r="806" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="24"/>
@@ -9117,7 +9124,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="1:8" ht="12.75">
+    <row r="807" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="24"/>
@@ -9127,7 +9134,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="1:8" ht="12.75">
+    <row r="808" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="24"/>
@@ -9137,7 +9144,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="1:8" ht="12.75">
+    <row r="809" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="24"/>
@@ -9147,7 +9154,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="1:8" ht="12.75">
+    <row r="810" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="24"/>
@@ -9157,7 +9164,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="1:8" ht="12.75">
+    <row r="811" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="24"/>
@@ -9167,7 +9174,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="1:8" ht="12.75">
+    <row r="812" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="24"/>
@@ -9177,7 +9184,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="1:8" ht="12.75">
+    <row r="813" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="24"/>
@@ -9187,7 +9194,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="1:8" ht="12.75">
+    <row r="814" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="24"/>
@@ -9197,7 +9204,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="1:8" ht="12.75">
+    <row r="815" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="24"/>
@@ -9207,7 +9214,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="1:8" ht="12.75">
+    <row r="816" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="24"/>
@@ -9217,7 +9224,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="1:8" ht="12.75">
+    <row r="817" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="24"/>
@@ -9227,7 +9234,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="1:8" ht="12.75">
+    <row r="818" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="24"/>
@@ -9237,7 +9244,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="1:8" ht="12.75">
+    <row r="819" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="24"/>
@@ -9247,7 +9254,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="1:8" ht="12.75">
+    <row r="820" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="24"/>
@@ -9257,7 +9264,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="1:8" ht="12.75">
+    <row r="821" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="24"/>
@@ -9267,7 +9274,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="1:8" ht="12.75">
+    <row r="822" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="24"/>
@@ -9277,7 +9284,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="1:8" ht="12.75">
+    <row r="823" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="24"/>
@@ -9287,7 +9294,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="1:8" ht="12.75">
+    <row r="824" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="24"/>
@@ -9297,7 +9304,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="1:8" ht="12.75">
+    <row r="825" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="24"/>
@@ -9307,7 +9314,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="1:8" ht="12.75">
+    <row r="826" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="24"/>
@@ -9317,7 +9324,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="1:8" ht="12.75">
+    <row r="827" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="24"/>
@@ -9327,7 +9334,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="1:8" ht="12.75">
+    <row r="828" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="24"/>
@@ -9337,7 +9344,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="1:8" ht="12.75">
+    <row r="829" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="24"/>
@@ -9347,7 +9354,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="1:8" ht="12.75">
+    <row r="830" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="24"/>
@@ -9357,7 +9364,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="1:8" ht="12.75">
+    <row r="831" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="24"/>
@@ -9367,7 +9374,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="1:8" ht="12.75">
+    <row r="832" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="24"/>
@@ -9377,7 +9384,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="1:8" ht="12.75">
+    <row r="833" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="24"/>
@@ -9387,7 +9394,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="1:8" ht="12.75">
+    <row r="834" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="24"/>
@@ -9397,7 +9404,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="1:8" ht="12.75">
+    <row r="835" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="24"/>
@@ -9407,7 +9414,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="1:8" ht="12.75">
+    <row r="836" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="24"/>
@@ -9417,7 +9424,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="1:8" ht="12.75">
+    <row r="837" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="24"/>
@@ -9427,7 +9434,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="1:8" ht="12.75">
+    <row r="838" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="24"/>
@@ -9437,7 +9444,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="1:8" ht="12.75">
+    <row r="839" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="24"/>
@@ -9447,7 +9454,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="1:8" ht="12.75">
+    <row r="840" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="24"/>
@@ -9457,7 +9464,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="1:8" ht="12.75">
+    <row r="841" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="24"/>
@@ -9467,7 +9474,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="1:8" ht="12.75">
+    <row r="842" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="24"/>
@@ -9477,7 +9484,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="1:8" ht="12.75">
+    <row r="843" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="24"/>
@@ -9487,7 +9494,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="1:8" ht="12.75">
+    <row r="844" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="24"/>
@@ -9497,7 +9504,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="1:8" ht="12.75">
+    <row r="845" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="24"/>
@@ -9507,7 +9514,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="1:8" ht="12.75">
+    <row r="846" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="24"/>
@@ -9517,7 +9524,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="1:8" ht="12.75">
+    <row r="847" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="24"/>
@@ -9527,7 +9534,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="1:8" ht="12.75">
+    <row r="848" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="24"/>
@@ -9537,7 +9544,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="1:8" ht="12.75">
+    <row r="849" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="24"/>
@@ -9547,7 +9554,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="1:8" ht="12.75">
+    <row r="850" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="24"/>
@@ -9557,7 +9564,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="1:8" ht="12.75">
+    <row r="851" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="24"/>
@@ -9567,7 +9574,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="1:8" ht="12.75">
+    <row r="852" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="24"/>
@@ -9577,7 +9584,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="1:8" ht="12.75">
+    <row r="853" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="24"/>
@@ -9587,7 +9594,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="1:8" ht="12.75">
+    <row r="854" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="24"/>
@@ -9597,7 +9604,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="1:8" ht="12.75">
+    <row r="855" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="24"/>
@@ -9607,7 +9614,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="1:8" ht="12.75">
+    <row r="856" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="24"/>
@@ -9617,7 +9624,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="1:8" ht="12.75">
+    <row r="857" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="24"/>
@@ -9627,7 +9634,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="1:8" ht="12.75">
+    <row r="858" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="24"/>
@@ -9637,7 +9644,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="1:8" ht="12.75">
+    <row r="859" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="24"/>
@@ -9647,7 +9654,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="1:8" ht="12.75">
+    <row r="860" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="24"/>
@@ -9657,7 +9664,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="1:8" ht="12.75">
+    <row r="861" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="24"/>
@@ -9667,7 +9674,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="1:8" ht="12.75">
+    <row r="862" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="24"/>
@@ -9677,7 +9684,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="1:8" ht="12.75">
+    <row r="863" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="24"/>
@@ -9687,7 +9694,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="1:8" ht="12.75">
+    <row r="864" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="24"/>
@@ -9697,7 +9704,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="1:8" ht="12.75">
+    <row r="865" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="24"/>
@@ -9707,7 +9714,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="1:8" ht="12.75">
+    <row r="866" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="24"/>
@@ -9717,7 +9724,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="1:8" ht="12.75">
+    <row r="867" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="24"/>
@@ -9727,7 +9734,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="1:8" ht="12.75">
+    <row r="868" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="24"/>
@@ -9737,7 +9744,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="1:8" ht="12.75">
+    <row r="869" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="24"/>
@@ -9747,7 +9754,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="1:8" ht="12.75">
+    <row r="870" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="24"/>
@@ -9757,7 +9764,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="1:8" ht="12.75">
+    <row r="871" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="24"/>
@@ -9767,7 +9774,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="1:8" ht="12.75">
+    <row r="872" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="24"/>
@@ -9777,7 +9784,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="1:8" ht="12.75">
+    <row r="873" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="24"/>
@@ -9787,7 +9794,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="1:8" ht="12.75">
+    <row r="874" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="24"/>
@@ -9797,7 +9804,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="1:8" ht="12.75">
+    <row r="875" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="24"/>
@@ -9807,7 +9814,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="1:8" ht="12.75">
+    <row r="876" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="24"/>
@@ -9817,7 +9824,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="1:8" ht="12.75">
+    <row r="877" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="24"/>
@@ -9827,7 +9834,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="1:8" ht="12.75">
+    <row r="878" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="24"/>
@@ -9837,7 +9844,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="1:8" ht="12.75">
+    <row r="879" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="24"/>
@@ -9847,7 +9854,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="1:8" ht="12.75">
+    <row r="880" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="24"/>
@@ -9857,7 +9864,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="1:8" ht="12.75">
+    <row r="881" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="24"/>
@@ -9867,7 +9874,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="1:8" ht="12.75">
+    <row r="882" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="24"/>
@@ -9877,7 +9884,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="1:8" ht="12.75">
+    <row r="883" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="24"/>
@@ -9887,7 +9894,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="1:8" ht="12.75">
+    <row r="884" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="24"/>
@@ -9897,7 +9904,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="1:8" ht="12.75">
+    <row r="885" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="24"/>
@@ -9907,7 +9914,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="1:8" ht="12.75">
+    <row r="886" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="24"/>
@@ -9917,7 +9924,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="1:8" ht="12.75">
+    <row r="887" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="24"/>
@@ -9927,7 +9934,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="1:8" ht="12.75">
+    <row r="888" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="24"/>
@@ -9937,7 +9944,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="1:8" ht="12.75">
+    <row r="889" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="24"/>
@@ -9947,7 +9954,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="1:8" ht="12.75">
+    <row r="890" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="24"/>
@@ -9957,7 +9964,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="1:8" ht="12.75">
+    <row r="891" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="24"/>
@@ -9967,7 +9974,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="1:8" ht="12.75">
+    <row r="892" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="24"/>
@@ -9977,7 +9984,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="1:8" ht="12.75">
+    <row r="893" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="24"/>
@@ -9987,7 +9994,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="1:8" ht="12.75">
+    <row r="894" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="24"/>
@@ -9997,7 +10004,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="1:8" ht="12.75">
+    <row r="895" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="24"/>
@@ -10007,7 +10014,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="1:8" ht="12.75">
+    <row r="896" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="24"/>
@@ -10017,7 +10024,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="1:8" ht="12.75">
+    <row r="897" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="24"/>
@@ -10027,7 +10034,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="1:8" ht="12.75">
+    <row r="898" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="24"/>
@@ -10037,7 +10044,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="1:8" ht="12.75">
+    <row r="899" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="24"/>
@@ -10047,7 +10054,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="1:8" ht="12.75">
+    <row r="900" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="24"/>
@@ -10057,7 +10064,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="1:8" ht="12.75">
+    <row r="901" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="24"/>
@@ -10067,7 +10074,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="1:8" ht="12.75">
+    <row r="902" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="24"/>
@@ -10077,7 +10084,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="1:8" ht="12.75">
+    <row r="903" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="24"/>
@@ -10087,7 +10094,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="1:8" ht="12.75">
+    <row r="904" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="24"/>
@@ -10097,7 +10104,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="1:8" ht="12.75">
+    <row r="905" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="24"/>
@@ -10107,7 +10114,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="1:8" ht="12.75">
+    <row r="906" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="24"/>
@@ -10117,7 +10124,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="1:8" ht="12.75">
+    <row r="907" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="24"/>
@@ -10127,7 +10134,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="1:8" ht="12.75">
+    <row r="908" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="24"/>
@@ -10137,7 +10144,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="1:8" ht="12.75">
+    <row r="909" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="24"/>
@@ -10147,7 +10154,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" ht="12.75">
+    <row r="910" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="24"/>
@@ -10157,7 +10164,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="1:8" ht="12.75">
+    <row r="911" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="24"/>
@@ -10167,7 +10174,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="1:8" ht="12.75">
+    <row r="912" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="24"/>
@@ -10177,7 +10184,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="1:8" ht="12.75">
+    <row r="913" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="24"/>
@@ -10187,7 +10194,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" spans="1:8" ht="12.75">
+    <row r="914" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="24"/>
@@ -10197,7 +10204,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" spans="1:8" ht="12.75">
+    <row r="915" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="24"/>
@@ -10207,7 +10214,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" spans="1:8" ht="12.75">
+    <row r="916" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="24"/>
@@ -10217,7 +10224,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" spans="1:8" ht="12.75">
+    <row r="917" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="24"/>
@@ -10227,7 +10234,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" spans="1:8" ht="12.75">
+    <row r="918" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="24"/>
@@ -10237,7 +10244,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" spans="1:8" ht="12.75">
+    <row r="919" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="24"/>
@@ -10247,7 +10254,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" spans="1:8" ht="12.75">
+    <row r="920" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="24"/>
@@ -10257,7 +10264,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" spans="1:8" ht="12.75">
+    <row r="921" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="24"/>
@@ -10267,7 +10274,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="1:8" ht="12.75">
+    <row r="922" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="24"/>
@@ -10277,7 +10284,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" spans="1:8" ht="12.75">
+    <row r="923" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="24"/>
@@ -10287,7 +10294,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" spans="1:8" ht="12.75">
+    <row r="924" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="24"/>
@@ -10297,7 +10304,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" spans="1:8" ht="12.75">
+    <row r="925" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="24"/>
@@ -10307,7 +10314,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" spans="1:8" ht="12.75">
+    <row r="926" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="24"/>
@@ -10317,7 +10324,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" spans="1:8" ht="12.75">
+    <row r="927" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="24"/>
@@ -10327,7 +10334,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" spans="1:8" ht="12.75">
+    <row r="928" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="24"/>
@@ -10337,7 +10344,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" spans="1:8" ht="12.75">
+    <row r="929" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="24"/>
@@ -10347,7 +10354,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" spans="1:8" ht="12.75">
+    <row r="930" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="24"/>
@@ -10357,7 +10364,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" spans="1:8" ht="12.75">
+    <row r="931" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="24"/>
@@ -10367,7 +10374,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" spans="1:8" ht="12.75">
+    <row r="932" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="24"/>
@@ -10377,7 +10384,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" spans="1:8" ht="12.75">
+    <row r="933" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="24"/>
@@ -10387,7 +10394,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" spans="1:8" ht="12.75">
+    <row r="934" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="24"/>
@@ -10397,7 +10404,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="1:8" ht="12.75">
+    <row r="935" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="24"/>
@@ -10407,7 +10414,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" spans="1:8" ht="12.75">
+    <row r="936" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="24"/>
@@ -10417,7 +10424,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" spans="1:8" ht="12.75">
+    <row r="937" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="24"/>
@@ -10427,7 +10434,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" spans="1:8" ht="12.75">
+    <row r="938" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="24"/>
@@ -10437,7 +10444,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" spans="1:8" ht="12.75">
+    <row r="939" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="24"/>
@@ -10447,7 +10454,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" spans="1:8" ht="12.75">
+    <row r="940" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="24"/>
@@ -10457,7 +10464,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" spans="1:8" ht="12.75">
+    <row r="941" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="24"/>
@@ -10467,7 +10474,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" spans="1:8" ht="12.75">
+    <row r="942" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="24"/>
@@ -10477,7 +10484,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" spans="1:8" ht="12.75">
+    <row r="943" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="24"/>
@@ -10487,7 +10494,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" spans="1:8" ht="12.75">
+    <row r="944" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="24"/>
@@ -10497,7 +10504,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" spans="1:8" ht="12.75">
+    <row r="945" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="24"/>
@@ -10507,7 +10514,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" spans="1:8" ht="12.75">
+    <row r="946" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="24"/>
@@ -10517,7 +10524,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" spans="1:8" ht="12.75">
+    <row r="947" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="24"/>
@@ -10527,7 +10534,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" spans="1:8" ht="12.75">
+    <row r="948" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="24"/>
@@ -10537,7 +10544,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" spans="1:8" ht="12.75">
+    <row r="949" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="24"/>
@@ -10547,7 +10554,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" spans="1:8" ht="12.75">
+    <row r="950" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="24"/>
@@ -10557,7 +10564,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" spans="1:8" ht="12.75">
+    <row r="951" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="24"/>
@@ -10567,7 +10574,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" spans="1:8" ht="12.75">
+    <row r="952" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="24"/>
@@ -10577,7 +10584,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="1:8" ht="12.75">
+    <row r="953" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="24"/>
@@ -10587,7 +10594,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" spans="1:8" ht="12.75">
+    <row r="954" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="24"/>
@@ -10597,7 +10604,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" spans="1:8" ht="12.75">
+    <row r="955" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="24"/>
@@ -10609,13 +10616,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G21:H21"/>
@@ -10625,12 +10631,13 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/주간업무계획표_개발.xlsx
+++ b/주간업무계획표_개발.xlsx
@@ -140,34 +140,31 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) 학생관리 기획문서 분석
-2) 학생관리 업무 분담(백앤드, 프론트)
-3) 새로운 기획에 맞도록 데이터베이스 구성
-4) WBS 관련 일정 회의</t>
+    <t>1) 학생관리 프론트 소스 분석
+2) 기존 소스 수정
+3) 수아 온라인 테스트 오류 수정</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) 기획문서 분석 완료
-2) 업무 분담 완료
-3) 데이터베이스 구성 준비 완료
-4) WBS 관련 일정 회의</t>
+    <t xml:space="preserve">1) 로그인 기능 수정
+2) 이메일 발송 기능 베이스 구축
+3) 스케쥴링 관련 소스 구축
+</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) 학생관리 데이터베이스 구성
-2) 학생관리 자바 백앤드 개발
-3) 학생관리 프론트 데이터 연동작업
-4) WBS 관련 일정 회의</t>
+    <t>1) 로그인 기능 수정 완료
+2) 이메일 발송 기능 베이스 구축 완료</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>2017년 1월 2주차</t>
+    <t>1) 학생관리 기능 수정
+2) 이메일 발송 기능 API연동 작업
+3) 스케쥴링 개발</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) 학생관리 프론트 소스 분석
-2) 기존 소스 수정
-3) 수아 온라인 테스트 오류 수정</t>
+    <t>2017년 1월 3주차</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -577,39 +574,46 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,28 +633,21 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -965,7 +962,7 @@
   <dimension ref="A1:H955"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -982,47 +979,47 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>33</v>
+      <c r="G1" s="51" t="s">
+        <v>34</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="28"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -1072,20 +1069,20 @@
     </row>
     <row r="7" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>20</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1106,7 +1103,7 @@
     </row>
     <row r="9" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="9"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1116,14 +1113,14 @@
     </row>
     <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>25</v>
@@ -1136,7 +1133,7 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
-      <c r="B12" s="51"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="9"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -1158,7 +1155,7 @@
     </row>
     <row r="13" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1178,7 +1175,7 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
-      <c r="B14" s="53"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
@@ -1190,7 +1187,7 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="53"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="9"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -1225,64 +1222,64 @@
       <c r="B18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="34" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="34" t="s">
+      <c r="F18" s="40"/>
+      <c r="G18" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="35"/>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="28"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="18">
         <v>2</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="28"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="28"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -10616,12 +10613,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G21:H21"/>
@@ -10631,13 +10629,12 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/주간업무계획표_개발.xlsx
+++ b/주간업무계획표_개발.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihoan/Documents/git/flowedu-documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-3135" windowWidth="51195" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="개발파트" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>주간업무계획</t>
   </si>
@@ -117,54 +109,20 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) 학생관리 프론트 소스 분석완료
-2) 기존 소스 수정완료</t>
+    <t>2017년 1월 4주차</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1) 학생관리 백엔드 프론트 연동작업 </t>
+    <t>1) 이메일 전송 API 구축</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) 학생관리 UI 분석
-2) 기존 UI 분석</t>
+    <t>1) 이메일 전송 API 구축 완료</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) 학생관리 UI 분석완료
-2) 기존 UI 분석완료</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 학생관리 UI 개발</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 학생관리 프론트 소스 분석
-2) 기존 소스 수정
-3) 수아 온라인 테스트 오류 수정</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1) 로그인 기능 수정
-2) 이메일 발송 기능 베이스 구축
-3) 스케쥴링 관련 소스 구축
+    <t xml:space="preserve">1)  출결관리 / 과제관리 개발예정
 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 로그인 기능 수정 완료
-2) 이메일 발송 기능 베이스 구축 완료</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 학생관리 기능 수정
-2) 이메일 발송 기능 API연동 작업
-3) 스케쥴링 개발</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년 1월 3주차</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +134,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd&quot;(&quot;ddd&quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -574,6 +532,58 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,64 +603,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -948,7 +906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -962,66 +920,66 @@
   <dimension ref="A1:H955"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="C13" sqref="C13:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" customWidth="1"/>
-    <col min="5" max="6" width="40.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="51" t="s">
-        <v>34</v>
+      <c r="G1" s="29" t="s">
+        <v>25</v>
       </c>
-      <c r="H1" s="52"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="23"/>
@@ -1031,7 +989,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -1043,7 +1001,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="23.25" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1067,43 +1025,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="66" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="22"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="9"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1111,29 +1059,29 @@
       <c r="G9" s="22"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="57" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1143,9 +1091,9 @@
       <c r="G11" s="22"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="9"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -1153,41 +1101,31 @@
       <c r="G12" s="22"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>29</v>
-      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="22"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="22"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="9"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -1195,7 +1133,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="12.75">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1205,7 +1143,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
@@ -1217,71 +1155,71 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="23.25" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36" t="s">
+      <c r="D18" s="56"/>
+      <c r="E18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="39"/>
+      <c r="G18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="18">
         <v>2</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" ht="50.1" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" ht="6" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="24"/>
@@ -1291,7 +1229,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="12.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="24"/>
@@ -1301,7 +1239,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="12.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="24"/>
@@ -1311,7 +1249,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="12.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="24"/>
@@ -1321,7 +1259,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="12.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="24"/>
@@ -1331,7 +1269,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="12.75">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="24"/>
@@ -1341,7 +1279,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="12.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="24"/>
@@ -1351,7 +1289,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="12.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="24"/>
@@ -1361,7 +1299,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="12.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="24"/>
@@ -1371,7 +1309,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="12.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="24"/>
@@ -1381,7 +1319,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="12.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="24"/>
@@ -1391,7 +1329,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="12.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="24"/>
@@ -1401,7 +1339,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="12.75">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="24"/>
@@ -1411,7 +1349,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="24"/>
@@ -1421,7 +1359,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="12.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="24"/>
@@ -1431,7 +1369,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="12.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="24"/>
@@ -1441,7 +1379,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="12.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="24"/>
@@ -1451,7 +1389,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="12.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="24"/>
@@ -1461,7 +1399,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="12.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="24"/>
@@ -1471,7 +1409,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="24"/>
@@ -1481,7 +1419,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="12.75">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="24"/>
@@ -1491,7 +1429,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="12.75">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="24"/>
@@ -1501,7 +1439,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="12.75">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="24"/>
@@ -1511,7 +1449,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="24"/>
@@ -1521,7 +1459,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="24"/>
@@ -1531,7 +1469,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="24"/>
@@ -1541,7 +1479,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="24"/>
@@ -1551,7 +1489,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="24"/>
@@ -1561,7 +1499,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="24"/>
@@ -1571,7 +1509,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="24"/>
@@ -1581,7 +1519,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="24"/>
@@ -1591,7 +1529,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="24"/>
@@ -1601,7 +1539,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="24"/>
@@ -1611,7 +1549,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="24"/>
@@ -1621,7 +1559,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="24"/>
@@ -1631,7 +1569,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="12.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="24"/>
@@ -1641,7 +1579,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="12.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="24"/>
@@ -1651,7 +1589,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="12.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="24"/>
@@ -1661,7 +1599,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="12.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="24"/>
@@ -1671,7 +1609,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="12.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="24"/>
@@ -1681,7 +1619,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="12.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="24"/>
@@ -1691,7 +1629,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="12.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="24"/>
@@ -1701,7 +1639,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="24"/>
@@ -1711,7 +1649,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="12.75">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="24"/>
@@ -1721,7 +1659,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="12.75">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="24"/>
@@ -1731,7 +1669,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="12.75">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="24"/>
@@ -1741,7 +1679,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="12.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="24"/>
@@ -1751,7 +1689,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="12.75">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="24"/>
@@ -1761,7 +1699,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="12.75">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="24"/>
@@ -1771,7 +1709,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="12.75">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="24"/>
@@ -1781,7 +1719,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="12.75">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="24"/>
@@ -1791,7 +1729,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="12.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="24"/>
@@ -1801,7 +1739,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="12.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="24"/>
@@ -1811,7 +1749,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="12.75">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="24"/>
@@ -1821,7 +1759,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="12.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="24"/>
@@ -1831,7 +1769,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="12.75">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="24"/>
@@ -1841,7 +1779,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="12.75">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="24"/>
@@ -1851,7 +1789,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="12.75">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="24"/>
@@ -1861,7 +1799,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="12.75">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="24"/>
@@ -1871,7 +1809,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="12.75">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="24"/>
@@ -1881,7 +1819,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="12.75">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="24"/>
@@ -1891,7 +1829,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="12.75">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="24"/>
@@ -1901,7 +1839,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="12.75">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="24"/>
@@ -1911,7 +1849,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="12.75">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="24"/>
@@ -1921,7 +1859,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="12.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="24"/>
@@ -1931,7 +1869,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="12.75">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="24"/>
@@ -1941,7 +1879,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="12.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="24"/>
@@ -1951,7 +1889,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="12.75">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="24"/>
@@ -1961,7 +1899,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="12.75">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="24"/>
@@ -1971,7 +1909,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="12.75">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="24"/>
@@ -1981,7 +1919,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="12.75">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="24"/>
@@ -1991,7 +1929,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="12.75">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="24"/>
@@ -2001,7 +1939,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="12.75">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="24"/>
@@ -2011,7 +1949,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="24"/>
@@ -2021,7 +1959,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="12.75">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="24"/>
@@ -2031,7 +1969,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="12.75">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="24"/>
@@ -2041,7 +1979,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="12.75">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="24"/>
@@ -2051,7 +1989,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="12.75">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="24"/>
@@ -2061,7 +1999,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="24"/>
@@ -2071,7 +2009,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="12.75">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="24"/>
@@ -2081,7 +2019,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="12.75">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="24"/>
@@ -2091,7 +2029,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="12.75">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="24"/>
@@ -2101,7 +2039,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="12.75">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="24"/>
@@ -2111,7 +2049,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="12.75">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="24"/>
@@ -2121,7 +2059,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="12.75">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="24"/>
@@ -2131,7 +2069,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="12.75">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="24"/>
@@ -2141,7 +2079,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="12.75">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="24"/>
@@ -2151,7 +2089,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="12.75">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="24"/>
@@ -2161,7 +2099,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="12.75">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="24"/>
@@ -2171,7 +2109,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="12.75">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="24"/>
@@ -2181,7 +2119,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="12.75">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="24"/>
@@ -2191,7 +2129,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="12.75">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="24"/>
@@ -2201,7 +2139,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="12.75">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="24"/>
@@ -2211,7 +2149,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="12.75">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="24"/>
@@ -2221,7 +2159,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="12.75">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="24"/>
@@ -2231,7 +2169,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="12.75">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="24"/>
@@ -2241,7 +2179,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="12.75">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="24"/>
@@ -2251,7 +2189,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="12.75">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="24"/>
@@ -2261,7 +2199,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="12.75">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="24"/>
@@ -2271,7 +2209,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="12.75">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="24"/>
@@ -2281,7 +2219,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="12.75">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="24"/>
@@ -2291,7 +2229,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="12.75">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="24"/>
@@ -2301,7 +2239,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="12.75">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="24"/>
@@ -2311,7 +2249,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="12.75">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="24"/>
@@ -2321,7 +2259,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="12.75">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="24"/>
@@ -2331,7 +2269,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="12.75">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="24"/>
@@ -2341,7 +2279,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="12.75">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="24"/>
@@ -2351,7 +2289,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="12.75">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="24"/>
@@ -2361,7 +2299,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="12.75">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="24"/>
@@ -2371,7 +2309,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="12.75">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="24"/>
@@ -2381,7 +2319,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="12.75">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="24"/>
@@ -2391,7 +2329,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="12.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="24"/>
@@ -2401,7 +2339,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="12.75">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="24"/>
@@ -2411,7 +2349,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="12.75">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="24"/>
@@ -2421,7 +2359,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="12.75">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="24"/>
@@ -2431,7 +2369,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="12.75">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="24"/>
@@ -2441,7 +2379,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="12.75">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="24"/>
@@ -2451,7 +2389,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="12.75">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="24"/>
@@ -2461,7 +2399,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="12.75">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="24"/>
@@ -2471,7 +2409,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="12.75">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="24"/>
@@ -2481,7 +2419,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="12.75">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="24"/>
@@ -2491,7 +2429,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="12.75">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="24"/>
@@ -2501,7 +2439,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="12.75">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="24"/>
@@ -2511,7 +2449,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="12.75">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="24"/>
@@ -2521,7 +2459,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="12.75">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="24"/>
@@ -2531,7 +2469,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="12.75">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="24"/>
@@ -2541,7 +2479,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="12.75">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="24"/>
@@ -2551,7 +2489,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="12.75">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="24"/>
@@ -2561,7 +2499,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="12.75">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="24"/>
@@ -2571,7 +2509,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="12.75">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="24"/>
@@ -2581,7 +2519,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="12.75">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="24"/>
@@ -2591,7 +2529,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="12.75">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="24"/>
@@ -2601,7 +2539,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="12.75">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="24"/>
@@ -2611,7 +2549,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="12.75">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="24"/>
@@ -2621,7 +2559,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="12.75">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="24"/>
@@ -2631,7 +2569,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="12.75">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="24"/>
@@ -2641,7 +2579,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="12.75">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="24"/>
@@ -2651,7 +2589,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="12.75">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="24"/>
@@ -2661,7 +2599,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="12.75">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="24"/>
@@ -2671,7 +2609,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="12.75">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="24"/>
@@ -2681,7 +2619,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="12.75">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="24"/>
@@ -2691,7 +2629,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="12.75">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="24"/>
@@ -2701,7 +2639,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="12.75">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="24"/>
@@ -2711,7 +2649,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="12.75">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="24"/>
@@ -2721,7 +2659,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="12.75">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="24"/>
@@ -2731,7 +2669,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="12.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="24"/>
@@ -2741,7 +2679,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="12.75">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="24"/>
@@ -2751,7 +2689,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="12.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="24"/>
@@ -2761,7 +2699,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="12.75">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="24"/>
@@ -2771,7 +2709,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="12.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="24"/>
@@ -2781,7 +2719,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="12.75">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="24"/>
@@ -2791,7 +2729,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="12.75">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="24"/>
@@ -2801,7 +2739,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="12.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="24"/>
@@ -2811,7 +2749,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="12.75">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="24"/>
@@ -2821,7 +2759,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="12.75">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="24"/>
@@ -2831,7 +2769,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="12.75">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="24"/>
@@ -2841,7 +2779,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="12.75">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="24"/>
@@ -2851,7 +2789,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="12.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="24"/>
@@ -2861,7 +2799,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="12.75">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="24"/>
@@ -2871,7 +2809,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="12.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="24"/>
@@ -2881,7 +2819,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="12.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="24"/>
@@ -2891,7 +2829,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="12.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="24"/>
@@ -2901,7 +2839,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="12.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="24"/>
@@ -2911,7 +2849,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="12.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="24"/>
@@ -2921,7 +2859,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="12.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="24"/>
@@ -2931,7 +2869,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="12.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="24"/>
@@ -2941,7 +2879,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="12.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="24"/>
@@ -2951,7 +2889,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="12.75">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="24"/>
@@ -2961,7 +2899,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="12.75">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="24"/>
@@ -2971,7 +2909,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="12.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="24"/>
@@ -2981,7 +2919,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="12.75">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="24"/>
@@ -2991,7 +2929,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="12.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="24"/>
@@ -3001,7 +2939,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="12.75">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="24"/>
@@ -3011,7 +2949,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="12.75">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="24"/>
@@ -3021,7 +2959,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="12.75">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="24"/>
@@ -3031,7 +2969,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="12.75">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="24"/>
@@ -3041,7 +2979,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="12.75">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="24"/>
@@ -3051,7 +2989,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="12.75">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="24"/>
@@ -3061,7 +2999,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="12.75">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="24"/>
@@ -3071,7 +3009,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="12.75">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="24"/>
@@ -3081,7 +3019,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="12.75">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="24"/>
@@ -3091,7 +3029,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="12.75">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="24"/>
@@ -3101,7 +3039,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="12.75">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="24"/>
@@ -3111,7 +3049,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="12.75">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="24"/>
@@ -3121,7 +3059,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="12.75">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="24"/>
@@ -3131,7 +3069,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="12.75">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="24"/>
@@ -3141,7 +3079,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="12.75">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="24"/>
@@ -3151,7 +3089,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="12.75">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="24"/>
@@ -3161,7 +3099,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="12.75">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="24"/>
@@ -3171,7 +3109,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="12.75">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="24"/>
@@ -3181,7 +3119,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="12.75">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="24"/>
@@ -3191,7 +3129,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="12.75">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="24"/>
@@ -3201,7 +3139,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="12.75">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="24"/>
@@ -3211,7 +3149,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="12.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="24"/>
@@ -3221,7 +3159,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="12.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="24"/>
@@ -3231,7 +3169,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="12.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="24"/>
@@ -3241,7 +3179,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="12.75">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="24"/>
@@ -3251,7 +3189,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="12.75">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="24"/>
@@ -3261,7 +3199,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="12.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="24"/>
@@ -3271,7 +3209,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="12.75">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="24"/>
@@ -3281,7 +3219,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="12.75">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="24"/>
@@ -3291,7 +3229,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="12.75">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="24"/>
@@ -3301,7 +3239,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="12.75">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="24"/>
@@ -3311,7 +3249,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="12.75">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="24"/>
@@ -3321,7 +3259,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="12.75">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="24"/>
@@ -3331,7 +3269,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="12.75">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="24"/>
@@ -3341,7 +3279,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="12.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="24"/>
@@ -3351,7 +3289,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="12.75">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="24"/>
@@ -3361,7 +3299,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="12.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="24"/>
@@ -3371,7 +3309,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="12.75">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="24"/>
@@ -3381,7 +3319,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="12.75">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="24"/>
@@ -3391,7 +3329,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="12.75">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="24"/>
@@ -3401,7 +3339,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="12.75">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="24"/>
@@ -3411,7 +3349,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="12.75">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="24"/>
@@ -3421,7 +3359,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="12.75">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="24"/>
@@ -3431,7 +3369,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="12.75">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="24"/>
@@ -3441,7 +3379,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="12.75">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="24"/>
@@ -3451,7 +3389,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="12.75">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="24"/>
@@ -3461,7 +3399,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="12.75">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="24"/>
@@ -3471,7 +3409,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="12.75">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="24"/>
@@ -3481,7 +3419,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="12.75">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="24"/>
@@ -3491,7 +3429,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="12.75">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="24"/>
@@ -3501,7 +3439,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="12.75">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="24"/>
@@ -3511,7 +3449,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="12.75">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="24"/>
@@ -3521,7 +3459,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="12.75">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="24"/>
@@ -3531,7 +3469,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="12.75">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="24"/>
@@ -3541,7 +3479,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="12.75">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="24"/>
@@ -3551,7 +3489,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="12.75">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="24"/>
@@ -3561,7 +3499,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="12.75">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="24"/>
@@ -3571,7 +3509,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="12.75">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="24"/>
@@ -3581,7 +3519,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="12.75">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="24"/>
@@ -3591,7 +3529,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="12.75">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="24"/>
@@ -3601,7 +3539,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="12.75">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="24"/>
@@ -3611,7 +3549,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="12.75">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="24"/>
@@ -3621,7 +3559,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="12.75">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="24"/>
@@ -3631,7 +3569,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="12.75">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="24"/>
@@ -3641,7 +3579,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="12.75">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="24"/>
@@ -3651,7 +3589,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="12.75">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="24"/>
@@ -3661,7 +3599,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="12.75">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="24"/>
@@ -3671,7 +3609,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="12.75">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="24"/>
@@ -3681,7 +3619,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="12.75">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="24"/>
@@ -3691,7 +3629,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="12.75">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="24"/>
@@ -3701,7 +3639,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="12.75">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="24"/>
@@ -3711,7 +3649,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="12.75">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="24"/>
@@ -3721,7 +3659,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="12.75">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="24"/>
@@ -3731,7 +3669,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="12.75">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="24"/>
@@ -3741,7 +3679,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="12.75">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="24"/>
@@ -3751,7 +3689,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="12.75">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="24"/>
@@ -3761,7 +3699,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="12.75">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="24"/>
@@ -3771,7 +3709,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="12.75">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="24"/>
@@ -3781,7 +3719,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="12.75">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="24"/>
@@ -3791,7 +3729,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="12.75">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="24"/>
@@ -3801,7 +3739,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="12.75">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="24"/>
@@ -3811,7 +3749,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="12.75">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="24"/>
@@ -3821,7 +3759,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="12.75">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="24"/>
@@ -3831,7 +3769,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="12.75">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="24"/>
@@ -3841,7 +3779,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="12.75">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="24"/>
@@ -3851,7 +3789,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="12.75">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="24"/>
@@ -3861,7 +3799,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="12.75">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="24"/>
@@ -3871,7 +3809,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="12.75">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="24"/>
@@ -3881,7 +3819,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="12.75">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="24"/>
@@ -3891,7 +3829,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="12.75">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="24"/>
@@ -3901,7 +3839,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="12.75">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="24"/>
@@ -3911,7 +3849,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="12.75">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="24"/>
@@ -3921,7 +3859,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="12.75">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="24"/>
@@ -3931,7 +3869,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="12.75">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="24"/>
@@ -3941,7 +3879,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="12.75">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="24"/>
@@ -3951,7 +3889,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="12.75">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="24"/>
@@ -3961,7 +3899,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="12.75">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="24"/>
@@ -3971,7 +3909,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="12.75">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="24"/>
@@ -3981,7 +3919,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="12.75">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="24"/>
@@ -3991,7 +3929,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="12.75">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="24"/>
@@ -4001,7 +3939,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="12.75">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="24"/>
@@ -4011,7 +3949,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="12.75">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="24"/>
@@ -4021,7 +3959,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="12.75">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="24"/>
@@ -4031,7 +3969,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="12.75">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="24"/>
@@ -4041,7 +3979,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="12.75">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="24"/>
@@ -4051,7 +3989,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="12.75">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="24"/>
@@ -4061,7 +3999,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="12.75">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="24"/>
@@ -4071,7 +4009,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="12.75">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="24"/>
@@ -4081,7 +4019,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="12.75">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="24"/>
@@ -4091,7 +4029,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="12.75">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="24"/>
@@ -4101,7 +4039,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="12.75">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="24"/>
@@ -4111,7 +4049,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="12.75">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="24"/>
@@ -4121,7 +4059,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="12.75">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="24"/>
@@ -4131,7 +4069,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="12.75">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="24"/>
@@ -4141,7 +4079,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="12.75">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="24"/>
@@ -4151,7 +4089,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="12.75">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="24"/>
@@ -4161,7 +4099,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="12.75">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="24"/>
@@ -4171,7 +4109,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="12.75">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="24"/>
@@ -4181,7 +4119,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="12.75">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="24"/>
@@ -4191,7 +4129,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="12.75">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="24"/>
@@ -4201,7 +4139,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="12.75">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="24"/>
@@ -4211,7 +4149,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="12.75">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="24"/>
@@ -4221,7 +4159,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="12.75">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="24"/>
@@ -4231,7 +4169,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="12.75">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="24"/>
@@ -4241,7 +4179,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="12.75">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="24"/>
@@ -4251,7 +4189,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="12.75">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="24"/>
@@ -4261,7 +4199,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="12.75">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="24"/>
@@ -4271,7 +4209,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="12.75">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="24"/>
@@ -4281,7 +4219,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="12.75">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="24"/>
@@ -4291,7 +4229,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="12.75">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="24"/>
@@ -4301,7 +4239,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="12.75">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="24"/>
@@ -4311,7 +4249,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="12.75">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="24"/>
@@ -4321,7 +4259,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="12.75">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="24"/>
@@ -4331,7 +4269,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="12.75">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="24"/>
@@ -4341,7 +4279,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="12.75">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="24"/>
@@ -4351,7 +4289,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="12.75">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="24"/>
@@ -4361,7 +4299,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="12.75">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="24"/>
@@ -4371,7 +4309,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="12.75">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="24"/>
@@ -4381,7 +4319,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="12.75">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="24"/>
@@ -4391,7 +4329,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="12.75">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="24"/>
@@ -4401,7 +4339,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="12.75">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="24"/>
@@ -4411,7 +4349,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="12.75">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="24"/>
@@ -4421,7 +4359,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="12.75">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="24"/>
@@ -4431,7 +4369,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="12.75">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="24"/>
@@ -4441,7 +4379,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="12.75">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="24"/>
@@ -4451,7 +4389,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="12.75">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="24"/>
@@ -4461,7 +4399,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="12.75">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="24"/>
@@ -4471,7 +4409,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" ht="12.75">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="24"/>
@@ -4481,7 +4419,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" ht="12.75">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="24"/>
@@ -4491,7 +4429,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" ht="12.75">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="24"/>
@@ -4501,7 +4439,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" ht="12.75">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="24"/>
@@ -4511,7 +4449,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="12.75">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="24"/>
@@ -4521,7 +4459,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" ht="12.75">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="24"/>
@@ -4531,7 +4469,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="12.75">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="24"/>
@@ -4541,7 +4479,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" ht="12.75">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="24"/>
@@ -4551,7 +4489,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="12.75">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="24"/>
@@ -4561,7 +4499,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" ht="12.75">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="24"/>
@@ -4571,7 +4509,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" ht="12.75">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="24"/>
@@ -4581,7 +4519,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" ht="12.75">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="24"/>
@@ -4591,7 +4529,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" ht="12.75">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="24"/>
@@ -4601,7 +4539,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="12.75">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="24"/>
@@ -4611,7 +4549,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" ht="12.75">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="24"/>
@@ -4621,7 +4559,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" ht="12.75">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="24"/>
@@ -4631,7 +4569,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="12.75">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="24"/>
@@ -4641,7 +4579,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" ht="12.75">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="24"/>
@@ -4651,7 +4589,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="12.75">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="24"/>
@@ -4661,7 +4599,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" ht="12.75">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="24"/>
@@ -4671,7 +4609,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" ht="12.75">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="24"/>
@@ -4681,7 +4619,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="12.75">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="24"/>
@@ -4691,7 +4629,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" ht="12.75">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="24"/>
@@ -4701,7 +4639,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="12.75">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="24"/>
@@ -4711,7 +4649,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" ht="12.75">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="24"/>
@@ -4721,7 +4659,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="12.75">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="24"/>
@@ -4731,7 +4669,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="12.75">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="24"/>
@@ -4741,7 +4679,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="12.75">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="24"/>
@@ -4751,7 +4689,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="12.75">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="24"/>
@@ -4761,7 +4699,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" ht="12.75">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="24"/>
@@ -4771,7 +4709,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="12.75">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="24"/>
@@ -4781,7 +4719,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="12.75">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="24"/>
@@ -4791,7 +4729,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" ht="12.75">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="24"/>
@@ -4801,7 +4739,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" ht="12.75">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="24"/>
@@ -4811,7 +4749,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" ht="12.75">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="24"/>
@@ -4821,7 +4759,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" ht="12.75">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="24"/>
@@ -4831,7 +4769,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" ht="12.75">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="24"/>
@@ -4841,7 +4779,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" ht="12.75">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="24"/>
@@ -4851,7 +4789,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" ht="12.75">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="24"/>
@@ -4861,7 +4799,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" ht="12.75">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="24"/>
@@ -4871,7 +4809,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" ht="12.75">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="24"/>
@@ -4881,7 +4819,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" ht="12.75">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="24"/>
@@ -4891,7 +4829,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" ht="12.75">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="24"/>
@@ -4901,7 +4839,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" ht="12.75">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="24"/>
@@ -4911,7 +4849,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" ht="12.75">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="24"/>
@@ -4921,7 +4859,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" ht="12.75">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="24"/>
@@ -4931,7 +4869,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" ht="12.75">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="24"/>
@@ -4941,7 +4879,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="12.75">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="24"/>
@@ -4951,7 +4889,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" ht="12.75">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="24"/>
@@ -4961,7 +4899,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" ht="12.75">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="24"/>
@@ -4971,7 +4909,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" ht="12.75">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="24"/>
@@ -4981,7 +4919,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" ht="12.75">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="24"/>
@@ -4991,7 +4929,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" ht="12.75">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="24"/>
@@ -5001,7 +4939,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" ht="12.75">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="24"/>
@@ -5011,7 +4949,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" ht="12.75">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="24"/>
@@ -5021,7 +4959,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" ht="12.75">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="24"/>
@@ -5031,7 +4969,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" ht="12.75">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="24"/>
@@ -5041,7 +4979,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" ht="12.75">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="24"/>
@@ -5051,7 +4989,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="12.75">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="24"/>
@@ -5061,7 +4999,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="12.75">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="24"/>
@@ -5071,7 +5009,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" ht="12.75">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="24"/>
@@ -5081,7 +5019,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" ht="12.75">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="24"/>
@@ -5091,7 +5029,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" ht="12.75">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="24"/>
@@ -5101,7 +5039,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" ht="12.75">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="24"/>
@@ -5111,7 +5049,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="12.75">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="24"/>
@@ -5121,7 +5059,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" ht="12.75">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="24"/>
@@ -5131,7 +5069,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" ht="12.75">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="24"/>
@@ -5141,7 +5079,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" ht="12.75">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="24"/>
@@ -5151,7 +5089,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" ht="12.75">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="24"/>
@@ -5161,7 +5099,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" ht="12.75">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="24"/>
@@ -5171,7 +5109,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" ht="12.75">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="24"/>
@@ -5181,7 +5119,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" ht="12.75">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="24"/>
@@ -5191,7 +5129,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" ht="12.75">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="24"/>
@@ -5201,7 +5139,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" ht="12.75">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="24"/>
@@ -5211,7 +5149,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" ht="12.75">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="24"/>
@@ -5221,7 +5159,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" ht="12.75">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="24"/>
@@ -5231,7 +5169,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" ht="12.75">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="24"/>
@@ -5241,7 +5179,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" ht="12.75">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="24"/>
@@ -5251,7 +5189,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" ht="12.75">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="24"/>
@@ -5261,7 +5199,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" ht="12.75">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="24"/>
@@ -5271,7 +5209,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" ht="12.75">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="24"/>
@@ -5281,7 +5219,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" ht="12.75">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="24"/>
@@ -5291,7 +5229,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" ht="12.75">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="24"/>
@@ -5301,7 +5239,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" ht="12.75">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="24"/>
@@ -5311,7 +5249,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" ht="12.75">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="24"/>
@@ -5321,7 +5259,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" ht="12.75">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="24"/>
@@ -5331,7 +5269,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" ht="12.75">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="24"/>
@@ -5341,7 +5279,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" ht="12.75">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="24"/>
@@ -5351,7 +5289,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" ht="12.75">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="24"/>
@@ -5361,7 +5299,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" ht="12.75">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="24"/>
@@ -5371,7 +5309,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" ht="12.75">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="24"/>
@@ -5381,7 +5319,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" ht="12.75">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="24"/>
@@ -5391,7 +5329,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" ht="12.75">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="24"/>
@@ -5401,7 +5339,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" ht="12.75">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="24"/>
@@ -5411,7 +5349,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" ht="12.75">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="24"/>
@@ -5421,7 +5359,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" ht="12.75">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="24"/>
@@ -5431,7 +5369,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" ht="12.75">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="24"/>
@@ -5441,7 +5379,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" ht="12.75">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="24"/>
@@ -5451,7 +5389,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" ht="12.75">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="24"/>
@@ -5461,7 +5399,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" ht="12.75">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="24"/>
@@ -5471,7 +5409,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" ht="12.75">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="24"/>
@@ -5481,7 +5419,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" ht="12.75">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="24"/>
@@ -5491,7 +5429,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" ht="12.75">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="24"/>
@@ -5501,7 +5439,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" ht="12.75">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="24"/>
@@ -5511,7 +5449,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" ht="12.75">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="24"/>
@@ -5521,7 +5459,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" ht="12.75">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="24"/>
@@ -5531,7 +5469,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" ht="12.75">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="24"/>
@@ -5541,7 +5479,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" ht="12.75">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="24"/>
@@ -5551,7 +5489,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" ht="12.75">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="24"/>
@@ -5561,7 +5499,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" ht="12.75">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="24"/>
@@ -5571,7 +5509,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" ht="12.75">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="24"/>
@@ -5581,7 +5519,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" ht="12.75">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="24"/>
@@ -5591,7 +5529,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" ht="12.75">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="24"/>
@@ -5601,7 +5539,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" ht="12.75">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="24"/>
@@ -5611,7 +5549,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" ht="12.75">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="24"/>
@@ -5621,7 +5559,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" ht="12.75">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="24"/>
@@ -5631,7 +5569,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" ht="12.75">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="24"/>
@@ -5641,7 +5579,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" ht="12.75">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="24"/>
@@ -5651,7 +5589,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" ht="12.75">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="24"/>
@@ -5661,7 +5599,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" ht="12.75">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="24"/>
@@ -5671,7 +5609,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" ht="12.75">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="24"/>
@@ -5681,7 +5619,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" ht="12.75">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="24"/>
@@ -5691,7 +5629,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" ht="12.75">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="24"/>
@@ -5701,7 +5639,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" ht="12.75">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="24"/>
@@ -5711,7 +5649,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" ht="12.75">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="24"/>
@@ -5721,7 +5659,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" ht="12.75">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="24"/>
@@ -5731,7 +5669,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" ht="12.75">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="24"/>
@@ -5741,7 +5679,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" ht="12.75">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="24"/>
@@ -5751,7 +5689,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" ht="12.75">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="24"/>
@@ -5761,7 +5699,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" ht="12.75">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="24"/>
@@ -5771,7 +5709,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" ht="12.75">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="24"/>
@@ -5781,7 +5719,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" ht="12.75">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="24"/>
@@ -5791,7 +5729,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" ht="12.75">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="24"/>
@@ -5801,7 +5739,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" ht="12.75">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="24"/>
@@ -5811,7 +5749,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" ht="12.75">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="24"/>
@@ -5821,7 +5759,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" ht="12.75">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="24"/>
@@ -5831,7 +5769,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" ht="12.75">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="24"/>
@@ -5841,7 +5779,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" ht="12.75">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="24"/>
@@ -5851,7 +5789,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" ht="12.75">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="24"/>
@@ -5861,7 +5799,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" ht="12.75">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="24"/>
@@ -5871,7 +5809,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" ht="12.75">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="24"/>
@@ -5881,7 +5819,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" ht="12.75">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="24"/>
@@ -5891,7 +5829,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" ht="12.75">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="24"/>
@@ -5901,7 +5839,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" ht="12.75">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="24"/>
@@ -5911,7 +5849,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" ht="12.75">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="24"/>
@@ -5921,7 +5859,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" ht="12.75">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="24"/>
@@ -5931,7 +5869,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" ht="12.75">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="24"/>
@@ -5941,7 +5879,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" ht="12.75">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="24"/>
@@ -5951,7 +5889,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" ht="12.75">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="24"/>
@@ -5961,7 +5899,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" ht="12.75">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="24"/>
@@ -5971,7 +5909,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" ht="12.75">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="24"/>
@@ -5981,7 +5919,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" ht="12.75">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="24"/>
@@ -5991,7 +5929,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" ht="12.75">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="24"/>
@@ -6001,7 +5939,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" ht="12.75">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="24"/>
@@ -6011,7 +5949,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" ht="12.75">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="24"/>
@@ -6021,7 +5959,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" ht="12.75">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="24"/>
@@ -6031,7 +5969,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" ht="12.75">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="24"/>
@@ -6041,7 +5979,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" ht="12.75">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="24"/>
@@ -6051,7 +5989,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" ht="12.75">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="24"/>
@@ -6061,7 +5999,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" ht="12.75">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="24"/>
@@ -6071,7 +6009,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" ht="12.75">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="24"/>
@@ -6081,7 +6019,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" ht="12.75">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="24"/>
@@ -6091,7 +6029,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" ht="12.75">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="24"/>
@@ -6101,7 +6039,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" ht="12.75">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="24"/>
@@ -6111,7 +6049,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" ht="12.75">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="24"/>
@@ -6121,7 +6059,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" ht="12.75">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="24"/>
@@ -6131,7 +6069,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" ht="12.75">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="24"/>
@@ -6141,7 +6079,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" ht="12.75">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="24"/>
@@ -6151,7 +6089,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" ht="12.75">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="24"/>
@@ -6161,7 +6099,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" ht="12.75">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="24"/>
@@ -6171,7 +6109,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" ht="12.75">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="24"/>
@@ -6181,7 +6119,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" ht="12.75">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="24"/>
@@ -6191,7 +6129,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" ht="12.75">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="24"/>
@@ -6201,7 +6139,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" ht="12.75">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="24"/>
@@ -6211,7 +6149,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" ht="12.75">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="24"/>
@@ -6221,7 +6159,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" ht="12.75">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="24"/>
@@ -6231,7 +6169,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" ht="12.75">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="24"/>
@@ -6241,7 +6179,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" ht="12.75">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="24"/>
@@ -6251,7 +6189,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" ht="12.75">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="24"/>
@@ -6261,7 +6199,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" ht="12.75">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="24"/>
@@ -6271,7 +6209,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" ht="12.75">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="24"/>
@@ -6281,7 +6219,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" ht="12.75">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="24"/>
@@ -6291,7 +6229,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" ht="12.75">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="24"/>
@@ -6301,7 +6239,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" ht="12.75">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="24"/>
@@ -6311,7 +6249,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" ht="12.75">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="24"/>
@@ -6321,7 +6259,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" ht="12.75">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="24"/>
@@ -6331,7 +6269,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" ht="12.75">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="24"/>
@@ -6341,7 +6279,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" ht="12.75">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="24"/>
@@ -6351,7 +6289,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" ht="12.75">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="24"/>
@@ -6361,7 +6299,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" ht="12.75">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="24"/>
@@ -6371,7 +6309,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" ht="12.75">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="24"/>
@@ -6381,7 +6319,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" ht="12.75">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="24"/>
@@ -6391,7 +6329,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" ht="12.75">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="24"/>
@@ -6401,7 +6339,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" ht="12.75">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="24"/>
@@ -6411,7 +6349,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" ht="12.75">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="24"/>
@@ -6421,7 +6359,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" ht="12.75">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="24"/>
@@ -6431,7 +6369,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" ht="12.75">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="24"/>
@@ -6441,7 +6379,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" ht="12.75">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="24"/>
@@ -6451,7 +6389,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" ht="12.75">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="24"/>
@@ -6461,7 +6399,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" ht="12.75">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="24"/>
@@ -6471,7 +6409,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" ht="12.75">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="24"/>
@@ -6481,7 +6419,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" ht="12.75">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="24"/>
@@ -6491,7 +6429,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" ht="12.75">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="24"/>
@@ -6501,7 +6439,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" ht="12.75">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="24"/>
@@ -6511,7 +6449,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" ht="12.75">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="24"/>
@@ -6521,7 +6459,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" ht="12.75">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="24"/>
@@ -6531,7 +6469,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" ht="12.75">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="24"/>
@@ -6541,7 +6479,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" ht="12.75">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="24"/>
@@ -6551,7 +6489,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" ht="12.75">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="24"/>
@@ -6561,7 +6499,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" ht="12.75">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="24"/>
@@ -6571,7 +6509,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" ht="12.75">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="24"/>
@@ -6581,7 +6519,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" ht="12.75">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="24"/>
@@ -6591,7 +6529,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" ht="12.75">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="24"/>
@@ -6601,7 +6539,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" ht="12.75">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="24"/>
@@ -6611,7 +6549,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" ht="12.75">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="24"/>
@@ -6621,7 +6559,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" ht="12.75">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="24"/>
@@ -6631,7 +6569,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" ht="12.75">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="24"/>
@@ -6641,7 +6579,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" ht="12.75">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="24"/>
@@ -6651,7 +6589,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" ht="12.75">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="24"/>
@@ -6661,7 +6599,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" ht="12.75">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="24"/>
@@ -6671,7 +6609,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" ht="12.75">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="24"/>
@@ -6681,7 +6619,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" ht="12.75">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="24"/>
@@ -6691,7 +6629,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" ht="12.75">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="24"/>
@@ -6701,7 +6639,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" ht="12.75">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="24"/>
@@ -6711,7 +6649,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" ht="12.75">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="24"/>
@@ -6721,7 +6659,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" ht="12.75">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="24"/>
@@ -6731,7 +6669,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" ht="12.75">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="24"/>
@@ -6741,7 +6679,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" ht="12.75">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="24"/>
@@ -6751,7 +6689,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" ht="12.75">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="24"/>
@@ -6761,7 +6699,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" ht="12.75">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="24"/>
@@ -6771,7 +6709,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" ht="12.75">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="24"/>
@@ -6781,7 +6719,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" ht="12.75">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="24"/>
@@ -6791,7 +6729,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" ht="12.75">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="24"/>
@@ -6801,7 +6739,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" ht="12.75">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="24"/>
@@ -6811,7 +6749,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" ht="12.75">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="24"/>
@@ -6821,7 +6759,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" ht="12.75">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="24"/>
@@ -6831,7 +6769,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" ht="12.75">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="24"/>
@@ -6841,7 +6779,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" ht="12.75">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="24"/>
@@ -6851,7 +6789,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" ht="12.75">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="24"/>
@@ -6861,7 +6799,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" ht="12.75">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="24"/>
@@ -6871,7 +6809,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" ht="12.75">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="24"/>
@@ -6881,7 +6819,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" ht="12.75">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="24"/>
@@ -6891,7 +6829,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" ht="12.75">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="24"/>
@@ -6901,7 +6839,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" ht="12.75">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="24"/>
@@ -6911,7 +6849,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" ht="12.75">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="24"/>
@@ -6921,7 +6859,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" ht="12.75">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="24"/>
@@ -6931,7 +6869,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" ht="12.75">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="24"/>
@@ -6941,7 +6879,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:8" ht="12.75">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="24"/>
@@ -6951,7 +6889,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8" ht="12.75">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="24"/>
@@ -6961,7 +6899,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" ht="12.75">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="24"/>
@@ -6971,7 +6909,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" ht="12.75">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="24"/>
@@ -6981,7 +6919,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" ht="12.75">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="24"/>
@@ -6991,7 +6929,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" ht="12.75">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="24"/>
@@ -7001,7 +6939,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" ht="12.75">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="24"/>
@@ -7011,7 +6949,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" ht="12.75">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="24"/>
@@ -7021,7 +6959,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" ht="12.75">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="24"/>
@@ -7031,7 +6969,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" ht="12.75">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="24"/>
@@ -7041,7 +6979,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" ht="12.75">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="24"/>
@@ -7051,7 +6989,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" ht="12.75">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="24"/>
@@ -7061,7 +6999,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" ht="12.75">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="24"/>
@@ -7071,7 +7009,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" ht="12.75">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="24"/>
@@ -7081,7 +7019,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" ht="12.75">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="24"/>
@@ -7091,7 +7029,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" ht="12.75">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="24"/>
@@ -7101,7 +7039,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" ht="12.75">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="24"/>
@@ -7111,7 +7049,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" ht="12.75">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="24"/>
@@ -7121,7 +7059,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" ht="12.75">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="24"/>
@@ -7131,7 +7069,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:8" ht="12.75">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="24"/>
@@ -7141,7 +7079,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" ht="12.75">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="24"/>
@@ -7151,7 +7089,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" ht="12.75">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="24"/>
@@ -7161,7 +7099,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" ht="12.75">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="24"/>
@@ -7171,7 +7109,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" ht="12.75">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="24"/>
@@ -7181,7 +7119,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" ht="12.75">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="24"/>
@@ -7191,7 +7129,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" ht="12.75">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="24"/>
@@ -7201,7 +7139,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" ht="12.75">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="24"/>
@@ -7211,7 +7149,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" ht="12.75">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="24"/>
@@ -7221,7 +7159,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" ht="12.75">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="24"/>
@@ -7231,7 +7169,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" ht="12.75">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="24"/>
@@ -7241,7 +7179,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" ht="12.75">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="24"/>
@@ -7251,7 +7189,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" ht="12.75">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="24"/>
@@ -7261,7 +7199,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" ht="12.75">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="24"/>
@@ -7271,7 +7209,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" ht="12.75">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="24"/>
@@ -7281,7 +7219,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" ht="12.75">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="24"/>
@@ -7291,7 +7229,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" ht="12.75">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="24"/>
@@ -7301,7 +7239,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:8" ht="12.75">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="24"/>
@@ -7311,7 +7249,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" ht="12.75">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="24"/>
@@ -7321,7 +7259,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" ht="12.75">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="24"/>
@@ -7331,7 +7269,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" ht="12.75">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="24"/>
@@ -7341,7 +7279,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" ht="12.75">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="24"/>
@@ -7351,7 +7289,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" ht="12.75">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="24"/>
@@ -7361,7 +7299,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" ht="12.75">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="24"/>
@@ -7371,7 +7309,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" ht="12.75">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="24"/>
@@ -7381,7 +7319,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" ht="12.75">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="24"/>
@@ -7391,7 +7329,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" ht="12.75">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="24"/>
@@ -7401,7 +7339,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" ht="12.75">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="24"/>
@@ -7411,7 +7349,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" ht="12.75">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="24"/>
@@ -7421,7 +7359,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" ht="12.75">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="24"/>
@@ -7431,7 +7369,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" ht="12.75">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="24"/>
@@ -7441,7 +7379,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:8" ht="12.75">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="24"/>
@@ -7451,7 +7389,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" ht="12.75">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="24"/>
@@ -7461,7 +7399,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" ht="12.75">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="24"/>
@@ -7471,7 +7409,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:8" ht="12.75">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="24"/>
@@ -7481,7 +7419,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8" ht="12.75">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="24"/>
@@ -7491,7 +7429,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8" ht="12.75">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="24"/>
@@ -7501,7 +7439,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" ht="12.75">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="24"/>
@@ -7511,7 +7449,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8" ht="12.75">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="24"/>
@@ -7521,7 +7459,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8" ht="12.75">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="24"/>
@@ -7531,7 +7469,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:8" ht="12.75">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="24"/>
@@ -7541,7 +7479,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8" ht="12.75">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="24"/>
@@ -7551,7 +7489,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:8" ht="12.75">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="24"/>
@@ -7561,7 +7499,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:8" ht="12.75">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="24"/>
@@ -7571,7 +7509,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" ht="12.75">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="24"/>
@@ -7581,7 +7519,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" ht="12.75">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="24"/>
@@ -7591,7 +7529,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" ht="12.75">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="24"/>
@@ -7601,7 +7539,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" ht="12.75">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="24"/>
@@ -7611,7 +7549,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" ht="12.75">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="24"/>
@@ -7621,7 +7559,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" ht="12.75">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="24"/>
@@ -7631,7 +7569,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" ht="12.75">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="24"/>
@@ -7641,7 +7579,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" ht="12.75">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="24"/>
@@ -7651,7 +7589,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" ht="12.75">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="24"/>
@@ -7661,7 +7599,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" ht="12.75">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="24"/>
@@ -7671,7 +7609,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8" ht="12.75">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="24"/>
@@ -7681,7 +7619,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" ht="12.75">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="24"/>
@@ -7691,7 +7629,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8" ht="12.75">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="24"/>
@@ -7701,7 +7639,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8" ht="12.75">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="24"/>
@@ -7711,7 +7649,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" ht="12.75">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="24"/>
@@ -7721,7 +7659,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" ht="12.75">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="24"/>
@@ -7731,7 +7669,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" ht="12.75">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="24"/>
@@ -7741,7 +7679,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" ht="12.75">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="24"/>
@@ -7751,7 +7689,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8" ht="12.75">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="24"/>
@@ -7761,7 +7699,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" ht="12.75">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="24"/>
@@ -7771,7 +7709,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" ht="12.75">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="24"/>
@@ -7781,7 +7719,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" ht="12.75">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="24"/>
@@ -7791,7 +7729,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" ht="12.75">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="24"/>
@@ -7801,7 +7739,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" ht="12.75">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="24"/>
@@ -7811,7 +7749,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" ht="12.75">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="24"/>
@@ -7821,7 +7759,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" ht="12.75">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="24"/>
@@ -7831,7 +7769,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" ht="12.75">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="24"/>
@@ -7841,7 +7779,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" ht="12.75">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="24"/>
@@ -7851,7 +7789,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" ht="12.75">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="24"/>
@@ -7861,7 +7799,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" ht="12.75">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="24"/>
@@ -7871,7 +7809,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" ht="12.75">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="24"/>
@@ -7881,7 +7819,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" ht="12.75">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="24"/>
@@ -7891,7 +7829,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" ht="12.75">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="24"/>
@@ -7901,7 +7839,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" ht="12.75">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="24"/>
@@ -7911,7 +7849,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" ht="12.75">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="24"/>
@@ -7921,7 +7859,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" ht="12.75">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="24"/>
@@ -7931,7 +7869,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" ht="12.75">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="24"/>
@@ -7941,7 +7879,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:8" ht="12.75">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="24"/>
@@ -7951,7 +7889,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8" ht="12.75">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="24"/>
@@ -7961,7 +7899,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8" ht="12.75">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="24"/>
@@ -7971,7 +7909,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" ht="12.75">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="24"/>
@@ -7981,7 +7919,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8" ht="12.75">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="24"/>
@@ -7991,7 +7929,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" ht="12.75">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="24"/>
@@ -8001,7 +7939,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:8" ht="12.75">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="24"/>
@@ -8011,7 +7949,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8" ht="12.75">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="24"/>
@@ -8021,7 +7959,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" ht="12.75">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="24"/>
@@ -8031,7 +7969,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8" ht="12.75">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="24"/>
@@ -8041,7 +7979,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" ht="12.75">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="24"/>
@@ -8051,7 +7989,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8" ht="12.75">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="24"/>
@@ -8061,7 +7999,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8" ht="12.75">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="24"/>
@@ -8071,7 +8009,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:8" ht="12.75">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="24"/>
@@ -8081,7 +8019,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:8" ht="12.75">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="24"/>
@@ -8091,7 +8029,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:8" ht="12.75">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="24"/>
@@ -8101,7 +8039,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" ht="12.75">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="24"/>
@@ -8111,7 +8049,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" ht="12.75">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="24"/>
@@ -8121,7 +8059,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8" ht="12.75">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="24"/>
@@ -8131,7 +8069,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:8" ht="12.75">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="24"/>
@@ -8141,7 +8079,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" ht="12.75">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="24"/>
@@ -8151,7 +8089,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" ht="12.75">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="24"/>
@@ -8161,7 +8099,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:8" ht="12.75">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="24"/>
@@ -8171,7 +8109,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8" ht="12.75">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="24"/>
@@ -8181,7 +8119,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8" ht="12.75">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="24"/>
@@ -8191,7 +8129,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" ht="12.75">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="24"/>
@@ -8201,7 +8139,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8" ht="12.75">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="24"/>
@@ -8211,7 +8149,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" ht="12.75">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="24"/>
@@ -8221,7 +8159,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8" ht="12.75">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="24"/>
@@ -8231,7 +8169,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8" ht="12.75">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="24"/>
@@ -8241,7 +8179,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8" ht="12.75">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="24"/>
@@ -8251,7 +8189,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8" ht="12.75">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="24"/>
@@ -8261,7 +8199,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:8" ht="12.75">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="24"/>
@@ -8271,7 +8209,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:8" ht="12.75">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="24"/>
@@ -8281,7 +8219,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:8" ht="12.75">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="24"/>
@@ -8291,7 +8229,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:8" ht="12.75">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="24"/>
@@ -8301,7 +8239,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:8" ht="12.75">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="24"/>
@@ -8311,7 +8249,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:8" ht="12.75">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="24"/>
@@ -8321,7 +8259,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:8" ht="12.75">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="24"/>
@@ -8331,7 +8269,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:8" ht="12.75">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="24"/>
@@ -8341,7 +8279,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:8" ht="12.75">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="24"/>
@@ -8351,7 +8289,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:8" ht="12.75">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="24"/>
@@ -8361,7 +8299,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8" ht="12.75">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="24"/>
@@ -8371,7 +8309,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:8" ht="12.75">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="24"/>
@@ -8381,7 +8319,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:8" ht="12.75">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="24"/>
@@ -8391,7 +8329,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:8" ht="12.75">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="24"/>
@@ -8401,7 +8339,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:8" ht="12.75">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="24"/>
@@ -8411,7 +8349,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:8" ht="12.75">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="24"/>
@@ -8421,7 +8359,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" ht="12.75">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="24"/>
@@ -8431,7 +8369,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" ht="12.75">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="24"/>
@@ -8441,7 +8379,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" ht="12.75">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="24"/>
@@ -8451,7 +8389,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" ht="12.75">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="24"/>
@@ -8461,7 +8399,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" ht="12.75">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="24"/>
@@ -8471,7 +8409,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" ht="12.75">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="24"/>
@@ -8481,7 +8419,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" ht="12.75">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="24"/>
@@ -8491,7 +8429,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" ht="12.75">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="24"/>
@@ -8501,7 +8439,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" ht="12.75">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="24"/>
@@ -8511,7 +8449,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" ht="12.75">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="24"/>
@@ -8521,7 +8459,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" ht="12.75">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="24"/>
@@ -8531,7 +8469,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8" ht="12.75">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="24"/>
@@ -8541,7 +8479,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8" ht="12.75">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="24"/>
@@ -8551,7 +8489,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8" ht="12.75">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="24"/>
@@ -8561,7 +8499,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8" ht="12.75">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="24"/>
@@ -8571,7 +8509,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8" ht="12.75">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="24"/>
@@ -8581,7 +8519,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:8" ht="12.75">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="24"/>
@@ -8591,7 +8529,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:8" ht="12.75">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="24"/>
@@ -8601,7 +8539,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:8" ht="12.75">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="24"/>
@@ -8611,7 +8549,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:8" ht="12.75">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="24"/>
@@ -8621,7 +8559,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:8" ht="12.75">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="24"/>
@@ -8631,7 +8569,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:8" ht="12.75">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="24"/>
@@ -8641,7 +8579,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:8" ht="12.75">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="24"/>
@@ -8651,7 +8589,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:8" ht="12.75">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="24"/>
@@ -8661,7 +8599,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:8" ht="12.75">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="24"/>
@@ -8671,7 +8609,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:8" ht="12.75">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="24"/>
@@ -8681,7 +8619,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:8" ht="12.75">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="24"/>
@@ -8691,7 +8629,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:8" ht="12.75">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="24"/>
@@ -8701,7 +8639,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:8" ht="12.75">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="24"/>
@@ -8711,7 +8649,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:8" ht="12.75">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="24"/>
@@ -8721,7 +8659,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:8" ht="12.75">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="24"/>
@@ -8731,7 +8669,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:8" ht="12.75">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="24"/>
@@ -8741,7 +8679,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:8" ht="12.75">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="24"/>
@@ -8751,7 +8689,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:8" ht="12.75">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="24"/>
@@ -8761,7 +8699,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:8" ht="12.75">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="24"/>
@@ -8771,7 +8709,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:8" ht="12.75">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="24"/>
@@ -8781,7 +8719,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:8" ht="12.75">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="24"/>
@@ -8791,7 +8729,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:8" ht="12.75">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="24"/>
@@ -8801,7 +8739,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:8" ht="12.75">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="24"/>
@@ -8811,7 +8749,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:8" ht="12.75">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="24"/>
@@ -8821,7 +8759,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:8" ht="12.75">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="24"/>
@@ -8831,7 +8769,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:8" ht="12.75">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="24"/>
@@ -8841,7 +8779,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:8" ht="12.75">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="24"/>
@@ -8851,7 +8789,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:8" ht="12.75">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="24"/>
@@ -8861,7 +8799,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:8" ht="12.75">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="24"/>
@@ -8871,7 +8809,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:8" ht="12.75">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="24"/>
@@ -8881,7 +8819,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:8" ht="12.75">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="24"/>
@@ -8891,7 +8829,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:8" ht="12.75">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="24"/>
@@ -8901,7 +8839,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:8" ht="12.75">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="24"/>
@@ -8911,7 +8849,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:8" ht="12.75">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="24"/>
@@ -8921,7 +8859,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:8" ht="12.75">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="24"/>
@@ -8931,7 +8869,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:8" ht="12.75">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="24"/>
@@ -8941,7 +8879,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:8" ht="12.75">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="24"/>
@@ -8951,7 +8889,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:8" ht="12.75">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="24"/>
@@ -8961,7 +8899,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:8" ht="12.75">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="24"/>
@@ -8971,7 +8909,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:8" ht="12.75">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="24"/>
@@ -8981,7 +8919,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:8" ht="12.75">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="24"/>
@@ -8991,7 +8929,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:8" ht="12.75">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="24"/>
@@ -9001,7 +8939,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:8" ht="12.75">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="24"/>
@@ -9011,7 +8949,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:8" ht="12.75">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="24"/>
@@ -9021,7 +8959,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:8" ht="12.75">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="24"/>
@@ -9031,7 +8969,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:8" ht="12.75">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="24"/>
@@ -9041,7 +8979,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:8" ht="12.75">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="24"/>
@@ -9051,7 +8989,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:8" ht="12.75">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="24"/>
@@ -9061,7 +8999,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:8" ht="12.75">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="24"/>
@@ -9071,7 +9009,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:8" ht="12.75">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="24"/>
@@ -9081,7 +9019,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:8" ht="12.75">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="24"/>
@@ -9091,7 +9029,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:8" ht="12.75">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="24"/>
@@ -9101,7 +9039,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:8" ht="12.75">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="24"/>
@@ -9111,7 +9049,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:8" ht="12.75">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="24"/>
@@ -9121,7 +9059,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:8" ht="12.75">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="24"/>
@@ -9131,7 +9069,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:8" ht="12.75">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="24"/>
@@ -9141,7 +9079,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:8" ht="12.75">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="24"/>
@@ -9151,7 +9089,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:8" ht="12.75">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="24"/>
@@ -9161,7 +9099,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:8" ht="12.75">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="24"/>
@@ -9171,7 +9109,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:8" ht="12.75">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="24"/>
@@ -9181,7 +9119,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:8" ht="12.75">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="24"/>
@@ -9191,7 +9129,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:8" ht="12.75">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="24"/>
@@ -9201,7 +9139,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:8" ht="12.75">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="24"/>
@@ -9211,7 +9149,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:8" ht="12.75">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="24"/>
@@ -9221,7 +9159,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:8" ht="12.75">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="24"/>
@@ -9231,7 +9169,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:8" ht="12.75">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="24"/>
@@ -9241,7 +9179,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:8" ht="12.75">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="24"/>
@@ -9251,7 +9189,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:8" ht="12.75">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="24"/>
@@ -9261,7 +9199,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:8" ht="12.75">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="24"/>
@@ -9271,7 +9209,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:8" ht="12.75">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="24"/>
@@ -9281,7 +9219,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:8" ht="12.75">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="24"/>
@@ -9291,7 +9229,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:8" ht="12.75">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="24"/>
@@ -9301,7 +9239,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:8" ht="12.75">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="24"/>
@@ -9311,7 +9249,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:8" ht="12.75">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="24"/>
@@ -9321,7 +9259,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:8" ht="12.75">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="24"/>
@@ -9331,7 +9269,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:8" ht="12.75">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="24"/>
@@ -9341,7 +9279,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:8" ht="12.75">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="24"/>
@@ -9351,7 +9289,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:8" ht="12.75">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="24"/>
@@ -9361,7 +9299,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:8" ht="12.75">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="24"/>
@@ -9371,7 +9309,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:8" ht="12.75">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="24"/>
@@ -9381,7 +9319,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:8" ht="12.75">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="24"/>
@@ -9391,7 +9329,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:8" ht="12.75">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="24"/>
@@ -9401,7 +9339,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:8" ht="12.75">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="24"/>
@@ -9411,7 +9349,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:8" ht="12.75">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="24"/>
@@ -9421,7 +9359,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:8" ht="12.75">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="24"/>
@@ -9431,7 +9369,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:8" ht="12.75">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="24"/>
@@ -9441,7 +9379,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:8" ht="12.75">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="24"/>
@@ -9451,7 +9389,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:8" ht="12.75">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="24"/>
@@ -9461,7 +9399,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:8" ht="12.75">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="24"/>
@@ -9471,7 +9409,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:8" ht="12.75">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="24"/>
@@ -9481,7 +9419,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:8" ht="12.75">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="24"/>
@@ -9491,7 +9429,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:8" ht="12.75">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="24"/>
@@ -9501,7 +9439,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:8" ht="12.75">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="24"/>
@@ -9511,7 +9449,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:8" ht="12.75">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="24"/>
@@ -9521,7 +9459,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:8" ht="12.75">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="24"/>
@@ -9531,7 +9469,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:8" ht="12.75">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="24"/>
@@ -9541,7 +9479,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:8" ht="12.75">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="24"/>
@@ -9551,7 +9489,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:8" ht="12.75">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="24"/>
@@ -9561,7 +9499,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:8" ht="12.75">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="24"/>
@@ -9571,7 +9509,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:8" ht="12.75">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="24"/>
@@ -9581,7 +9519,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:8" ht="12.75">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="24"/>
@@ -9591,7 +9529,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:8" ht="12.75">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="24"/>
@@ -9601,7 +9539,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:8" ht="12.75">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="24"/>
@@ -9611,7 +9549,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:8" ht="12.75">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="24"/>
@@ -9621,7 +9559,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:8" ht="12.75">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="24"/>
@@ -9631,7 +9569,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:8" ht="12.75">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="24"/>
@@ -9641,7 +9579,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:8" ht="12.75">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="24"/>
@@ -9651,7 +9589,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:8" ht="12.75">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="24"/>
@@ -9661,7 +9599,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:8" ht="12.75">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="24"/>
@@ -9671,7 +9609,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:8" ht="12.75">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="24"/>
@@ -9681,7 +9619,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:8" ht="12.75">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="24"/>
@@ -9691,7 +9629,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:8" ht="12.75">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="24"/>
@@ -9701,7 +9639,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:8" ht="12.75">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="24"/>
@@ -9711,7 +9649,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:8" ht="12.75">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="24"/>
@@ -9721,7 +9659,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:8" ht="12.75">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="24"/>
@@ -9731,7 +9669,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:8" ht="12.75">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="24"/>
@@ -9741,7 +9679,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:8" ht="12.75">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="24"/>
@@ -9751,7 +9689,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:8" ht="12.75">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="24"/>
@@ -9761,7 +9699,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:8" ht="12.75">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="24"/>
@@ -9771,7 +9709,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:8" ht="12.75">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="24"/>
@@ -9781,7 +9719,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:8" ht="12.75">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="24"/>
@@ -9791,7 +9729,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:8" ht="12.75">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="24"/>
@@ -9801,7 +9739,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:8" ht="12.75">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="24"/>
@@ -9811,7 +9749,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:8" ht="12.75">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="24"/>
@@ -9821,7 +9759,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:8" ht="12.75">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="24"/>
@@ -9831,7 +9769,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:8" ht="12.75">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="24"/>
@@ -9841,7 +9779,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:8" ht="12.75">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="24"/>
@@ -9851,7 +9789,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:8" ht="12.75">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="24"/>
@@ -9861,7 +9799,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:8" ht="12.75">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="24"/>
@@ -9871,7 +9809,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:8" ht="12.75">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="24"/>
@@ -9881,7 +9819,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:8" ht="12.75">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="24"/>
@@ -9891,7 +9829,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:8" ht="12.75">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="24"/>
@@ -9901,7 +9839,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:8" ht="12.75">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="24"/>
@@ -9911,7 +9849,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:8" ht="12.75">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="24"/>
@@ -9921,7 +9859,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:8" ht="12.75">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="24"/>
@@ -9931,7 +9869,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:8" ht="12.75">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="24"/>
@@ -9941,7 +9879,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:8" ht="12.75">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="24"/>
@@ -9951,7 +9889,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:8" ht="12.75">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="24"/>
@@ -9961,7 +9899,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:8" ht="12.75">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="24"/>
@@ -9971,7 +9909,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:8" ht="12.75">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="24"/>
@@ -9981,7 +9919,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:8" ht="12.75">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="24"/>
@@ -9991,7 +9929,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:8" ht="12.75">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="24"/>
@@ -10001,7 +9939,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:8" ht="12.75">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="24"/>
@@ -10011,7 +9949,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:8" ht="12.75">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="24"/>
@@ -10021,7 +9959,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:8" ht="12.75">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="24"/>
@@ -10031,7 +9969,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:8" ht="12.75">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="24"/>
@@ -10041,7 +9979,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:8" ht="12.75">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="24"/>
@@ -10051,7 +9989,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:8" ht="12.75">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="24"/>
@@ -10061,7 +9999,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:8" ht="12.75">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="24"/>
@@ -10071,7 +10009,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:8" ht="12.75">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="24"/>
@@ -10081,7 +10019,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:8" ht="12.75">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="24"/>
@@ -10091,7 +10029,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:8" ht="12.75">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="24"/>
@@ -10101,7 +10039,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:8" ht="12.75">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="24"/>
@@ -10111,7 +10049,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:8" ht="12.75">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="24"/>
@@ -10121,7 +10059,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:8" ht="12.75">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="24"/>
@@ -10131,7 +10069,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:8" ht="12.75">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="24"/>
@@ -10141,7 +10079,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:8" ht="12.75">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="24"/>
@@ -10151,7 +10089,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:8" ht="12.75">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="24"/>
@@ -10161,7 +10099,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:8" ht="12.75">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="24"/>
@@ -10171,7 +10109,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:8" ht="12.75">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="24"/>
@@ -10181,7 +10119,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:8" ht="12.75">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="24"/>
@@ -10191,7 +10129,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:8" ht="12.75">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="24"/>
@@ -10201,7 +10139,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:8" ht="12.75">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="24"/>
@@ -10211,7 +10149,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:8" ht="12.75">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="24"/>
@@ -10221,7 +10159,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:8" ht="12.75">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="24"/>
@@ -10231,7 +10169,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:8" ht="12.75">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="24"/>
@@ -10241,7 +10179,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:8" ht="12.75">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="24"/>
@@ -10251,7 +10189,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:8" ht="12.75">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="24"/>
@@ -10261,7 +10199,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:8" ht="12.75">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="24"/>
@@ -10271,7 +10209,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:8" ht="12.75">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="24"/>
@@ -10281,7 +10219,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:8" ht="12.75">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="24"/>
@@ -10291,7 +10229,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:8" ht="12.75">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="24"/>
@@ -10301,7 +10239,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:8" ht="12.75">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="24"/>
@@ -10311,7 +10249,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:8" ht="12.75">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="24"/>
@@ -10321,7 +10259,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:8" ht="12.75">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="24"/>
@@ -10331,7 +10269,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:8" ht="12.75">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="24"/>
@@ -10341,7 +10279,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:8" ht="12.75">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="24"/>
@@ -10351,7 +10289,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:8" ht="12.75">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="24"/>
@@ -10361,7 +10299,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:8" ht="12.75">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="24"/>
@@ -10371,7 +10309,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:8" ht="12.75">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="24"/>
@@ -10381,7 +10319,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:8" ht="12.75">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="24"/>
@@ -10391,7 +10329,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:8" ht="12.75">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="24"/>
@@ -10401,7 +10339,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:8" ht="12.75">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="24"/>
@@ -10411,7 +10349,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:8" ht="12.75">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="24"/>
@@ -10421,7 +10359,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:8" ht="12.75">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="24"/>
@@ -10431,7 +10369,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:8" ht="12.75">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="24"/>
@@ -10441,7 +10379,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:8" ht="12.75">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="24"/>
@@ -10451,7 +10389,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:8" ht="12.75">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="24"/>
@@ -10461,7 +10399,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:8" ht="12.75">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="24"/>
@@ -10471,7 +10409,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:8" ht="12.75">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="24"/>
@@ -10481,7 +10419,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:8" ht="12.75">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="24"/>
@@ -10491,7 +10429,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:8" ht="12.75">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="24"/>
@@ -10501,7 +10439,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:8" ht="12.75">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="24"/>
@@ -10511,7 +10449,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:8" ht="12.75">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="24"/>
@@ -10521,7 +10459,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:8" ht="12.75">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="24"/>
@@ -10531,7 +10469,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:8" ht="12.75">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="24"/>
@@ -10541,7 +10479,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:8" ht="12.75">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="24"/>
@@ -10551,7 +10489,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:8" ht="12.75">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="24"/>
@@ -10561,7 +10499,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:8" ht="12.75">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="24"/>
@@ -10571,7 +10509,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:8" ht="12.75">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="24"/>
@@ -10581,7 +10519,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:8" ht="12.75">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="24"/>
@@ -10591,7 +10529,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:8" ht="12.75">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="24"/>
@@ -10601,7 +10539,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:8" ht="12.75">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="24"/>
@@ -10613,13 +10551,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G21:H21"/>
@@ -10629,12 +10566,13 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/주간업무계획표_개발.xlsx
+++ b/주간업무계획표_개발.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihoan/Documents/git/flowedu-documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3135" windowWidth="51195" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="개발파트" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>주간업무계획</t>
   </si>
@@ -125,6 +133,25 @@
 </t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>AMS</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 회원가입, 아이디 찾기 이메일 API 연동 작업
+2) 신규 프로젝트 구성 ( 프론트 )</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 이메일 연동 작업 완료
+2) 신규 프로젝트 구성중</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1)  출결관리 / 과제관리 개발예정
+</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -134,7 +161,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd&quot;(&quot;ddd&quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -532,39 +559,46 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -584,31 +618,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -906,7 +933,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -920,66 +947,66 @@
   <dimension ref="A1:H955"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="5" max="6" width="40.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
+    <col min="5" max="6" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1">
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="23"/>
@@ -989,7 +1016,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -1001,7 +1028,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1">
+    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1025,23 +1052,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="66" customHeight="1">
+    <row r="7" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="9"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -1049,9 +1084,9 @@
       <c r="G8" s="22"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="9"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1059,9 +1094,9 @@
       <c r="G9" s="22"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="57" customHeight="1">
+    <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1079,9 +1114,9 @@
       <c r="G10" s="22"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1091,9 +1126,9 @@
       <c r="G11" s="22"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
-      <c r="B12" s="51"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="9"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -1101,9 +1136,9 @@
       <c r="G12" s="22"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9"/>
@@ -1113,9 +1148,9 @@
       <c r="G13" s="22"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
-      <c r="B14" s="53"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="9"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -1123,9 +1158,9 @@
       <c r="G14" s="22"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="53"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="9"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -1133,7 +1168,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75">
+    <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1143,7 +1178,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75">
+    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
@@ -1155,71 +1190,71 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1">
+    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="34" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="34" t="s">
+      <c r="F18" s="40"/>
+      <c r="G18" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="35"/>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1">
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1">
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="18">
         <v>2</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:8" ht="50.1" customHeight="1">
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="1:8" ht="6" customHeight="1">
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75">
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="24"/>
@@ -1229,7 +1264,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75">
+    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="24"/>
@@ -1239,7 +1274,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="12.75">
+    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="24"/>
@@ -1249,7 +1284,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="12.75">
+    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="24"/>
@@ -1259,7 +1294,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75">
+    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="24"/>
@@ -1269,7 +1304,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="12.75">
+    <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="24"/>
@@ -1279,7 +1314,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="12.75">
+    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="24"/>
@@ -1289,7 +1324,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="12.75">
+    <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="24"/>
@@ -1299,7 +1334,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="12.75">
+    <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="24"/>
@@ -1309,7 +1344,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75">
+    <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="24"/>
@@ -1319,7 +1354,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75">
+    <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="24"/>
@@ -1329,7 +1364,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75">
+    <row r="34" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="24"/>
@@ -1339,7 +1374,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75">
+    <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="24"/>
@@ -1349,7 +1384,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75">
+    <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="24"/>
@@ -1359,7 +1394,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="12.75">
+    <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="24"/>
@@ -1369,7 +1404,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75">
+    <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="24"/>
@@ -1379,7 +1414,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75">
+    <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="24"/>
@@ -1389,7 +1424,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="12.75">
+    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="24"/>
@@ -1399,7 +1434,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="12.75">
+    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="24"/>
@@ -1409,7 +1444,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="12.75">
+    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="24"/>
@@ -1419,7 +1454,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="12.75">
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="24"/>
@@ -1429,7 +1464,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75">
+    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="24"/>
@@ -1439,7 +1474,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="12.75">
+    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="24"/>
@@ -1449,7 +1484,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="12.75">
+    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="24"/>
@@ -1459,7 +1494,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="12.75">
+    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="24"/>
@@ -1469,7 +1504,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="12.75">
+    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="24"/>
@@ -1479,7 +1514,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="12.75">
+    <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="24"/>
@@ -1489,7 +1524,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="12.75">
+    <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="24"/>
@@ -1499,7 +1534,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="12.75">
+    <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="24"/>
@@ -1509,7 +1544,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="12.75">
+    <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="24"/>
@@ -1519,7 +1554,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="12.75">
+    <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="24"/>
@@ -1529,7 +1564,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="12.75">
+    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="24"/>
@@ -1539,7 +1574,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="12.75">
+    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="24"/>
@@ -1549,7 +1584,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="12.75">
+    <row r="56" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="24"/>
@@ -1559,7 +1594,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="12.75">
+    <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="24"/>
@@ -1569,7 +1604,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="12.75">
+    <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="24"/>
@@ -1579,7 +1614,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="12.75">
+    <row r="59" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="24"/>
@@ -1589,7 +1624,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="12.75">
+    <row r="60" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="24"/>
@@ -1599,7 +1634,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="12.75">
+    <row r="61" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="24"/>
@@ -1609,7 +1644,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="12.75">
+    <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="24"/>
@@ -1619,7 +1654,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="12.75">
+    <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="24"/>
@@ -1629,7 +1664,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="12.75">
+    <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="24"/>
@@ -1639,7 +1674,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="12.75">
+    <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="24"/>
@@ -1649,7 +1684,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="12.75">
+    <row r="66" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="24"/>
@@ -1659,7 +1694,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="12.75">
+    <row r="67" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="24"/>
@@ -1669,7 +1704,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="12.75">
+    <row r="68" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="24"/>
@@ -1679,7 +1714,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="12.75">
+    <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="24"/>
@@ -1689,7 +1724,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="12.75">
+    <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="24"/>
@@ -1699,7 +1734,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="12.75">
+    <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="24"/>
@@ -1709,7 +1744,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="12.75">
+    <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="24"/>
@@ -1719,7 +1754,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="12.75">
+    <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="24"/>
@@ -1729,7 +1764,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="12.75">
+    <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="24"/>
@@ -1739,7 +1774,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="12.75">
+    <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="24"/>
@@ -1749,7 +1784,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="12.75">
+    <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="24"/>
@@ -1759,7 +1794,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="12.75">
+    <row r="77" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="24"/>
@@ -1769,7 +1804,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="12.75">
+    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="24"/>
@@ -1779,7 +1814,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="12.75">
+    <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="24"/>
@@ -1789,7 +1824,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="12.75">
+    <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="24"/>
@@ -1799,7 +1834,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="12.75">
+    <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="24"/>
@@ -1809,7 +1844,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="12.75">
+    <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="24"/>
@@ -1819,7 +1854,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="12.75">
+    <row r="83" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="24"/>
@@ -1829,7 +1864,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="12.75">
+    <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="24"/>
@@ -1839,7 +1874,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="12.75">
+    <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="24"/>
@@ -1849,7 +1884,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="12.75">
+    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="24"/>
@@ -1859,7 +1894,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="12.75">
+    <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="24"/>
@@ -1869,7 +1904,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="12.75">
+    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="24"/>
@@ -1879,7 +1914,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="12.75">
+    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="24"/>
@@ -1889,7 +1924,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="12.75">
+    <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="24"/>
@@ -1899,7 +1934,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="12.75">
+    <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="24"/>
@@ -1909,7 +1944,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="12.75">
+    <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="24"/>
@@ -1919,7 +1954,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="12.75">
+    <row r="93" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="24"/>
@@ -1929,7 +1964,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="12.75">
+    <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="24"/>
@@ -1939,7 +1974,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="12.75">
+    <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="24"/>
@@ -1949,7 +1984,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="12.75">
+    <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="24"/>
@@ -1959,7 +1994,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="12.75">
+    <row r="97" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="24"/>
@@ -1969,7 +2004,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="12.75">
+    <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="24"/>
@@ -1979,7 +2014,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="12.75">
+    <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="24"/>
@@ -1989,7 +2024,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="12.75">
+    <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="24"/>
@@ -1999,7 +2034,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="12.75">
+    <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="24"/>
@@ -2009,7 +2044,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" ht="12.75">
+    <row r="102" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="24"/>
@@ -2019,7 +2054,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="12.75">
+    <row r="103" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="24"/>
@@ -2029,7 +2064,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="12.75">
+    <row r="104" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="24"/>
@@ -2039,7 +2074,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="12.75">
+    <row r="105" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="24"/>
@@ -2049,7 +2084,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="12.75">
+    <row r="106" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="24"/>
@@ -2059,7 +2094,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="12.75">
+    <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="24"/>
@@ -2069,7 +2104,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" ht="12.75">
+    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="24"/>
@@ -2079,7 +2114,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="12.75">
+    <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="24"/>
@@ -2089,7 +2124,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" ht="12.75">
+    <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="24"/>
@@ -2099,7 +2134,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="12.75">
+    <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="24"/>
@@ -2109,7 +2144,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="12.75">
+    <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="24"/>
@@ -2119,7 +2154,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" ht="12.75">
+    <row r="113" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="24"/>
@@ -2129,7 +2164,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" ht="12.75">
+    <row r="114" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="24"/>
@@ -2139,7 +2174,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" ht="12.75">
+    <row r="115" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="24"/>
@@ -2149,7 +2184,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="12.75">
+    <row r="116" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="24"/>
@@ -2159,7 +2194,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="12.75">
+    <row r="117" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="24"/>
@@ -2169,7 +2204,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="12.75">
+    <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="24"/>
@@ -2179,7 +2214,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" ht="12.75">
+    <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="24"/>
@@ -2189,7 +2224,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" ht="12.75">
+    <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="24"/>
@@ -2199,7 +2234,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" ht="12.75">
+    <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="24"/>
@@ -2209,7 +2244,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" ht="12.75">
+    <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="24"/>
@@ -2219,7 +2254,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" ht="12.75">
+    <row r="123" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="24"/>
@@ -2229,7 +2264,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" ht="12.75">
+    <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="24"/>
@@ -2239,7 +2274,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" ht="12.75">
+    <row r="125" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="24"/>
@@ -2249,7 +2284,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" ht="12.75">
+    <row r="126" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="24"/>
@@ -2259,7 +2294,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" ht="12.75">
+    <row r="127" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="24"/>
@@ -2269,7 +2304,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" ht="12.75">
+    <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="24"/>
@@ -2279,7 +2314,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" ht="12.75">
+    <row r="129" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="24"/>
@@ -2289,7 +2324,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" ht="12.75">
+    <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="24"/>
@@ -2299,7 +2334,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" ht="12.75">
+    <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="24"/>
@@ -2309,7 +2344,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" ht="12.75">
+    <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="24"/>
@@ -2319,7 +2354,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" ht="12.75">
+    <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="24"/>
@@ -2329,7 +2364,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" ht="12.75">
+    <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="24"/>
@@ -2339,7 +2374,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="12.75">
+    <row r="135" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="24"/>
@@ -2349,7 +2384,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" ht="12.75">
+    <row r="136" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="24"/>
@@ -2359,7 +2394,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" ht="12.75">
+    <row r="137" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="24"/>
@@ -2369,7 +2404,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" ht="12.75">
+    <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="24"/>
@@ -2379,7 +2414,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" ht="12.75">
+    <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="24"/>
@@ -2389,7 +2424,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" ht="12.75">
+    <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="24"/>
@@ -2399,7 +2434,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" ht="12.75">
+    <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="24"/>
@@ -2409,7 +2444,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" ht="12.75">
+    <row r="142" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="24"/>
@@ -2419,7 +2454,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" ht="12.75">
+    <row r="143" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="24"/>
@@ -2429,7 +2464,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" ht="12.75">
+    <row r="144" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="24"/>
@@ -2439,7 +2474,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" ht="12.75">
+    <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="24"/>
@@ -2449,7 +2484,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" ht="12.75">
+    <row r="146" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="24"/>
@@ -2459,7 +2494,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" ht="12.75">
+    <row r="147" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="24"/>
@@ -2469,7 +2504,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" ht="12.75">
+    <row r="148" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="24"/>
@@ -2479,7 +2514,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" ht="12.75">
+    <row r="149" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="24"/>
@@ -2489,7 +2524,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" ht="12.75">
+    <row r="150" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="24"/>
@@ -2499,7 +2534,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="12.75">
+    <row r="151" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="24"/>
@@ -2509,7 +2544,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" ht="12.75">
+    <row r="152" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="24"/>
@@ -2519,7 +2554,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" ht="12.75">
+    <row r="153" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="24"/>
@@ -2529,7 +2564,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" ht="12.75">
+    <row r="154" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="24"/>
@@ -2539,7 +2574,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" ht="12.75">
+    <row r="155" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="24"/>
@@ -2549,7 +2584,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" ht="12.75">
+    <row r="156" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="24"/>
@@ -2559,7 +2594,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" ht="12.75">
+    <row r="157" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="24"/>
@@ -2569,7 +2604,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" ht="12.75">
+    <row r="158" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="24"/>
@@ -2579,7 +2614,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="12.75">
+    <row r="159" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="24"/>
@@ -2589,7 +2624,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" ht="12.75">
+    <row r="160" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="24"/>
@@ -2599,7 +2634,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" ht="12.75">
+    <row r="161" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="24"/>
@@ -2609,7 +2644,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" ht="12.75">
+    <row r="162" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="24"/>
@@ -2619,7 +2654,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" ht="12.75">
+    <row r="163" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="24"/>
@@ -2629,7 +2664,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" ht="12.75">
+    <row r="164" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="24"/>
@@ -2639,7 +2674,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="12.75">
+    <row r="165" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="24"/>
@@ -2649,7 +2684,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" ht="12.75">
+    <row r="166" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="24"/>
@@ -2659,7 +2694,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="12.75">
+    <row r="167" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="24"/>
@@ -2669,7 +2704,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" ht="12.75">
+    <row r="168" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="24"/>
@@ -2679,7 +2714,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" ht="12.75">
+    <row r="169" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="24"/>
@@ -2689,7 +2724,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" ht="12.75">
+    <row r="170" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="24"/>
@@ -2699,7 +2734,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" ht="12.75">
+    <row r="171" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="24"/>
@@ -2709,7 +2744,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" ht="12.75">
+    <row r="172" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="24"/>
@@ -2719,7 +2754,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" ht="12.75">
+    <row r="173" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="24"/>
@@ -2729,7 +2764,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" ht="12.75">
+    <row r="174" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="24"/>
@@ -2739,7 +2774,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" ht="12.75">
+    <row r="175" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="24"/>
@@ -2749,7 +2784,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" ht="12.75">
+    <row r="176" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="24"/>
@@ -2759,7 +2794,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" ht="12.75">
+    <row r="177" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="24"/>
@@ -2769,7 +2804,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" ht="12.75">
+    <row r="178" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="24"/>
@@ -2779,7 +2814,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" ht="12.75">
+    <row r="179" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="24"/>
@@ -2789,7 +2824,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="12.75">
+    <row r="180" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="24"/>
@@ -2799,7 +2834,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" ht="12.75">
+    <row r="181" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="24"/>
@@ -2809,7 +2844,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" ht="12.75">
+    <row r="182" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="24"/>
@@ -2819,7 +2854,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="12.75">
+    <row r="183" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="24"/>
@@ -2829,7 +2864,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" ht="12.75">
+    <row r="184" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="24"/>
@@ -2839,7 +2874,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" ht="12.75">
+    <row r="185" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="24"/>
@@ -2849,7 +2884,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" ht="12.75">
+    <row r="186" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="24"/>
@@ -2859,7 +2894,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" ht="12.75">
+    <row r="187" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="24"/>
@@ -2869,7 +2904,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" ht="12.75">
+    <row r="188" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="24"/>
@@ -2879,7 +2914,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" ht="12.75">
+    <row r="189" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="24"/>
@@ -2889,7 +2924,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" ht="12.75">
+    <row r="190" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="24"/>
@@ -2899,7 +2934,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="12.75">
+    <row r="191" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="24"/>
@@ -2909,7 +2944,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="12.75">
+    <row r="192" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="24"/>
@@ -2919,7 +2954,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" ht="12.75">
+    <row r="193" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="24"/>
@@ -2929,7 +2964,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" ht="12.75">
+    <row r="194" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="24"/>
@@ -2939,7 +2974,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" ht="12.75">
+    <row r="195" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="24"/>
@@ -2949,7 +2984,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" ht="12.75">
+    <row r="196" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="24"/>
@@ -2959,7 +2994,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" ht="12.75">
+    <row r="197" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="24"/>
@@ -2969,7 +3004,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" ht="12.75">
+    <row r="198" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="24"/>
@@ -2979,7 +3014,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" ht="12.75">
+    <row r="199" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="24"/>
@@ -2989,7 +3024,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" ht="12.75">
+    <row r="200" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="24"/>
@@ -2999,7 +3034,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" ht="12.75">
+    <row r="201" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="24"/>
@@ -3009,7 +3044,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" ht="12.75">
+    <row r="202" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="24"/>
@@ -3019,7 +3054,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" ht="12.75">
+    <row r="203" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="24"/>
@@ -3029,7 +3064,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" ht="12.75">
+    <row r="204" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="24"/>
@@ -3039,7 +3074,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" ht="12.75">
+    <row r="205" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="24"/>
@@ -3049,7 +3084,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" ht="12.75">
+    <row r="206" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="24"/>
@@ -3059,7 +3094,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" ht="12.75">
+    <row r="207" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="24"/>
@@ -3069,7 +3104,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" ht="12.75">
+    <row r="208" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="24"/>
@@ -3079,7 +3114,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" ht="12.75">
+    <row r="209" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="24"/>
@@ -3089,7 +3124,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" ht="12.75">
+    <row r="210" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="24"/>
@@ -3099,7 +3134,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" ht="12.75">
+    <row r="211" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="24"/>
@@ -3109,7 +3144,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" ht="12.75">
+    <row r="212" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="24"/>
@@ -3119,7 +3154,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" ht="12.75">
+    <row r="213" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="24"/>
@@ -3129,7 +3164,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" ht="12.75">
+    <row r="214" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="24"/>
@@ -3139,7 +3174,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" ht="12.75">
+    <row r="215" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="24"/>
@@ -3149,7 +3184,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" ht="12.75">
+    <row r="216" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="24"/>
@@ -3159,7 +3194,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" ht="12.75">
+    <row r="217" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="24"/>
@@ -3169,7 +3204,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" ht="12.75">
+    <row r="218" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="24"/>
@@ -3179,7 +3214,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" ht="12.75">
+    <row r="219" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="24"/>
@@ -3189,7 +3224,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" ht="12.75">
+    <row r="220" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="24"/>
@@ -3199,7 +3234,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" ht="12.75">
+    <row r="221" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="24"/>
@@ -3209,7 +3244,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" ht="12.75">
+    <row r="222" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="24"/>
@@ -3219,7 +3254,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" ht="12.75">
+    <row r="223" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="24"/>
@@ -3229,7 +3264,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" ht="12.75">
+    <row r="224" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="24"/>
@@ -3239,7 +3274,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" ht="12.75">
+    <row r="225" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="24"/>
@@ -3249,7 +3284,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" ht="12.75">
+    <row r="226" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="24"/>
@@ -3259,7 +3294,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" ht="12.75">
+    <row r="227" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="24"/>
@@ -3269,7 +3304,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" ht="12.75">
+    <row r="228" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="24"/>
@@ -3279,7 +3314,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" ht="12.75">
+    <row r="229" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="24"/>
@@ -3289,7 +3324,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" ht="12.75">
+    <row r="230" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="24"/>
@@ -3299,7 +3334,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" ht="12.75">
+    <row r="231" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="24"/>
@@ -3309,7 +3344,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" ht="12.75">
+    <row r="232" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="24"/>
@@ -3319,7 +3354,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" ht="12.75">
+    <row r="233" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="24"/>
@@ -3329,7 +3364,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" ht="12.75">
+    <row r="234" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="24"/>
@@ -3339,7 +3374,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" ht="12.75">
+    <row r="235" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="24"/>
@@ -3349,7 +3384,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" ht="12.75">
+    <row r="236" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="24"/>
@@ -3359,7 +3394,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" ht="12.75">
+    <row r="237" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="24"/>
@@ -3369,7 +3404,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" ht="12.75">
+    <row r="238" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="24"/>
@@ -3379,7 +3414,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" ht="12.75">
+    <row r="239" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="24"/>
@@ -3389,7 +3424,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" ht="12.75">
+    <row r="240" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="24"/>
@@ -3399,7 +3434,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" ht="12.75">
+    <row r="241" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="24"/>
@@ -3409,7 +3444,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" ht="12.75">
+    <row r="242" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="24"/>
@@ -3419,7 +3454,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" ht="12.75">
+    <row r="243" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="24"/>
@@ -3429,7 +3464,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" ht="12.75">
+    <row r="244" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="24"/>
@@ -3439,7 +3474,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" ht="12.75">
+    <row r="245" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="24"/>
@@ -3449,7 +3484,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" ht="12.75">
+    <row r="246" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="24"/>
@@ -3459,7 +3494,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" ht="12.75">
+    <row r="247" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="24"/>
@@ -3469,7 +3504,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" ht="12.75">
+    <row r="248" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="24"/>
@@ -3479,7 +3514,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" ht="12.75">
+    <row r="249" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="24"/>
@@ -3489,7 +3524,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" ht="12.75">
+    <row r="250" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="24"/>
@@ -3499,7 +3534,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" ht="12.75">
+    <row r="251" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="24"/>
@@ -3509,7 +3544,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" ht="12.75">
+    <row r="252" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="24"/>
@@ -3519,7 +3554,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" ht="12.75">
+    <row r="253" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="24"/>
@@ -3529,7 +3564,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" ht="12.75">
+    <row r="254" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="24"/>
@@ -3539,7 +3574,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" ht="12.75">
+    <row r="255" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="24"/>
@@ -3549,7 +3584,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" ht="12.75">
+    <row r="256" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="24"/>
@@ -3559,7 +3594,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" ht="12.75">
+    <row r="257" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="24"/>
@@ -3569,7 +3604,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" ht="12.75">
+    <row r="258" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="24"/>
@@ -3579,7 +3614,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" ht="12.75">
+    <row r="259" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="24"/>
@@ -3589,7 +3624,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" ht="12.75">
+    <row r="260" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="24"/>
@@ -3599,7 +3634,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" ht="12.75">
+    <row r="261" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="24"/>
@@ -3609,7 +3644,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" ht="12.75">
+    <row r="262" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="24"/>
@@ -3619,7 +3654,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" ht="12.75">
+    <row r="263" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="24"/>
@@ -3629,7 +3664,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="12.75">
+    <row r="264" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="24"/>
@@ -3639,7 +3674,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="12.75">
+    <row r="265" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="24"/>
@@ -3649,7 +3684,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="12.75">
+    <row r="266" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="24"/>
@@ -3659,7 +3694,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="12.75">
+    <row r="267" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="24"/>
@@ -3669,7 +3704,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="12.75">
+    <row r="268" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="24"/>
@@ -3679,7 +3714,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="12.75">
+    <row r="269" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="24"/>
@@ -3689,7 +3724,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="12.75">
+    <row r="270" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="24"/>
@@ -3699,7 +3734,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" ht="12.75">
+    <row r="271" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="24"/>
@@ -3709,7 +3744,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" ht="12.75">
+    <row r="272" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="24"/>
@@ -3719,7 +3754,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" ht="12.75">
+    <row r="273" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="24"/>
@@ -3729,7 +3764,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" ht="12.75">
+    <row r="274" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="24"/>
@@ -3739,7 +3774,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" ht="12.75">
+    <row r="275" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="24"/>
@@ -3749,7 +3784,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" ht="12.75">
+    <row r="276" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="24"/>
@@ -3759,7 +3794,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" ht="12.75">
+    <row r="277" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="24"/>
@@ -3769,7 +3804,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" ht="12.75">
+    <row r="278" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="24"/>
@@ -3779,7 +3814,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" ht="12.75">
+    <row r="279" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="24"/>
@@ -3789,7 +3824,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" ht="12.75">
+    <row r="280" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="24"/>
@@ -3799,7 +3834,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" ht="12.75">
+    <row r="281" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="24"/>
@@ -3809,7 +3844,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" ht="12.75">
+    <row r="282" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="24"/>
@@ -3819,7 +3854,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" ht="12.75">
+    <row r="283" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="24"/>
@@ -3829,7 +3864,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" ht="12.75">
+    <row r="284" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="24"/>
@@ -3839,7 +3874,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" ht="12.75">
+    <row r="285" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="24"/>
@@ -3849,7 +3884,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" ht="12.75">
+    <row r="286" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="24"/>
@@ -3859,7 +3894,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" ht="12.75">
+    <row r="287" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="24"/>
@@ -3869,7 +3904,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" ht="12.75">
+    <row r="288" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="24"/>
@@ -3879,7 +3914,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" ht="12.75">
+    <row r="289" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="24"/>
@@ -3889,7 +3924,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" ht="12.75">
+    <row r="290" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="24"/>
@@ -3899,7 +3934,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" ht="12.75">
+    <row r="291" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="24"/>
@@ -3909,7 +3944,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" ht="12.75">
+    <row r="292" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="24"/>
@@ -3919,7 +3954,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" ht="12.75">
+    <row r="293" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="24"/>
@@ -3929,7 +3964,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" ht="12.75">
+    <row r="294" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="24"/>
@@ -3939,7 +3974,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" ht="12.75">
+    <row r="295" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="24"/>
@@ -3949,7 +3984,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" ht="12.75">
+    <row r="296" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="24"/>
@@ -3959,7 +3994,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" ht="12.75">
+    <row r="297" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="24"/>
@@ -3969,7 +4004,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" ht="12.75">
+    <row r="298" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="24"/>
@@ -3979,7 +4014,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" ht="12.75">
+    <row r="299" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="24"/>
@@ -3989,7 +4024,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" ht="12.75">
+    <row r="300" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="24"/>
@@ -3999,7 +4034,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" ht="12.75">
+    <row r="301" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="24"/>
@@ -4009,7 +4044,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" ht="12.75">
+    <row r="302" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="24"/>
@@ -4019,7 +4054,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" ht="12.75">
+    <row r="303" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="24"/>
@@ -4029,7 +4064,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" ht="12.75">
+    <row r="304" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="24"/>
@@ -4039,7 +4074,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" ht="12.75">
+    <row r="305" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="24"/>
@@ -4049,7 +4084,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" ht="12.75">
+    <row r="306" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="24"/>
@@ -4059,7 +4094,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" ht="12.75">
+    <row r="307" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="24"/>
@@ -4069,7 +4104,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" ht="12.75">
+    <row r="308" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="24"/>
@@ -4079,7 +4114,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" ht="12.75">
+    <row r="309" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="24"/>
@@ -4089,7 +4124,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" ht="12.75">
+    <row r="310" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="24"/>
@@ -4099,7 +4134,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" ht="12.75">
+    <row r="311" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="24"/>
@@ -4109,7 +4144,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" ht="12.75">
+    <row r="312" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="24"/>
@@ -4119,7 +4154,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" ht="12.75">
+    <row r="313" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="24"/>
@@ -4129,7 +4164,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" ht="12.75">
+    <row r="314" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="24"/>
@@ -4139,7 +4174,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" ht="12.75">
+    <row r="315" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="24"/>
@@ -4149,7 +4184,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" ht="12.75">
+    <row r="316" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="24"/>
@@ -4159,7 +4194,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" ht="12.75">
+    <row r="317" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="24"/>
@@ -4169,7 +4204,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" ht="12.75">
+    <row r="318" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="24"/>
@@ -4179,7 +4214,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" ht="12.75">
+    <row r="319" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="24"/>
@@ -4189,7 +4224,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" ht="12.75">
+    <row r="320" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="24"/>
@@ -4199,7 +4234,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" ht="12.75">
+    <row r="321" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="24"/>
@@ -4209,7 +4244,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" ht="12.75">
+    <row r="322" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="24"/>
@@ -4219,7 +4254,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" ht="12.75">
+    <row r="323" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="24"/>
@@ -4229,7 +4264,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" ht="12.75">
+    <row r="324" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="24"/>
@@ -4239,7 +4274,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" ht="12.75">
+    <row r="325" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="24"/>
@@ -4249,7 +4284,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" ht="12.75">
+    <row r="326" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="24"/>
@@ -4259,7 +4294,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" ht="12.75">
+    <row r="327" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="24"/>
@@ -4269,7 +4304,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" ht="12.75">
+    <row r="328" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="24"/>
@@ -4279,7 +4314,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" ht="12.75">
+    <row r="329" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="24"/>
@@ -4289,7 +4324,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" ht="12.75">
+    <row r="330" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="24"/>
@@ -4299,7 +4334,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" ht="12.75">
+    <row r="331" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="24"/>
@@ -4309,7 +4344,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" ht="12.75">
+    <row r="332" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="24"/>
@@ -4319,7 +4354,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" ht="12.75">
+    <row r="333" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="24"/>
@@ -4329,7 +4364,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" ht="12.75">
+    <row r="334" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="24"/>
@@ -4339,7 +4374,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" ht="12.75">
+    <row r="335" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="24"/>
@@ -4349,7 +4384,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" ht="12.75">
+    <row r="336" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="24"/>
@@ -4359,7 +4394,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" ht="12.75">
+    <row r="337" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="24"/>
@@ -4369,7 +4404,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" ht="12.75">
+    <row r="338" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="24"/>
@@ -4379,7 +4414,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" ht="12.75">
+    <row r="339" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="24"/>
@@ -4389,7 +4424,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" ht="12.75">
+    <row r="340" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="24"/>
@@ -4399,7 +4434,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" ht="12.75">
+    <row r="341" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="24"/>
@@ -4409,7 +4444,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" ht="12.75">
+    <row r="342" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="24"/>
@@ -4419,7 +4454,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" ht="12.75">
+    <row r="343" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="24"/>
@@ -4429,7 +4464,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" ht="12.75">
+    <row r="344" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="24"/>
@@ -4439,7 +4474,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" ht="12.75">
+    <row r="345" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="24"/>
@@ -4449,7 +4484,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" ht="12.75">
+    <row r="346" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="24"/>
@@ -4459,7 +4494,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" ht="12.75">
+    <row r="347" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="24"/>
@@ -4469,7 +4504,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" ht="12.75">
+    <row r="348" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="24"/>
@@ -4479,7 +4514,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" ht="12.75">
+    <row r="349" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="24"/>
@@ -4489,7 +4524,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" ht="12.75">
+    <row r="350" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="24"/>
@@ -4499,7 +4534,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" ht="12.75">
+    <row r="351" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="24"/>
@@ -4509,7 +4544,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" ht="12.75">
+    <row r="352" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="24"/>
@@ -4519,7 +4554,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" ht="12.75">
+    <row r="353" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="24"/>
@@ -4529,7 +4564,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" ht="12.75">
+    <row r="354" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="24"/>
@@ -4539,7 +4574,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" ht="12.75">
+    <row r="355" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="24"/>
@@ -4549,7 +4584,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" ht="12.75">
+    <row r="356" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="24"/>
@@ -4559,7 +4594,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" ht="12.75">
+    <row r="357" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="24"/>
@@ -4569,7 +4604,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" ht="12.75">
+    <row r="358" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="24"/>
@@ -4579,7 +4614,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" ht="12.75">
+    <row r="359" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="24"/>
@@ -4589,7 +4624,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" ht="12.75">
+    <row r="360" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="24"/>
@@ -4599,7 +4634,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" ht="12.75">
+    <row r="361" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="24"/>
@@ -4609,7 +4644,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" ht="12.75">
+    <row r="362" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="24"/>
@@ -4619,7 +4654,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" ht="12.75">
+    <row r="363" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="24"/>
@@ -4629,7 +4664,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" ht="12.75">
+    <row r="364" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="24"/>
@@ -4639,7 +4674,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" ht="12.75">
+    <row r="365" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="24"/>
@@ -4649,7 +4684,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" ht="12.75">
+    <row r="366" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="24"/>
@@ -4659,7 +4694,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" ht="12.75">
+    <row r="367" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="24"/>
@@ -4669,7 +4704,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" ht="12.75">
+    <row r="368" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="24"/>
@@ -4679,7 +4714,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" ht="12.75">
+    <row r="369" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="24"/>
@@ -4689,7 +4724,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" ht="12.75">
+    <row r="370" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="24"/>
@@ -4699,7 +4734,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" ht="12.75">
+    <row r="371" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="24"/>
@@ -4709,7 +4744,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" ht="12.75">
+    <row r="372" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="24"/>
@@ -4719,7 +4754,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" ht="12.75">
+    <row r="373" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="24"/>
@@ -4729,7 +4764,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" ht="12.75">
+    <row r="374" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="24"/>
@@ -4739,7 +4774,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" ht="12.75">
+    <row r="375" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="24"/>
@@ -4749,7 +4784,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" ht="12.75">
+    <row r="376" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="24"/>
@@ -4759,7 +4794,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" ht="12.75">
+    <row r="377" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="24"/>
@@ -4769,7 +4804,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" ht="12.75">
+    <row r="378" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="24"/>
@@ -4779,7 +4814,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" ht="12.75">
+    <row r="379" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="24"/>
@@ -4789,7 +4824,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" ht="12.75">
+    <row r="380" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="24"/>
@@ -4799,7 +4834,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" ht="12.75">
+    <row r="381" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="24"/>
@@ -4809,7 +4844,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" ht="12.75">
+    <row r="382" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="24"/>
@@ -4819,7 +4854,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" ht="12.75">
+    <row r="383" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="24"/>
@@ -4829,7 +4864,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" ht="12.75">
+    <row r="384" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="24"/>
@@ -4839,7 +4874,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" ht="12.75">
+    <row r="385" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="24"/>
@@ -4849,7 +4884,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" ht="12.75">
+    <row r="386" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="24"/>
@@ -4859,7 +4894,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" ht="12.75">
+    <row r="387" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="24"/>
@@ -4869,7 +4904,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" ht="12.75">
+    <row r="388" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="24"/>
@@ -4879,7 +4914,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" ht="12.75">
+    <row r="389" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="24"/>
@@ -4889,7 +4924,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" ht="12.75">
+    <row r="390" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="24"/>
@@ -4899,7 +4934,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" ht="12.75">
+    <row r="391" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="24"/>
@@ -4909,7 +4944,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" ht="12.75">
+    <row r="392" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="24"/>
@@ -4919,7 +4954,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" ht="12.75">
+    <row r="393" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="24"/>
@@ -4929,7 +4964,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" ht="12.75">
+    <row r="394" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="24"/>
@@ -4939,7 +4974,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" ht="12.75">
+    <row r="395" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="24"/>
@@ -4949,7 +4984,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" ht="12.75">
+    <row r="396" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="24"/>
@@ -4959,7 +4994,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" ht="12.75">
+    <row r="397" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="24"/>
@@ -4969,7 +5004,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" ht="12.75">
+    <row r="398" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="24"/>
@@ -4979,7 +5014,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" ht="12.75">
+    <row r="399" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="24"/>
@@ -4989,7 +5024,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" ht="12.75">
+    <row r="400" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="24"/>
@@ -4999,7 +5034,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" ht="12.75">
+    <row r="401" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="24"/>
@@ -5009,7 +5044,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" ht="12.75">
+    <row r="402" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="24"/>
@@ -5019,7 +5054,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" ht="12.75">
+    <row r="403" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="24"/>
@@ -5029,7 +5064,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" ht="12.75">
+    <row r="404" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="24"/>
@@ -5039,7 +5074,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" ht="12.75">
+    <row r="405" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="24"/>
@@ -5049,7 +5084,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" ht="12.75">
+    <row r="406" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="24"/>
@@ -5059,7 +5094,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" ht="12.75">
+    <row r="407" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="24"/>
@@ -5069,7 +5104,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" ht="12.75">
+    <row r="408" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="24"/>
@@ -5079,7 +5114,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" ht="12.75">
+    <row r="409" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="24"/>
@@ -5089,7 +5124,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" ht="12.75">
+    <row r="410" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="24"/>
@@ -5099,7 +5134,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" ht="12.75">
+    <row r="411" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="24"/>
@@ -5109,7 +5144,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" ht="12.75">
+    <row r="412" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="24"/>
@@ -5119,7 +5154,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" ht="12.75">
+    <row r="413" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="24"/>
@@ -5129,7 +5164,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" ht="12.75">
+    <row r="414" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="24"/>
@@ -5139,7 +5174,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" ht="12.75">
+    <row r="415" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="24"/>
@@ -5149,7 +5184,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" ht="12.75">
+    <row r="416" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="24"/>
@@ -5159,7 +5194,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" ht="12.75">
+    <row r="417" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="24"/>
@@ -5169,7 +5204,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" ht="12.75">
+    <row r="418" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="24"/>
@@ -5179,7 +5214,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" ht="12.75">
+    <row r="419" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="24"/>
@@ -5189,7 +5224,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" ht="12.75">
+    <row r="420" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="24"/>
@@ -5199,7 +5234,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" ht="12.75">
+    <row r="421" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="24"/>
@@ -5209,7 +5244,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" ht="12.75">
+    <row r="422" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="24"/>
@@ -5219,7 +5254,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" ht="12.75">
+    <row r="423" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="24"/>
@@ -5229,7 +5264,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" ht="12.75">
+    <row r="424" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="24"/>
@@ -5239,7 +5274,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" ht="12.75">
+    <row r="425" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="24"/>
@@ -5249,7 +5284,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" ht="12.75">
+    <row r="426" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="24"/>
@@ -5259,7 +5294,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" ht="12.75">
+    <row r="427" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="24"/>
@@ -5269,7 +5304,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" ht="12.75">
+    <row r="428" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="24"/>
@@ -5279,7 +5314,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" ht="12.75">
+    <row r="429" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="24"/>
@@ -5289,7 +5324,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" ht="12.75">
+    <row r="430" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="24"/>
@@ -5299,7 +5334,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" ht="12.75">
+    <row r="431" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="24"/>
@@ -5309,7 +5344,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" ht="12.75">
+    <row r="432" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="24"/>
@@ -5319,7 +5354,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" ht="12.75">
+    <row r="433" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="24"/>
@@ -5329,7 +5364,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" ht="12.75">
+    <row r="434" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="24"/>
@@ -5339,7 +5374,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" ht="12.75">
+    <row r="435" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="24"/>
@@ -5349,7 +5384,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" ht="12.75">
+    <row r="436" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="24"/>
@@ -5359,7 +5394,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" ht="12.75">
+    <row r="437" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="24"/>
@@ -5369,7 +5404,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" ht="12.75">
+    <row r="438" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="24"/>
@@ -5379,7 +5414,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" ht="12.75">
+    <row r="439" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="24"/>
@@ -5389,7 +5424,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" ht="12.75">
+    <row r="440" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="24"/>
@@ -5399,7 +5434,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" ht="12.75">
+    <row r="441" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="24"/>
@@ -5409,7 +5444,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" ht="12.75">
+    <row r="442" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="24"/>
@@ -5419,7 +5454,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" ht="12.75">
+    <row r="443" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="24"/>
@@ -5429,7 +5464,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" ht="12.75">
+    <row r="444" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="24"/>
@@ -5439,7 +5474,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" ht="12.75">
+    <row r="445" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="24"/>
@@ -5449,7 +5484,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" ht="12.75">
+    <row r="446" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="24"/>
@@ -5459,7 +5494,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" ht="12.75">
+    <row r="447" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="24"/>
@@ -5469,7 +5504,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" ht="12.75">
+    <row r="448" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="24"/>
@@ -5479,7 +5514,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" ht="12.75">
+    <row r="449" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="24"/>
@@ -5489,7 +5524,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" ht="12.75">
+    <row r="450" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="24"/>
@@ -5499,7 +5534,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" ht="12.75">
+    <row r="451" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="24"/>
@@ -5509,7 +5544,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" ht="12.75">
+    <row r="452" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="24"/>
@@ -5519,7 +5554,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" ht="12.75">
+    <row r="453" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="24"/>
@@ -5529,7 +5564,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" ht="12.75">
+    <row r="454" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="24"/>
@@ -5539,7 +5574,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" ht="12.75">
+    <row r="455" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="24"/>
@@ -5549,7 +5584,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" ht="12.75">
+    <row r="456" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="24"/>
@@ -5559,7 +5594,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" ht="12.75">
+    <row r="457" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="24"/>
@@ -5569,7 +5604,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" ht="12.75">
+    <row r="458" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="24"/>
@@ -5579,7 +5614,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" ht="12.75">
+    <row r="459" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="24"/>
@@ -5589,7 +5624,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" ht="12.75">
+    <row r="460" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="24"/>
@@ -5599,7 +5634,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" ht="12.75">
+    <row r="461" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="24"/>
@@ -5609,7 +5644,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" ht="12.75">
+    <row r="462" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="24"/>
@@ -5619,7 +5654,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" ht="12.75">
+    <row r="463" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="24"/>
@@ -5629,7 +5664,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" ht="12.75">
+    <row r="464" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="24"/>
@@ -5639,7 +5674,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" ht="12.75">
+    <row r="465" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="24"/>
@@ -5649,7 +5684,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" ht="12.75">
+    <row r="466" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="24"/>
@@ -5659,7 +5694,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" ht="12.75">
+    <row r="467" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="24"/>
@@ -5669,7 +5704,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" ht="12.75">
+    <row r="468" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="24"/>
@@ -5679,7 +5714,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" ht="12.75">
+    <row r="469" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="24"/>
@@ -5689,7 +5724,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" ht="12.75">
+    <row r="470" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="24"/>
@@ -5699,7 +5734,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" ht="12.75">
+    <row r="471" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="24"/>
@@ -5709,7 +5744,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" ht="12.75">
+    <row r="472" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="24"/>
@@ -5719,7 +5754,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" ht="12.75">
+    <row r="473" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="24"/>
@@ -5729,7 +5764,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" ht="12.75">
+    <row r="474" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="24"/>
@@ -5739,7 +5774,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" ht="12.75">
+    <row r="475" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="24"/>
@@ -5749,7 +5784,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" ht="12.75">
+    <row r="476" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="24"/>
@@ -5759,7 +5794,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" ht="12.75">
+    <row r="477" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="24"/>
@@ -5769,7 +5804,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" ht="12.75">
+    <row r="478" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="24"/>
@@ -5779,7 +5814,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" ht="12.75">
+    <row r="479" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="24"/>
@@ -5789,7 +5824,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" ht="12.75">
+    <row r="480" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="24"/>
@@ -5799,7 +5834,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" ht="12.75">
+    <row r="481" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="24"/>
@@ -5809,7 +5844,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" ht="12.75">
+    <row r="482" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="24"/>
@@ -5819,7 +5854,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" ht="12.75">
+    <row r="483" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="24"/>
@@ -5829,7 +5864,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" ht="12.75">
+    <row r="484" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="24"/>
@@ -5839,7 +5874,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" ht="12.75">
+    <row r="485" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="24"/>
@@ -5849,7 +5884,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" ht="12.75">
+    <row r="486" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="24"/>
@@ -5859,7 +5894,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" ht="12.75">
+    <row r="487" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="24"/>
@@ -5869,7 +5904,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" ht="12.75">
+    <row r="488" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="24"/>
@@ -5879,7 +5914,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" ht="12.75">
+    <row r="489" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="24"/>
@@ -5889,7 +5924,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" ht="12.75">
+    <row r="490" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="24"/>
@@ -5899,7 +5934,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" ht="12.75">
+    <row r="491" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="24"/>
@@ -5909,7 +5944,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" ht="12.75">
+    <row r="492" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="24"/>
@@ -5919,7 +5954,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" ht="12.75">
+    <row r="493" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="24"/>
@@ -5929,7 +5964,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" ht="12.75">
+    <row r="494" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="24"/>
@@ -5939,7 +5974,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" ht="12.75">
+    <row r="495" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="24"/>
@@ -5949,7 +5984,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" ht="12.75">
+    <row r="496" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="24"/>
@@ -5959,7 +5994,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" ht="12.75">
+    <row r="497" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="24"/>
@@ -5969,7 +6004,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" ht="12.75">
+    <row r="498" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="24"/>
@@ -5979,7 +6014,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" ht="12.75">
+    <row r="499" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="24"/>
@@ -5989,7 +6024,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" ht="12.75">
+    <row r="500" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="24"/>
@@ -5999,7 +6034,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="1:8" ht="12.75">
+    <row r="501" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="24"/>
@@ -6009,7 +6044,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="1:8" ht="12.75">
+    <row r="502" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="24"/>
@@ -6019,7 +6054,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="1:8" ht="12.75">
+    <row r="503" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="24"/>
@@ -6029,7 +6064,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="1:8" ht="12.75">
+    <row r="504" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="24"/>
@@ -6039,7 +6074,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="1:8" ht="12.75">
+    <row r="505" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="24"/>
@@ -6049,7 +6084,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="1:8" ht="12.75">
+    <row r="506" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="24"/>
@@ -6059,7 +6094,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="1:8" ht="12.75">
+    <row r="507" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="24"/>
@@ -6069,7 +6104,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="1:8" ht="12.75">
+    <row r="508" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="24"/>
@@ -6079,7 +6114,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="1:8" ht="12.75">
+    <row r="509" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="24"/>
@@ -6089,7 +6124,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="1:8" ht="12.75">
+    <row r="510" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="24"/>
@@ -6099,7 +6134,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="1:8" ht="12.75">
+    <row r="511" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="24"/>
@@ -6109,7 +6144,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="1:8" ht="12.75">
+    <row r="512" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="24"/>
@@ -6119,7 +6154,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="1:8" ht="12.75">
+    <row r="513" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="24"/>
@@ -6129,7 +6164,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="1:8" ht="12.75">
+    <row r="514" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="24"/>
@@ -6139,7 +6174,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="1:8" ht="12.75">
+    <row r="515" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="24"/>
@@ -6149,7 +6184,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="1:8" ht="12.75">
+    <row r="516" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="24"/>
@@ -6159,7 +6194,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="1:8" ht="12.75">
+    <row r="517" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="24"/>
@@ -6169,7 +6204,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="1:8" ht="12.75">
+    <row r="518" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="24"/>
@@ -6179,7 +6214,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="1:8" ht="12.75">
+    <row r="519" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="24"/>
@@ -6189,7 +6224,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="1:8" ht="12.75">
+    <row r="520" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="24"/>
@@ -6199,7 +6234,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="1:8" ht="12.75">
+    <row r="521" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="24"/>
@@ -6209,7 +6244,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="1:8" ht="12.75">
+    <row r="522" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="24"/>
@@ -6219,7 +6254,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="1:8" ht="12.75">
+    <row r="523" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="24"/>
@@ -6229,7 +6264,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="1:8" ht="12.75">
+    <row r="524" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="24"/>
@@ -6239,7 +6274,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="1:8" ht="12.75">
+    <row r="525" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="24"/>
@@ -6249,7 +6284,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="1:8" ht="12.75">
+    <row r="526" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="24"/>
@@ -6259,7 +6294,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="1:8" ht="12.75">
+    <row r="527" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="24"/>
@@ -6269,7 +6304,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="1:8" ht="12.75">
+    <row r="528" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="24"/>
@@ -6279,7 +6314,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="1:8" ht="12.75">
+    <row r="529" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="24"/>
@@ -6289,7 +6324,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="1:8" ht="12.75">
+    <row r="530" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="24"/>
@@ -6299,7 +6334,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="1:8" ht="12.75">
+    <row r="531" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="24"/>
@@ -6309,7 +6344,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="1:8" ht="12.75">
+    <row r="532" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="24"/>
@@ -6319,7 +6354,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="1:8" ht="12.75">
+    <row r="533" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="24"/>
@@ -6329,7 +6364,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="1:8" ht="12.75">
+    <row r="534" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="24"/>
@@ -6339,7 +6374,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="1:8" ht="12.75">
+    <row r="535" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="24"/>
@@ -6349,7 +6384,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="1:8" ht="12.75">
+    <row r="536" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="24"/>
@@ -6359,7 +6394,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="1:8" ht="12.75">
+    <row r="537" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="24"/>
@@ -6369,7 +6404,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="1:8" ht="12.75">
+    <row r="538" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="24"/>
@@ -6379,7 +6414,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="1:8" ht="12.75">
+    <row r="539" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="24"/>
@@ -6389,7 +6424,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="1:8" ht="12.75">
+    <row r="540" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="24"/>
@@ -6399,7 +6434,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="1:8" ht="12.75">
+    <row r="541" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="24"/>
@@ -6409,7 +6444,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="1:8" ht="12.75">
+    <row r="542" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="24"/>
@@ -6419,7 +6454,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="1:8" ht="12.75">
+    <row r="543" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="24"/>
@@ -6429,7 +6464,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="1:8" ht="12.75">
+    <row r="544" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="24"/>
@@ -6439,7 +6474,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="1:8" ht="12.75">
+    <row r="545" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="24"/>
@@ -6449,7 +6484,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="1:8" ht="12.75">
+    <row r="546" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="24"/>
@@ -6459,7 +6494,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="1:8" ht="12.75">
+    <row r="547" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="24"/>
@@ -6469,7 +6504,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="1:8" ht="12.75">
+    <row r="548" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="24"/>
@@ -6479,7 +6514,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="1:8" ht="12.75">
+    <row r="549" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="24"/>
@@ -6489,7 +6524,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="1:8" ht="12.75">
+    <row r="550" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="24"/>
@@ -6499,7 +6534,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="1:8" ht="12.75">
+    <row r="551" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="24"/>
@@ -6509,7 +6544,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="1:8" ht="12.75">
+    <row r="552" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="24"/>
@@ -6519,7 +6554,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="1:8" ht="12.75">
+    <row r="553" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="24"/>
@@ -6529,7 +6564,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="1:8" ht="12.75">
+    <row r="554" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="24"/>
@@ -6539,7 +6574,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="1:8" ht="12.75">
+    <row r="555" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="24"/>
@@ -6549,7 +6584,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="1:8" ht="12.75">
+    <row r="556" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="24"/>
@@ -6559,7 +6594,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="1:8" ht="12.75">
+    <row r="557" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="24"/>
@@ -6569,7 +6604,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="1:8" ht="12.75">
+    <row r="558" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="24"/>
@@ -6579,7 +6614,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="1:8" ht="12.75">
+    <row r="559" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="24"/>
@@ -6589,7 +6624,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="1:8" ht="12.75">
+    <row r="560" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="24"/>
@@ -6599,7 +6634,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="1:8" ht="12.75">
+    <row r="561" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="24"/>
@@ -6609,7 +6644,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="1:8" ht="12.75">
+    <row r="562" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="24"/>
@@ -6619,7 +6654,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="1:8" ht="12.75">
+    <row r="563" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="24"/>
@@ -6629,7 +6664,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="1:8" ht="12.75">
+    <row r="564" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="24"/>
@@ -6639,7 +6674,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="1:8" ht="12.75">
+    <row r="565" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="24"/>
@@ -6649,7 +6684,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="1:8" ht="12.75">
+    <row r="566" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="24"/>
@@ -6659,7 +6694,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="1:8" ht="12.75">
+    <row r="567" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="24"/>
@@ -6669,7 +6704,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="1:8" ht="12.75">
+    <row r="568" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="24"/>
@@ -6679,7 +6714,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="1:8" ht="12.75">
+    <row r="569" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="24"/>
@@ -6689,7 +6724,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="1:8" ht="12.75">
+    <row r="570" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="24"/>
@@ -6699,7 +6734,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="1:8" ht="12.75">
+    <row r="571" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="24"/>
@@ -6709,7 +6744,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="1:8" ht="12.75">
+    <row r="572" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="24"/>
@@ -6719,7 +6754,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" ht="12.75">
+    <row r="573" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="24"/>
@@ -6729,7 +6764,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" ht="12.75">
+    <row r="574" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="24"/>
@@ -6739,7 +6774,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" ht="12.75">
+    <row r="575" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="24"/>
@@ -6749,7 +6784,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="1:8" ht="12.75">
+    <row r="576" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="24"/>
@@ -6759,7 +6794,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="1:8" ht="12.75">
+    <row r="577" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="24"/>
@@ -6769,7 +6804,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="1:8" ht="12.75">
+    <row r="578" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="24"/>
@@ -6779,7 +6814,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="1:8" ht="12.75">
+    <row r="579" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="24"/>
@@ -6789,7 +6824,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="1:8" ht="12.75">
+    <row r="580" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="24"/>
@@ -6799,7 +6834,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="1:8" ht="12.75">
+    <row r="581" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="24"/>
@@ -6809,7 +6844,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="1:8" ht="12.75">
+    <row r="582" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="24"/>
@@ -6819,7 +6854,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" ht="12.75">
+    <row r="583" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="24"/>
@@ -6829,7 +6864,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="1:8" ht="12.75">
+    <row r="584" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="24"/>
@@ -6839,7 +6874,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="1:8" ht="12.75">
+    <row r="585" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="24"/>
@@ -6849,7 +6884,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="1:8" ht="12.75">
+    <row r="586" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="24"/>
@@ -6859,7 +6894,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="1:8" ht="12.75">
+    <row r="587" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="24"/>
@@ -6869,7 +6904,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="1:8" ht="12.75">
+    <row r="588" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="24"/>
@@ -6879,7 +6914,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="1:8" ht="12.75">
+    <row r="589" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="24"/>
@@ -6889,7 +6924,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="1:8" ht="12.75">
+    <row r="590" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="24"/>
@@ -6899,7 +6934,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="1:8" ht="12.75">
+    <row r="591" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="24"/>
@@ -6909,7 +6944,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="1:8" ht="12.75">
+    <row r="592" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="24"/>
@@ -6919,7 +6954,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="1:8" ht="12.75">
+    <row r="593" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="24"/>
@@ -6929,7 +6964,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="1:8" ht="12.75">
+    <row r="594" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="24"/>
@@ -6939,7 +6974,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="1:8" ht="12.75">
+    <row r="595" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="24"/>
@@ -6949,7 +6984,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="1:8" ht="12.75">
+    <row r="596" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="24"/>
@@ -6959,7 +6994,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="1:8" ht="12.75">
+    <row r="597" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="24"/>
@@ -6969,7 +7004,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="1:8" ht="12.75">
+    <row r="598" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="24"/>
@@ -6979,7 +7014,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="1:8" ht="12.75">
+    <row r="599" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="24"/>
@@ -6989,7 +7024,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="1:8" ht="12.75">
+    <row r="600" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="24"/>
@@ -6999,7 +7034,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="1:8" ht="12.75">
+    <row r="601" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="24"/>
@@ -7009,7 +7044,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="1:8" ht="12.75">
+    <row r="602" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="24"/>
@@ -7019,7 +7054,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="1:8" ht="12.75">
+    <row r="603" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="24"/>
@@ -7029,7 +7064,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="1:8" ht="12.75">
+    <row r="604" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="24"/>
@@ -7039,7 +7074,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="1:8" ht="12.75">
+    <row r="605" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="24"/>
@@ -7049,7 +7084,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="1:8" ht="12.75">
+    <row r="606" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="24"/>
@@ -7059,7 +7094,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="1:8" ht="12.75">
+    <row r="607" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="24"/>
@@ -7069,7 +7104,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="1:8" ht="12.75">
+    <row r="608" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="24"/>
@@ -7079,7 +7114,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="1:8" ht="12.75">
+    <row r="609" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="24"/>
@@ -7089,7 +7124,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="1:8" ht="12.75">
+    <row r="610" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="24"/>
@@ -7099,7 +7134,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="1:8" ht="12.75">
+    <row r="611" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="24"/>
@@ -7109,7 +7144,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="1:8" ht="12.75">
+    <row r="612" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="24"/>
@@ -7119,7 +7154,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="1:8" ht="12.75">
+    <row r="613" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="24"/>
@@ -7129,7 +7164,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="1:8" ht="12.75">
+    <row r="614" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="24"/>
@@ -7139,7 +7174,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="1:8" ht="12.75">
+    <row r="615" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="24"/>
@@ -7149,7 +7184,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="1:8" ht="12.75">
+    <row r="616" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="24"/>
@@ -7159,7 +7194,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" ht="12.75">
+    <row r="617" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="24"/>
@@ -7169,7 +7204,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" ht="12.75">
+    <row r="618" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="24"/>
@@ -7179,7 +7214,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" ht="12.75">
+    <row r="619" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="24"/>
@@ -7189,7 +7224,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" ht="12.75">
+    <row r="620" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="24"/>
@@ -7199,7 +7234,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" ht="12.75">
+    <row r="621" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="24"/>
@@ -7209,7 +7244,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" ht="12.75">
+    <row r="622" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="24"/>
@@ -7219,7 +7254,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" ht="12.75">
+    <row r="623" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="24"/>
@@ -7229,7 +7264,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" ht="12.75">
+    <row r="624" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="24"/>
@@ -7239,7 +7274,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="1:8" ht="12.75">
+    <row r="625" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="24"/>
@@ -7249,7 +7284,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="1:8" ht="12.75">
+    <row r="626" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="24"/>
@@ -7259,7 +7294,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="1:8" ht="12.75">
+    <row r="627" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="24"/>
@@ -7269,7 +7304,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="1:8" ht="12.75">
+    <row r="628" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="24"/>
@@ -7279,7 +7314,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="1:8" ht="12.75">
+    <row r="629" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="24"/>
@@ -7289,7 +7324,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="1:8" ht="12.75">
+    <row r="630" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="24"/>
@@ -7299,7 +7334,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="1:8" ht="12.75">
+    <row r="631" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="24"/>
@@ -7309,7 +7344,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="1:8" ht="12.75">
+    <row r="632" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="24"/>
@@ -7319,7 +7354,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="1:8" ht="12.75">
+    <row r="633" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="24"/>
@@ -7329,7 +7364,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="1:8" ht="12.75">
+    <row r="634" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="24"/>
@@ -7339,7 +7374,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="1:8" ht="12.75">
+    <row r="635" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="24"/>
@@ -7349,7 +7384,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="1:8" ht="12.75">
+    <row r="636" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="24"/>
@@ -7359,7 +7394,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="1:8" ht="12.75">
+    <row r="637" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="24"/>
@@ -7369,7 +7404,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="1:8" ht="12.75">
+    <row r="638" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="24"/>
@@ -7379,7 +7414,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="1:8" ht="12.75">
+    <row r="639" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="24"/>
@@ -7389,7 +7424,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="1:8" ht="12.75">
+    <row r="640" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="24"/>
@@ -7399,7 +7434,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="1:8" ht="12.75">
+    <row r="641" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="24"/>
@@ -7409,7 +7444,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="1:8" ht="12.75">
+    <row r="642" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="24"/>
@@ -7419,7 +7454,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="1:8" ht="12.75">
+    <row r="643" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="24"/>
@@ -7429,7 +7464,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="1:8" ht="12.75">
+    <row r="644" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="24"/>
@@ -7439,7 +7474,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="1:8" ht="12.75">
+    <row r="645" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="24"/>
@@ -7449,7 +7484,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="1:8" ht="12.75">
+    <row r="646" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="24"/>
@@ -7459,7 +7494,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="1:8" ht="12.75">
+    <row r="647" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="24"/>
@@ -7469,7 +7504,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="1:8" ht="12.75">
+    <row r="648" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="24"/>
@@ -7479,7 +7514,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="1:8" ht="12.75">
+    <row r="649" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="24"/>
@@ -7489,7 +7524,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="1:8" ht="12.75">
+    <row r="650" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="24"/>
@@ -7499,7 +7534,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="1:8" ht="12.75">
+    <row r="651" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="24"/>
@@ -7509,7 +7544,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="1:8" ht="12.75">
+    <row r="652" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="24"/>
@@ -7519,7 +7554,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="1:8" ht="12.75">
+    <row r="653" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="24"/>
@@ -7529,7 +7564,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="1:8" ht="12.75">
+    <row r="654" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="24"/>
@@ -7539,7 +7574,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" ht="12.75">
+    <row r="655" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="24"/>
@@ -7549,7 +7584,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" ht="12.75">
+    <row r="656" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="24"/>
@@ -7559,7 +7594,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="1:8" ht="12.75">
+    <row r="657" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="24"/>
@@ -7569,7 +7604,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="1:8" ht="12.75">
+    <row r="658" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="24"/>
@@ -7579,7 +7614,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="1:8" ht="12.75">
+    <row r="659" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="24"/>
@@ -7589,7 +7624,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="1:8" ht="12.75">
+    <row r="660" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="24"/>
@@ -7599,7 +7634,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" ht="12.75">
+    <row r="661" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="24"/>
@@ -7609,7 +7644,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="1:8" ht="12.75">
+    <row r="662" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="24"/>
@@ -7619,7 +7654,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="1:8" ht="12.75">
+    <row r="663" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="24"/>
@@ -7629,7 +7664,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" ht="12.75">
+    <row r="664" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="24"/>
@@ -7639,7 +7674,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="1:8" ht="12.75">
+    <row r="665" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="24"/>
@@ -7649,7 +7684,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" ht="12.75">
+    <row r="666" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="24"/>
@@ -7659,7 +7694,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" ht="12.75">
+    <row r="667" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="24"/>
@@ -7669,7 +7704,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" ht="12.75">
+    <row r="668" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="24"/>
@@ -7679,7 +7714,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" ht="12.75">
+    <row r="669" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="24"/>
@@ -7689,7 +7724,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" ht="12.75">
+    <row r="670" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="24"/>
@@ -7699,7 +7734,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" ht="12.75">
+    <row r="671" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="24"/>
@@ -7709,7 +7744,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="1:8" ht="12.75">
+    <row r="672" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="24"/>
@@ -7719,7 +7754,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" ht="12.75">
+    <row r="673" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="24"/>
@@ -7729,7 +7764,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" ht="12.75">
+    <row r="674" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="24"/>
@@ -7739,7 +7774,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="1:8" ht="12.75">
+    <row r="675" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="24"/>
@@ -7749,7 +7784,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="1:8" ht="12.75">
+    <row r="676" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="24"/>
@@ -7759,7 +7794,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="1:8" ht="12.75">
+    <row r="677" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="24"/>
@@ -7769,7 +7804,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" ht="12.75">
+    <row r="678" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="24"/>
@@ -7779,7 +7814,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="1:8" ht="12.75">
+    <row r="679" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="24"/>
@@ -7789,7 +7824,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" ht="12.75">
+    <row r="680" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="24"/>
@@ -7799,7 +7834,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" ht="12.75">
+    <row r="681" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="24"/>
@@ -7809,7 +7844,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="1:8" ht="12.75">
+    <row r="682" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="24"/>
@@ -7819,7 +7854,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" ht="12.75">
+    <row r="683" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="24"/>
@@ -7829,7 +7864,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="1:8" ht="12.75">
+    <row r="684" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="24"/>
@@ -7839,7 +7874,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="1:8" ht="12.75">
+    <row r="685" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="24"/>
@@ -7849,7 +7884,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="1:8" ht="12.75">
+    <row r="686" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="24"/>
@@ -7859,7 +7894,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="1:8" ht="12.75">
+    <row r="687" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="24"/>
@@ -7869,7 +7904,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="1:8" ht="12.75">
+    <row r="688" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="24"/>
@@ -7879,7 +7914,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" ht="12.75">
+    <row r="689" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="24"/>
@@ -7889,7 +7924,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="1:8" ht="12.75">
+    <row r="690" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="24"/>
@@ -7899,7 +7934,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" ht="12.75">
+    <row r="691" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="24"/>
@@ -7909,7 +7944,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="1:8" ht="12.75">
+    <row r="692" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="24"/>
@@ -7919,7 +7954,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" ht="12.75">
+    <row r="693" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="24"/>
@@ -7929,7 +7964,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="1:8" ht="12.75">
+    <row r="694" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="24"/>
@@ -7939,7 +7974,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" ht="12.75">
+    <row r="695" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="24"/>
@@ -7949,7 +7984,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" ht="12.75">
+    <row r="696" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="24"/>
@@ -7959,7 +7994,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" ht="12.75">
+    <row r="697" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="24"/>
@@ -7969,7 +8004,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" ht="12.75">
+    <row r="698" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="24"/>
@@ -7979,7 +8014,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" ht="12.75">
+    <row r="699" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="24"/>
@@ -7989,7 +8024,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" ht="12.75">
+    <row r="700" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="24"/>
@@ -7999,7 +8034,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" ht="12.75">
+    <row r="701" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="24"/>
@@ -8009,7 +8044,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="1:8" ht="12.75">
+    <row r="702" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="24"/>
@@ -8019,7 +8054,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" ht="12.75">
+    <row r="703" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="24"/>
@@ -8029,7 +8064,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" ht="12.75">
+    <row r="704" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="24"/>
@@ -8039,7 +8074,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" ht="12.75">
+    <row r="705" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="24"/>
@@ -8049,7 +8084,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" ht="12.75">
+    <row r="706" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="24"/>
@@ -8059,7 +8094,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" ht="12.75">
+    <row r="707" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="24"/>
@@ -8069,7 +8104,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" ht="12.75">
+    <row r="708" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="24"/>
@@ -8079,7 +8114,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="1:8" ht="12.75">
+    <row r="709" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="24"/>
@@ -8089,7 +8124,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" ht="12.75">
+    <row r="710" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="24"/>
@@ -8099,7 +8134,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="1:8" ht="12.75">
+    <row r="711" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="24"/>
@@ -8109,7 +8144,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" ht="12.75">
+    <row r="712" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="24"/>
@@ -8119,7 +8154,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="1:8" ht="12.75">
+    <row r="713" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="24"/>
@@ -8129,7 +8164,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="1:8" ht="12.75">
+    <row r="714" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="24"/>
@@ -8139,7 +8174,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="1:8" ht="12.75">
+    <row r="715" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="24"/>
@@ -8149,7 +8184,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="1:8" ht="12.75">
+    <row r="716" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="24"/>
@@ -8159,7 +8194,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="1:8" ht="12.75">
+    <row r="717" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="24"/>
@@ -8169,7 +8204,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="1:8" ht="12.75">
+    <row r="718" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="24"/>
@@ -8179,7 +8214,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" ht="12.75">
+    <row r="719" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="24"/>
@@ -8189,7 +8224,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" ht="12.75">
+    <row r="720" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="24"/>
@@ -8199,7 +8234,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" ht="12.75">
+    <row r="721" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="24"/>
@@ -8209,7 +8244,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="1:8" ht="12.75">
+    <row r="722" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="24"/>
@@ -8219,7 +8254,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" ht="12.75">
+    <row r="723" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="24"/>
@@ -8229,7 +8264,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" ht="12.75">
+    <row r="724" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="24"/>
@@ -8239,7 +8274,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" ht="12.75">
+    <row r="725" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="24"/>
@@ -8249,7 +8284,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" ht="12.75">
+    <row r="726" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="24"/>
@@ -8259,7 +8294,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="1:8" ht="12.75">
+    <row r="727" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="24"/>
@@ -8269,7 +8304,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="1:8" ht="12.75">
+    <row r="728" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="24"/>
@@ -8279,7 +8314,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" ht="12.75">
+    <row r="729" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="24"/>
@@ -8289,7 +8324,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="1:8" ht="12.75">
+    <row r="730" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="24"/>
@@ -8299,7 +8334,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" ht="12.75">
+    <row r="731" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="24"/>
@@ -8309,7 +8344,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="1:8" ht="12.75">
+    <row r="732" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="24"/>
@@ -8319,7 +8354,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" ht="12.75">
+    <row r="733" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="24"/>
@@ -8329,7 +8364,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" ht="12.75">
+    <row r="734" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="24"/>
@@ -8339,7 +8374,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" ht="12.75">
+    <row r="735" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="24"/>
@@ -8349,7 +8384,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" ht="12.75">
+    <row r="736" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="24"/>
@@ -8359,7 +8394,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="1:8" ht="12.75">
+    <row r="737" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="24"/>
@@ -8369,7 +8404,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" ht="12.75">
+    <row r="738" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="24"/>
@@ -8379,7 +8414,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="1:8" ht="12.75">
+    <row r="739" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="24"/>
@@ -8389,7 +8424,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" ht="12.75">
+    <row r="740" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="24"/>
@@ -8399,7 +8434,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="1:8" ht="12.75">
+    <row r="741" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="24"/>
@@ -8409,7 +8444,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" ht="12.75">
+    <row r="742" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="24"/>
@@ -8419,7 +8454,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="1:8" ht="12.75">
+    <row r="743" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="24"/>
@@ -8429,7 +8464,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" ht="12.75">
+    <row r="744" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="24"/>
@@ -8439,7 +8474,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" ht="12.75">
+    <row r="745" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="24"/>
@@ -8449,7 +8484,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" ht="12.75">
+    <row r="746" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="24"/>
@@ -8459,7 +8494,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" ht="12.75">
+    <row r="747" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="24"/>
@@ -8469,7 +8504,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" ht="12.75">
+    <row r="748" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="24"/>
@@ -8479,7 +8514,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" ht="12.75">
+    <row r="749" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="24"/>
@@ -8489,7 +8524,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" ht="12.75">
+    <row r="750" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="24"/>
@@ -8499,7 +8534,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" ht="12.75">
+    <row r="751" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="24"/>
@@ -8509,7 +8544,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="1:8" ht="12.75">
+    <row r="752" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="24"/>
@@ -8519,7 +8554,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" ht="12.75">
+    <row r="753" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="24"/>
@@ -8529,7 +8564,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="1:8" ht="12.75">
+    <row r="754" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="24"/>
@@ -8539,7 +8574,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" ht="12.75">
+    <row r="755" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="24"/>
@@ -8549,7 +8584,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="1:8" ht="12.75">
+    <row r="756" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="24"/>
@@ -8559,7 +8594,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="1:8" ht="12.75">
+    <row r="757" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="24"/>
@@ -8569,7 +8604,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="1:8" ht="12.75">
+    <row r="758" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="24"/>
@@ -8579,7 +8614,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="1:8" ht="12.75">
+    <row r="759" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="24"/>
@@ -8589,7 +8624,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="1:8" ht="12.75">
+    <row r="760" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="24"/>
@@ -8599,7 +8634,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="1:8" ht="12.75">
+    <row r="761" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="24"/>
@@ -8609,7 +8644,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="1:8" ht="12.75">
+    <row r="762" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="24"/>
@@ -8619,7 +8654,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="1:8" ht="12.75">
+    <row r="763" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="24"/>
@@ -8629,7 +8664,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="1:8" ht="12.75">
+    <row r="764" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="24"/>
@@ -8639,7 +8674,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="1:8" ht="12.75">
+    <row r="765" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="24"/>
@@ -8649,7 +8684,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="1:8" ht="12.75">
+    <row r="766" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="24"/>
@@ -8659,7 +8694,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="1:8" ht="12.75">
+    <row r="767" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="24"/>
@@ -8669,7 +8704,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="1:8" ht="12.75">
+    <row r="768" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="24"/>
@@ -8679,7 +8714,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="1:8" ht="12.75">
+    <row r="769" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="24"/>
@@ -8689,7 +8724,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="1:8" ht="12.75">
+    <row r="770" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="24"/>
@@ -8699,7 +8734,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="1:8" ht="12.75">
+    <row r="771" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="24"/>
@@ -8709,7 +8744,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="1:8" ht="12.75">
+    <row r="772" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="24"/>
@@ -8719,7 +8754,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="1:8" ht="12.75">
+    <row r="773" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="24"/>
@@ -8729,7 +8764,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="1:8" ht="12.75">
+    <row r="774" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="24"/>
@@ -8739,7 +8774,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="1:8" ht="12.75">
+    <row r="775" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="24"/>
@@ -8749,7 +8784,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="1:8" ht="12.75">
+    <row r="776" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="24"/>
@@ -8759,7 +8794,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="1:8" ht="12.75">
+    <row r="777" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="24"/>
@@ -8769,7 +8804,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="1:8" ht="12.75">
+    <row r="778" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="24"/>
@@ -8779,7 +8814,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="1:8" ht="12.75">
+    <row r="779" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="24"/>
@@ -8789,7 +8824,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="1:8" ht="12.75">
+    <row r="780" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="24"/>
@@ -8799,7 +8834,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="1:8" ht="12.75">
+    <row r="781" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="24"/>
@@ -8809,7 +8844,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="1:8" ht="12.75">
+    <row r="782" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="24"/>
@@ -8819,7 +8854,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="1:8" ht="12.75">
+    <row r="783" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="24"/>
@@ -8829,7 +8864,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="1:8" ht="12.75">
+    <row r="784" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="24"/>
@@ -8839,7 +8874,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="1:8" ht="12.75">
+    <row r="785" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="24"/>
@@ -8849,7 +8884,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="1:8" ht="12.75">
+    <row r="786" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="24"/>
@@ -8859,7 +8894,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="1:8" ht="12.75">
+    <row r="787" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="24"/>
@@ -8869,7 +8904,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="1:8" ht="12.75">
+    <row r="788" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="24"/>
@@ -8879,7 +8914,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="1:8" ht="12.75">
+    <row r="789" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="24"/>
@@ -8889,7 +8924,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="1:8" ht="12.75">
+    <row r="790" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="24"/>
@@ -8899,7 +8934,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="1:8" ht="12.75">
+    <row r="791" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="24"/>
@@ -8909,7 +8944,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="1:8" ht="12.75">
+    <row r="792" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="24"/>
@@ -8919,7 +8954,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="1:8" ht="12.75">
+    <row r="793" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="24"/>
@@ -8929,7 +8964,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="1:8" ht="12.75">
+    <row r="794" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="24"/>
@@ -8939,7 +8974,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="1:8" ht="12.75">
+    <row r="795" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="24"/>
@@ -8949,7 +8984,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="1:8" ht="12.75">
+    <row r="796" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="24"/>
@@ -8959,7 +8994,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="1:8" ht="12.75">
+    <row r="797" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="24"/>
@@ -8969,7 +9004,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="1:8" ht="12.75">
+    <row r="798" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="24"/>
@@ -8979,7 +9014,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="1:8" ht="12.75">
+    <row r="799" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="24"/>
@@ -8989,7 +9024,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="1:8" ht="12.75">
+    <row r="800" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="24"/>
@@ -8999,7 +9034,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="1:8" ht="12.75">
+    <row r="801" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="24"/>
@@ -9009,7 +9044,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="1:8" ht="12.75">
+    <row r="802" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="24"/>
@@ -9019,7 +9054,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="1:8" ht="12.75">
+    <row r="803" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="24"/>
@@ -9029,7 +9064,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="1:8" ht="12.75">
+    <row r="804" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="24"/>
@@ -9039,7 +9074,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="1:8" ht="12.75">
+    <row r="805" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="24"/>
@@ -9049,7 +9084,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="1:8" ht="12.75">
+    <row r="806" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="24"/>
@@ -9059,7 +9094,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="1:8" ht="12.75">
+    <row r="807" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="24"/>
@@ -9069,7 +9104,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="1:8" ht="12.75">
+    <row r="808" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="24"/>
@@ -9079,7 +9114,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="1:8" ht="12.75">
+    <row r="809" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="24"/>
@@ -9089,7 +9124,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="1:8" ht="12.75">
+    <row r="810" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="24"/>
@@ -9099,7 +9134,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="1:8" ht="12.75">
+    <row r="811" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="24"/>
@@ -9109,7 +9144,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="1:8" ht="12.75">
+    <row r="812" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="24"/>
@@ -9119,7 +9154,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="1:8" ht="12.75">
+    <row r="813" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="24"/>
@@ -9129,7 +9164,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="1:8" ht="12.75">
+    <row r="814" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="24"/>
@@ -9139,7 +9174,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="1:8" ht="12.75">
+    <row r="815" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="24"/>
@@ -9149,7 +9184,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="1:8" ht="12.75">
+    <row r="816" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="24"/>
@@ -9159,7 +9194,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="1:8" ht="12.75">
+    <row r="817" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="24"/>
@@ -9169,7 +9204,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="1:8" ht="12.75">
+    <row r="818" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="24"/>
@@ -9179,7 +9214,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="1:8" ht="12.75">
+    <row r="819" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="24"/>
@@ -9189,7 +9224,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="1:8" ht="12.75">
+    <row r="820" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="24"/>
@@ -9199,7 +9234,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="1:8" ht="12.75">
+    <row r="821" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="24"/>
@@ -9209,7 +9244,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="1:8" ht="12.75">
+    <row r="822" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="24"/>
@@ -9219,7 +9254,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="1:8" ht="12.75">
+    <row r="823" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="24"/>
@@ -9229,7 +9264,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="1:8" ht="12.75">
+    <row r="824" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="24"/>
@@ -9239,7 +9274,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="1:8" ht="12.75">
+    <row r="825" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="24"/>
@@ -9249,7 +9284,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="1:8" ht="12.75">
+    <row r="826" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="24"/>
@@ -9259,7 +9294,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="1:8" ht="12.75">
+    <row r="827" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="24"/>
@@ -9269,7 +9304,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="1:8" ht="12.75">
+    <row r="828" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="24"/>
@@ -9279,7 +9314,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="1:8" ht="12.75">
+    <row r="829" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="24"/>
@@ -9289,7 +9324,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="1:8" ht="12.75">
+    <row r="830" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="24"/>
@@ -9299,7 +9334,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="1:8" ht="12.75">
+    <row r="831" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="24"/>
@@ -9309,7 +9344,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="1:8" ht="12.75">
+    <row r="832" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="24"/>
@@ -9319,7 +9354,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="1:8" ht="12.75">
+    <row r="833" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="24"/>
@@ -9329,7 +9364,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="1:8" ht="12.75">
+    <row r="834" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="24"/>
@@ -9339,7 +9374,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="1:8" ht="12.75">
+    <row r="835" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="24"/>
@@ -9349,7 +9384,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="1:8" ht="12.75">
+    <row r="836" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="24"/>
@@ -9359,7 +9394,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="1:8" ht="12.75">
+    <row r="837" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="24"/>
@@ -9369,7 +9404,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="1:8" ht="12.75">
+    <row r="838" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="24"/>
@@ -9379,7 +9414,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="1:8" ht="12.75">
+    <row r="839" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="24"/>
@@ -9389,7 +9424,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="1:8" ht="12.75">
+    <row r="840" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="24"/>
@@ -9399,7 +9434,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="1:8" ht="12.75">
+    <row r="841" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="24"/>
@@ -9409,7 +9444,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="1:8" ht="12.75">
+    <row r="842" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="24"/>
@@ -9419,7 +9454,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="1:8" ht="12.75">
+    <row r="843" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="24"/>
@@ -9429,7 +9464,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="1:8" ht="12.75">
+    <row r="844" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="24"/>
@@ -9439,7 +9474,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="1:8" ht="12.75">
+    <row r="845" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="24"/>
@@ -9449,7 +9484,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="1:8" ht="12.75">
+    <row r="846" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="24"/>
@@ -9459,7 +9494,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="1:8" ht="12.75">
+    <row r="847" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="24"/>
@@ -9469,7 +9504,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="1:8" ht="12.75">
+    <row r="848" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="24"/>
@@ -9479,7 +9514,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="1:8" ht="12.75">
+    <row r="849" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="24"/>
@@ -9489,7 +9524,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="1:8" ht="12.75">
+    <row r="850" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="24"/>
@@ -9499,7 +9534,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="1:8" ht="12.75">
+    <row r="851" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="24"/>
@@ -9509,7 +9544,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="1:8" ht="12.75">
+    <row r="852" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="24"/>
@@ -9519,7 +9554,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="1:8" ht="12.75">
+    <row r="853" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="24"/>
@@ -9529,7 +9564,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="1:8" ht="12.75">
+    <row r="854" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="24"/>
@@ -9539,7 +9574,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="1:8" ht="12.75">
+    <row r="855" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="24"/>
@@ -9549,7 +9584,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="1:8" ht="12.75">
+    <row r="856" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="24"/>
@@ -9559,7 +9594,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="1:8" ht="12.75">
+    <row r="857" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="24"/>
@@ -9569,7 +9604,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="1:8" ht="12.75">
+    <row r="858" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="24"/>
@@ -9579,7 +9614,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="1:8" ht="12.75">
+    <row r="859" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="24"/>
@@ -9589,7 +9624,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="1:8" ht="12.75">
+    <row r="860" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="24"/>
@@ -9599,7 +9634,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="1:8" ht="12.75">
+    <row r="861" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="24"/>
@@ -9609,7 +9644,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="1:8" ht="12.75">
+    <row r="862" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="24"/>
@@ -9619,7 +9654,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="1:8" ht="12.75">
+    <row r="863" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="24"/>
@@ -9629,7 +9664,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="1:8" ht="12.75">
+    <row r="864" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="24"/>
@@ -9639,7 +9674,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="1:8" ht="12.75">
+    <row r="865" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="24"/>
@@ -9649,7 +9684,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="1:8" ht="12.75">
+    <row r="866" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="24"/>
@@ -9659,7 +9694,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="1:8" ht="12.75">
+    <row r="867" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="24"/>
@@ -9669,7 +9704,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="1:8" ht="12.75">
+    <row r="868" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="24"/>
@@ -9679,7 +9714,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="1:8" ht="12.75">
+    <row r="869" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="24"/>
@@ -9689,7 +9724,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="1:8" ht="12.75">
+    <row r="870" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="24"/>
@@ -9699,7 +9734,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="1:8" ht="12.75">
+    <row r="871" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="24"/>
@@ -9709,7 +9744,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="1:8" ht="12.75">
+    <row r="872" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="24"/>
@@ -9719,7 +9754,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="1:8" ht="12.75">
+    <row r="873" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="24"/>
@@ -9729,7 +9764,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="1:8" ht="12.75">
+    <row r="874" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="24"/>
@@ -9739,7 +9774,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="1:8" ht="12.75">
+    <row r="875" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="24"/>
@@ -9749,7 +9784,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="1:8" ht="12.75">
+    <row r="876" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="24"/>
@@ -9759,7 +9794,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="1:8" ht="12.75">
+    <row r="877" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="24"/>
@@ -9769,7 +9804,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="1:8" ht="12.75">
+    <row r="878" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="24"/>
@@ -9779,7 +9814,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="1:8" ht="12.75">
+    <row r="879" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="24"/>
@@ -9789,7 +9824,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="1:8" ht="12.75">
+    <row r="880" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="24"/>
@@ -9799,7 +9834,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="1:8" ht="12.75">
+    <row r="881" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="24"/>
@@ -9809,7 +9844,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="1:8" ht="12.75">
+    <row r="882" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="24"/>
@@ -9819,7 +9854,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="1:8" ht="12.75">
+    <row r="883" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="24"/>
@@ -9829,7 +9864,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="1:8" ht="12.75">
+    <row r="884" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="24"/>
@@ -9839,7 +9874,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="1:8" ht="12.75">
+    <row r="885" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="24"/>
@@ -9849,7 +9884,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="1:8" ht="12.75">
+    <row r="886" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="24"/>
@@ -9859,7 +9894,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="1:8" ht="12.75">
+    <row r="887" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="24"/>
@@ -9869,7 +9904,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="1:8" ht="12.75">
+    <row r="888" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="24"/>
@@ -9879,7 +9914,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="1:8" ht="12.75">
+    <row r="889" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="24"/>
@@ -9889,7 +9924,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="1:8" ht="12.75">
+    <row r="890" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="24"/>
@@ -9899,7 +9934,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="1:8" ht="12.75">
+    <row r="891" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="24"/>
@@ -9909,7 +9944,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="1:8" ht="12.75">
+    <row r="892" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="24"/>
@@ -9919,7 +9954,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="1:8" ht="12.75">
+    <row r="893" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="24"/>
@@ -9929,7 +9964,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="1:8" ht="12.75">
+    <row r="894" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="24"/>
@@ -9939,7 +9974,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="1:8" ht="12.75">
+    <row r="895" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="24"/>
@@ -9949,7 +9984,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="1:8" ht="12.75">
+    <row r="896" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="24"/>
@@ -9959,7 +9994,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="1:8" ht="12.75">
+    <row r="897" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="24"/>
@@ -9969,7 +10004,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="1:8" ht="12.75">
+    <row r="898" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="24"/>
@@ -9979,7 +10014,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="1:8" ht="12.75">
+    <row r="899" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="24"/>
@@ -9989,7 +10024,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="1:8" ht="12.75">
+    <row r="900" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="24"/>
@@ -9999,7 +10034,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="1:8" ht="12.75">
+    <row r="901" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="24"/>
@@ -10009,7 +10044,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="1:8" ht="12.75">
+    <row r="902" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="24"/>
@@ -10019,7 +10054,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="1:8" ht="12.75">
+    <row r="903" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="24"/>
@@ -10029,7 +10064,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="1:8" ht="12.75">
+    <row r="904" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="24"/>
@@ -10039,7 +10074,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="1:8" ht="12.75">
+    <row r="905" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="24"/>
@@ -10049,7 +10084,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="1:8" ht="12.75">
+    <row r="906" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="24"/>
@@ -10059,7 +10094,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="1:8" ht="12.75">
+    <row r="907" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="24"/>
@@ -10069,7 +10104,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="1:8" ht="12.75">
+    <row r="908" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="24"/>
@@ -10079,7 +10114,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="1:8" ht="12.75">
+    <row r="909" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="24"/>
@@ -10089,7 +10124,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" ht="12.75">
+    <row r="910" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="24"/>
@@ -10099,7 +10134,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="1:8" ht="12.75">
+    <row r="911" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="24"/>
@@ -10109,7 +10144,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="1:8" ht="12.75">
+    <row r="912" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="24"/>
@@ -10119,7 +10154,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="1:8" ht="12.75">
+    <row r="913" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="24"/>
@@ -10129,7 +10164,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" spans="1:8" ht="12.75">
+    <row r="914" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="24"/>
@@ -10139,7 +10174,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" spans="1:8" ht="12.75">
+    <row r="915" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="24"/>
@@ -10149,7 +10184,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" spans="1:8" ht="12.75">
+    <row r="916" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="24"/>
@@ -10159,7 +10194,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" spans="1:8" ht="12.75">
+    <row r="917" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="24"/>
@@ -10169,7 +10204,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" spans="1:8" ht="12.75">
+    <row r="918" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="24"/>
@@ -10179,7 +10214,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" spans="1:8" ht="12.75">
+    <row r="919" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="24"/>
@@ -10189,7 +10224,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" spans="1:8" ht="12.75">
+    <row r="920" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="24"/>
@@ -10199,7 +10234,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" spans="1:8" ht="12.75">
+    <row r="921" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="24"/>
@@ -10209,7 +10244,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="1:8" ht="12.75">
+    <row r="922" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="24"/>
@@ -10219,7 +10254,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" spans="1:8" ht="12.75">
+    <row r="923" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="24"/>
@@ -10229,7 +10264,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" spans="1:8" ht="12.75">
+    <row r="924" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="24"/>
@@ -10239,7 +10274,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" spans="1:8" ht="12.75">
+    <row r="925" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="24"/>
@@ -10249,7 +10284,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" spans="1:8" ht="12.75">
+    <row r="926" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="24"/>
@@ -10259,7 +10294,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" spans="1:8" ht="12.75">
+    <row r="927" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="24"/>
@@ -10269,7 +10304,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" spans="1:8" ht="12.75">
+    <row r="928" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="24"/>
@@ -10279,7 +10314,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" spans="1:8" ht="12.75">
+    <row r="929" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="24"/>
@@ -10289,7 +10324,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" spans="1:8" ht="12.75">
+    <row r="930" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="24"/>
@@ -10299,7 +10334,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" spans="1:8" ht="12.75">
+    <row r="931" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="24"/>
@@ -10309,7 +10344,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" spans="1:8" ht="12.75">
+    <row r="932" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="24"/>
@@ -10319,7 +10354,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" spans="1:8" ht="12.75">
+    <row r="933" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="24"/>
@@ -10329,7 +10364,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" spans="1:8" ht="12.75">
+    <row r="934" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="24"/>
@@ -10339,7 +10374,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="1:8" ht="12.75">
+    <row r="935" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="24"/>
@@ -10349,7 +10384,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" spans="1:8" ht="12.75">
+    <row r="936" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="24"/>
@@ -10359,7 +10394,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" spans="1:8" ht="12.75">
+    <row r="937" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="24"/>
@@ -10369,7 +10404,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" spans="1:8" ht="12.75">
+    <row r="938" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="24"/>
@@ -10379,7 +10414,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" spans="1:8" ht="12.75">
+    <row r="939" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="24"/>
@@ -10389,7 +10424,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" spans="1:8" ht="12.75">
+    <row r="940" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="24"/>
@@ -10399,7 +10434,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" spans="1:8" ht="12.75">
+    <row r="941" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="24"/>
@@ -10409,7 +10444,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" spans="1:8" ht="12.75">
+    <row r="942" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="24"/>
@@ -10419,7 +10454,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" spans="1:8" ht="12.75">
+    <row r="943" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="24"/>
@@ -10429,7 +10464,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" spans="1:8" ht="12.75">
+    <row r="944" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="24"/>
@@ -10439,7 +10474,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" spans="1:8" ht="12.75">
+    <row r="945" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="24"/>
@@ -10449,7 +10484,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" spans="1:8" ht="12.75">
+    <row r="946" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="24"/>
@@ -10459,7 +10494,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" spans="1:8" ht="12.75">
+    <row r="947" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="24"/>
@@ -10469,7 +10504,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" spans="1:8" ht="12.75">
+    <row r="948" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="24"/>
@@ -10479,7 +10514,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" spans="1:8" ht="12.75">
+    <row r="949" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="24"/>
@@ -10489,7 +10524,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" spans="1:8" ht="12.75">
+    <row r="950" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="24"/>
@@ -10499,7 +10534,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" spans="1:8" ht="12.75">
+    <row r="951" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="24"/>
@@ -10509,7 +10544,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" spans="1:8" ht="12.75">
+    <row r="952" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="24"/>
@@ -10519,7 +10554,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="1:8" ht="12.75">
+    <row r="953" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="24"/>
@@ -10529,7 +10564,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" spans="1:8" ht="12.75">
+    <row r="954" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="24"/>
@@ -10539,7 +10574,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" spans="1:8" ht="12.75">
+    <row r="955" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="24"/>
@@ -10551,12 +10586,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G21:H21"/>
@@ -10566,13 +10602,12 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/주간업무계획표_개발.xlsx
+++ b/주간업무계획표_개발.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihoan/Documents/git/flowedu-documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\flowedu-documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-3135" windowWidth="51195" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="개발파트" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>주간업무계획</t>
   </si>
@@ -129,11 +129,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1)  출결관리 / 과제관리 개발예정
-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>AMS</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -152,16 +147,30 @@
 </t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">1)  출결관리 / 과제관리 개발예정
+</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) angular js 공부
+2) 부트스트랩 공부</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 출결관리 / 과제관리 UI 개발예정</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd&quot;(&quot;ddd&quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -559,6 +568,58 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,64 +639,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -941,72 +950,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF9900FF"/>
   </sheetPr>
   <dimension ref="A1:H955"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" customWidth="1"/>
-    <col min="5" max="6" width="40.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="52"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="23"/>
@@ -1016,7 +1025,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -1028,7 +1037,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="23.25" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1052,31 +1061,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="66" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="E7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="9"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -1084,9 +1093,9 @@
       <c r="G8" s="22"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="9"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1094,9 +1103,9 @@
       <c r="G9" s="22"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="57" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1109,14 +1118,14 @@
         <v>27</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1126,9 +1135,9 @@
       <c r="G11" s="22"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="9"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -1136,21 +1145,29 @@
       <c r="G12" s="22"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="22"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="31"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="9"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -1158,9 +1175,9 @@
       <c r="G14" s="22"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="9"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -1168,7 +1185,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="12.75">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1178,7 +1195,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
@@ -1190,71 +1207,71 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="23.25" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36" t="s">
+      <c r="D18" s="56"/>
+      <c r="E18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="39"/>
+      <c r="G18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="18">
         <v>2</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" ht="50.1" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" ht="6" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="24"/>
@@ -1264,7 +1281,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="12.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="24"/>
@@ -1274,7 +1291,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="12.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="24"/>
@@ -1284,7 +1301,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="12.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="24"/>
@@ -1294,7 +1311,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="12.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="24"/>
@@ -1304,7 +1321,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="12.75">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="24"/>
@@ -1314,7 +1331,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="12.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="24"/>
@@ -1324,7 +1341,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="12.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="24"/>
@@ -1334,7 +1351,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="12.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="24"/>
@@ -1344,7 +1361,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="12.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="24"/>
@@ -1354,7 +1371,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="12.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="24"/>
@@ -1364,7 +1381,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="12.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="24"/>
@@ -1374,7 +1391,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="12.75">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="24"/>
@@ -1384,7 +1401,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="24"/>
@@ -1394,7 +1411,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="12.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="24"/>
@@ -1404,7 +1421,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="12.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="24"/>
@@ -1414,7 +1431,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="12.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="24"/>
@@ -1424,7 +1441,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="12.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="24"/>
@@ -1434,7 +1451,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="12.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="24"/>
@@ -1444,7 +1461,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="24"/>
@@ -1454,7 +1471,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="12.75">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="24"/>
@@ -1464,7 +1481,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="12.75">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="24"/>
@@ -1474,7 +1491,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="12.75">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="24"/>
@@ -1484,7 +1501,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="24"/>
@@ -1494,7 +1511,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="24"/>
@@ -1504,7 +1521,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="24"/>
@@ -1514,7 +1531,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="24"/>
@@ -1524,7 +1541,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="24"/>
@@ -1534,7 +1551,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="24"/>
@@ -1544,7 +1561,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="24"/>
@@ -1554,7 +1571,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="24"/>
@@ -1564,7 +1581,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="24"/>
@@ -1574,7 +1591,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="24"/>
@@ -1584,7 +1601,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="24"/>
@@ -1594,7 +1611,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="24"/>
@@ -1604,7 +1621,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="12.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="24"/>
@@ -1614,7 +1631,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="12.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="24"/>
@@ -1624,7 +1641,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="12.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="24"/>
@@ -1634,7 +1651,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="12.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="24"/>
@@ -1644,7 +1661,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="12.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="24"/>
@@ -1654,7 +1671,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="12.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="24"/>
@@ -1664,7 +1681,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="12.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="24"/>
@@ -1674,7 +1691,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="24"/>
@@ -1684,7 +1701,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="12.75">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="24"/>
@@ -1694,7 +1711,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="12.75">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="24"/>
@@ -1704,7 +1721,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="12.75">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="24"/>
@@ -1714,7 +1731,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="12.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="24"/>
@@ -1724,7 +1741,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="12.75">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="24"/>
@@ -1734,7 +1751,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="12.75">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="24"/>
@@ -1744,7 +1761,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="12.75">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="24"/>
@@ -1754,7 +1771,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="12.75">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="24"/>
@@ -1764,7 +1781,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="12.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="24"/>
@@ -1774,7 +1791,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="12.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="24"/>
@@ -1784,7 +1801,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="12.75">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="24"/>
@@ -1794,7 +1811,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="12.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="24"/>
@@ -1804,7 +1821,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="12.75">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="24"/>
@@ -1814,7 +1831,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="12.75">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="24"/>
@@ -1824,7 +1841,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="12.75">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="24"/>
@@ -1834,7 +1851,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="12.75">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="24"/>
@@ -1844,7 +1861,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="12.75">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="24"/>
@@ -1854,7 +1871,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="12.75">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="24"/>
@@ -1864,7 +1881,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="12.75">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="24"/>
@@ -1874,7 +1891,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="12.75">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="24"/>
@@ -1884,7 +1901,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="12.75">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="24"/>
@@ -1894,7 +1911,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="12.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="24"/>
@@ -1904,7 +1921,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="12.75">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="24"/>
@@ -1914,7 +1931,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="12.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="24"/>
@@ -1924,7 +1941,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="12.75">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="24"/>
@@ -1934,7 +1951,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="12.75">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="24"/>
@@ -1944,7 +1961,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="12.75">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="24"/>
@@ -1954,7 +1971,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="12.75">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="24"/>
@@ -1964,7 +1981,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="12.75">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="24"/>
@@ -1974,7 +1991,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="12.75">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="24"/>
@@ -1984,7 +2001,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="24"/>
@@ -1994,7 +2011,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="12.75">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="24"/>
@@ -2004,7 +2021,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="12.75">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="24"/>
@@ -2014,7 +2031,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="12.75">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="24"/>
@@ -2024,7 +2041,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="12.75">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="24"/>
@@ -2034,7 +2051,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="24"/>
@@ -2044,7 +2061,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="12.75">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="24"/>
@@ -2054,7 +2071,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="12.75">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="24"/>
@@ -2064,7 +2081,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="12.75">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="24"/>
@@ -2074,7 +2091,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="12.75">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="24"/>
@@ -2084,7 +2101,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="12.75">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="24"/>
@@ -2094,7 +2111,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="12.75">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="24"/>
@@ -2104,7 +2121,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="12.75">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="24"/>
@@ -2114,7 +2131,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="12.75">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="24"/>
@@ -2124,7 +2141,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="12.75">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="24"/>
@@ -2134,7 +2151,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="12.75">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="24"/>
@@ -2144,7 +2161,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="12.75">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="24"/>
@@ -2154,7 +2171,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="12.75">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="24"/>
@@ -2164,7 +2181,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="12.75">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="24"/>
@@ -2174,7 +2191,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="12.75">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="24"/>
@@ -2184,7 +2201,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="12.75">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="24"/>
@@ -2194,7 +2211,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="12.75">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="24"/>
@@ -2204,7 +2221,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="12.75">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="24"/>
@@ -2214,7 +2231,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="12.75">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="24"/>
@@ -2224,7 +2241,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="12.75">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="24"/>
@@ -2234,7 +2251,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="12.75">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="24"/>
@@ -2244,7 +2261,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="12.75">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="24"/>
@@ -2254,7 +2271,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="12.75">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="24"/>
@@ -2264,7 +2281,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="12.75">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="24"/>
@@ -2274,7 +2291,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="12.75">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="24"/>
@@ -2284,7 +2301,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="12.75">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="24"/>
@@ -2294,7 +2311,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="12.75">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="24"/>
@@ -2304,7 +2321,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="12.75">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="24"/>
@@ -2314,7 +2331,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="12.75">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="24"/>
@@ -2324,7 +2341,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="12.75">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="24"/>
@@ -2334,7 +2351,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="12.75">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="24"/>
@@ -2344,7 +2361,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="12.75">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="24"/>
@@ -2354,7 +2371,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="12.75">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="24"/>
@@ -2364,7 +2381,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="12.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="24"/>
@@ -2374,7 +2391,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="12.75">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="24"/>
@@ -2384,7 +2401,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="12.75">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="24"/>
@@ -2394,7 +2411,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="12.75">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="24"/>
@@ -2404,7 +2421,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="12.75">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="24"/>
@@ -2414,7 +2431,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="12.75">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="24"/>
@@ -2424,7 +2441,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="12.75">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="24"/>
@@ -2434,7 +2451,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="12.75">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="24"/>
@@ -2444,7 +2461,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="12.75">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="24"/>
@@ -2454,7 +2471,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="12.75">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="24"/>
@@ -2464,7 +2481,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="12.75">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="24"/>
@@ -2474,7 +2491,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="12.75">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="24"/>
@@ -2484,7 +2501,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="12.75">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="24"/>
@@ -2494,7 +2511,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="12.75">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="24"/>
@@ -2504,7 +2521,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="12.75">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="24"/>
@@ -2514,7 +2531,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="12.75">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="24"/>
@@ -2524,7 +2541,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="12.75">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="24"/>
@@ -2534,7 +2551,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="12.75">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="24"/>
@@ -2544,7 +2561,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="12.75">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="24"/>
@@ -2554,7 +2571,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="12.75">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="24"/>
@@ -2564,7 +2581,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="12.75">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="24"/>
@@ -2574,7 +2591,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="12.75">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="24"/>
@@ -2584,7 +2601,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="12.75">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="24"/>
@@ -2594,7 +2611,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="12.75">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="24"/>
@@ -2604,7 +2621,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="12.75">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="24"/>
@@ -2614,7 +2631,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="12.75">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="24"/>
@@ -2624,7 +2641,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="12.75">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="24"/>
@@ -2634,7 +2651,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="12.75">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="24"/>
@@ -2644,7 +2661,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="12.75">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="24"/>
@@ -2654,7 +2671,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="12.75">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="24"/>
@@ -2664,7 +2681,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="12.75">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="24"/>
@@ -2674,7 +2691,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="12.75">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="24"/>
@@ -2684,7 +2701,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="12.75">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="24"/>
@@ -2694,7 +2711,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="12.75">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="24"/>
@@ -2704,7 +2721,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="12.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="24"/>
@@ -2714,7 +2731,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="12.75">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="24"/>
@@ -2724,7 +2741,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="12.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="24"/>
@@ -2734,7 +2751,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="12.75">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="24"/>
@@ -2744,7 +2761,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="12.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="24"/>
@@ -2754,7 +2771,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="12.75">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="24"/>
@@ -2764,7 +2781,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="12.75">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="24"/>
@@ -2774,7 +2791,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="12.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="24"/>
@@ -2784,7 +2801,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="12.75">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="24"/>
@@ -2794,7 +2811,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="12.75">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="24"/>
@@ -2804,7 +2821,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="12.75">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="24"/>
@@ -2814,7 +2831,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="12.75">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="24"/>
@@ -2824,7 +2841,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="12.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="24"/>
@@ -2834,7 +2851,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="12.75">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="24"/>
@@ -2844,7 +2861,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="12.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="24"/>
@@ -2854,7 +2871,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="12.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="24"/>
@@ -2864,7 +2881,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="12.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="24"/>
@@ -2874,7 +2891,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="12.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="24"/>
@@ -2884,7 +2901,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="12.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="24"/>
@@ -2894,7 +2911,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="12.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="24"/>
@@ -2904,7 +2921,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="12.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="24"/>
@@ -2914,7 +2931,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="12.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="24"/>
@@ -2924,7 +2941,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="12.75">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="24"/>
@@ -2934,7 +2951,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="12.75">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="24"/>
@@ -2944,7 +2961,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="12.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="24"/>
@@ -2954,7 +2971,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="12.75">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="24"/>
@@ -2964,7 +2981,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="12.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="24"/>
@@ -2974,7 +2991,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="12.75">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="24"/>
@@ -2984,7 +3001,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="12.75">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="24"/>
@@ -2994,7 +3011,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="12.75">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="24"/>
@@ -3004,7 +3021,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="12.75">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="24"/>
@@ -3014,7 +3031,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="12.75">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="24"/>
@@ -3024,7 +3041,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="12.75">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="24"/>
@@ -3034,7 +3051,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="12.75">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="24"/>
@@ -3044,7 +3061,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="12.75">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="24"/>
@@ -3054,7 +3071,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="12.75">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="24"/>
@@ -3064,7 +3081,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="12.75">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="24"/>
@@ -3074,7 +3091,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="12.75">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="24"/>
@@ -3084,7 +3101,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="12.75">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="24"/>
@@ -3094,7 +3111,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="12.75">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="24"/>
@@ -3104,7 +3121,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="12.75">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="24"/>
@@ -3114,7 +3131,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="12.75">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="24"/>
@@ -3124,7 +3141,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="12.75">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="24"/>
@@ -3134,7 +3151,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="12.75">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="24"/>
@@ -3144,7 +3161,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="12.75">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="24"/>
@@ -3154,7 +3171,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="12.75">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="24"/>
@@ -3164,7 +3181,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="12.75">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="24"/>
@@ -3174,7 +3191,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="12.75">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="24"/>
@@ -3184,7 +3201,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="12.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="24"/>
@@ -3194,7 +3211,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="12.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="24"/>
@@ -3204,7 +3221,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="12.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="24"/>
@@ -3214,7 +3231,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="12.75">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="24"/>
@@ -3224,7 +3241,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="12.75">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="24"/>
@@ -3234,7 +3251,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="12.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="24"/>
@@ -3244,7 +3261,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="12.75">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="24"/>
@@ -3254,7 +3271,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="12.75">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="24"/>
@@ -3264,7 +3281,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="12.75">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="24"/>
@@ -3274,7 +3291,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="12.75">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="24"/>
@@ -3284,7 +3301,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="12.75">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="24"/>
@@ -3294,7 +3311,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="12.75">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="24"/>
@@ -3304,7 +3321,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="12.75">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="24"/>
@@ -3314,7 +3331,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="12.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="24"/>
@@ -3324,7 +3341,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="12.75">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="24"/>
@@ -3334,7 +3351,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="12.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="24"/>
@@ -3344,7 +3361,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="12.75">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="24"/>
@@ -3354,7 +3371,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="12.75">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="24"/>
@@ -3364,7 +3381,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="12.75">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="24"/>
@@ -3374,7 +3391,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="12.75">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="24"/>
@@ -3384,7 +3401,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="12.75">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="24"/>
@@ -3394,7 +3411,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="12.75">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="24"/>
@@ -3404,7 +3421,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="12.75">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="24"/>
@@ -3414,7 +3431,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="12.75">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="24"/>
@@ -3424,7 +3441,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="12.75">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="24"/>
@@ -3434,7 +3451,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="12.75">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="24"/>
@@ -3444,7 +3461,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="12.75">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="24"/>
@@ -3454,7 +3471,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="12.75">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="24"/>
@@ -3464,7 +3481,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="12.75">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="24"/>
@@ -3474,7 +3491,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="12.75">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="24"/>
@@ -3484,7 +3501,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="12.75">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="24"/>
@@ -3494,7 +3511,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="12.75">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="24"/>
@@ -3504,7 +3521,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="12.75">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="24"/>
@@ -3514,7 +3531,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="12.75">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="24"/>
@@ -3524,7 +3541,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="12.75">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="24"/>
@@ -3534,7 +3551,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="12.75">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="24"/>
@@ -3544,7 +3561,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="12.75">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="24"/>
@@ -3554,7 +3571,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="12.75">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="24"/>
@@ -3564,7 +3581,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="12.75">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="24"/>
@@ -3574,7 +3591,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="12.75">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="24"/>
@@ -3584,7 +3601,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="12.75">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="24"/>
@@ -3594,7 +3611,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="12.75">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="24"/>
@@ -3604,7 +3621,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="12.75">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="24"/>
@@ -3614,7 +3631,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="12.75">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="24"/>
@@ -3624,7 +3641,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="12.75">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="24"/>
@@ -3634,7 +3651,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="12.75">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="24"/>
@@ -3644,7 +3661,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="12.75">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="24"/>
@@ -3654,7 +3671,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="12.75">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="24"/>
@@ -3664,7 +3681,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="12.75">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="24"/>
@@ -3674,7 +3691,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="12.75">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="24"/>
@@ -3684,7 +3701,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="12.75">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="24"/>
@@ -3694,7 +3711,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="12.75">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="24"/>
@@ -3704,7 +3721,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="12.75">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="24"/>
@@ -3714,7 +3731,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="12.75">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="24"/>
@@ -3724,7 +3741,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="12.75">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="24"/>
@@ -3734,7 +3751,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="12.75">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="24"/>
@@ -3744,7 +3761,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="12.75">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="24"/>
@@ -3754,7 +3771,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="12.75">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="24"/>
@@ -3764,7 +3781,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="12.75">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="24"/>
@@ -3774,7 +3791,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="12.75">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="24"/>
@@ -3784,7 +3801,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="12.75">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="24"/>
@@ -3794,7 +3811,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="12.75">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="24"/>
@@ -3804,7 +3821,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="12.75">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="24"/>
@@ -3814,7 +3831,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="12.75">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="24"/>
@@ -3824,7 +3841,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="12.75">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="24"/>
@@ -3834,7 +3851,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="12.75">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="24"/>
@@ -3844,7 +3861,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="12.75">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="24"/>
@@ -3854,7 +3871,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="12.75">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="24"/>
@@ -3864,7 +3881,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="12.75">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="24"/>
@@ -3874,7 +3891,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="12.75">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="24"/>
@@ -3884,7 +3901,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="12.75">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="24"/>
@@ -3894,7 +3911,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="12.75">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="24"/>
@@ -3904,7 +3921,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="12.75">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="24"/>
@@ -3914,7 +3931,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="12.75">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="24"/>
@@ -3924,7 +3941,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="12.75">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="24"/>
@@ -3934,7 +3951,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="12.75">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="24"/>
@@ -3944,7 +3961,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="12.75">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="24"/>
@@ -3954,7 +3971,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="12.75">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="24"/>
@@ -3964,7 +3981,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="12.75">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="24"/>
@@ -3974,7 +3991,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="12.75">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="24"/>
@@ -3984,7 +4001,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="12.75">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="24"/>
@@ -3994,7 +4011,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="12.75">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="24"/>
@@ -4004,7 +4021,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="12.75">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="24"/>
@@ -4014,7 +4031,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="12.75">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="24"/>
@@ -4024,7 +4041,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="12.75">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="24"/>
@@ -4034,7 +4051,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="12.75">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="24"/>
@@ -4044,7 +4061,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="12.75">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="24"/>
@@ -4054,7 +4071,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="12.75">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="24"/>
@@ -4064,7 +4081,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="12.75">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="24"/>
@@ -4074,7 +4091,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="12.75">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="24"/>
@@ -4084,7 +4101,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="12.75">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="24"/>
@@ -4094,7 +4111,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="12.75">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="24"/>
@@ -4104,7 +4121,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="12.75">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="24"/>
@@ -4114,7 +4131,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="12.75">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="24"/>
@@ -4124,7 +4141,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="12.75">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="24"/>
@@ -4134,7 +4151,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="12.75">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="24"/>
@@ -4144,7 +4161,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="12.75">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="24"/>
@@ -4154,7 +4171,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="12.75">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="24"/>
@@ -4164,7 +4181,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="12.75">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="24"/>
@@ -4174,7 +4191,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="12.75">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="24"/>
@@ -4184,7 +4201,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="12.75">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="24"/>
@@ -4194,7 +4211,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="12.75">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="24"/>
@@ -4204,7 +4221,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="12.75">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="24"/>
@@ -4214,7 +4231,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="12.75">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="24"/>
@@ -4224,7 +4241,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="12.75">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="24"/>
@@ -4234,7 +4251,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="12.75">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="24"/>
@@ -4244,7 +4261,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="12.75">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="24"/>
@@ -4254,7 +4271,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="12.75">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="24"/>
@@ -4264,7 +4281,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="12.75">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="24"/>
@@ -4274,7 +4291,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="12.75">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="24"/>
@@ -4284,7 +4301,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="12.75">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="24"/>
@@ -4294,7 +4311,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="12.75">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="24"/>
@@ -4304,7 +4321,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="12.75">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="24"/>
@@ -4314,7 +4331,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="12.75">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="24"/>
@@ -4324,7 +4341,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="12.75">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="24"/>
@@ -4334,7 +4351,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="12.75">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="24"/>
@@ -4344,7 +4361,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="12.75">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="24"/>
@@ -4354,7 +4371,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="12.75">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="24"/>
@@ -4364,7 +4381,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="12.75">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="24"/>
@@ -4374,7 +4391,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="12.75">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="24"/>
@@ -4384,7 +4401,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="12.75">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="24"/>
@@ -4394,7 +4411,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="12.75">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="24"/>
@@ -4404,7 +4421,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="12.75">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="24"/>
@@ -4414,7 +4431,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="12.75">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="24"/>
@@ -4424,7 +4441,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="12.75">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="24"/>
@@ -4434,7 +4451,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="12.75">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="24"/>
@@ -4444,7 +4461,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" ht="12.75">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="24"/>
@@ -4454,7 +4471,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" ht="12.75">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="24"/>
@@ -4464,7 +4481,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" ht="12.75">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="24"/>
@@ -4474,7 +4491,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" ht="12.75">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="24"/>
@@ -4484,7 +4501,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="12.75">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="24"/>
@@ -4494,7 +4511,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" ht="12.75">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="24"/>
@@ -4504,7 +4521,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="12.75">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="24"/>
@@ -4514,7 +4531,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" ht="12.75">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="24"/>
@@ -4524,7 +4541,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="12.75">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="24"/>
@@ -4534,7 +4551,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" ht="12.75">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="24"/>
@@ -4544,7 +4561,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" ht="12.75">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="24"/>
@@ -4554,7 +4571,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" ht="12.75">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="24"/>
@@ -4564,7 +4581,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" ht="12.75">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="24"/>
@@ -4574,7 +4591,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="12.75">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="24"/>
@@ -4584,7 +4601,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" ht="12.75">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="24"/>
@@ -4594,7 +4611,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" ht="12.75">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="24"/>
@@ -4604,7 +4621,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="12.75">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="24"/>
@@ -4614,7 +4631,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" ht="12.75">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="24"/>
@@ -4624,7 +4641,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="12.75">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="24"/>
@@ -4634,7 +4651,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" ht="12.75">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="24"/>
@@ -4644,7 +4661,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" ht="12.75">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="24"/>
@@ -4654,7 +4671,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="12.75">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="24"/>
@@ -4664,7 +4681,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" ht="12.75">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="24"/>
@@ -4674,7 +4691,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="12.75">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="24"/>
@@ -4684,7 +4701,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" ht="12.75">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="24"/>
@@ -4694,7 +4711,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="12.75">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="24"/>
@@ -4704,7 +4721,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="12.75">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="24"/>
@@ -4714,7 +4731,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="12.75">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="24"/>
@@ -4724,7 +4741,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="12.75">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="24"/>
@@ -4734,7 +4751,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" ht="12.75">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="24"/>
@@ -4744,7 +4761,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="12.75">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="24"/>
@@ -4754,7 +4771,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="12.75">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="24"/>
@@ -4764,7 +4781,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" ht="12.75">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="24"/>
@@ -4774,7 +4791,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" ht="12.75">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="24"/>
@@ -4784,7 +4801,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" ht="12.75">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="24"/>
@@ -4794,7 +4811,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" ht="12.75">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="24"/>
@@ -4804,7 +4821,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" ht="12.75">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="24"/>
@@ -4814,7 +4831,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" ht="12.75">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="24"/>
@@ -4824,7 +4841,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" ht="12.75">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="24"/>
@@ -4834,7 +4851,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" ht="12.75">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="24"/>
@@ -4844,7 +4861,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" ht="12.75">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="24"/>
@@ -4854,7 +4871,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" ht="12.75">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="24"/>
@@ -4864,7 +4881,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" ht="12.75">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="24"/>
@@ -4874,7 +4891,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" ht="12.75">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="24"/>
@@ -4884,7 +4901,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" ht="12.75">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="24"/>
@@ -4894,7 +4911,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" ht="12.75">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="24"/>
@@ -4904,7 +4921,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" ht="12.75">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="24"/>
@@ -4914,7 +4931,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="12.75">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="24"/>
@@ -4924,7 +4941,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" ht="12.75">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="24"/>
@@ -4934,7 +4951,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" ht="12.75">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="24"/>
@@ -4944,7 +4961,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" ht="12.75">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="24"/>
@@ -4954,7 +4971,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" ht="12.75">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="24"/>
@@ -4964,7 +4981,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" ht="12.75">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="24"/>
@@ -4974,7 +4991,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" ht="12.75">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="24"/>
@@ -4984,7 +5001,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" ht="12.75">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="24"/>
@@ -4994,7 +5011,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" ht="12.75">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="24"/>
@@ -5004,7 +5021,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" ht="12.75">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="24"/>
@@ -5014,7 +5031,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" ht="12.75">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="24"/>
@@ -5024,7 +5041,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="12.75">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="24"/>
@@ -5034,7 +5051,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="12.75">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="24"/>
@@ -5044,7 +5061,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" ht="12.75">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="24"/>
@@ -5054,7 +5071,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" ht="12.75">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="24"/>
@@ -5064,7 +5081,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" ht="12.75">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="24"/>
@@ -5074,7 +5091,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" ht="12.75">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="24"/>
@@ -5084,7 +5101,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="12.75">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="24"/>
@@ -5094,7 +5111,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" ht="12.75">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="24"/>
@@ -5104,7 +5121,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" ht="12.75">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="24"/>
@@ -5114,7 +5131,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" ht="12.75">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="24"/>
@@ -5124,7 +5141,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" ht="12.75">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="24"/>
@@ -5134,7 +5151,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" ht="12.75">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="24"/>
@@ -5144,7 +5161,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" ht="12.75">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="24"/>
@@ -5154,7 +5171,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" ht="12.75">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="24"/>
@@ -5164,7 +5181,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" ht="12.75">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="24"/>
@@ -5174,7 +5191,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" ht="12.75">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="24"/>
@@ -5184,7 +5201,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" ht="12.75">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="24"/>
@@ -5194,7 +5211,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" ht="12.75">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="24"/>
@@ -5204,7 +5221,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" ht="12.75">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="24"/>
@@ -5214,7 +5231,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" ht="12.75">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="24"/>
@@ -5224,7 +5241,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" ht="12.75">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="24"/>
@@ -5234,7 +5251,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" ht="12.75">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="24"/>
@@ -5244,7 +5261,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" ht="12.75">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="24"/>
@@ -5254,7 +5271,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" ht="12.75">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="24"/>
@@ -5264,7 +5281,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" ht="12.75">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="24"/>
@@ -5274,7 +5291,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" ht="12.75">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="24"/>
@@ -5284,7 +5301,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" ht="12.75">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="24"/>
@@ -5294,7 +5311,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" ht="12.75">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="24"/>
@@ -5304,7 +5321,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" ht="12.75">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="24"/>
@@ -5314,7 +5331,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" ht="12.75">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="24"/>
@@ -5324,7 +5341,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" ht="12.75">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="24"/>
@@ -5334,7 +5351,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" ht="12.75">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="24"/>
@@ -5344,7 +5361,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" ht="12.75">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="24"/>
@@ -5354,7 +5371,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" ht="12.75">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="24"/>
@@ -5364,7 +5381,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" ht="12.75">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="24"/>
@@ -5374,7 +5391,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" ht="12.75">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="24"/>
@@ -5384,7 +5401,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" ht="12.75">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="24"/>
@@ -5394,7 +5411,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" ht="12.75">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="24"/>
@@ -5404,7 +5421,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" ht="12.75">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="24"/>
@@ -5414,7 +5431,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" ht="12.75">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="24"/>
@@ -5424,7 +5441,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" ht="12.75">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="24"/>
@@ -5434,7 +5451,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" ht="12.75">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="24"/>
@@ -5444,7 +5461,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" ht="12.75">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="24"/>
@@ -5454,7 +5471,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" ht="12.75">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="24"/>
@@ -5464,7 +5481,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" ht="12.75">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="24"/>
@@ -5474,7 +5491,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" ht="12.75">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="24"/>
@@ -5484,7 +5501,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" ht="12.75">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="24"/>
@@ -5494,7 +5511,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" ht="12.75">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="24"/>
@@ -5504,7 +5521,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" ht="12.75">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="24"/>
@@ -5514,7 +5531,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" ht="12.75">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="24"/>
@@ -5524,7 +5541,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" ht="12.75">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="24"/>
@@ -5534,7 +5551,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" ht="12.75">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="24"/>
@@ -5544,7 +5561,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" ht="12.75">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="24"/>
@@ -5554,7 +5571,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" ht="12.75">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="24"/>
@@ -5564,7 +5581,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" ht="12.75">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="24"/>
@@ -5574,7 +5591,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" ht="12.75">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="24"/>
@@ -5584,7 +5601,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" ht="12.75">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="24"/>
@@ -5594,7 +5611,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" ht="12.75">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="24"/>
@@ -5604,7 +5621,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" ht="12.75">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="24"/>
@@ -5614,7 +5631,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" ht="12.75">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="24"/>
@@ -5624,7 +5641,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" ht="12.75">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="24"/>
@@ -5634,7 +5651,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" ht="12.75">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="24"/>
@@ -5644,7 +5661,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" ht="12.75">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="24"/>
@@ -5654,7 +5671,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" ht="12.75">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="24"/>
@@ -5664,7 +5681,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" ht="12.75">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="24"/>
@@ -5674,7 +5691,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" ht="12.75">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="24"/>
@@ -5684,7 +5701,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" ht="12.75">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="24"/>
@@ -5694,7 +5711,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" ht="12.75">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="24"/>
@@ -5704,7 +5721,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" ht="12.75">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="24"/>
@@ -5714,7 +5731,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" ht="12.75">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="24"/>
@@ -5724,7 +5741,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" ht="12.75">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="24"/>
@@ -5734,7 +5751,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" ht="12.75">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="24"/>
@@ -5744,7 +5761,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" ht="12.75">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="24"/>
@@ -5754,7 +5771,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" ht="12.75">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="24"/>
@@ -5764,7 +5781,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" ht="12.75">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="24"/>
@@ -5774,7 +5791,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" ht="12.75">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="24"/>
@@ -5784,7 +5801,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" ht="12.75">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="24"/>
@@ -5794,7 +5811,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" ht="12.75">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="24"/>
@@ -5804,7 +5821,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" ht="12.75">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="24"/>
@@ -5814,7 +5831,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" ht="12.75">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="24"/>
@@ -5824,7 +5841,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" ht="12.75">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="24"/>
@@ -5834,7 +5851,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" ht="12.75">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="24"/>
@@ -5844,7 +5861,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" ht="12.75">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="24"/>
@@ -5854,7 +5871,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" ht="12.75">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="24"/>
@@ -5864,7 +5881,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" ht="12.75">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="24"/>
@@ -5874,7 +5891,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" ht="12.75">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="24"/>
@@ -5884,7 +5901,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" ht="12.75">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="24"/>
@@ -5894,7 +5911,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" ht="12.75">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="24"/>
@@ -5904,7 +5921,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" ht="12.75">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="24"/>
@@ -5914,7 +5931,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" ht="12.75">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="24"/>
@@ -5924,7 +5941,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" ht="12.75">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="24"/>
@@ -5934,7 +5951,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" ht="12.75">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="24"/>
@@ -5944,7 +5961,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" ht="12.75">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="24"/>
@@ -5954,7 +5971,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" ht="12.75">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="24"/>
@@ -5964,7 +5981,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" ht="12.75">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="24"/>
@@ -5974,7 +5991,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" ht="12.75">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="24"/>
@@ -5984,7 +6001,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" ht="12.75">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="24"/>
@@ -5994,7 +6011,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" ht="12.75">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="24"/>
@@ -6004,7 +6021,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" ht="12.75">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="24"/>
@@ -6014,7 +6031,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" ht="12.75">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="24"/>
@@ -6024,7 +6041,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" ht="12.75">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="24"/>
@@ -6034,7 +6051,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" ht="12.75">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="24"/>
@@ -6044,7 +6061,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" ht="12.75">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="24"/>
@@ -6054,7 +6071,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" ht="12.75">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="24"/>
@@ -6064,7 +6081,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" ht="12.75">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="24"/>
@@ -6074,7 +6091,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" ht="12.75">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="24"/>
@@ -6084,7 +6101,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" ht="12.75">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="24"/>
@@ -6094,7 +6111,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" ht="12.75">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="24"/>
@@ -6104,7 +6121,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" ht="12.75">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="24"/>
@@ -6114,7 +6131,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" ht="12.75">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="24"/>
@@ -6124,7 +6141,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" ht="12.75">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="24"/>
@@ -6134,7 +6151,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" ht="12.75">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="24"/>
@@ -6144,7 +6161,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" ht="12.75">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="24"/>
@@ -6154,7 +6171,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" ht="12.75">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="24"/>
@@ -6164,7 +6181,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" ht="12.75">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="24"/>
@@ -6174,7 +6191,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" ht="12.75">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="24"/>
@@ -6184,7 +6201,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" ht="12.75">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="24"/>
@@ -6194,7 +6211,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" ht="12.75">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="24"/>
@@ -6204,7 +6221,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" ht="12.75">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="24"/>
@@ -6214,7 +6231,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" ht="12.75">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="24"/>
@@ -6224,7 +6241,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" ht="12.75">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="24"/>
@@ -6234,7 +6251,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" ht="12.75">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="24"/>
@@ -6244,7 +6261,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" ht="12.75">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="24"/>
@@ -6254,7 +6271,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" ht="12.75">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="24"/>
@@ -6264,7 +6281,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" ht="12.75">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="24"/>
@@ -6274,7 +6291,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" ht="12.75">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="24"/>
@@ -6284,7 +6301,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" ht="12.75">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="24"/>
@@ -6294,7 +6311,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" ht="12.75">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="24"/>
@@ -6304,7 +6321,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" ht="12.75">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="24"/>
@@ -6314,7 +6331,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" ht="12.75">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="24"/>
@@ -6324,7 +6341,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" ht="12.75">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="24"/>
@@ -6334,7 +6351,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" ht="12.75">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="24"/>
@@ -6344,7 +6361,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" ht="12.75">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="24"/>
@@ -6354,7 +6371,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" ht="12.75">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="24"/>
@@ -6364,7 +6381,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" ht="12.75">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="24"/>
@@ -6374,7 +6391,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" ht="12.75">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="24"/>
@@ -6384,7 +6401,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" ht="12.75">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="24"/>
@@ -6394,7 +6411,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" ht="12.75">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="24"/>
@@ -6404,7 +6421,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" ht="12.75">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="24"/>
@@ -6414,7 +6431,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" ht="12.75">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="24"/>
@@ -6424,7 +6441,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" ht="12.75">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="24"/>
@@ -6434,7 +6451,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" ht="12.75">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="24"/>
@@ -6444,7 +6461,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" ht="12.75">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="24"/>
@@ -6454,7 +6471,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" ht="12.75">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="24"/>
@@ -6464,7 +6481,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" ht="12.75">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="24"/>
@@ -6474,7 +6491,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" ht="12.75">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="24"/>
@@ -6484,7 +6501,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" ht="12.75">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="24"/>
@@ -6494,7 +6511,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" ht="12.75">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="24"/>
@@ -6504,7 +6521,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" ht="12.75">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="24"/>
@@ -6514,7 +6531,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" ht="12.75">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="24"/>
@@ -6524,7 +6541,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" ht="12.75">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="24"/>
@@ -6534,7 +6551,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" ht="12.75">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="24"/>
@@ -6544,7 +6561,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" ht="12.75">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="24"/>
@@ -6554,7 +6571,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" ht="12.75">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="24"/>
@@ -6564,7 +6581,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" ht="12.75">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="24"/>
@@ -6574,7 +6591,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" ht="12.75">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="24"/>
@@ -6584,7 +6601,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" ht="12.75">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="24"/>
@@ -6594,7 +6611,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" ht="12.75">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="24"/>
@@ -6604,7 +6621,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" ht="12.75">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="24"/>
@@ -6614,7 +6631,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" ht="12.75">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="24"/>
@@ -6624,7 +6641,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" ht="12.75">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="24"/>
@@ -6634,7 +6651,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" ht="12.75">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="24"/>
@@ -6644,7 +6661,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" ht="12.75">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="24"/>
@@ -6654,7 +6671,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" ht="12.75">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="24"/>
@@ -6664,7 +6681,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" ht="12.75">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="24"/>
@@ -6674,7 +6691,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" ht="12.75">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="24"/>
@@ -6684,7 +6701,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" ht="12.75">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="24"/>
@@ -6694,7 +6711,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" ht="12.75">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="24"/>
@@ -6704,7 +6721,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" ht="12.75">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="24"/>
@@ -6714,7 +6731,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" ht="12.75">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="24"/>
@@ -6724,7 +6741,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" ht="12.75">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="24"/>
@@ -6734,7 +6751,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" ht="12.75">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="24"/>
@@ -6744,7 +6761,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" ht="12.75">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="24"/>
@@ -6754,7 +6771,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" ht="12.75">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="24"/>
@@ -6764,7 +6781,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" ht="12.75">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="24"/>
@@ -6774,7 +6791,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" ht="12.75">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="24"/>
@@ -6784,7 +6801,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" ht="12.75">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="24"/>
@@ -6794,7 +6811,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" ht="12.75">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="24"/>
@@ -6804,7 +6821,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" ht="12.75">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="24"/>
@@ -6814,7 +6831,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" ht="12.75">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="24"/>
@@ -6824,7 +6841,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" ht="12.75">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="24"/>
@@ -6834,7 +6851,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" ht="12.75">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="24"/>
@@ -6844,7 +6861,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" ht="12.75">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="24"/>
@@ -6854,7 +6871,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" ht="12.75">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="24"/>
@@ -6864,7 +6881,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" ht="12.75">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="24"/>
@@ -6874,7 +6891,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" ht="12.75">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="24"/>
@@ -6884,7 +6901,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" ht="12.75">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="24"/>
@@ -6894,7 +6911,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" ht="12.75">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="24"/>
@@ -6904,7 +6921,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" ht="12.75">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="24"/>
@@ -6914,7 +6931,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:8" ht="12.75">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="24"/>
@@ -6924,7 +6941,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8" ht="12.75">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="24"/>
@@ -6934,7 +6951,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" ht="12.75">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="24"/>
@@ -6944,7 +6961,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" ht="12.75">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="24"/>
@@ -6954,7 +6971,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" ht="12.75">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="24"/>
@@ -6964,7 +6981,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" ht="12.75">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="24"/>
@@ -6974,7 +6991,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" ht="12.75">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="24"/>
@@ -6984,7 +7001,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" ht="12.75">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="24"/>
@@ -6994,7 +7011,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" ht="12.75">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="24"/>
@@ -7004,7 +7021,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" ht="12.75">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="24"/>
@@ -7014,7 +7031,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" ht="12.75">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="24"/>
@@ -7024,7 +7041,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" ht="12.75">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="24"/>
@@ -7034,7 +7051,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" ht="12.75">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="24"/>
@@ -7044,7 +7061,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" ht="12.75">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="24"/>
@@ -7054,7 +7071,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" ht="12.75">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="24"/>
@@ -7064,7 +7081,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" ht="12.75">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="24"/>
@@ -7074,7 +7091,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" ht="12.75">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="24"/>
@@ -7084,7 +7101,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" ht="12.75">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="24"/>
@@ -7094,7 +7111,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" ht="12.75">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="24"/>
@@ -7104,7 +7121,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:8" ht="12.75">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="24"/>
@@ -7114,7 +7131,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" ht="12.75">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="24"/>
@@ -7124,7 +7141,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" ht="12.75">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="24"/>
@@ -7134,7 +7151,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" ht="12.75">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="24"/>
@@ -7144,7 +7161,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" ht="12.75">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="24"/>
@@ -7154,7 +7171,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" ht="12.75">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="24"/>
@@ -7164,7 +7181,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" ht="12.75">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="24"/>
@@ -7174,7 +7191,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" ht="12.75">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="24"/>
@@ -7184,7 +7201,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" ht="12.75">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="24"/>
@@ -7194,7 +7211,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" ht="12.75">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="24"/>
@@ -7204,7 +7221,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" ht="12.75">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="24"/>
@@ -7214,7 +7231,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" ht="12.75">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="24"/>
@@ -7224,7 +7241,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" ht="12.75">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="24"/>
@@ -7234,7 +7251,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" ht="12.75">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="24"/>
@@ -7244,7 +7261,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" ht="12.75">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="24"/>
@@ -7254,7 +7271,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" ht="12.75">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="24"/>
@@ -7264,7 +7281,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" ht="12.75">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="24"/>
@@ -7274,7 +7291,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:8" ht="12.75">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="24"/>
@@ -7284,7 +7301,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" ht="12.75">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="24"/>
@@ -7294,7 +7311,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" ht="12.75">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="24"/>
@@ -7304,7 +7321,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" ht="12.75">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="24"/>
@@ -7314,7 +7331,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" ht="12.75">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="24"/>
@@ -7324,7 +7341,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" ht="12.75">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="24"/>
@@ -7334,7 +7351,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" ht="12.75">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="24"/>
@@ -7344,7 +7361,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" ht="12.75">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="24"/>
@@ -7354,7 +7371,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" ht="12.75">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="24"/>
@@ -7364,7 +7381,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" ht="12.75">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="24"/>
@@ -7374,7 +7391,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" ht="12.75">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="24"/>
@@ -7384,7 +7401,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" ht="12.75">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="24"/>
@@ -7394,7 +7411,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" ht="12.75">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="24"/>
@@ -7404,7 +7421,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" ht="12.75">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="24"/>
@@ -7414,7 +7431,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:8" ht="12.75">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="24"/>
@@ -7424,7 +7441,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" ht="12.75">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="24"/>
@@ -7434,7 +7451,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" ht="12.75">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="24"/>
@@ -7444,7 +7461,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:8" ht="12.75">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="24"/>
@@ -7454,7 +7471,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8" ht="12.75">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="24"/>
@@ -7464,7 +7481,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8" ht="12.75">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="24"/>
@@ -7474,7 +7491,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" ht="12.75">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="24"/>
@@ -7484,7 +7501,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8" ht="12.75">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="24"/>
@@ -7494,7 +7511,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8" ht="12.75">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="24"/>
@@ -7504,7 +7521,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:8" ht="12.75">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="24"/>
@@ -7514,7 +7531,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8" ht="12.75">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="24"/>
@@ -7524,7 +7541,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:8" ht="12.75">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="24"/>
@@ -7534,7 +7551,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:8" ht="12.75">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="24"/>
@@ -7544,7 +7561,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" ht="12.75">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="24"/>
@@ -7554,7 +7571,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" ht="12.75">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="24"/>
@@ -7564,7 +7581,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" ht="12.75">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="24"/>
@@ -7574,7 +7591,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" ht="12.75">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="24"/>
@@ -7584,7 +7601,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" ht="12.75">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="24"/>
@@ -7594,7 +7611,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" ht="12.75">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="24"/>
@@ -7604,7 +7621,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" ht="12.75">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="24"/>
@@ -7614,7 +7631,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" ht="12.75">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="24"/>
@@ -7624,7 +7641,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" ht="12.75">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="24"/>
@@ -7634,7 +7651,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" ht="12.75">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="24"/>
@@ -7644,7 +7661,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8" ht="12.75">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="24"/>
@@ -7654,7 +7671,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" ht="12.75">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="24"/>
@@ -7664,7 +7681,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8" ht="12.75">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="24"/>
@@ -7674,7 +7691,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8" ht="12.75">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="24"/>
@@ -7684,7 +7701,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" ht="12.75">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="24"/>
@@ -7694,7 +7711,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" ht="12.75">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="24"/>
@@ -7704,7 +7721,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" ht="12.75">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="24"/>
@@ -7714,7 +7731,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" ht="12.75">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="24"/>
@@ -7724,7 +7741,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8" ht="12.75">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="24"/>
@@ -7734,7 +7751,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" ht="12.75">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="24"/>
@@ -7744,7 +7761,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" ht="12.75">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="24"/>
@@ -7754,7 +7771,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" ht="12.75">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="24"/>
@@ -7764,7 +7781,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" ht="12.75">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="24"/>
@@ -7774,7 +7791,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" ht="12.75">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="24"/>
@@ -7784,7 +7801,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" ht="12.75">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="24"/>
@@ -7794,7 +7811,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" ht="12.75">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="24"/>
@@ -7804,7 +7821,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" ht="12.75">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="24"/>
@@ -7814,7 +7831,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" ht="12.75">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="24"/>
@@ -7824,7 +7841,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" ht="12.75">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="24"/>
@@ -7834,7 +7851,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" ht="12.75">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="24"/>
@@ -7844,7 +7861,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" ht="12.75">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="24"/>
@@ -7854,7 +7871,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" ht="12.75">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="24"/>
@@ -7864,7 +7881,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" ht="12.75">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="24"/>
@@ -7874,7 +7891,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" ht="12.75">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="24"/>
@@ -7884,7 +7901,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" ht="12.75">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="24"/>
@@ -7894,7 +7911,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" ht="12.75">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="24"/>
@@ -7904,7 +7921,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" ht="12.75">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="24"/>
@@ -7914,7 +7931,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:8" ht="12.75">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="24"/>
@@ -7924,7 +7941,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8" ht="12.75">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="24"/>
@@ -7934,7 +7951,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8" ht="12.75">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="24"/>
@@ -7944,7 +7961,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" ht="12.75">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="24"/>
@@ -7954,7 +7971,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8" ht="12.75">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="24"/>
@@ -7964,7 +7981,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" ht="12.75">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="24"/>
@@ -7974,7 +7991,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:8" ht="12.75">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="24"/>
@@ -7984,7 +8001,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8" ht="12.75">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="24"/>
@@ -7994,7 +8011,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" ht="12.75">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="24"/>
@@ -8004,7 +8021,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8" ht="12.75">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="24"/>
@@ -8014,7 +8031,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" ht="12.75">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="24"/>
@@ -8024,7 +8041,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8" ht="12.75">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="24"/>
@@ -8034,7 +8051,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8" ht="12.75">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="24"/>
@@ -8044,7 +8061,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:8" ht="12.75">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="24"/>
@@ -8054,7 +8071,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:8" ht="12.75">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="24"/>
@@ -8064,7 +8081,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:8" ht="12.75">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="24"/>
@@ -8074,7 +8091,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" ht="12.75">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="24"/>
@@ -8084,7 +8101,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" ht="12.75">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="24"/>
@@ -8094,7 +8111,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8" ht="12.75">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="24"/>
@@ -8104,7 +8121,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:8" ht="12.75">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="24"/>
@@ -8114,7 +8131,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" ht="12.75">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="24"/>
@@ -8124,7 +8141,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" ht="12.75">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="24"/>
@@ -8134,7 +8151,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:8" ht="12.75">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="24"/>
@@ -8144,7 +8161,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8" ht="12.75">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="24"/>
@@ -8154,7 +8171,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8" ht="12.75">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="24"/>
@@ -8164,7 +8181,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" ht="12.75">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="24"/>
@@ -8174,7 +8191,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8" ht="12.75">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="24"/>
@@ -8184,7 +8201,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" ht="12.75">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="24"/>
@@ -8194,7 +8211,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8" ht="12.75">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="24"/>
@@ -8204,7 +8221,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8" ht="12.75">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="24"/>
@@ -8214,7 +8231,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8" ht="12.75">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="24"/>
@@ -8224,7 +8241,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8" ht="12.75">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="24"/>
@@ -8234,7 +8251,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:8" ht="12.75">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="24"/>
@@ -8244,7 +8261,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:8" ht="12.75">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="24"/>
@@ -8254,7 +8271,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:8" ht="12.75">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="24"/>
@@ -8264,7 +8281,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:8" ht="12.75">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="24"/>
@@ -8274,7 +8291,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:8" ht="12.75">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="24"/>
@@ -8284,7 +8301,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:8" ht="12.75">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="24"/>
@@ -8294,7 +8311,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:8" ht="12.75">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="24"/>
@@ -8304,7 +8321,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:8" ht="12.75">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="24"/>
@@ -8314,7 +8331,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:8" ht="12.75">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="24"/>
@@ -8324,7 +8341,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:8" ht="12.75">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="24"/>
@@ -8334,7 +8351,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8" ht="12.75">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="24"/>
@@ -8344,7 +8361,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:8" ht="12.75">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="24"/>
@@ -8354,7 +8371,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:8" ht="12.75">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="24"/>
@@ -8364,7 +8381,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:8" ht="12.75">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="24"/>
@@ -8374,7 +8391,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:8" ht="12.75">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="24"/>
@@ -8384,7 +8401,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:8" ht="12.75">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="24"/>
@@ -8394,7 +8411,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" ht="12.75">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="24"/>
@@ -8404,7 +8421,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" ht="12.75">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="24"/>
@@ -8414,7 +8431,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" ht="12.75">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="24"/>
@@ -8424,7 +8441,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" ht="12.75">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="24"/>
@@ -8434,7 +8451,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" ht="12.75">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="24"/>
@@ -8444,7 +8461,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" ht="12.75">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="24"/>
@@ -8454,7 +8471,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" ht="12.75">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="24"/>
@@ -8464,7 +8481,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" ht="12.75">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="24"/>
@@ -8474,7 +8491,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" ht="12.75">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="24"/>
@@ -8484,7 +8501,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" ht="12.75">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="24"/>
@@ -8494,7 +8511,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" ht="12.75">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="24"/>
@@ -8504,7 +8521,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8" ht="12.75">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="24"/>
@@ -8514,7 +8531,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8" ht="12.75">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="24"/>
@@ -8524,7 +8541,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8" ht="12.75">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="24"/>
@@ -8534,7 +8551,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8" ht="12.75">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="24"/>
@@ -8544,7 +8561,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8" ht="12.75">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="24"/>
@@ -8554,7 +8571,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:8" ht="12.75">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="24"/>
@@ -8564,7 +8581,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:8" ht="12.75">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="24"/>
@@ -8574,7 +8591,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:8" ht="12.75">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="24"/>
@@ -8584,7 +8601,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:8" ht="12.75">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="24"/>
@@ -8594,7 +8611,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:8" ht="12.75">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="24"/>
@@ -8604,7 +8621,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:8" ht="12.75">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="24"/>
@@ -8614,7 +8631,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:8" ht="12.75">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="24"/>
@@ -8624,7 +8641,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:8" ht="12.75">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="24"/>
@@ -8634,7 +8651,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:8" ht="12.75">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="24"/>
@@ -8644,7 +8661,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:8" ht="12.75">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="24"/>
@@ -8654,7 +8671,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:8" ht="12.75">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="24"/>
@@ -8664,7 +8681,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:8" ht="12.75">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="24"/>
@@ -8674,7 +8691,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:8" ht="12.75">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="24"/>
@@ -8684,7 +8701,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:8" ht="12.75">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="24"/>
@@ -8694,7 +8711,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:8" ht="12.75">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="24"/>
@@ -8704,7 +8721,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:8" ht="12.75">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="24"/>
@@ -8714,7 +8731,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:8" ht="12.75">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="24"/>
@@ -8724,7 +8741,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:8" ht="12.75">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="24"/>
@@ -8734,7 +8751,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:8" ht="12.75">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="24"/>
@@ -8744,7 +8761,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:8" ht="12.75">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="24"/>
@@ -8754,7 +8771,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:8" ht="12.75">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="24"/>
@@ -8764,7 +8781,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:8" ht="12.75">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="24"/>
@@ -8774,7 +8791,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:8" ht="12.75">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="24"/>
@@ -8784,7 +8801,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:8" ht="12.75">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="24"/>
@@ -8794,7 +8811,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:8" ht="12.75">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="24"/>
@@ -8804,7 +8821,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:8" ht="12.75">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="24"/>
@@ -8814,7 +8831,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:8" ht="12.75">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="24"/>
@@ -8824,7 +8841,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:8" ht="12.75">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="24"/>
@@ -8834,7 +8851,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:8" ht="12.75">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="24"/>
@@ -8844,7 +8861,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:8" ht="12.75">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="24"/>
@@ -8854,7 +8871,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:8" ht="12.75">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="24"/>
@@ -8864,7 +8881,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:8" ht="12.75">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="24"/>
@@ -8874,7 +8891,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:8" ht="12.75">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="24"/>
@@ -8884,7 +8901,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:8" ht="12.75">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="24"/>
@@ -8894,7 +8911,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:8" ht="12.75">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="24"/>
@@ -8904,7 +8921,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:8" ht="12.75">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="24"/>
@@ -8914,7 +8931,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:8" ht="12.75">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="24"/>
@@ -8924,7 +8941,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:8" ht="12.75">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="24"/>
@@ -8934,7 +8951,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:8" ht="12.75">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="24"/>
@@ -8944,7 +8961,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:8" ht="12.75">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="24"/>
@@ -8954,7 +8971,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:8" ht="12.75">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="24"/>
@@ -8964,7 +8981,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:8" ht="12.75">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="24"/>
@@ -8974,7 +8991,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:8" ht="12.75">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="24"/>
@@ -8984,7 +9001,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:8" ht="12.75">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="24"/>
@@ -8994,7 +9011,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:8" ht="12.75">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="24"/>
@@ -9004,7 +9021,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:8" ht="12.75">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="24"/>
@@ -9014,7 +9031,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:8" ht="12.75">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="24"/>
@@ -9024,7 +9041,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:8" ht="12.75">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="24"/>
@@ -9034,7 +9051,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:8" ht="12.75">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="24"/>
@@ -9044,7 +9061,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:8" ht="12.75">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="24"/>
@@ -9054,7 +9071,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:8" ht="12.75">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="24"/>
@@ -9064,7 +9081,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:8" ht="12.75">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="24"/>
@@ -9074,7 +9091,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:8" ht="12.75">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="24"/>
@@ -9084,7 +9101,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:8" ht="12.75">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="24"/>
@@ -9094,7 +9111,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:8" ht="12.75">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="24"/>
@@ -9104,7 +9121,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:8" ht="12.75">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="24"/>
@@ -9114,7 +9131,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:8" ht="12.75">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="24"/>
@@ -9124,7 +9141,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:8" ht="12.75">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="24"/>
@@ -9134,7 +9151,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:8" ht="12.75">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="24"/>
@@ -9144,7 +9161,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:8" ht="12.75">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="24"/>
@@ -9154,7 +9171,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:8" ht="12.75">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="24"/>
@@ -9164,7 +9181,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:8" ht="12.75">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="24"/>
@@ -9174,7 +9191,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:8" ht="12.75">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="24"/>
@@ -9184,7 +9201,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:8" ht="12.75">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="24"/>
@@ -9194,7 +9211,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:8" ht="12.75">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="24"/>
@@ -9204,7 +9221,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:8" ht="12.75">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="24"/>
@@ -9214,7 +9231,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:8" ht="12.75">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="24"/>
@@ -9224,7 +9241,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:8" ht="12.75">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="24"/>
@@ -9234,7 +9251,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:8" ht="12.75">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="24"/>
@@ -9244,7 +9261,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:8" ht="12.75">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="24"/>
@@ -9254,7 +9271,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:8" ht="12.75">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="24"/>
@@ -9264,7 +9281,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:8" ht="12.75">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="24"/>
@@ -9274,7 +9291,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:8" ht="12.75">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="24"/>
@@ -9284,7 +9301,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:8" ht="12.75">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="24"/>
@@ -9294,7 +9311,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:8" ht="12.75">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="24"/>
@@ -9304,7 +9321,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:8" ht="12.75">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="24"/>
@@ -9314,7 +9331,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:8" ht="12.75">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="24"/>
@@ -9324,7 +9341,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:8" ht="12.75">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="24"/>
@@ -9334,7 +9351,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:8" ht="12.75">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="24"/>
@@ -9344,7 +9361,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:8" ht="12.75">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="24"/>
@@ -9354,7 +9371,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:8" ht="12.75">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="24"/>
@@ -9364,7 +9381,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:8" ht="12.75">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="24"/>
@@ -9374,7 +9391,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:8" ht="12.75">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="24"/>
@@ -9384,7 +9401,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:8" ht="12.75">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="24"/>
@@ -9394,7 +9411,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:8" ht="12.75">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="24"/>
@@ -9404,7 +9421,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:8" ht="12.75">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="24"/>
@@ -9414,7 +9431,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:8" ht="12.75">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="24"/>
@@ -9424,7 +9441,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:8" ht="12.75">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="24"/>
@@ -9434,7 +9451,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:8" ht="12.75">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="24"/>
@@ -9444,7 +9461,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:8" ht="12.75">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="24"/>
@@ -9454,7 +9471,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:8" ht="12.75">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="24"/>
@@ -9464,7 +9481,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:8" ht="12.75">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="24"/>
@@ -9474,7 +9491,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:8" ht="12.75">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="24"/>
@@ -9484,7 +9501,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:8" ht="12.75">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="24"/>
@@ -9494,7 +9511,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:8" ht="12.75">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="24"/>
@@ -9504,7 +9521,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:8" ht="12.75">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="24"/>
@@ -9514,7 +9531,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:8" ht="12.75">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="24"/>
@@ -9524,7 +9541,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:8" ht="12.75">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="24"/>
@@ -9534,7 +9551,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:8" ht="12.75">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="24"/>
@@ -9544,7 +9561,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:8" ht="12.75">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="24"/>
@@ -9554,7 +9571,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:8" ht="12.75">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="24"/>
@@ -9564,7 +9581,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:8" ht="12.75">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="24"/>
@@ -9574,7 +9591,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:8" ht="12.75">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="24"/>
@@ -9584,7 +9601,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:8" ht="12.75">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="24"/>
@@ -9594,7 +9611,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:8" ht="12.75">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="24"/>
@@ -9604,7 +9621,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:8" ht="12.75">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="24"/>
@@ -9614,7 +9631,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:8" ht="12.75">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="24"/>
@@ -9624,7 +9641,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:8" ht="12.75">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="24"/>
@@ -9634,7 +9651,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:8" ht="12.75">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="24"/>
@@ -9644,7 +9661,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:8" ht="12.75">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="24"/>
@@ -9654,7 +9671,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:8" ht="12.75">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="24"/>
@@ -9664,7 +9681,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:8" ht="12.75">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="24"/>
@@ -9674,7 +9691,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:8" ht="12.75">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="24"/>
@@ -9684,7 +9701,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:8" ht="12.75">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="24"/>
@@ -9694,7 +9711,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:8" ht="12.75">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="24"/>
@@ -9704,7 +9721,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:8" ht="12.75">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="24"/>
@@ -9714,7 +9731,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:8" ht="12.75">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="24"/>
@@ -9724,7 +9741,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:8" ht="12.75">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="24"/>
@@ -9734,7 +9751,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:8" ht="12.75">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="24"/>
@@ -9744,7 +9761,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:8" ht="12.75">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="24"/>
@@ -9754,7 +9771,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:8" ht="12.75">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="24"/>
@@ -9764,7 +9781,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:8" ht="12.75">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="24"/>
@@ -9774,7 +9791,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:8" ht="12.75">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="24"/>
@@ -9784,7 +9801,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:8" ht="12.75">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="24"/>
@@ -9794,7 +9811,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:8" ht="12.75">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="24"/>
@@ -9804,7 +9821,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:8" ht="12.75">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="24"/>
@@ -9814,7 +9831,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:8" ht="12.75">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="24"/>
@@ -9824,7 +9841,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:8" ht="12.75">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="24"/>
@@ -9834,7 +9851,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:8" ht="12.75">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="24"/>
@@ -9844,7 +9861,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:8" ht="12.75">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="24"/>
@@ -9854,7 +9871,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:8" ht="12.75">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="24"/>
@@ -9864,7 +9881,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:8" ht="12.75">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="24"/>
@@ -9874,7 +9891,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:8" ht="12.75">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="24"/>
@@ -9884,7 +9901,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:8" ht="12.75">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="24"/>
@@ -9894,7 +9911,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:8" ht="12.75">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="24"/>
@@ -9904,7 +9921,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:8" ht="12.75">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="24"/>
@@ -9914,7 +9931,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:8" ht="12.75">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="24"/>
@@ -9924,7 +9941,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:8" ht="12.75">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="24"/>
@@ -9934,7 +9951,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:8" ht="12.75">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="24"/>
@@ -9944,7 +9961,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:8" ht="12.75">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="24"/>
@@ -9954,7 +9971,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:8" ht="12.75">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="24"/>
@@ -9964,7 +9981,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:8" ht="12.75">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="24"/>
@@ -9974,7 +9991,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:8" ht="12.75">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="24"/>
@@ -9984,7 +10001,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:8" ht="12.75">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="24"/>
@@ -9994,7 +10011,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:8" ht="12.75">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="24"/>
@@ -10004,7 +10021,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:8" ht="12.75">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="24"/>
@@ -10014,7 +10031,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:8" ht="12.75">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="24"/>
@@ -10024,7 +10041,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:8" ht="12.75">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="24"/>
@@ -10034,7 +10051,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:8" ht="12.75">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="24"/>
@@ -10044,7 +10061,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:8" ht="12.75">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="24"/>
@@ -10054,7 +10071,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:8" ht="12.75">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="24"/>
@@ -10064,7 +10081,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:8" ht="12.75">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="24"/>
@@ -10074,7 +10091,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:8" ht="12.75">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="24"/>
@@ -10084,7 +10101,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:8" ht="12.75">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="24"/>
@@ -10094,7 +10111,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:8" ht="12.75">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="24"/>
@@ -10104,7 +10121,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:8" ht="12.75">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="24"/>
@@ -10114,7 +10131,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:8" ht="12.75">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="24"/>
@@ -10124,7 +10141,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:8" ht="12.75">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="24"/>
@@ -10134,7 +10151,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:8" ht="12.75">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="24"/>
@@ -10144,7 +10161,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:8" ht="12.75">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="24"/>
@@ -10154,7 +10171,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:8" ht="12.75">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="24"/>
@@ -10164,7 +10181,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:8" ht="12.75">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="24"/>
@@ -10174,7 +10191,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:8" ht="12.75">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="24"/>
@@ -10184,7 +10201,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:8" ht="12.75">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="24"/>
@@ -10194,7 +10211,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:8" ht="12.75">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="24"/>
@@ -10204,7 +10221,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:8" ht="12.75">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="24"/>
@@ -10214,7 +10231,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:8" ht="12.75">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="24"/>
@@ -10224,7 +10241,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:8" ht="12.75">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="24"/>
@@ -10234,7 +10251,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:8" ht="12.75">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="24"/>
@@ -10244,7 +10261,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:8" ht="12.75">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="24"/>
@@ -10254,7 +10271,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:8" ht="12.75">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="24"/>
@@ -10264,7 +10281,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:8" ht="12.75">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="24"/>
@@ -10274,7 +10291,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:8" ht="12.75">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="24"/>
@@ -10284,7 +10301,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:8" ht="12.75">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="24"/>
@@ -10294,7 +10311,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:8" ht="12.75">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="24"/>
@@ -10304,7 +10321,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:8" ht="12.75">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="24"/>
@@ -10314,7 +10331,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:8" ht="12.75">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="24"/>
@@ -10324,7 +10341,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:8" ht="12.75">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="24"/>
@@ -10334,7 +10351,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:8" ht="12.75">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="24"/>
@@ -10344,7 +10361,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:8" ht="12.75">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="24"/>
@@ -10354,7 +10371,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:8" ht="12.75">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="24"/>
@@ -10364,7 +10381,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:8" ht="12.75">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="24"/>
@@ -10374,7 +10391,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:8" ht="12.75">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="24"/>
@@ -10384,7 +10401,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:8" ht="12.75">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="24"/>
@@ -10394,7 +10411,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:8" ht="12.75">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="24"/>
@@ -10404,7 +10421,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:8" ht="12.75">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="24"/>
@@ -10414,7 +10431,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:8" ht="12.75">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="24"/>
@@ -10424,7 +10441,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:8" ht="12.75">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="24"/>
@@ -10434,7 +10451,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:8" ht="12.75">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="24"/>
@@ -10444,7 +10461,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:8" ht="12.75">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="24"/>
@@ -10454,7 +10471,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:8" ht="12.75">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="24"/>
@@ -10464,7 +10481,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:8" ht="12.75">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="24"/>
@@ -10474,7 +10491,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:8" ht="12.75">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="24"/>
@@ -10484,7 +10501,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:8" ht="12.75">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="24"/>
@@ -10494,7 +10511,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:8" ht="12.75">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="24"/>
@@ -10504,7 +10521,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:8" ht="12.75">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="24"/>
@@ -10514,7 +10531,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:8" ht="12.75">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="24"/>
@@ -10524,7 +10541,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:8" ht="12.75">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="24"/>
@@ -10534,7 +10551,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:8" ht="12.75">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="24"/>
@@ -10544,7 +10561,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:8" ht="12.75">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="24"/>
@@ -10554,7 +10571,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:8" ht="12.75">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="24"/>
@@ -10564,7 +10581,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:8" ht="12.75">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="24"/>
@@ -10574,7 +10591,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:8" ht="12.75">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="24"/>
@@ -10586,13 +10603,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G21:H21"/>
@@ -10602,12 +10618,13 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/주간업무계획표_개발.xlsx
+++ b/주간업무계획표_개발.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\flowedu-documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihoan/Documents/git/flowedu-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3135" windowWidth="51195" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="개발파트" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>주간업무계획</t>
   </si>
@@ -117,60 +117,64 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>2017년 1월 4주차</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 이메일 전송 API 구축</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 이메일 전송 API 구축 완료</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>AMS</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) 회원가입, 아이디 찾기 이메일 API 연동 작업
-2) 신규 프로젝트 구성 ( 프론트 )</t>
+    <t xml:space="preserve">1)  출결관리 / 과제관리 개발
+2)  알리고 sms 발송 API연동작업 </t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) 이메일 연동 작업 완료
-2) 신규 프로젝트 구성중</t>
+    <t>1)  출결관리 완료 / 과제관리 개발중
+2)  알리고 sms 발송 API연동작업중</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1)  출결관리 / 과제관리 개발예정
+    <t xml:space="preserve">1)  과제관리 / 행정관리 개발 예정
 </t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1)  출결관리 / 과제관리 개발예정
+    <t xml:space="preserve">1)  과제관리 /행정관리 개발 예정
+2)  sms연동작업
 </t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) angular js 공부
-2) 부트스트랩 공부</t>
+    <t>1)  행정관리 프론트 개발 예정</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1) 출결관리 / 과제관리 UI 개발예정</t>
+    <t>1)  출결관리 프론트 완료 / 과제관리 프론트 완료</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)  출결관리 프론트 / 과제관리 프론트 개발</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)  출결관리  / 과제관리 백앤드 프론트 연동 개발</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)  출결관리  완료 / 과제관리 개발중</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017년 1월 5주차</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd&quot;(&quot;ddd&quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -644,7 +648,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -950,28 +954,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF9900FF"/>
   </sheetPr>
   <dimension ref="A1:H955"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="5" max="6" width="40.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
+    <col min="5" max="6" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="54" t="s">
         <v>0</v>
@@ -983,11 +987,11 @@
         <v>1</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
@@ -1001,7 +1005,7 @@
       </c>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
@@ -1015,7 +1019,7 @@
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="23"/>
@@ -1025,7 +1029,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -1037,7 +1041,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1">
+    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1061,29 +1065,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="66" customHeight="1">
+    <row r="7" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="50"/>
       <c r="C8" s="9"/>
@@ -1093,7 +1097,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="51"/>
       <c r="C9" s="9"/>
@@ -1103,7 +1107,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="57" customHeight="1">
+    <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="49" t="s">
         <v>16</v>
@@ -1112,18 +1116,18 @@
         <v>21</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
@@ -1135,7 +1139,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="51"/>
       <c r="C12" s="9"/>
@@ -1145,27 +1149,27 @@
       <c r="G12" s="22"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="52" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="53"/>
       <c r="C14" s="9"/>
@@ -1175,7 +1179,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="53"/>
       <c r="C15" s="9"/>
@@ -1185,7 +1189,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75">
+    <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1195,7 +1199,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75">
+    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
@@ -1207,7 +1211,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1">
+    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="16" t="s">
         <v>5</v>
@@ -1225,7 +1229,7 @@
       </c>
       <c r="H18" s="35"/>
     </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1">
+    <row r="19" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="17">
         <v>1</v>
@@ -1237,7 +1241,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1">
+    <row r="20" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="18">
         <v>2</v>
@@ -1249,7 +1253,7 @@
       <c r="G20" s="33"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" ht="50.1" customHeight="1">
+    <row r="21" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="17">
         <v>3</v>
@@ -1261,7 +1265,7 @@
       <c r="G21" s="36"/>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" ht="6" customHeight="1">
+    <row r="22" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="20"/>
       <c r="C22" s="42"/>
@@ -1271,7 +1275,7 @@
       <c r="G22" s="31"/>
       <c r="H22" s="32"/>
     </row>
-    <row r="23" spans="1:8" ht="12.75">
+    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="24"/>
@@ -1281,7 +1285,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75">
+    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="24"/>
@@ -1291,7 +1295,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="12.75">
+    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="24"/>
@@ -1301,7 +1305,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="12.75">
+    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="24"/>
@@ -1311,7 +1315,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75">
+    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="24"/>
@@ -1321,7 +1325,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="12.75">
+    <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="24"/>
@@ -1331,7 +1335,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="12.75">
+    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="24"/>
@@ -1341,7 +1345,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="12.75">
+    <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="24"/>
@@ -1351,7 +1355,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="12.75">
+    <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="24"/>
@@ -1361,7 +1365,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75">
+    <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="24"/>
@@ -1371,7 +1375,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75">
+    <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="24"/>
@@ -1381,7 +1385,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75">
+    <row r="34" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="24"/>
@@ -1391,7 +1395,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75">
+    <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="24"/>
@@ -1401,7 +1405,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75">
+    <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="24"/>
@@ -1411,7 +1415,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="12.75">
+    <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="24"/>
@@ -1421,7 +1425,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75">
+    <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="24"/>
@@ -1431,7 +1435,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75">
+    <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="24"/>
@@ -1441,7 +1445,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="12.75">
+    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="24"/>
@@ -1451,7 +1455,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="12.75">
+    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="24"/>
@@ -1461,7 +1465,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="12.75">
+    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="24"/>
@@ -1471,7 +1475,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="12.75">
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="24"/>
@@ -1481,7 +1485,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75">
+    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="24"/>
@@ -1491,7 +1495,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="12.75">
+    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="24"/>
@@ -1501,7 +1505,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="12.75">
+    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="24"/>
@@ -1511,7 +1515,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="12.75">
+    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="24"/>
@@ -1521,7 +1525,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="12.75">
+    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="24"/>
@@ -1531,7 +1535,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="12.75">
+    <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="24"/>
@@ -1541,7 +1545,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="12.75">
+    <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="24"/>
@@ -1551,7 +1555,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="12.75">
+    <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="24"/>
@@ -1561,7 +1565,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="12.75">
+    <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="24"/>
@@ -1571,7 +1575,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="12.75">
+    <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="24"/>
@@ -1581,7 +1585,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="12.75">
+    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="24"/>
@@ -1591,7 +1595,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="12.75">
+    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="24"/>
@@ -1601,7 +1605,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="12.75">
+    <row r="56" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="24"/>
@@ -1611,7 +1615,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="12.75">
+    <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="24"/>
@@ -1621,7 +1625,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="12.75">
+    <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="24"/>
@@ -1631,7 +1635,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="12.75">
+    <row r="59" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="24"/>
@@ -1641,7 +1645,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="12.75">
+    <row r="60" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="24"/>
@@ -1651,7 +1655,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="12.75">
+    <row r="61" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="24"/>
@@ -1661,7 +1665,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="12.75">
+    <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="24"/>
@@ -1671,7 +1675,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="12.75">
+    <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="24"/>
@@ -1681,7 +1685,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="12.75">
+    <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="24"/>
@@ -1691,7 +1695,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="12.75">
+    <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="24"/>
@@ -1701,7 +1705,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="12.75">
+    <row r="66" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="24"/>
@@ -1711,7 +1715,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="12.75">
+    <row r="67" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="24"/>
@@ -1721,7 +1725,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="12.75">
+    <row r="68" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="24"/>
@@ -1731,7 +1735,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="12.75">
+    <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="24"/>
@@ -1741,7 +1745,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="12.75">
+    <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="24"/>
@@ -1751,7 +1755,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="12.75">
+    <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="24"/>
@@ -1761,7 +1765,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="12.75">
+    <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="24"/>
@@ -1771,7 +1775,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="12.75">
+    <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="24"/>
@@ -1781,7 +1785,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="12.75">
+    <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="24"/>
@@ -1791,7 +1795,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="12.75">
+    <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="24"/>
@@ -1801,7 +1805,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="12.75">
+    <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="24"/>
@@ -1811,7 +1815,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="12.75">
+    <row r="77" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="24"/>
@@ -1821,7 +1825,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="12.75">
+    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="24"/>
@@ -1831,7 +1835,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="12.75">
+    <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="24"/>
@@ -1841,7 +1845,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="12.75">
+    <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="24"/>
@@ -1851,7 +1855,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="12.75">
+    <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="24"/>
@@ -1861,7 +1865,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="12.75">
+    <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="24"/>
@@ -1871,7 +1875,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="12.75">
+    <row r="83" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="24"/>
@@ -1881,7 +1885,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="12.75">
+    <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="24"/>
@@ -1891,7 +1895,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="12.75">
+    <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="24"/>
@@ -1901,7 +1905,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="12.75">
+    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="24"/>
@@ -1911,7 +1915,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="12.75">
+    <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="24"/>
@@ -1921,7 +1925,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="12.75">
+    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="24"/>
@@ -1931,7 +1935,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="12.75">
+    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="24"/>
@@ -1941,7 +1945,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="12.75">
+    <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="24"/>
@@ -1951,7 +1955,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="12.75">
+    <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="24"/>
@@ -1961,7 +1965,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="12.75">
+    <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="24"/>
@@ -1971,7 +1975,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="12.75">
+    <row r="93" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="24"/>
@@ -1981,7 +1985,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="12.75">
+    <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="24"/>
@@ -1991,7 +1995,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="12.75">
+    <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="24"/>
@@ -2001,7 +2005,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="12.75">
+    <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="24"/>
@@ -2011,7 +2015,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="12.75">
+    <row r="97" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="24"/>
@@ -2021,7 +2025,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="12.75">
+    <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="24"/>
@@ -2031,7 +2035,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="12.75">
+    <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="24"/>
@@ -2041,7 +2045,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="12.75">
+    <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="24"/>
@@ -2051,7 +2055,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="12.75">
+    <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="24"/>
@@ -2061,7 +2065,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" ht="12.75">
+    <row r="102" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="24"/>
@@ -2071,7 +2075,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="12.75">
+    <row r="103" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="24"/>
@@ -2081,7 +2085,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="12.75">
+    <row r="104" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="24"/>
@@ -2091,7 +2095,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="12.75">
+    <row r="105" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="24"/>
@@ -2101,7 +2105,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="12.75">
+    <row r="106" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="24"/>
@@ -2111,7 +2115,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="12.75">
+    <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="24"/>
@@ -2121,7 +2125,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" ht="12.75">
+    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="24"/>
@@ -2131,7 +2135,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="12.75">
+    <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="24"/>
@@ -2141,7 +2145,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" ht="12.75">
+    <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="24"/>
@@ -2151,7 +2155,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="12.75">
+    <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="24"/>
@@ -2161,7 +2165,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="12.75">
+    <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="24"/>
@@ -2171,7 +2175,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" ht="12.75">
+    <row r="113" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="24"/>
@@ -2181,7 +2185,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" ht="12.75">
+    <row r="114" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="24"/>
@@ -2191,7 +2195,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" ht="12.75">
+    <row r="115" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="24"/>
@@ -2201,7 +2205,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="12.75">
+    <row r="116" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="24"/>
@@ -2211,7 +2215,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="12.75">
+    <row r="117" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="24"/>
@@ -2221,7 +2225,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="12.75">
+    <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="24"/>
@@ -2231,7 +2235,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" ht="12.75">
+    <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="24"/>
@@ -2241,7 +2245,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" ht="12.75">
+    <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="24"/>
@@ -2251,7 +2255,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" ht="12.75">
+    <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="24"/>
@@ -2261,7 +2265,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" ht="12.75">
+    <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="24"/>
@@ -2271,7 +2275,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" ht="12.75">
+    <row r="123" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="24"/>
@@ -2281,7 +2285,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" ht="12.75">
+    <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="24"/>
@@ -2291,7 +2295,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" ht="12.75">
+    <row r="125" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="24"/>
@@ -2301,7 +2305,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" ht="12.75">
+    <row r="126" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="24"/>
@@ -2311,7 +2315,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" ht="12.75">
+    <row r="127" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="24"/>
@@ -2321,7 +2325,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" ht="12.75">
+    <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="24"/>
@@ -2331,7 +2335,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" ht="12.75">
+    <row r="129" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="24"/>
@@ -2341,7 +2345,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" ht="12.75">
+    <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="24"/>
@@ -2351,7 +2355,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" ht="12.75">
+    <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="24"/>
@@ -2361,7 +2365,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" ht="12.75">
+    <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="24"/>
@@ -2371,7 +2375,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" ht="12.75">
+    <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="24"/>
@@ -2381,7 +2385,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" ht="12.75">
+    <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="24"/>
@@ -2391,7 +2395,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="12.75">
+    <row r="135" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="24"/>
@@ -2401,7 +2405,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" ht="12.75">
+    <row r="136" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="24"/>
@@ -2411,7 +2415,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" ht="12.75">
+    <row r="137" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="24"/>
@@ -2421,7 +2425,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" ht="12.75">
+    <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="24"/>
@@ -2431,7 +2435,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" ht="12.75">
+    <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="24"/>
@@ -2441,7 +2445,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" ht="12.75">
+    <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="24"/>
@@ -2451,7 +2455,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" ht="12.75">
+    <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="24"/>
@@ -2461,7 +2465,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" ht="12.75">
+    <row r="142" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="24"/>
@@ -2471,7 +2475,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" ht="12.75">
+    <row r="143" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="24"/>
@@ -2481,7 +2485,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" ht="12.75">
+    <row r="144" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="24"/>
@@ -2491,7 +2495,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" ht="12.75">
+    <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="24"/>
@@ -2501,7 +2505,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" ht="12.75">
+    <row r="146" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="24"/>
@@ -2511,7 +2515,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" ht="12.75">
+    <row r="147" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="24"/>
@@ -2521,7 +2525,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" ht="12.75">
+    <row r="148" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="24"/>
@@ -2531,7 +2535,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" ht="12.75">
+    <row r="149" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="24"/>
@@ -2541,7 +2545,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" ht="12.75">
+    <row r="150" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="24"/>
@@ -2551,7 +2555,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="12.75">
+    <row r="151" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="24"/>
@@ -2561,7 +2565,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" ht="12.75">
+    <row r="152" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="24"/>
@@ -2571,7 +2575,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" ht="12.75">
+    <row r="153" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="24"/>
@@ -2581,7 +2585,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" ht="12.75">
+    <row r="154" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="24"/>
@@ -2591,7 +2595,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" ht="12.75">
+    <row r="155" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="24"/>
@@ -2601,7 +2605,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" ht="12.75">
+    <row r="156" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="24"/>
@@ -2611,7 +2615,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" ht="12.75">
+    <row r="157" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="24"/>
@@ -2621,7 +2625,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" ht="12.75">
+    <row r="158" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="24"/>
@@ -2631,7 +2635,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="12.75">
+    <row r="159" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="24"/>
@@ -2641,7 +2645,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" ht="12.75">
+    <row r="160" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="24"/>
@@ -2651,7 +2655,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" ht="12.75">
+    <row r="161" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="24"/>
@@ -2661,7 +2665,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" ht="12.75">
+    <row r="162" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="24"/>
@@ -2671,7 +2675,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" ht="12.75">
+    <row r="163" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="24"/>
@@ -2681,7 +2685,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" ht="12.75">
+    <row r="164" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="24"/>
@@ -2691,7 +2695,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="12.75">
+    <row r="165" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="24"/>
@@ -2701,7 +2705,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" ht="12.75">
+    <row r="166" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="24"/>
@@ -2711,7 +2715,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="12.75">
+    <row r="167" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="24"/>
@@ -2721,7 +2725,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" ht="12.75">
+    <row r="168" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="24"/>
@@ -2731,7 +2735,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" ht="12.75">
+    <row r="169" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="24"/>
@@ -2741,7 +2745,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" ht="12.75">
+    <row r="170" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="24"/>
@@ -2751,7 +2755,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" ht="12.75">
+    <row r="171" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="24"/>
@@ -2761,7 +2765,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" ht="12.75">
+    <row r="172" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="24"/>
@@ -2771,7 +2775,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" ht="12.75">
+    <row r="173" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="24"/>
@@ -2781,7 +2785,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" ht="12.75">
+    <row r="174" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="24"/>
@@ -2791,7 +2795,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" ht="12.75">
+    <row r="175" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="24"/>
@@ -2801,7 +2805,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" ht="12.75">
+    <row r="176" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="24"/>
@@ -2811,7 +2815,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" ht="12.75">
+    <row r="177" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="24"/>
@@ -2821,7 +2825,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" ht="12.75">
+    <row r="178" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="24"/>
@@ -2831,7 +2835,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" ht="12.75">
+    <row r="179" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="24"/>
@@ -2841,7 +2845,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="12.75">
+    <row r="180" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="24"/>
@@ -2851,7 +2855,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" ht="12.75">
+    <row r="181" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="24"/>
@@ -2861,7 +2865,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" ht="12.75">
+    <row r="182" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="24"/>
@@ -2871,7 +2875,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="12.75">
+    <row r="183" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="24"/>
@@ -2881,7 +2885,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" ht="12.75">
+    <row r="184" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="24"/>
@@ -2891,7 +2895,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" ht="12.75">
+    <row r="185" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="24"/>
@@ -2901,7 +2905,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" ht="12.75">
+    <row r="186" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="24"/>
@@ -2911,7 +2915,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" ht="12.75">
+    <row r="187" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="24"/>
@@ -2921,7 +2925,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" ht="12.75">
+    <row r="188" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="24"/>
@@ -2931,7 +2935,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" ht="12.75">
+    <row r="189" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="24"/>
@@ -2941,7 +2945,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" ht="12.75">
+    <row r="190" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="24"/>
@@ -2951,7 +2955,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="12.75">
+    <row r="191" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="24"/>
@@ -2961,7 +2965,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="12.75">
+    <row r="192" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="24"/>
@@ -2971,7 +2975,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" ht="12.75">
+    <row r="193" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="24"/>
@@ -2981,7 +2985,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" ht="12.75">
+    <row r="194" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="24"/>
@@ -2991,7 +2995,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" ht="12.75">
+    <row r="195" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="24"/>
@@ -3001,7 +3005,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" ht="12.75">
+    <row r="196" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="24"/>
@@ -3011,7 +3015,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" ht="12.75">
+    <row r="197" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="24"/>
@@ -3021,7 +3025,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" ht="12.75">
+    <row r="198" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="24"/>
@@ -3031,7 +3035,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" ht="12.75">
+    <row r="199" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="24"/>
@@ -3041,7 +3045,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" ht="12.75">
+    <row r="200" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="24"/>
@@ -3051,7 +3055,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" ht="12.75">
+    <row r="201" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="24"/>
@@ -3061,7 +3065,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" ht="12.75">
+    <row r="202" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="24"/>
@@ -3071,7 +3075,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" ht="12.75">
+    <row r="203" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="24"/>
@@ -3081,7 +3085,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" ht="12.75">
+    <row r="204" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="24"/>
@@ -3091,7 +3095,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" ht="12.75">
+    <row r="205" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="24"/>
@@ -3101,7 +3105,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" ht="12.75">
+    <row r="206" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="24"/>
@@ -3111,7 +3115,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" ht="12.75">
+    <row r="207" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="24"/>
@@ -3121,7 +3125,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" ht="12.75">
+    <row r="208" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="24"/>
@@ -3131,7 +3135,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" ht="12.75">
+    <row r="209" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="24"/>
@@ -3141,7 +3145,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" ht="12.75">
+    <row r="210" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="24"/>
@@ -3151,7 +3155,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" ht="12.75">
+    <row r="211" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="24"/>
@@ -3161,7 +3165,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" ht="12.75">
+    <row r="212" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="24"/>
@@ -3171,7 +3175,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" ht="12.75">
+    <row r="213" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="24"/>
@@ -3181,7 +3185,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" ht="12.75">
+    <row r="214" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="24"/>
@@ -3191,7 +3195,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" ht="12.75">
+    <row r="215" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="24"/>
@@ -3201,7 +3205,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" ht="12.75">
+    <row r="216" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="24"/>
@@ -3211,7 +3215,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" ht="12.75">
+    <row r="217" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="24"/>
@@ -3221,7 +3225,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" ht="12.75">
+    <row r="218" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="24"/>
@@ -3231,7 +3235,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" ht="12.75">
+    <row r="219" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="24"/>
@@ -3241,7 +3245,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" ht="12.75">
+    <row r="220" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="24"/>
@@ -3251,7 +3255,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" ht="12.75">
+    <row r="221" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="24"/>
@@ -3261,7 +3265,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" ht="12.75">
+    <row r="222" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="24"/>
@@ -3271,7 +3275,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" ht="12.75">
+    <row r="223" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="24"/>
@@ -3281,7 +3285,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" ht="12.75">
+    <row r="224" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="24"/>
@@ -3291,7 +3295,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" ht="12.75">
+    <row r="225" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="24"/>
@@ -3301,7 +3305,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" ht="12.75">
+    <row r="226" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="24"/>
@@ -3311,7 +3315,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" ht="12.75">
+    <row r="227" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="24"/>
@@ -3321,7 +3325,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" ht="12.75">
+    <row r="228" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="24"/>
@@ -3331,7 +3335,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" ht="12.75">
+    <row r="229" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="24"/>
@@ -3341,7 +3345,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" ht="12.75">
+    <row r="230" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="24"/>
@@ -3351,7 +3355,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" ht="12.75">
+    <row r="231" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="24"/>
@@ -3361,7 +3365,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" ht="12.75">
+    <row r="232" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="24"/>
@@ -3371,7 +3375,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" ht="12.75">
+    <row r="233" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="24"/>
@@ -3381,7 +3385,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" ht="12.75">
+    <row r="234" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="24"/>
@@ -3391,7 +3395,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" ht="12.75">
+    <row r="235" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="24"/>
@@ -3401,7 +3405,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" ht="12.75">
+    <row r="236" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="24"/>
@@ -3411,7 +3415,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" ht="12.75">
+    <row r="237" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="24"/>
@@ -3421,7 +3425,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" ht="12.75">
+    <row r="238" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="24"/>
@@ -3431,7 +3435,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" ht="12.75">
+    <row r="239" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="24"/>
@@ -3441,7 +3445,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" ht="12.75">
+    <row r="240" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="24"/>
@@ -3451,7 +3455,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" ht="12.75">
+    <row r="241" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="24"/>
@@ -3461,7 +3465,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" ht="12.75">
+    <row r="242" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="24"/>
@@ -3471,7 +3475,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" ht="12.75">
+    <row r="243" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="24"/>
@@ -3481,7 +3485,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" ht="12.75">
+    <row r="244" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="24"/>
@@ -3491,7 +3495,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" ht="12.75">
+    <row r="245" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="24"/>
@@ -3501,7 +3505,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" ht="12.75">
+    <row r="246" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="24"/>
@@ -3511,7 +3515,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" ht="12.75">
+    <row r="247" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="24"/>
@@ -3521,7 +3525,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" ht="12.75">
+    <row r="248" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="24"/>
@@ -3531,7 +3535,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" ht="12.75">
+    <row r="249" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="24"/>
@@ -3541,7 +3545,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" ht="12.75">
+    <row r="250" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="24"/>
@@ -3551,7 +3555,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" ht="12.75">
+    <row r="251" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="24"/>
@@ -3561,7 +3565,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" ht="12.75">
+    <row r="252" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="24"/>
@@ -3571,7 +3575,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" ht="12.75">
+    <row r="253" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="24"/>
@@ -3581,7 +3585,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" ht="12.75">
+    <row r="254" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="24"/>
@@ -3591,7 +3595,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" ht="12.75">
+    <row r="255" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="24"/>
@@ -3601,7 +3605,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" ht="12.75">
+    <row r="256" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="24"/>
@@ -3611,7 +3615,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" ht="12.75">
+    <row r="257" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="24"/>
@@ -3621,7 +3625,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" ht="12.75">
+    <row r="258" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="24"/>
@@ -3631,7 +3635,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" ht="12.75">
+    <row r="259" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="24"/>
@@ -3641,7 +3645,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" ht="12.75">
+    <row r="260" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="24"/>
@@ -3651,7 +3655,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" ht="12.75">
+    <row r="261" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="24"/>
@@ -3661,7 +3665,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" ht="12.75">
+    <row r="262" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="24"/>
@@ -3671,7 +3675,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" ht="12.75">
+    <row r="263" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="24"/>
@@ -3681,7 +3685,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="12.75">
+    <row r="264" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="24"/>
@@ -3691,7 +3695,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="12.75">
+    <row r="265" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="24"/>
@@ -3701,7 +3705,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="12.75">
+    <row r="266" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="24"/>
@@ -3711,7 +3715,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="12.75">
+    <row r="267" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="24"/>
@@ -3721,7 +3725,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="12.75">
+    <row r="268" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="24"/>
@@ -3731,7 +3735,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="12.75">
+    <row r="269" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="24"/>
@@ -3741,7 +3745,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="12.75">
+    <row r="270" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="24"/>
@@ -3751,7 +3755,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" ht="12.75">
+    <row r="271" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="24"/>
@@ -3761,7 +3765,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" ht="12.75">
+    <row r="272" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="24"/>
@@ -3771,7 +3775,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" ht="12.75">
+    <row r="273" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="24"/>
@@ -3781,7 +3785,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" ht="12.75">
+    <row r="274" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="24"/>
@@ -3791,7 +3795,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" ht="12.75">
+    <row r="275" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="24"/>
@@ -3801,7 +3805,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" ht="12.75">
+    <row r="276" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="24"/>
@@ -3811,7 +3815,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" ht="12.75">
+    <row r="277" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="24"/>
@@ -3821,7 +3825,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" ht="12.75">
+    <row r="278" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="24"/>
@@ -3831,7 +3835,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" ht="12.75">
+    <row r="279" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="24"/>
@@ -3841,7 +3845,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" ht="12.75">
+    <row r="280" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="24"/>
@@ -3851,7 +3855,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" ht="12.75">
+    <row r="281" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="24"/>
@@ -3861,7 +3865,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" ht="12.75">
+    <row r="282" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="24"/>
@@ -3871,7 +3875,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" ht="12.75">
+    <row r="283" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="24"/>
@@ -3881,7 +3885,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" ht="12.75">
+    <row r="284" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="24"/>
@@ -3891,7 +3895,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" ht="12.75">
+    <row r="285" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="24"/>
@@ -3901,7 +3905,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" ht="12.75">
+    <row r="286" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="24"/>
@@ -3911,7 +3915,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" ht="12.75">
+    <row r="287" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="24"/>
@@ -3921,7 +3925,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" ht="12.75">
+    <row r="288" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="24"/>
@@ -3931,7 +3935,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" ht="12.75">
+    <row r="289" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="24"/>
@@ -3941,7 +3945,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" ht="12.75">
+    <row r="290" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="24"/>
@@ -3951,7 +3955,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" ht="12.75">
+    <row r="291" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="24"/>
@@ -3961,7 +3965,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" ht="12.75">
+    <row r="292" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="24"/>
@@ -3971,7 +3975,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" ht="12.75">
+    <row r="293" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="24"/>
@@ -3981,7 +3985,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" ht="12.75">
+    <row r="294" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="24"/>
@@ -3991,7 +3995,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" ht="12.75">
+    <row r="295" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="24"/>
@@ -4001,7 +4005,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" ht="12.75">
+    <row r="296" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="24"/>
@@ -4011,7 +4015,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" ht="12.75">
+    <row r="297" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="24"/>
@@ -4021,7 +4025,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" ht="12.75">
+    <row r="298" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="24"/>
@@ -4031,7 +4035,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" ht="12.75">
+    <row r="299" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="24"/>
@@ -4041,7 +4045,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" ht="12.75">
+    <row r="300" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="24"/>
@@ -4051,7 +4055,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" ht="12.75">
+    <row r="301" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="24"/>
@@ -4061,7 +4065,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" ht="12.75">
+    <row r="302" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="24"/>
@@ -4071,7 +4075,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" ht="12.75">
+    <row r="303" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="24"/>
@@ -4081,7 +4085,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" ht="12.75">
+    <row r="304" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="24"/>
@@ -4091,7 +4095,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" ht="12.75">
+    <row r="305" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="24"/>
@@ -4101,7 +4105,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" ht="12.75">
+    <row r="306" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="24"/>
@@ -4111,7 +4115,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" ht="12.75">
+    <row r="307" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="24"/>
@@ -4121,7 +4125,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" ht="12.75">
+    <row r="308" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="24"/>
@@ -4131,7 +4135,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" ht="12.75">
+    <row r="309" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="24"/>
@@ -4141,7 +4145,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" ht="12.75">
+    <row r="310" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="24"/>
@@ -4151,7 +4155,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" ht="12.75">
+    <row r="311" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="24"/>
@@ -4161,7 +4165,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" ht="12.75">
+    <row r="312" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="24"/>
@@ -4171,7 +4175,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" ht="12.75">
+    <row r="313" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="24"/>
@@ -4181,7 +4185,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" ht="12.75">
+    <row r="314" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="24"/>
@@ -4191,7 +4195,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" ht="12.75">
+    <row r="315" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="24"/>
@@ -4201,7 +4205,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" ht="12.75">
+    <row r="316" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="24"/>
@@ -4211,7 +4215,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" ht="12.75">
+    <row r="317" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="24"/>
@@ -4221,7 +4225,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" ht="12.75">
+    <row r="318" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="24"/>
@@ -4231,7 +4235,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" ht="12.75">
+    <row r="319" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="24"/>
@@ -4241,7 +4245,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" ht="12.75">
+    <row r="320" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="24"/>
@@ -4251,7 +4255,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" ht="12.75">
+    <row r="321" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="24"/>
@@ -4261,7 +4265,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" ht="12.75">
+    <row r="322" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="24"/>
@@ -4271,7 +4275,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" ht="12.75">
+    <row r="323" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="24"/>
@@ -4281,7 +4285,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" ht="12.75">
+    <row r="324" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="24"/>
@@ -4291,7 +4295,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" ht="12.75">
+    <row r="325" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="24"/>
@@ -4301,7 +4305,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" ht="12.75">
+    <row r="326" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="24"/>
@@ -4311,7 +4315,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" ht="12.75">
+    <row r="327" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="24"/>
@@ -4321,7 +4325,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" ht="12.75">
+    <row r="328" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="24"/>
@@ -4331,7 +4335,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" ht="12.75">
+    <row r="329" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="24"/>
@@ -4341,7 +4345,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" ht="12.75">
+    <row r="330" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="24"/>
@@ -4351,7 +4355,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" ht="12.75">
+    <row r="331" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="24"/>
@@ -4361,7 +4365,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" ht="12.75">
+    <row r="332" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="24"/>
@@ -4371,7 +4375,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" ht="12.75">
+    <row r="333" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="24"/>
@@ -4381,7 +4385,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" ht="12.75">
+    <row r="334" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="24"/>
@@ -4391,7 +4395,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" ht="12.75">
+    <row r="335" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="24"/>
@@ -4401,7 +4405,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" ht="12.75">
+    <row r="336" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="24"/>
@@ -4411,7 +4415,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" ht="12.75">
+    <row r="337" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="24"/>
@@ -4421,7 +4425,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" ht="12.75">
+    <row r="338" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="24"/>
@@ -4431,7 +4435,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" ht="12.75">
+    <row r="339" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="24"/>
@@ -4441,7 +4445,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" ht="12.75">
+    <row r="340" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="24"/>
@@ -4451,7 +4455,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" ht="12.75">
+    <row r="341" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="24"/>
@@ -4461,7 +4465,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" ht="12.75">
+    <row r="342" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="24"/>
@@ -4471,7 +4475,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" ht="12.75">
+    <row r="343" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="24"/>
@@ -4481,7 +4485,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" ht="12.75">
+    <row r="344" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="24"/>
@@ -4491,7 +4495,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" ht="12.75">
+    <row r="345" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="24"/>
@@ -4501,7 +4505,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" ht="12.75">
+    <row r="346" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="24"/>
@@ -4511,7 +4515,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" ht="12.75">
+    <row r="347" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="24"/>
@@ -4521,7 +4525,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" ht="12.75">
+    <row r="348" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="24"/>
@@ -4531,7 +4535,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" ht="12.75">
+    <row r="349" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="24"/>
@@ -4541,7 +4545,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" ht="12.75">
+    <row r="350" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="24"/>
@@ -4551,7 +4555,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" ht="12.75">
+    <row r="351" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="24"/>
@@ -4561,7 +4565,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" ht="12.75">
+    <row r="352" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="24"/>
@@ -4571,7 +4575,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" ht="12.75">
+    <row r="353" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="24"/>
@@ -4581,7 +4585,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" ht="12.75">
+    <row r="354" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="24"/>
@@ -4591,7 +4595,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" ht="12.75">
+    <row r="355" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="24"/>
@@ -4601,7 +4605,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" ht="12.75">
+    <row r="356" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="24"/>
@@ -4611,7 +4615,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" ht="12.75">
+    <row r="357" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="24"/>
@@ -4621,7 +4625,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" ht="12.75">
+    <row r="358" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="24"/>
@@ -4631,7 +4635,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" ht="12.75">
+    <row r="359" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="24"/>
@@ -4641,7 +4645,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" ht="12.75">
+    <row r="360" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="24"/>
@@ -4651,7 +4655,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" ht="12.75">
+    <row r="361" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="24"/>
@@ -4661,7 +4665,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" ht="12.75">
+    <row r="362" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="24"/>
@@ -4671,7 +4675,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" ht="12.75">
+    <row r="363" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="24"/>
@@ -4681,7 +4685,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" ht="12.75">
+    <row r="364" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="24"/>
@@ -4691,7 +4695,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" ht="12.75">
+    <row r="365" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="24"/>
@@ -4701,7 +4705,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" ht="12.75">
+    <row r="366" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="24"/>
@@ -4711,7 +4715,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" ht="12.75">
+    <row r="367" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="24"/>
@@ -4721,7 +4725,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" ht="12.75">
+    <row r="368" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="24"/>
@@ -4731,7 +4735,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" ht="12.75">
+    <row r="369" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="24"/>
@@ -4741,7 +4745,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" ht="12.75">
+    <row r="370" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="24"/>
@@ -4751,7 +4755,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" ht="12.75">
+    <row r="371" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="24"/>
@@ -4761,7 +4765,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" ht="12.75">
+    <row r="372" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="24"/>
@@ -4771,7 +4775,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" ht="12.75">
+    <row r="373" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="24"/>
@@ -4781,7 +4785,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" ht="12.75">
+    <row r="374" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="24"/>
@@ -4791,7 +4795,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" ht="12.75">
+    <row r="375" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="24"/>
@@ -4801,7 +4805,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" ht="12.75">
+    <row r="376" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="24"/>
@@ -4811,7 +4815,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" ht="12.75">
+    <row r="377" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="24"/>
@@ -4821,7 +4825,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" ht="12.75">
+    <row r="378" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="24"/>
@@ -4831,7 +4835,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" ht="12.75">
+    <row r="379" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="24"/>
@@ -4841,7 +4845,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" ht="12.75">
+    <row r="380" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="24"/>
@@ -4851,7 +4855,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" ht="12.75">
+    <row r="381" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="24"/>
@@ -4861,7 +4865,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" ht="12.75">
+    <row r="382" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="24"/>
@@ -4871,7 +4875,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" ht="12.75">
+    <row r="383" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="24"/>
@@ -4881,7 +4885,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" ht="12.75">
+    <row r="384" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="24"/>
@@ -4891,7 +4895,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" ht="12.75">
+    <row r="385" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="24"/>
@@ -4901,7 +4905,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" ht="12.75">
+    <row r="386" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="24"/>
@@ -4911,7 +4915,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" ht="12.75">
+    <row r="387" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="24"/>
@@ -4921,7 +4925,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" ht="12.75">
+    <row r="388" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="24"/>
@@ -4931,7 +4935,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" ht="12.75">
+    <row r="389" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="24"/>
@@ -4941,7 +4945,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" ht="12.75">
+    <row r="390" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="24"/>
@@ -4951,7 +4955,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" ht="12.75">
+    <row r="391" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="24"/>
@@ -4961,7 +4965,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" ht="12.75">
+    <row r="392" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="24"/>
@@ -4971,7 +4975,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" ht="12.75">
+    <row r="393" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="24"/>
@@ -4981,7 +4985,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" ht="12.75">
+    <row r="394" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="24"/>
@@ -4991,7 +4995,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" ht="12.75">
+    <row r="395" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="24"/>
@@ -5001,7 +5005,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" ht="12.75">
+    <row r="396" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="24"/>
@@ -5011,7 +5015,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" ht="12.75">
+    <row r="397" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="24"/>
@@ -5021,7 +5025,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" ht="12.75">
+    <row r="398" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="24"/>
@@ -5031,7 +5035,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" ht="12.75">
+    <row r="399" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="24"/>
@@ -5041,7 +5045,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" ht="12.75">
+    <row r="400" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="24"/>
@@ -5051,7 +5055,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" ht="12.75">
+    <row r="401" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="24"/>
@@ -5061,7 +5065,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" ht="12.75">
+    <row r="402" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="24"/>
@@ -5071,7 +5075,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" ht="12.75">
+    <row r="403" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="24"/>
@@ -5081,7 +5085,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" ht="12.75">
+    <row r="404" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="24"/>
@@ -5091,7 +5095,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" ht="12.75">
+    <row r="405" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="24"/>
@@ -5101,7 +5105,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" ht="12.75">
+    <row r="406" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="24"/>
@@ -5111,7 +5115,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" ht="12.75">
+    <row r="407" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="24"/>
@@ -5121,7 +5125,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" ht="12.75">
+    <row r="408" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="24"/>
@@ -5131,7 +5135,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" ht="12.75">
+    <row r="409" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="24"/>
@@ -5141,7 +5145,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" ht="12.75">
+    <row r="410" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="24"/>
@@ -5151,7 +5155,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" ht="12.75">
+    <row r="411" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="24"/>
@@ -5161,7 +5165,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" ht="12.75">
+    <row r="412" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="24"/>
@@ -5171,7 +5175,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" ht="12.75">
+    <row r="413" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="24"/>
@@ -5181,7 +5185,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" ht="12.75">
+    <row r="414" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="24"/>
@@ -5191,7 +5195,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" ht="12.75">
+    <row r="415" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="24"/>
@@ -5201,7 +5205,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" ht="12.75">
+    <row r="416" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="24"/>
@@ -5211,7 +5215,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" ht="12.75">
+    <row r="417" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="24"/>
@@ -5221,7 +5225,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" ht="12.75">
+    <row r="418" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="24"/>
@@ -5231,7 +5235,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" ht="12.75">
+    <row r="419" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="24"/>
@@ -5241,7 +5245,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" ht="12.75">
+    <row r="420" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="24"/>
@@ -5251,7 +5255,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" ht="12.75">
+    <row r="421" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="24"/>
@@ -5261,7 +5265,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" ht="12.75">
+    <row r="422" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="24"/>
@@ -5271,7 +5275,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" ht="12.75">
+    <row r="423" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="24"/>
@@ -5281,7 +5285,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" ht="12.75">
+    <row r="424" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="24"/>
@@ -5291,7 +5295,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" ht="12.75">
+    <row r="425" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="24"/>
@@ -5301,7 +5305,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" ht="12.75">
+    <row r="426" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="24"/>
@@ -5311,7 +5315,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" ht="12.75">
+    <row r="427" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="24"/>
@@ -5321,7 +5325,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" ht="12.75">
+    <row r="428" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="24"/>
@@ -5331,7 +5335,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" ht="12.75">
+    <row r="429" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="24"/>
@@ -5341,7 +5345,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" ht="12.75">
+    <row r="430" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="24"/>
@@ -5351,7 +5355,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" ht="12.75">
+    <row r="431" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="24"/>
@@ -5361,7 +5365,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" ht="12.75">
+    <row r="432" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="24"/>
@@ -5371,7 +5375,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" ht="12.75">
+    <row r="433" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="24"/>
@@ -5381,7 +5385,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" ht="12.75">
+    <row r="434" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="24"/>
@@ -5391,7 +5395,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" ht="12.75">
+    <row r="435" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="24"/>
@@ -5401,7 +5405,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" ht="12.75">
+    <row r="436" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="24"/>
@@ -5411,7 +5415,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" ht="12.75">
+    <row r="437" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="24"/>
@@ -5421,7 +5425,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" ht="12.75">
+    <row r="438" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="24"/>
@@ -5431,7 +5435,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" ht="12.75">
+    <row r="439" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="24"/>
@@ -5441,7 +5445,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" ht="12.75">
+    <row r="440" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="24"/>
@@ -5451,7 +5455,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" ht="12.75">
+    <row r="441" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="24"/>
@@ -5461,7 +5465,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" ht="12.75">
+    <row r="442" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="24"/>
@@ -5471,7 +5475,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" ht="12.75">
+    <row r="443" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="24"/>
@@ -5481,7 +5485,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" ht="12.75">
+    <row r="444" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="24"/>
@@ -5491,7 +5495,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" ht="12.75">
+    <row r="445" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="24"/>
@@ -5501,7 +5505,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" ht="12.75">
+    <row r="446" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="24"/>
@@ -5511,7 +5515,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" ht="12.75">
+    <row r="447" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="24"/>
@@ -5521,7 +5525,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" ht="12.75">
+    <row r="448" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="24"/>
@@ -5531,7 +5535,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" ht="12.75">
+    <row r="449" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="24"/>
@@ -5541,7 +5545,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" ht="12.75">
+    <row r="450" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="24"/>
@@ -5551,7 +5555,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" ht="12.75">
+    <row r="451" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="24"/>
@@ -5561,7 +5565,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" ht="12.75">
+    <row r="452" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="24"/>
@@ -5571,7 +5575,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" ht="12.75">
+    <row r="453" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="24"/>
@@ -5581,7 +5585,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" ht="12.75">
+    <row r="454" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="24"/>
@@ -5591,7 +5595,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" ht="12.75">
+    <row r="455" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="24"/>
@@ -5601,7 +5605,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" ht="12.75">
+    <row r="456" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="24"/>
@@ -5611,7 +5615,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" ht="12.75">
+    <row r="457" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="24"/>
@@ -5621,7 +5625,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" ht="12.75">
+    <row r="458" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="24"/>
@@ -5631,7 +5635,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" ht="12.75">
+    <row r="459" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="24"/>
@@ -5641,7 +5645,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" ht="12.75">
+    <row r="460" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="24"/>
@@ -5651,7 +5655,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" ht="12.75">
+    <row r="461" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="24"/>
@@ -5661,7 +5665,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" ht="12.75">
+    <row r="462" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="24"/>
@@ -5671,7 +5675,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" ht="12.75">
+    <row r="463" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="24"/>
@@ -5681,7 +5685,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" ht="12.75">
+    <row r="464" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="24"/>
@@ -5691,7 +5695,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" ht="12.75">
+    <row r="465" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="24"/>
@@ -5701,7 +5705,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" ht="12.75">
+    <row r="466" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="24"/>
@@ -5711,7 +5715,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" ht="12.75">
+    <row r="467" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="24"/>
@@ -5721,7 +5725,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" ht="12.75">
+    <row r="468" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="24"/>
@@ -5731,7 +5735,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" ht="12.75">
+    <row r="469" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="24"/>
@@ -5741,7 +5745,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" ht="12.75">
+    <row r="470" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="24"/>
@@ -5751,7 +5755,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" ht="12.75">
+    <row r="471" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="24"/>
@@ -5761,7 +5765,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" ht="12.75">
+    <row r="472" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="24"/>
@@ -5771,7 +5775,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" ht="12.75">
+    <row r="473" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="24"/>
@@ -5781,7 +5785,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" ht="12.75">
+    <row r="474" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="24"/>
@@ -5791,7 +5795,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" ht="12.75">
+    <row r="475" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="24"/>
@@ -5801,7 +5805,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" ht="12.75">
+    <row r="476" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="24"/>
@@ -5811,7 +5815,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" ht="12.75">
+    <row r="477" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="24"/>
@@ -5821,7 +5825,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" ht="12.75">
+    <row r="478" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="24"/>
@@ -5831,7 +5835,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" ht="12.75">
+    <row r="479" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="24"/>
@@ -5841,7 +5845,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" ht="12.75">
+    <row r="480" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="24"/>
@@ -5851,7 +5855,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" ht="12.75">
+    <row r="481" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="24"/>
@@ -5861,7 +5865,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" ht="12.75">
+    <row r="482" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="24"/>
@@ -5871,7 +5875,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" ht="12.75">
+    <row r="483" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="24"/>
@@ -5881,7 +5885,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" ht="12.75">
+    <row r="484" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="24"/>
@@ -5891,7 +5895,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" ht="12.75">
+    <row r="485" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="24"/>
@@ -5901,7 +5905,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" ht="12.75">
+    <row r="486" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="24"/>
@@ -5911,7 +5915,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" ht="12.75">
+    <row r="487" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="24"/>
@@ -5921,7 +5925,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" ht="12.75">
+    <row r="488" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="24"/>
@@ -5931,7 +5935,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" ht="12.75">
+    <row r="489" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="24"/>
@@ -5941,7 +5945,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" ht="12.75">
+    <row r="490" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="24"/>
@@ -5951,7 +5955,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" ht="12.75">
+    <row r="491" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="24"/>
@@ -5961,7 +5965,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" ht="12.75">
+    <row r="492" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="24"/>
@@ -5971,7 +5975,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" ht="12.75">
+    <row r="493" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="24"/>
@@ -5981,7 +5985,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" ht="12.75">
+    <row r="494" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="24"/>
@@ -5991,7 +5995,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" ht="12.75">
+    <row r="495" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="24"/>
@@ -6001,7 +6005,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" ht="12.75">
+    <row r="496" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="24"/>
@@ -6011,7 +6015,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" ht="12.75">
+    <row r="497" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="24"/>
@@ -6021,7 +6025,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" ht="12.75">
+    <row r="498" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="24"/>
@@ -6031,7 +6035,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" ht="12.75">
+    <row r="499" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="24"/>
@@ -6041,7 +6045,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" ht="12.75">
+    <row r="500" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="24"/>
@@ -6051,7 +6055,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="1:8" ht="12.75">
+    <row r="501" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="24"/>
@@ -6061,7 +6065,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="1:8" ht="12.75">
+    <row r="502" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="24"/>
@@ -6071,7 +6075,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="1:8" ht="12.75">
+    <row r="503" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="24"/>
@@ -6081,7 +6085,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="1:8" ht="12.75">
+    <row r="504" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="24"/>
@@ -6091,7 +6095,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="1:8" ht="12.75">
+    <row r="505" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="24"/>
@@ -6101,7 +6105,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="1:8" ht="12.75">
+    <row r="506" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="24"/>
@@ -6111,7 +6115,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="1:8" ht="12.75">
+    <row r="507" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="24"/>
@@ -6121,7 +6125,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="1:8" ht="12.75">
+    <row r="508" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="24"/>
@@ -6131,7 +6135,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="1:8" ht="12.75">
+    <row r="509" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="24"/>
@@ -6141,7 +6145,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="1:8" ht="12.75">
+    <row r="510" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="24"/>
@@ -6151,7 +6155,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="1:8" ht="12.75">
+    <row r="511" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="24"/>
@@ -6161,7 +6165,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="1:8" ht="12.75">
+    <row r="512" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="24"/>
@@ -6171,7 +6175,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="1:8" ht="12.75">
+    <row r="513" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="24"/>
@@ -6181,7 +6185,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="1:8" ht="12.75">
+    <row r="514" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="24"/>
@@ -6191,7 +6195,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="1:8" ht="12.75">
+    <row r="515" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="24"/>
@@ -6201,7 +6205,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="1:8" ht="12.75">
+    <row r="516" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="24"/>
@@ -6211,7 +6215,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="1:8" ht="12.75">
+    <row r="517" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="24"/>
@@ -6221,7 +6225,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="1:8" ht="12.75">
+    <row r="518" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="24"/>
@@ -6231,7 +6235,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="1:8" ht="12.75">
+    <row r="519" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="24"/>
@@ -6241,7 +6245,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="1:8" ht="12.75">
+    <row r="520" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="24"/>
@@ -6251,7 +6255,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="1:8" ht="12.75">
+    <row r="521" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="24"/>
@@ -6261,7 +6265,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="1:8" ht="12.75">
+    <row r="522" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="24"/>
@@ -6271,7 +6275,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="1:8" ht="12.75">
+    <row r="523" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="24"/>
@@ -6281,7 +6285,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="1:8" ht="12.75">
+    <row r="524" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="24"/>
@@ -6291,7 +6295,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="1:8" ht="12.75">
+    <row r="525" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="24"/>
@@ -6301,7 +6305,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="1:8" ht="12.75">
+    <row r="526" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="24"/>
@@ -6311,7 +6315,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="1:8" ht="12.75">
+    <row r="527" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="24"/>
@@ -6321,7 +6325,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="1:8" ht="12.75">
+    <row r="528" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="24"/>
@@ -6331,7 +6335,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="1:8" ht="12.75">
+    <row r="529" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="24"/>
@@ -6341,7 +6345,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="1:8" ht="12.75">
+    <row r="530" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="24"/>
@@ -6351,7 +6355,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="1:8" ht="12.75">
+    <row r="531" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="24"/>
@@ -6361,7 +6365,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="1:8" ht="12.75">
+    <row r="532" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="24"/>
@@ -6371,7 +6375,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="1:8" ht="12.75">
+    <row r="533" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="24"/>
@@ -6381,7 +6385,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="1:8" ht="12.75">
+    <row r="534" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="24"/>
@@ -6391,7 +6395,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="1:8" ht="12.75">
+    <row r="535" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="24"/>
@@ -6401,7 +6405,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="1:8" ht="12.75">
+    <row r="536" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="24"/>
@@ -6411,7 +6415,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="1:8" ht="12.75">
+    <row r="537" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="24"/>
@@ -6421,7 +6425,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="1:8" ht="12.75">
+    <row r="538" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="24"/>
@@ -6431,7 +6435,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="1:8" ht="12.75">
+    <row r="539" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="24"/>
@@ -6441,7 +6445,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="1:8" ht="12.75">
+    <row r="540" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="24"/>
@@ -6451,7 +6455,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="1:8" ht="12.75">
+    <row r="541" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="24"/>
@@ -6461,7 +6465,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="1:8" ht="12.75">
+    <row r="542" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="24"/>
@@ -6471,7 +6475,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="1:8" ht="12.75">
+    <row r="543" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="24"/>
@@ -6481,7 +6485,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="1:8" ht="12.75">
+    <row r="544" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="24"/>
@@ -6491,7 +6495,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="1:8" ht="12.75">
+    <row r="545" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="24"/>
@@ -6501,7 +6505,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="1:8" ht="12.75">
+    <row r="546" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="24"/>
@@ -6511,7 +6515,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="1:8" ht="12.75">
+    <row r="547" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="24"/>
@@ -6521,7 +6525,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="1:8" ht="12.75">
+    <row r="548" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="24"/>
@@ -6531,7 +6535,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="1:8" ht="12.75">
+    <row r="549" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="24"/>
@@ -6541,7 +6545,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="1:8" ht="12.75">
+    <row r="550" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="24"/>
@@ -6551,7 +6555,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="1:8" ht="12.75">
+    <row r="551" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="24"/>
@@ -6561,7 +6565,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="1:8" ht="12.75">
+    <row r="552" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="24"/>
@@ -6571,7 +6575,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="1:8" ht="12.75">
+    <row r="553" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="24"/>
@@ -6581,7 +6585,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="1:8" ht="12.75">
+    <row r="554" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="24"/>
@@ -6591,7 +6595,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="1:8" ht="12.75">
+    <row r="555" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="24"/>
@@ -6601,7 +6605,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="1:8" ht="12.75">
+    <row r="556" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="24"/>
@@ -6611,7 +6615,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="1:8" ht="12.75">
+    <row r="557" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="24"/>
@@ -6621,7 +6625,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="1:8" ht="12.75">
+    <row r="558" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="24"/>
@@ -6631,7 +6635,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="1:8" ht="12.75">
+    <row r="559" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="24"/>
@@ -6641,7 +6645,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="1:8" ht="12.75">
+    <row r="560" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="24"/>
@@ -6651,7 +6655,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="1:8" ht="12.75">
+    <row r="561" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="24"/>
@@ -6661,7 +6665,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="1:8" ht="12.75">
+    <row r="562" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="24"/>
@@ -6671,7 +6675,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="1:8" ht="12.75">
+    <row r="563" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="24"/>
@@ -6681,7 +6685,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="1:8" ht="12.75">
+    <row r="564" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="24"/>
@@ -6691,7 +6695,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="1:8" ht="12.75">
+    <row r="565" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="24"/>
@@ -6701,7 +6705,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="1:8" ht="12.75">
+    <row r="566" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="24"/>
@@ -6711,7 +6715,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="1:8" ht="12.75">
+    <row r="567" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="24"/>
@@ -6721,7 +6725,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="1:8" ht="12.75">
+    <row r="568" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="24"/>
@@ -6731,7 +6735,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="1:8" ht="12.75">
+    <row r="569" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="24"/>
@@ -6741,7 +6745,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="1:8" ht="12.75">
+    <row r="570" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="24"/>
@@ -6751,7 +6755,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="1:8" ht="12.75">
+    <row r="571" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="24"/>
@@ -6761,7 +6765,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="1:8" ht="12.75">
+    <row r="572" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="24"/>
@@ -6771,7 +6775,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" ht="12.75">
+    <row r="573" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="24"/>
@@ -6781,7 +6785,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" ht="12.75">
+    <row r="574" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="24"/>
@@ -6791,7 +6795,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" ht="12.75">
+    <row r="575" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="24"/>
@@ -6801,7 +6805,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="1:8" ht="12.75">
+    <row r="576" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="24"/>
@@ -6811,7 +6815,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="1:8" ht="12.75">
+    <row r="577" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="24"/>
@@ -6821,7 +6825,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="1:8" ht="12.75">
+    <row r="578" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="24"/>
@@ -6831,7 +6835,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="1:8" ht="12.75">
+    <row r="579" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="24"/>
@@ -6841,7 +6845,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="1:8" ht="12.75">
+    <row r="580" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="24"/>
@@ -6851,7 +6855,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="1:8" ht="12.75">
+    <row r="581" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="24"/>
@@ -6861,7 +6865,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="1:8" ht="12.75">
+    <row r="582" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="24"/>
@@ -6871,7 +6875,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" ht="12.75">
+    <row r="583" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="24"/>
@@ -6881,7 +6885,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="1:8" ht="12.75">
+    <row r="584" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="24"/>
@@ -6891,7 +6895,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="1:8" ht="12.75">
+    <row r="585" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="24"/>
@@ -6901,7 +6905,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="1:8" ht="12.75">
+    <row r="586" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="24"/>
@@ -6911,7 +6915,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="1:8" ht="12.75">
+    <row r="587" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="24"/>
@@ -6921,7 +6925,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="1:8" ht="12.75">
+    <row r="588" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="24"/>
@@ -6931,7 +6935,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="1:8" ht="12.75">
+    <row r="589" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="24"/>
@@ -6941,7 +6945,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="1:8" ht="12.75">
+    <row r="590" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="24"/>
@@ -6951,7 +6955,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="1:8" ht="12.75">
+    <row r="591" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="24"/>
@@ -6961,7 +6965,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="1:8" ht="12.75">
+    <row r="592" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="24"/>
@@ -6971,7 +6975,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="1:8" ht="12.75">
+    <row r="593" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="24"/>
@@ -6981,7 +6985,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="1:8" ht="12.75">
+    <row r="594" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="24"/>
@@ -6991,7 +6995,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="1:8" ht="12.75">
+    <row r="595" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="24"/>
@@ -7001,7 +7005,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="1:8" ht="12.75">
+    <row r="596" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="24"/>
@@ -7011,7 +7015,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="1:8" ht="12.75">
+    <row r="597" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="24"/>
@@ -7021,7 +7025,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="1:8" ht="12.75">
+    <row r="598" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="24"/>
@@ -7031,7 +7035,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="1:8" ht="12.75">
+    <row r="599" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="24"/>
@@ -7041,7 +7045,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="1:8" ht="12.75">
+    <row r="600" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="24"/>
@@ -7051,7 +7055,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="1:8" ht="12.75">
+    <row r="601" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="24"/>
@@ -7061,7 +7065,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="1:8" ht="12.75">
+    <row r="602" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="24"/>
@@ -7071,7 +7075,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="1:8" ht="12.75">
+    <row r="603" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="24"/>
@@ -7081,7 +7085,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="1:8" ht="12.75">
+    <row r="604" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="24"/>
@@ -7091,7 +7095,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="1:8" ht="12.75">
+    <row r="605" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="24"/>
@@ -7101,7 +7105,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="1:8" ht="12.75">
+    <row r="606" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="24"/>
@@ -7111,7 +7115,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="1:8" ht="12.75">
+    <row r="607" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="24"/>
@@ -7121,7 +7125,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="1:8" ht="12.75">
+    <row r="608" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="24"/>
@@ -7131,7 +7135,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="1:8" ht="12.75">
+    <row r="609" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="24"/>
@@ -7141,7 +7145,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="1:8" ht="12.75">
+    <row r="610" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="24"/>
@@ -7151,7 +7155,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="1:8" ht="12.75">
+    <row r="611" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="24"/>
@@ -7161,7 +7165,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="1:8" ht="12.75">
+    <row r="612" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="24"/>
@@ -7171,7 +7175,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="1:8" ht="12.75">
+    <row r="613" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="24"/>
@@ -7181,7 +7185,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="1:8" ht="12.75">
+    <row r="614" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="24"/>
@@ -7191,7 +7195,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="1:8" ht="12.75">
+    <row r="615" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="24"/>
@@ -7201,7 +7205,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="1:8" ht="12.75">
+    <row r="616" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="24"/>
@@ -7211,7 +7215,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" ht="12.75">
+    <row r="617" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="24"/>
@@ -7221,7 +7225,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" ht="12.75">
+    <row r="618" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="24"/>
@@ -7231,7 +7235,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" ht="12.75">
+    <row r="619" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="24"/>
@@ -7241,7 +7245,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" ht="12.75">
+    <row r="620" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="24"/>
@@ -7251,7 +7255,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" ht="12.75">
+    <row r="621" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="24"/>
@@ -7261,7 +7265,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" ht="12.75">
+    <row r="622" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="24"/>
@@ -7271,7 +7275,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" ht="12.75">
+    <row r="623" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="24"/>
@@ -7281,7 +7285,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" ht="12.75">
+    <row r="624" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="24"/>
@@ -7291,7 +7295,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="1:8" ht="12.75">
+    <row r="625" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="24"/>
@@ -7301,7 +7305,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="1:8" ht="12.75">
+    <row r="626" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="24"/>
@@ -7311,7 +7315,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="1:8" ht="12.75">
+    <row r="627" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="24"/>
@@ -7321,7 +7325,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="1:8" ht="12.75">
+    <row r="628" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="24"/>
@@ -7331,7 +7335,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="1:8" ht="12.75">
+    <row r="629" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="24"/>
@@ -7341,7 +7345,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="1:8" ht="12.75">
+    <row r="630" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="24"/>
@@ -7351,7 +7355,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="1:8" ht="12.75">
+    <row r="631" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="24"/>
@@ -7361,7 +7365,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="1:8" ht="12.75">
+    <row r="632" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="24"/>
@@ -7371,7 +7375,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="1:8" ht="12.75">
+    <row r="633" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="24"/>
@@ -7381,7 +7385,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="1:8" ht="12.75">
+    <row r="634" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="24"/>
@@ -7391,7 +7395,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="1:8" ht="12.75">
+    <row r="635" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="24"/>
@@ -7401,7 +7405,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="1:8" ht="12.75">
+    <row r="636" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="24"/>
@@ -7411,7 +7415,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="1:8" ht="12.75">
+    <row r="637" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="24"/>
@@ -7421,7 +7425,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="1:8" ht="12.75">
+    <row r="638" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="24"/>
@@ -7431,7 +7435,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="1:8" ht="12.75">
+    <row r="639" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="24"/>
@@ -7441,7 +7445,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="1:8" ht="12.75">
+    <row r="640" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="24"/>
@@ -7451,7 +7455,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="1:8" ht="12.75">
+    <row r="641" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="24"/>
@@ -7461,7 +7465,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="1:8" ht="12.75">
+    <row r="642" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="24"/>
@@ -7471,7 +7475,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="1:8" ht="12.75">
+    <row r="643" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="24"/>
@@ -7481,7 +7485,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="1:8" ht="12.75">
+    <row r="644" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="24"/>
@@ -7491,7 +7495,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="1:8" ht="12.75">
+    <row r="645" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="24"/>
@@ -7501,7 +7505,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="1:8" ht="12.75">
+    <row r="646" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="24"/>
@@ -7511,7 +7515,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="1:8" ht="12.75">
+    <row r="647" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="24"/>
@@ -7521,7 +7525,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="1:8" ht="12.75">
+    <row r="648" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="24"/>
@@ -7531,7 +7535,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="1:8" ht="12.75">
+    <row r="649" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="24"/>
@@ -7541,7 +7545,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="1:8" ht="12.75">
+    <row r="650" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="24"/>
@@ -7551,7 +7555,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="1:8" ht="12.75">
+    <row r="651" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="24"/>
@@ -7561,7 +7565,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="1:8" ht="12.75">
+    <row r="652" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="24"/>
@@ -7571,7 +7575,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="1:8" ht="12.75">
+    <row r="653" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="24"/>
@@ -7581,7 +7585,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="1:8" ht="12.75">
+    <row r="654" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="24"/>
@@ -7591,7 +7595,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" ht="12.75">
+    <row r="655" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="24"/>
@@ -7601,7 +7605,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" ht="12.75">
+    <row r="656" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="24"/>
@@ -7611,7 +7615,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="1:8" ht="12.75">
+    <row r="657" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="24"/>
@@ -7621,7 +7625,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="1:8" ht="12.75">
+    <row r="658" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="24"/>
@@ -7631,7 +7635,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="1:8" ht="12.75">
+    <row r="659" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="24"/>
@@ -7641,7 +7645,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="1:8" ht="12.75">
+    <row r="660" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="24"/>
@@ -7651,7 +7655,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" ht="12.75">
+    <row r="661" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="24"/>
@@ -7661,7 +7665,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="1:8" ht="12.75">
+    <row r="662" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="24"/>
@@ -7671,7 +7675,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="1:8" ht="12.75">
+    <row r="663" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="24"/>
@@ -7681,7 +7685,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" ht="12.75">
+    <row r="664" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="24"/>
@@ -7691,7 +7695,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="1:8" ht="12.75">
+    <row r="665" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="24"/>
@@ -7701,7 +7705,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" ht="12.75">
+    <row r="666" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="24"/>
@@ -7711,7 +7715,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" ht="12.75">
+    <row r="667" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="24"/>
@@ -7721,7 +7725,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" ht="12.75">
+    <row r="668" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="24"/>
@@ -7731,7 +7735,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" ht="12.75">
+    <row r="669" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="24"/>
@@ -7741,7 +7745,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" ht="12.75">
+    <row r="670" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="24"/>
@@ -7751,7 +7755,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" ht="12.75">
+    <row r="671" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="24"/>
@@ -7761,7 +7765,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="1:8" ht="12.75">
+    <row r="672" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="24"/>
@@ -7771,7 +7775,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" ht="12.75">
+    <row r="673" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="24"/>
@@ -7781,7 +7785,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" ht="12.75">
+    <row r="674" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="24"/>
@@ -7791,7 +7795,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="1:8" ht="12.75">
+    <row r="675" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="24"/>
@@ -7801,7 +7805,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="1:8" ht="12.75">
+    <row r="676" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="24"/>
@@ -7811,7 +7815,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="1:8" ht="12.75">
+    <row r="677" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="24"/>
@@ -7821,7 +7825,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" ht="12.75">
+    <row r="678" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="24"/>
@@ -7831,7 +7835,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="1:8" ht="12.75">
+    <row r="679" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="24"/>
@@ -7841,7 +7845,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" ht="12.75">
+    <row r="680" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="24"/>
@@ -7851,7 +7855,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" ht="12.75">
+    <row r="681" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="24"/>
@@ -7861,7 +7865,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="1:8" ht="12.75">
+    <row r="682" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="24"/>
@@ -7871,7 +7875,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" ht="12.75">
+    <row r="683" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="24"/>
@@ -7881,7 +7885,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="1:8" ht="12.75">
+    <row r="684" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="24"/>
@@ -7891,7 +7895,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="1:8" ht="12.75">
+    <row r="685" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="24"/>
@@ -7901,7 +7905,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="1:8" ht="12.75">
+    <row r="686" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="24"/>
@@ -7911,7 +7915,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="1:8" ht="12.75">
+    <row r="687" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="24"/>
@@ -7921,7 +7925,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="1:8" ht="12.75">
+    <row r="688" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="24"/>
@@ -7931,7 +7935,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" ht="12.75">
+    <row r="689" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="24"/>
@@ -7941,7 +7945,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="1:8" ht="12.75">
+    <row r="690" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="24"/>
@@ -7951,7 +7955,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" ht="12.75">
+    <row r="691" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="24"/>
@@ -7961,7 +7965,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="1:8" ht="12.75">
+    <row r="692" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="24"/>
@@ -7971,7 +7975,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" ht="12.75">
+    <row r="693" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="24"/>
@@ -7981,7 +7985,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="1:8" ht="12.75">
+    <row r="694" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="24"/>
@@ -7991,7 +7995,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" ht="12.75">
+    <row r="695" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="24"/>
@@ -8001,7 +8005,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" ht="12.75">
+    <row r="696" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="24"/>
@@ -8011,7 +8015,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" ht="12.75">
+    <row r="697" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="24"/>
@@ -8021,7 +8025,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" ht="12.75">
+    <row r="698" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="24"/>
@@ -8031,7 +8035,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" ht="12.75">
+    <row r="699" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="24"/>
@@ -8041,7 +8045,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" ht="12.75">
+    <row r="700" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="24"/>
@@ -8051,7 +8055,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" ht="12.75">
+    <row r="701" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="24"/>
@@ -8061,7 +8065,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="1:8" ht="12.75">
+    <row r="702" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="24"/>
@@ -8071,7 +8075,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" ht="12.75">
+    <row r="703" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="24"/>
@@ -8081,7 +8085,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" ht="12.75">
+    <row r="704" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="24"/>
@@ -8091,7 +8095,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" ht="12.75">
+    <row r="705" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="24"/>
@@ -8101,7 +8105,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" ht="12.75">
+    <row r="706" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="24"/>
@@ -8111,7 +8115,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" ht="12.75">
+    <row r="707" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="24"/>
@@ -8121,7 +8125,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" ht="12.75">
+    <row r="708" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="24"/>
@@ -8131,7 +8135,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="1:8" ht="12.75">
+    <row r="709" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="24"/>
@@ -8141,7 +8145,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" ht="12.75">
+    <row r="710" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="24"/>
@@ -8151,7 +8155,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="1:8" ht="12.75">
+    <row r="711" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="24"/>
@@ -8161,7 +8165,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" ht="12.75">
+    <row r="712" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="24"/>
@@ -8171,7 +8175,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="1:8" ht="12.75">
+    <row r="713" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="24"/>
@@ -8181,7 +8185,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="1:8" ht="12.75">
+    <row r="714" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="24"/>
@@ -8191,7 +8195,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="1:8" ht="12.75">
+    <row r="715" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="24"/>
@@ -8201,7 +8205,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="1:8" ht="12.75">
+    <row r="716" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="24"/>
@@ -8211,7 +8215,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="1:8" ht="12.75">
+    <row r="717" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="24"/>
@@ -8221,7 +8225,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="1:8" ht="12.75">
+    <row r="718" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="24"/>
@@ -8231,7 +8235,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" ht="12.75">
+    <row r="719" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="24"/>
@@ -8241,7 +8245,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" ht="12.75">
+    <row r="720" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="24"/>
@@ -8251,7 +8255,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" ht="12.75">
+    <row r="721" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="24"/>
@@ -8261,7 +8265,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="1:8" ht="12.75">
+    <row r="722" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="24"/>
@@ -8271,7 +8275,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" ht="12.75">
+    <row r="723" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="24"/>
@@ -8281,7 +8285,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" ht="12.75">
+    <row r="724" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="24"/>
@@ -8291,7 +8295,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" ht="12.75">
+    <row r="725" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="24"/>
@@ -8301,7 +8305,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" ht="12.75">
+    <row r="726" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="24"/>
@@ -8311,7 +8315,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="1:8" ht="12.75">
+    <row r="727" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="24"/>
@@ -8321,7 +8325,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="1:8" ht="12.75">
+    <row r="728" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="24"/>
@@ -8331,7 +8335,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" ht="12.75">
+    <row r="729" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="24"/>
@@ -8341,7 +8345,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="1:8" ht="12.75">
+    <row r="730" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="24"/>
@@ -8351,7 +8355,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" ht="12.75">
+    <row r="731" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="24"/>
@@ -8361,7 +8365,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="1:8" ht="12.75">
+    <row r="732" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="24"/>
@@ -8371,7 +8375,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" ht="12.75">
+    <row r="733" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="24"/>
@@ -8381,7 +8385,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" ht="12.75">
+    <row r="734" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="24"/>
@@ -8391,7 +8395,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" ht="12.75">
+    <row r="735" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="24"/>
@@ -8401,7 +8405,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" ht="12.75">
+    <row r="736" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="24"/>
@@ -8411,7 +8415,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="1:8" ht="12.75">
+    <row r="737" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="24"/>
@@ -8421,7 +8425,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" ht="12.75">
+    <row r="738" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="24"/>
@@ -8431,7 +8435,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="1:8" ht="12.75">
+    <row r="739" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="24"/>
@@ -8441,7 +8445,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" ht="12.75">
+    <row r="740" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="24"/>
@@ -8451,7 +8455,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="1:8" ht="12.75">
+    <row r="741" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="24"/>
@@ -8461,7 +8465,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" ht="12.75">
+    <row r="742" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="24"/>
@@ -8471,7 +8475,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="1:8" ht="12.75">
+    <row r="743" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="24"/>
@@ -8481,7 +8485,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" ht="12.75">
+    <row r="744" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="24"/>
@@ -8491,7 +8495,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" ht="12.75">
+    <row r="745" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="24"/>
@@ -8501,7 +8505,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" ht="12.75">
+    <row r="746" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="24"/>
@@ -8511,7 +8515,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" ht="12.75">
+    <row r="747" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="24"/>
@@ -8521,7 +8525,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" ht="12.75">
+    <row r="748" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="24"/>
@@ -8531,7 +8535,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" ht="12.75">
+    <row r="749" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="24"/>
@@ -8541,7 +8545,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" ht="12.75">
+    <row r="750" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="24"/>
@@ -8551,7 +8555,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" ht="12.75">
+    <row r="751" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="24"/>
@@ -8561,7 +8565,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="1:8" ht="12.75">
+    <row r="752" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="24"/>
@@ -8571,7 +8575,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" ht="12.75">
+    <row r="753" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="24"/>
@@ -8581,7 +8585,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="1:8" ht="12.75">
+    <row r="754" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="24"/>
@@ -8591,7 +8595,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" ht="12.75">
+    <row r="755" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="24"/>
@@ -8601,7 +8605,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="1:8" ht="12.75">
+    <row r="756" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="24"/>
@@ -8611,7 +8615,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="1:8" ht="12.75">
+    <row r="757" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="24"/>
@@ -8621,7 +8625,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="1:8" ht="12.75">
+    <row r="758" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="24"/>
@@ -8631,7 +8635,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="1:8" ht="12.75">
+    <row r="759" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="24"/>
@@ -8641,7 +8645,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="1:8" ht="12.75">
+    <row r="760" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="24"/>
@@ -8651,7 +8655,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="1:8" ht="12.75">
+    <row r="761" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="24"/>
@@ -8661,7 +8665,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="1:8" ht="12.75">
+    <row r="762" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="24"/>
@@ -8671,7 +8675,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="1:8" ht="12.75">
+    <row r="763" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="24"/>
@@ -8681,7 +8685,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="1:8" ht="12.75">
+    <row r="764" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="24"/>
@@ -8691,7 +8695,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="1:8" ht="12.75">
+    <row r="765" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="24"/>
@@ -8701,7 +8705,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="1:8" ht="12.75">
+    <row r="766" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="24"/>
@@ -8711,7 +8715,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="1:8" ht="12.75">
+    <row r="767" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="24"/>
@@ -8721,7 +8725,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="1:8" ht="12.75">
+    <row r="768" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="24"/>
@@ -8731,7 +8735,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="1:8" ht="12.75">
+    <row r="769" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="24"/>
@@ -8741,7 +8745,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="1:8" ht="12.75">
+    <row r="770" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="24"/>
@@ -8751,7 +8755,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="1:8" ht="12.75">
+    <row r="771" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="24"/>
@@ -8761,7 +8765,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="1:8" ht="12.75">
+    <row r="772" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="24"/>
@@ -8771,7 +8775,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="1:8" ht="12.75">
+    <row r="773" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="24"/>
@@ -8781,7 +8785,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="1:8" ht="12.75">
+    <row r="774" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="24"/>
@@ -8791,7 +8795,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="1:8" ht="12.75">
+    <row r="775" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="24"/>
@@ -8801,7 +8805,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="1:8" ht="12.75">
+    <row r="776" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="24"/>
@@ -8811,7 +8815,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="1:8" ht="12.75">
+    <row r="777" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="24"/>
@@ -8821,7 +8825,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="1:8" ht="12.75">
+    <row r="778" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="24"/>
@@ -8831,7 +8835,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="1:8" ht="12.75">
+    <row r="779" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="24"/>
@@ -8841,7 +8845,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="1:8" ht="12.75">
+    <row r="780" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="24"/>
@@ -8851,7 +8855,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="1:8" ht="12.75">
+    <row r="781" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="24"/>
@@ -8861,7 +8865,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="1:8" ht="12.75">
+    <row r="782" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="24"/>
@@ -8871,7 +8875,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="1:8" ht="12.75">
+    <row r="783" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="24"/>
@@ -8881,7 +8885,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="1:8" ht="12.75">
+    <row r="784" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="24"/>
@@ -8891,7 +8895,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="1:8" ht="12.75">
+    <row r="785" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="24"/>
@@ -8901,7 +8905,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="1:8" ht="12.75">
+    <row r="786" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="24"/>
@@ -8911,7 +8915,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="1:8" ht="12.75">
+    <row r="787" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="24"/>
@@ -8921,7 +8925,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="1:8" ht="12.75">
+    <row r="788" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="24"/>
@@ -8931,7 +8935,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="1:8" ht="12.75">
+    <row r="789" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="24"/>
@@ -8941,7 +8945,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="1:8" ht="12.75">
+    <row r="790" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="24"/>
@@ -8951,7 +8955,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="1:8" ht="12.75">
+    <row r="791" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="24"/>
@@ -8961,7 +8965,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="1:8" ht="12.75">
+    <row r="792" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="24"/>
@@ -8971,7 +8975,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="1:8" ht="12.75">
+    <row r="793" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="24"/>
@@ -8981,7 +8985,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="1:8" ht="12.75">
+    <row r="794" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="24"/>
@@ -8991,7 +8995,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="1:8" ht="12.75">
+    <row r="795" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="24"/>
@@ -9001,7 +9005,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="1:8" ht="12.75">
+    <row r="796" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="24"/>
@@ -9011,7 +9015,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="1:8" ht="12.75">
+    <row r="797" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="24"/>
@@ -9021,7 +9025,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="1:8" ht="12.75">
+    <row r="798" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="24"/>
@@ -9031,7 +9035,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="1:8" ht="12.75">
+    <row r="799" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="24"/>
@@ -9041,7 +9045,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="1:8" ht="12.75">
+    <row r="800" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="24"/>
@@ -9051,7 +9055,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="1:8" ht="12.75">
+    <row r="801" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="24"/>
@@ -9061,7 +9065,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="1:8" ht="12.75">
+    <row r="802" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="24"/>
@@ -9071,7 +9075,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="1:8" ht="12.75">
+    <row r="803" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="24"/>
@@ -9081,7 +9085,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="1:8" ht="12.75">
+    <row r="804" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="24"/>
@@ -9091,7 +9095,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="1:8" ht="12.75">
+    <row r="805" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="24"/>
@@ -9101,7 +9105,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="1:8" ht="12.75">
+    <row r="806" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="24"/>
@@ -9111,7 +9115,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="1:8" ht="12.75">
+    <row r="807" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="24"/>
@@ -9121,7 +9125,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="1:8" ht="12.75">
+    <row r="808" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="24"/>
@@ -9131,7 +9135,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="1:8" ht="12.75">
+    <row r="809" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="24"/>
@@ -9141,7 +9145,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="1:8" ht="12.75">
+    <row r="810" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="24"/>
@@ -9151,7 +9155,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="1:8" ht="12.75">
+    <row r="811" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="24"/>
@@ -9161,7 +9165,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="1:8" ht="12.75">
+    <row r="812" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="24"/>
@@ -9171,7 +9175,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="1:8" ht="12.75">
+    <row r="813" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="24"/>
@@ -9181,7 +9185,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="1:8" ht="12.75">
+    <row r="814" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="24"/>
@@ -9191,7 +9195,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="1:8" ht="12.75">
+    <row r="815" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="24"/>
@@ -9201,7 +9205,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="1:8" ht="12.75">
+    <row r="816" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="24"/>
@@ -9211,7 +9215,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="1:8" ht="12.75">
+    <row r="817" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="24"/>
@@ -9221,7 +9225,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="1:8" ht="12.75">
+    <row r="818" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="24"/>
@@ -9231,7 +9235,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="1:8" ht="12.75">
+    <row r="819" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="24"/>
@@ -9241,7 +9245,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="1:8" ht="12.75">
+    <row r="820" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="24"/>
@@ -9251,7 +9255,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="1:8" ht="12.75">
+    <row r="821" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="24"/>
@@ -9261,7 +9265,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="1:8" ht="12.75">
+    <row r="822" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="24"/>
@@ -9271,7 +9275,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="1:8" ht="12.75">
+    <row r="823" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="24"/>
@@ -9281,7 +9285,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="1:8" ht="12.75">
+    <row r="824" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="24"/>
@@ -9291,7 +9295,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="1:8" ht="12.75">
+    <row r="825" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="24"/>
@@ -9301,7 +9305,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="1:8" ht="12.75">
+    <row r="826" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="24"/>
@@ -9311,7 +9315,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="1:8" ht="12.75">
+    <row r="827" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="24"/>
@@ -9321,7 +9325,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="1:8" ht="12.75">
+    <row r="828" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="24"/>
@@ -9331,7 +9335,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="1:8" ht="12.75">
+    <row r="829" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="24"/>
@@ -9341,7 +9345,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="1:8" ht="12.75">
+    <row r="830" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="24"/>
@@ -9351,7 +9355,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="1:8" ht="12.75">
+    <row r="831" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="24"/>
@@ -9361,7 +9365,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="1:8" ht="12.75">
+    <row r="832" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="24"/>
@@ -9371,7 +9375,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="1:8" ht="12.75">
+    <row r="833" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="24"/>
@@ -9381,7 +9385,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="1:8" ht="12.75">
+    <row r="834" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="24"/>
@@ -9391,7 +9395,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="1:8" ht="12.75">
+    <row r="835" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="24"/>
@@ -9401,7 +9405,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="1:8" ht="12.75">
+    <row r="836" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="24"/>
@@ -9411,7 +9415,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="1:8" ht="12.75">
+    <row r="837" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="24"/>
@@ -9421,7 +9425,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="1:8" ht="12.75">
+    <row r="838" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="24"/>
@@ -9431,7 +9435,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="1:8" ht="12.75">
+    <row r="839" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="24"/>
@@ -9441,7 +9445,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="1:8" ht="12.75">
+    <row r="840" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="24"/>
@@ -9451,7 +9455,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="1:8" ht="12.75">
+    <row r="841" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="24"/>
@@ -9461,7 +9465,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="1:8" ht="12.75">
+    <row r="842" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="24"/>
@@ -9471,7 +9475,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="1:8" ht="12.75">
+    <row r="843" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="24"/>
@@ -9481,7 +9485,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="1:8" ht="12.75">
+    <row r="844" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="24"/>
@@ -9491,7 +9495,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="1:8" ht="12.75">
+    <row r="845" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="24"/>
@@ -9501,7 +9505,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="1:8" ht="12.75">
+    <row r="846" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="24"/>
@@ -9511,7 +9515,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="1:8" ht="12.75">
+    <row r="847" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="24"/>
@@ -9521,7 +9525,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="1:8" ht="12.75">
+    <row r="848" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="24"/>
@@ -9531,7 +9535,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="1:8" ht="12.75">
+    <row r="849" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="24"/>
@@ -9541,7 +9545,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="1:8" ht="12.75">
+    <row r="850" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="24"/>
@@ -9551,7 +9555,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="1:8" ht="12.75">
+    <row r="851" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="24"/>
@@ -9561,7 +9565,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="1:8" ht="12.75">
+    <row r="852" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="24"/>
@@ -9571,7 +9575,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="1:8" ht="12.75">
+    <row r="853" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="24"/>
@@ -9581,7 +9585,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="1:8" ht="12.75">
+    <row r="854" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="24"/>
@@ -9591,7 +9595,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="1:8" ht="12.75">
+    <row r="855" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="24"/>
@@ -9601,7 +9605,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="1:8" ht="12.75">
+    <row r="856" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="24"/>
@@ -9611,7 +9615,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="1:8" ht="12.75">
+    <row r="857" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="24"/>
@@ -9621,7 +9625,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="1:8" ht="12.75">
+    <row r="858" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="24"/>
@@ -9631,7 +9635,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="1:8" ht="12.75">
+    <row r="859" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="24"/>
@@ -9641,7 +9645,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="1:8" ht="12.75">
+    <row r="860" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="24"/>
@@ -9651,7 +9655,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="1:8" ht="12.75">
+    <row r="861" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="24"/>
@@ -9661,7 +9665,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="1:8" ht="12.75">
+    <row r="862" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="24"/>
@@ -9671,7 +9675,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="1:8" ht="12.75">
+    <row r="863" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="24"/>
@@ -9681,7 +9685,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="1:8" ht="12.75">
+    <row r="864" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="24"/>
@@ -9691,7 +9695,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="1:8" ht="12.75">
+    <row r="865" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="24"/>
@@ -9701,7 +9705,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="1:8" ht="12.75">
+    <row r="866" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="24"/>
@@ -9711,7 +9715,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="1:8" ht="12.75">
+    <row r="867" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="24"/>
@@ -9721,7 +9725,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="1:8" ht="12.75">
+    <row r="868" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="24"/>
@@ -9731,7 +9735,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="1:8" ht="12.75">
+    <row r="869" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="24"/>
@@ -9741,7 +9745,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="1:8" ht="12.75">
+    <row r="870" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="24"/>
@@ -9751,7 +9755,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="1:8" ht="12.75">
+    <row r="871" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="24"/>
@@ -9761,7 +9765,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="1:8" ht="12.75">
+    <row r="872" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="24"/>
@@ -9771,7 +9775,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="1:8" ht="12.75">
+    <row r="873" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="24"/>
@@ -9781,7 +9785,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="1:8" ht="12.75">
+    <row r="874" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="24"/>
@@ -9791,7 +9795,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="1:8" ht="12.75">
+    <row r="875" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="24"/>
@@ -9801,7 +9805,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="1:8" ht="12.75">
+    <row r="876" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="24"/>
@@ -9811,7 +9815,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="1:8" ht="12.75">
+    <row r="877" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="24"/>
@@ -9821,7 +9825,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="1:8" ht="12.75">
+    <row r="878" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="24"/>
@@ -9831,7 +9835,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="1:8" ht="12.75">
+    <row r="879" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="24"/>
@@ -9841,7 +9845,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="1:8" ht="12.75">
+    <row r="880" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="24"/>
@@ -9851,7 +9855,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="1:8" ht="12.75">
+    <row r="881" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="24"/>
@@ -9861,7 +9865,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="1:8" ht="12.75">
+    <row r="882" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="24"/>
@@ -9871,7 +9875,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="1:8" ht="12.75">
+    <row r="883" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="24"/>
@@ -9881,7 +9885,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="1:8" ht="12.75">
+    <row r="884" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="24"/>
@@ -9891,7 +9895,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="1:8" ht="12.75">
+    <row r="885" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="24"/>
@@ -9901,7 +9905,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="1:8" ht="12.75">
+    <row r="886" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="24"/>
@@ -9911,7 +9915,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="1:8" ht="12.75">
+    <row r="887" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="24"/>
@@ -9921,7 +9925,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="1:8" ht="12.75">
+    <row r="888" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="24"/>
@@ -9931,7 +9935,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="1:8" ht="12.75">
+    <row r="889" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="24"/>
@@ -9941,7 +9945,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="1:8" ht="12.75">
+    <row r="890" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="24"/>
@@ -9951,7 +9955,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="1:8" ht="12.75">
+    <row r="891" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="24"/>
@@ -9961,7 +9965,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="1:8" ht="12.75">
+    <row r="892" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="24"/>
@@ -9971,7 +9975,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="1:8" ht="12.75">
+    <row r="893" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="24"/>
@@ -9981,7 +9985,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="1:8" ht="12.75">
+    <row r="894" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="24"/>
@@ -9991,7 +9995,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="1:8" ht="12.75">
+    <row r="895" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="24"/>
@@ -10001,7 +10005,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="1:8" ht="12.75">
+    <row r="896" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="24"/>
@@ -10011,7 +10015,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="1:8" ht="12.75">
+    <row r="897" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="24"/>
@@ -10021,7 +10025,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="1:8" ht="12.75">
+    <row r="898" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="24"/>
@@ -10031,7 +10035,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="1:8" ht="12.75">
+    <row r="899" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="24"/>
@@ -10041,7 +10045,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="1:8" ht="12.75">
+    <row r="900" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="24"/>
@@ -10051,7 +10055,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="1:8" ht="12.75">
+    <row r="901" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="24"/>
@@ -10061,7 +10065,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="1:8" ht="12.75">
+    <row r="902" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="24"/>
@@ -10071,7 +10075,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="1:8" ht="12.75">
+    <row r="903" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="24"/>
@@ -10081,7 +10085,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="1:8" ht="12.75">
+    <row r="904" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="24"/>
@@ -10091,7 +10095,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="1:8" ht="12.75">
+    <row r="905" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="24"/>
@@ -10101,7 +10105,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="1:8" ht="12.75">
+    <row r="906" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="24"/>
@@ -10111,7 +10115,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="1:8" ht="12.75">
+    <row r="907" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="24"/>
@@ -10121,7 +10125,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="1:8" ht="12.75">
+    <row r="908" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="24"/>
@@ -10131,7 +10135,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="1:8" ht="12.75">
+    <row r="909" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="24"/>
@@ -10141,7 +10145,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" ht="12.75">
+    <row r="910" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="24"/>
@@ -10151,7 +10155,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="1:8" ht="12.75">
+    <row r="911" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="24"/>
@@ -10161,7 +10165,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="1:8" ht="12.75">
+    <row r="912" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="24"/>
@@ -10171,7 +10175,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="1:8" ht="12.75">
+    <row r="913" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="24"/>
@@ -10181,7 +10185,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" spans="1:8" ht="12.75">
+    <row r="914" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="24"/>
@@ -10191,7 +10195,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" spans="1:8" ht="12.75">
+    <row r="915" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="24"/>
@@ -10201,7 +10205,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" spans="1:8" ht="12.75">
+    <row r="916" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="24"/>
@@ -10211,7 +10215,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" spans="1:8" ht="12.75">
+    <row r="917" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="24"/>
@@ -10221,7 +10225,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" spans="1:8" ht="12.75">
+    <row r="918" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="24"/>
@@ -10231,7 +10235,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" spans="1:8" ht="12.75">
+    <row r="919" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="24"/>
@@ -10241,7 +10245,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" spans="1:8" ht="12.75">
+    <row r="920" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="24"/>
@@ -10251,7 +10255,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" spans="1:8" ht="12.75">
+    <row r="921" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="24"/>
@@ -10261,7 +10265,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="1:8" ht="12.75">
+    <row r="922" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="24"/>
@@ -10271,7 +10275,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" spans="1:8" ht="12.75">
+    <row r="923" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="24"/>
@@ -10281,7 +10285,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" spans="1:8" ht="12.75">
+    <row r="924" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="24"/>
@@ -10291,7 +10295,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" spans="1:8" ht="12.75">
+    <row r="925" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="24"/>
@@ -10301,7 +10305,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" spans="1:8" ht="12.75">
+    <row r="926" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="24"/>
@@ -10311,7 +10315,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" spans="1:8" ht="12.75">
+    <row r="927" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="24"/>
@@ -10321,7 +10325,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" spans="1:8" ht="12.75">
+    <row r="928" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="24"/>
@@ -10331,7 +10335,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" spans="1:8" ht="12.75">
+    <row r="929" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="24"/>
@@ -10341,7 +10345,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" spans="1:8" ht="12.75">
+    <row r="930" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="24"/>
@@ -10351,7 +10355,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" spans="1:8" ht="12.75">
+    <row r="931" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="24"/>
@@ -10361,7 +10365,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" spans="1:8" ht="12.75">
+    <row r="932" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="24"/>
@@ -10371,7 +10375,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" spans="1:8" ht="12.75">
+    <row r="933" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="24"/>
@@ -10381,7 +10385,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" spans="1:8" ht="12.75">
+    <row r="934" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="24"/>
@@ -10391,7 +10395,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="1:8" ht="12.75">
+    <row r="935" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="24"/>
@@ -10401,7 +10405,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" spans="1:8" ht="12.75">
+    <row r="936" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="24"/>
@@ -10411,7 +10415,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" spans="1:8" ht="12.75">
+    <row r="937" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="24"/>
@@ -10421,7 +10425,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" spans="1:8" ht="12.75">
+    <row r="938" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="24"/>
@@ -10431,7 +10435,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" spans="1:8" ht="12.75">
+    <row r="939" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="24"/>
@@ -10441,7 +10445,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" spans="1:8" ht="12.75">
+    <row r="940" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="24"/>
@@ -10451,7 +10455,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" spans="1:8" ht="12.75">
+    <row r="941" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="24"/>
@@ -10461,7 +10465,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" spans="1:8" ht="12.75">
+    <row r="942" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="24"/>
@@ -10471,7 +10475,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" spans="1:8" ht="12.75">
+    <row r="943" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="24"/>
@@ -10481,7 +10485,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" spans="1:8" ht="12.75">
+    <row r="944" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="24"/>
@@ -10491,7 +10495,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" spans="1:8" ht="12.75">
+    <row r="945" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="24"/>
@@ -10501,7 +10505,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" spans="1:8" ht="12.75">
+    <row r="946" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="24"/>
@@ -10511,7 +10515,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" spans="1:8" ht="12.75">
+    <row r="947" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="24"/>
@@ -10521,7 +10525,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" spans="1:8" ht="12.75">
+    <row r="948" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="24"/>
@@ -10531,7 +10535,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" spans="1:8" ht="12.75">
+    <row r="949" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="24"/>
@@ -10541,7 +10545,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" spans="1:8" ht="12.75">
+    <row r="950" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="24"/>
@@ -10551,7 +10555,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" spans="1:8" ht="12.75">
+    <row r="951" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="24"/>
@@ -10561,7 +10565,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" spans="1:8" ht="12.75">
+    <row r="952" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="24"/>
@@ -10571,7 +10575,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="1:8" ht="12.75">
+    <row r="953" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="24"/>
@@ -10581,7 +10585,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" spans="1:8" ht="12.75">
+    <row r="954" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="24"/>
@@ -10591,7 +10595,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" spans="1:8" ht="12.75">
+    <row r="955" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="24"/>
